--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0445ACB-B0F3-4EC0-B3B7-FC813D28247D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3B1C99-3EE4-45C0-A6F0-C18964877E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="216">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,6 +794,33 @@
   </si>
   <si>
     <t>강아지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1E+101,2E+101,5E+101,2E+102,1E+103</t>
+  </si>
+  <si>
+    <t>10언,20언,50언,200언,1000언</t>
+  </si>
+  <si>
+    <t>303,303,303,303,303</t>
+  </si>
+  <si>
+    <t>580,1160,2319,3478,4058</t>
+  </si>
+  <si>
+    <t>0.06,0.2,0.5,1.09,1.97,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,7 +910,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,6 +960,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,7 +1086,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,6 +1214,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1552,10 +1591,10 @@
       <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="14" t="s">
@@ -1573,7 +1612,7 @@
       <c r="J1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="43" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="14" t="s">
@@ -1605,10 +1644,10 @@
       <c r="C2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="44" t="s">
         <v>198</v>
       </c>
       <c r="F2" s="41" t="s">
@@ -1626,8 +1665,8 @@
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3">
-        <v>100</v>
+      <c r="K2" s="44">
+        <v>9016</v>
       </c>
       <c r="L2" s="3">
         <v>110</v>
@@ -1658,10 +1697,10 @@
       <c r="C3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="44" t="s">
         <v>199</v>
       </c>
       <c r="F3" s="41" t="s">
@@ -1679,8 +1718,8 @@
       <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3">
-        <v>100</v>
+      <c r="K3" s="44">
+        <v>9016</v>
       </c>
       <c r="L3" s="3">
         <v>120</v>
@@ -1711,10 +1750,10 @@
       <c r="C4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="44" t="s">
         <v>202</v>
       </c>
       <c r="F4" s="41" t="s">
@@ -1732,8 +1771,8 @@
       <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="3">
-        <v>100</v>
+      <c r="K4" s="44">
+        <v>9016</v>
       </c>
       <c r="L4" s="3">
         <v>130</v>
@@ -1764,10 +1803,10 @@
       <c r="C5" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="44" t="s">
         <v>203</v>
       </c>
       <c r="F5" s="41" t="s">
@@ -1785,8 +1824,8 @@
       <c r="J5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="3">
-        <v>100</v>
+      <c r="K5" s="44">
+        <v>9016</v>
       </c>
       <c r="L5" s="3">
         <v>140</v>
@@ -1817,10 +1856,10 @@
       <c r="C6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="44" t="s">
         <v>207</v>
       </c>
       <c r="F6" s="41" t="s">
@@ -1838,8 +1877,8 @@
       <c r="J6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="3">
-        <v>100</v>
+      <c r="K6" s="44">
+        <v>9016</v>
       </c>
       <c r="L6" s="3">
         <v>150</v>
@@ -1870,10 +1909,10 @@
       <c r="C7" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="44" t="s">
         <v>204</v>
       </c>
       <c r="F7" s="41" t="s">
@@ -1891,8 +1930,8 @@
       <c r="J7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="3">
-        <v>100</v>
+      <c r="K7" s="44">
+        <v>9016</v>
       </c>
       <c r="L7" s="3">
         <v>160</v>
@@ -1923,10 +1962,10 @@
       <c r="C8" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="44" t="s">
         <v>205</v>
       </c>
       <c r="F8" s="41" t="s">
@@ -1944,8 +1983,8 @@
       <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
+      <c r="K8" s="44">
+        <v>9016</v>
       </c>
       <c r="L8" s="3">
         <v>170</v>
@@ -1976,10 +2015,10 @@
       <c r="C9" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="44" t="s">
         <v>206</v>
       </c>
       <c r="F9" s="41" t="s">
@@ -1997,8 +2036,8 @@
       <c r="J9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="3">
-        <v>100</v>
+      <c r="K9" s="44">
+        <v>9016</v>
       </c>
       <c r="L9" s="3">
         <v>180</v>
@@ -2029,10 +2068,10 @@
       <c r="C10" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="44" t="s">
         <v>201</v>
       </c>
       <c r="F10" s="41" t="s">
@@ -2050,8 +2089,8 @@
       <c r="J10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
+      <c r="K10" s="44">
+        <v>9016</v>
       </c>
       <c r="L10" s="3">
         <v>190</v>
@@ -2082,10 +2121,10 @@
       <c r="C11" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="44" t="s">
         <v>200</v>
       </c>
       <c r="F11" s="41" t="s">
@@ -2103,8 +2142,8 @@
       <c r="J11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3">
-        <v>100</v>
+      <c r="K11" s="44">
+        <v>9016</v>
       </c>
       <c r="L11" s="3">
         <v>200</v>
@@ -2123,6 +2162,59 @@
       </c>
       <c r="Q11" s="4" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="44">
+        <v>9016</v>
+      </c>
+      <c r="L12" s="3">
+        <v>210</v>
+      </c>
+      <c r="M12" s="4">
+        <v>49</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="O12" s="4">
+        <v>5</v>
+      </c>
+      <c r="P12" s="37">
+        <v>9016</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2134,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:O17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2166,11 +2258,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="7" customFormat="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -2183,9 +2275,9 @@
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" s="9" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -2203,12 +2295,12 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="G6" s="12" t="s">
         <v>109</v>
       </c>
@@ -2279,11 +2371,11 @@
         <v>160,160,160,160,160</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f>H59&amp;","&amp;I59&amp;","&amp;J59&amp;","&amp;K59&amp;","&amp;L59&amp;","&amp;M59</f>
+        <f>H60&amp;","&amp;I60&amp;","&amp;J60&amp;","&amp;K60&amp;","&amp;L60&amp;","&amp;M60</f>
         <v>0.01,0.03,0.06,0.12,0.21,0.31</v>
       </c>
       <c r="P8" s="12" t="str">
-        <f t="shared" ref="P8:P17" si="0">H28&amp;","&amp;I28&amp;","&amp;J28&amp;","&amp;K28&amp;","&amp;L28</f>
+        <f t="shared" ref="P8:P16" si="0">H28&amp;","&amp;I28&amp;","&amp;J28&amp;","&amp;K28&amp;","&amp;L28</f>
         <v>106,212,423,634,740</v>
       </c>
     </row>
@@ -2315,11 +2407,11 @@
         <v>18</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f t="shared" ref="N9:N17" si="3">J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9</f>
+        <f t="shared" ref="N9:N16" si="3">J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9</f>
         <v>180,180,180,180,180</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f t="shared" ref="O9:O17" si="4">H60&amp;","&amp;I60&amp;","&amp;J60&amp;","&amp;K60&amp;","&amp;L60&amp;","&amp;M60</f>
+        <f t="shared" ref="O9:O16" si="4">H61&amp;","&amp;I61&amp;","&amp;J61&amp;","&amp;K61&amp;","&amp;L61&amp;","&amp;M61</f>
         <v>0.01,0.03,0.07,0.15,0.27,0.41</v>
       </c>
       <c r="P9" s="12" t="str">
@@ -2611,15 +2703,15 @@
         <v>25</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>J17&amp;","&amp;J17&amp;","&amp;J17&amp;","&amp;J17&amp;","&amp;J17</f>
         <v>290,290,290,290,290</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>H69&amp;","&amp;I69&amp;","&amp;J69&amp;","&amp;K69&amp;","&amp;L69&amp;","&amp;M69</f>
         <v>0.05,0.15,0.35,0.75,1.34,2.03</v>
       </c>
       <c r="P17" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>H37&amp;","&amp;I37&amp;","&amp;J37&amp;","&amp;K37&amp;","&amp;L37</f>
         <v>408,816,1632,2448,2856</v>
       </c>
     </row>
@@ -2632,12 +2724,27 @@
       </c>
       <c r="C18" s="15"/>
       <c r="E18" s="16"/>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="M18" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="N18" s="2" t="str">
+        <f>J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
+        <v>303,303,303,303,303</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f t="shared" ref="O18" si="5">H70&amp;","&amp;I70&amp;","&amp;J70&amp;","&amp;K70&amp;","&amp;L70&amp;","&amp;M70</f>
+        <v>0.06,0.21,0.51,1.1,1.98,3.01</v>
+      </c>
+      <c r="P18" s="12" t="str">
+        <f>H40&amp;","&amp;I40&amp;","&amp;J40&amp;","&amp;K40&amp;","&amp;L40</f>
+        <v>580,1160,2319,3478,4058</v>
+      </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="18" t="s">
@@ -2657,11 +2764,11 @@
         <v>210</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" ref="I19:I20" si="5">H19*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I19:I20" si="6">H19*$B$9*$B$18*($B$13/100)</f>
         <v>1512</v>
       </c>
       <c r="J19" s="12">
-        <f t="shared" ref="J19:J20" si="6">ROUNDUP((I19/5),0)</f>
+        <f t="shared" ref="J19:J20" si="7">ROUNDUP((I19/5),0)</f>
         <v>303</v>
       </c>
     </row>
@@ -2683,11 +2790,11 @@
         <v>220</v>
       </c>
       <c r="I20" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1584</v>
       </c>
       <c r="J20" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>317</v>
       </c>
     </row>
@@ -2723,18 +2830,18 @@
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="15"/>
-      <c r="Q25" s="43" t="s">
+      <c r="Q25" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="R25" s="44"/>
-      <c r="S25" s="43" t="s">
+      <c r="R25" s="46"/>
+      <c r="S25" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="T25" s="44"/>
-      <c r="U25" s="43" t="s">
+      <c r="T25" s="46"/>
+      <c r="U25" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="V25" s="44"/>
+      <c r="V25" s="46"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="15" t="s">
@@ -2749,27 +2856,27 @@
         <v>70</v>
       </c>
       <c r="Q26" s="26">
-        <f t="shared" ref="Q26:V26" si="7">SUM(Q28:Q37)</f>
+        <f t="shared" ref="Q26:V26" si="8">SUM(Q28:Q37)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="R26" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.328571428571429</v>
       </c>
       <c r="S26" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.213240418118467</v>
       </c>
       <c r="T26" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="U26" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="V26" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.3097560975609763</v>
       </c>
     </row>
@@ -2865,19 +2972,19 @@
         <v>50</v>
       </c>
       <c r="O28" s="12">
-        <f t="shared" ref="O28:O37" si="8">(H8*$B$9*$B$18)*(N28/100)+I8</f>
+        <f t="shared" ref="O28:O37" si="9">(H8*$B$9*$B$18)*(N28/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="P28" s="12">
-        <f t="shared" ref="P28:P37" si="9">O28-I8</f>
+        <f t="shared" ref="P28:P37" si="10">O28-I8</f>
         <v>1320</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" ref="Q28:Q37" si="10">(P28/H8)/($B$18*7)</f>
+        <f t="shared" ref="Q28:Q37" si="11">(P28/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" ref="R28:R37" si="11">(P28/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="R28:R37" si="12">(P28/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="S28" s="2">
@@ -2908,62 +3015,62 @@
         <v>18</v>
       </c>
       <c r="H29" s="12">
-        <f t="shared" ref="H29:H37" si="12">ROUNDUP((O29*$B$30/100),0)</f>
+        <f t="shared" ref="H29:H37" si="13">ROUNDUP((O29*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" ref="I29:I37" si="13">ROUNDUP((O29*$B$31/100),0)</f>
+        <f t="shared" ref="I29:I37" si="14">ROUNDUP((O29*$B$31/100),0)</f>
         <v>260</v>
       </c>
       <c r="J29" s="12">
-        <f t="shared" ref="J29:J37" si="14">ROUNDUP((O29*$B$32/100),0)</f>
+        <f t="shared" ref="J29:J37" si="15">ROUNDUP((O29*$B$32/100),0)</f>
         <v>519</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" ref="K29:K37" si="15">ROUNDUP((O29*$B$33/100),0)</f>
+        <f t="shared" ref="K29:K37" si="16">ROUNDUP((O29*$B$33/100),0)</f>
         <v>778</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" ref="L29:L37" si="16">ROUNDUP((O29*$B$34/100),0)</f>
+        <f t="shared" ref="L29:L37" si="17">ROUNDUP((O29*$B$34/100),0)</f>
         <v>908</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" ref="M29:M37" si="17">SUM(H29:L29)</f>
+        <f t="shared" ref="M29:M37" si="18">SUM(H29:L29)</f>
         <v>2595</v>
       </c>
       <c r="N29" s="12">
         <v>60</v>
       </c>
       <c r="O29" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2592</v>
       </c>
       <c r="P29" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1728</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.61714285714285722</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" ref="S29:S36" si="18">(P29/H9)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="S29:S36" si="19">(P29/H9)/($B$18*7+$B$21)</f>
         <v>0.68571428571428572</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" ref="T29:T37" si="19">(P29/$H$17)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T29:T37" si="20">(P29/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" ref="U29:U37" si="20">(P29/H9)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="U29:U37" si="21">(P29/H9)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.40975609756097564</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" ref="V29:V37" si="21">(P29/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V29:V37" si="22">(P29/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
     </row>
@@ -2978,62 +3085,62 @@
         <v>19</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>156</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>312</v>
       </c>
       <c r="J30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>624</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>936</v>
       </c>
       <c r="L30" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1092</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3120</v>
       </c>
       <c r="N30" s="12">
         <v>70</v>
       </c>
       <c r="O30" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3120</v>
       </c>
       <c r="P30" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2184</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.78</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.52</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.47804878048780497</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.31073170731707322</v>
       </c>
     </row>
@@ -3048,62 +3155,62 @@
         <v>87</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>185</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>370</v>
       </c>
       <c r="J31" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>740</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1109</v>
       </c>
       <c r="L31" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1294</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3698</v>
       </c>
       <c r="N31" s="12">
         <v>80</v>
       </c>
       <c r="O31" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3696</v>
       </c>
       <c r="P31" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2688</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.96</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.64</v>
       </c>
       <c r="U31" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.38243902439024391</v>
       </c>
     </row>
@@ -3118,62 +3225,62 @@
         <v>20</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>216</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>432</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>864</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1296</v>
       </c>
       <c r="L32" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1512</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4320</v>
       </c>
       <c r="N32" s="12">
         <v>90</v>
       </c>
       <c r="O32" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4320</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3240</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5428571428571429</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.157142857142857</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.77142857142857135</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.61463414634146352</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.46097560975609758</v>
       </c>
     </row>
@@ -3188,62 +3295,62 @@
         <v>21</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>250</v>
       </c>
       <c r="I33" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="J33" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>999</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1498</v>
       </c>
       <c r="L33" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1748</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4995</v>
       </c>
       <c r="N33" s="12">
         <v>100</v>
       </c>
       <c r="O33" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4992</v>
       </c>
       <c r="P33" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3840</v>
       </c>
       <c r="Q33" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="U33" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.54634146341463419</v>
       </c>
     </row>
@@ -3258,62 +3365,62 @@
         <v>22</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>286</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>572</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1143</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1714</v>
       </c>
       <c r="L34" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2000</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5715</v>
       </c>
       <c r="N34" s="12">
         <v>110</v>
       </c>
       <c r="O34" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5712</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4488</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8857142857142857</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.602857142857143</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2571428571428571</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0685714285714287</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.75121951219512195</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.63853658536585378</v>
       </c>
     </row>
@@ -3329,62 +3436,62 @@
         <v>23</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>324</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>648</v>
       </c>
       <c r="J35" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1296</v>
       </c>
       <c r="K35" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1944</v>
       </c>
       <c r="L35" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2268</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6480</v>
       </c>
       <c r="N35" s="12">
         <v>120</v>
       </c>
       <c r="O35" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6480</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5184</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0571428571428574</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.8514285714285716</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.2342857142857144</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.81951219512195128</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.7375609756097562</v>
       </c>
     </row>
@@ -3394,62 +3501,62 @@
         <v>24</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>365</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>730</v>
       </c>
       <c r="J36" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1460</v>
       </c>
       <c r="K36" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2189</v>
       </c>
       <c r="L36" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2554</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7298</v>
       </c>
       <c r="N36" s="12">
         <v>130</v>
       </c>
       <c r="O36" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7296</v>
       </c>
       <c r="P36" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5928</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.117142857142857</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.4114285714285715</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.88780487804878061</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.84341463414634155</v>
       </c>
     </row>
@@ -3462,85 +3569,85 @@
         <v>25</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>408</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>816</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1632</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2448</v>
       </c>
       <c r="L37" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2856</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8160</v>
       </c>
       <c r="N37" s="12">
         <v>140</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8160</v>
       </c>
       <c r="P37" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6720</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="10"/>
-        <v>2.4</v>
-      </c>
-      <c r="R37" s="2">
         <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
+      <c r="R37" s="2">
+        <f t="shared" si="12"/>
+        <v>2.4</v>
+      </c>
       <c r="S37" s="2">
-        <f t="shared" ref="S37" si="22">(P37/H17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="S37" si="23">(P37/H17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.95609756097560994</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="20"/>
-        <v>0.95609756097560994</v>
-      </c>
-      <c r="V37" s="2">
         <f t="shared" si="21"/>
         <v>0.95609756097560994</v>
       </c>
+      <c r="V37" s="2">
+        <f t="shared" si="22"/>
+        <v>0.95609756097560994</v>
+      </c>
     </row>
     <row r="38" spans="1:22">
       <c r="D38" s="12"/>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="18" t="s">
@@ -3555,27 +3662,27 @@
       </c>
       <c r="Q39" s="26">
         <f>SUM(Q40:Q41)</f>
-        <v>5.3142857142857149</v>
+        <v>7.7142857142857135</v>
       </c>
       <c r="R39" s="26">
-        <f t="shared" ref="R39:V39" si="23">SUM(R40:R41)</f>
-        <v>5.197402597402597</v>
+        <f t="shared" ref="R39:V39" si="24">SUM(R40:R41)</f>
+        <v>7.5584415584415581</v>
       </c>
       <c r="S39" s="26">
-        <f t="shared" si="23"/>
-        <v>2.1170731707317074</v>
+        <f t="shared" si="24"/>
+        <v>3.0731707317073171</v>
       </c>
       <c r="T39" s="26">
-        <f t="shared" si="23"/>
-        <v>3.464935064935065</v>
+        <f t="shared" si="24"/>
+        <v>5.0389610389610393</v>
       </c>
       <c r="U39" s="26">
-        <f t="shared" si="23"/>
-        <v>2.1170731707317074</v>
+        <f t="shared" si="24"/>
+        <v>3.0731707317073171</v>
       </c>
       <c r="V39" s="26">
-        <f t="shared" si="23"/>
-        <v>2.0705099778270513</v>
+        <f t="shared" si="24"/>
+        <v>3.0110864745011092</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3589,63 +3696,63 @@
         <v>118</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" ref="H40:H41" si="24">ROUNDUP((O40*$B$30/100),0)</f>
-        <v>454</v>
+        <f t="shared" ref="H40:H41" si="25">ROUNDUP((O40*$B$30/100),0)</f>
+        <v>580</v>
       </c>
       <c r="I40" s="12">
-        <f t="shared" ref="I40:I41" si="25">ROUNDUP((O40*$B$31/100),0)</f>
-        <v>908</v>
+        <f t="shared" ref="I40:I41" si="26">ROUNDUP((O40*$B$31/100),0)</f>
+        <v>1160</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" ref="J40:J41" si="26">ROUNDUP((O40*$B$32/100),0)</f>
-        <v>1815</v>
+        <f t="shared" ref="J40:J41" si="27">ROUNDUP((O40*$B$32/100),0)</f>
+        <v>2319</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40:K41" si="27">ROUNDUP((O40*$B$33/100),0)</f>
-        <v>2722</v>
+        <f t="shared" ref="K40:K41" si="28">ROUNDUP((O40*$B$33/100),0)</f>
+        <v>3478</v>
       </c>
       <c r="L40" s="12">
-        <f t="shared" ref="L40:L41" si="28">ROUNDUP((O40*$B$34/100),0)</f>
-        <v>3176</v>
+        <f t="shared" ref="L40:L41" si="29">ROUNDUP((O40*$B$34/100),0)</f>
+        <v>4058</v>
       </c>
       <c r="M40" s="12">
-        <f t="shared" ref="M40:M41" si="29">SUM(H40:L40)</f>
-        <v>9075</v>
+        <f t="shared" ref="M40:M41" si="30">SUM(H40:L40)</f>
+        <v>11595</v>
       </c>
       <c r="N40" s="12">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O40" s="12">
         <f>(H19*$B$9*$B$18)*(N40/100)+I19</f>
-        <v>9072</v>
+        <v>11592</v>
       </c>
       <c r="P40" s="12">
         <f>O40-I19</f>
-        <v>7560</v>
+        <v>10080</v>
       </c>
       <c r="Q40" s="2">
         <f>(P40/H19)/($B$18*7)</f>
-        <v>2.5714285714285716</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="R40" s="2">
         <f>(P40/$H$20)/(7*$B$18)</f>
-        <v>2.4545454545454546</v>
+        <v>3.2727272727272729</v>
       </c>
       <c r="S40" s="2">
         <f>(P40/H19)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
-        <v>1.024390243902439</v>
+        <v>1.3658536585365855</v>
       </c>
       <c r="T40" s="2">
         <f>(P40/$H$20)/($B$18*7+$B$21)</f>
-        <v>1.6363636363636365</v>
+        <v>2.1818181818181821</v>
       </c>
       <c r="U40" s="2">
         <f>(P40/H19)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
-        <v>1.024390243902439</v>
+        <v>1.3658536585365855</v>
       </c>
       <c r="V40" s="2">
         <f>(P40/$H$20)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
-        <v>0.97782705099778289</v>
+        <v>1.3037694013303771</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3653,63 +3760,63 @@
         <v>119</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="24"/>
-        <v>502</v>
+        <f t="shared" si="25"/>
+        <v>740</v>
       </c>
       <c r="I41" s="12">
-        <f t="shared" si="25"/>
-        <v>1004</v>
+        <f t="shared" si="26"/>
+        <v>1479</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" si="26"/>
-        <v>2007</v>
+        <f t="shared" si="27"/>
+        <v>2957</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="27"/>
-        <v>3010</v>
+        <f t="shared" si="28"/>
+        <v>4436</v>
       </c>
       <c r="L41" s="12">
-        <f t="shared" si="28"/>
-        <v>3512</v>
+        <f t="shared" si="29"/>
+        <v>5175</v>
       </c>
       <c r="M41" s="12">
-        <f t="shared" si="29"/>
-        <v>10035</v>
+        <f t="shared" si="30"/>
+        <v>14787</v>
       </c>
       <c r="N41" s="12">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="O41" s="12">
         <f>(H20*$B$9*$B$18)*(N41/100)+I20</f>
-        <v>10032</v>
+        <v>14784</v>
       </c>
       <c r="P41" s="12">
         <f>O41-I20</f>
-        <v>8448</v>
+        <v>13200</v>
       </c>
       <c r="Q41" s="2">
         <f>(P41/H20)/($B$18*7)</f>
-        <v>2.7428571428571429</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="R41" s="2">
         <f>(P41/$H$20)/(7*$B$18)</f>
-        <v>2.7428571428571429</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="S41" s="2">
         <f>(P41/H20)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
-        <v>1.0926829268292684</v>
+        <v>1.7073170731707319</v>
       </c>
       <c r="T41" s="2">
         <f>(P41/$H$20)/($B$18*7+$B$21)</f>
-        <v>1.8285714285714285</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="U41" s="2">
         <f>(P41/H20)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
-        <v>1.0926829268292684</v>
+        <v>1.7073170731707319</v>
       </c>
       <c r="V41" s="2">
         <f>(P41/$H$20)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
-        <v>1.0926829268292684</v>
+        <v>1.7073170731707319</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3720,8 +3827,8 @@
         <v>70</v>
       </c>
       <c r="O44" s="39">
-        <f>SUM(O46:O55)</f>
-        <v>10.19</v>
+        <f>SUM(O46:O56)</f>
+        <v>13.2</v>
       </c>
       <c r="P44" s="24" t="s">
         <v>189</v>
@@ -3794,8 +3901,8 @@
         <v>0.31</v>
       </c>
       <c r="P46" s="13">
-        <f t="shared" ref="P46:P55" si="30">(O46/$O$44)*100</f>
-        <v>3.0421982335623161</v>
+        <f t="shared" ref="P46:P53" si="31">(O46/$O$44)*100</f>
+        <v>2.3484848484848486</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3806,35 +3913,35 @@
         <v>0.01</v>
       </c>
       <c r="I47" s="12">
-        <f t="shared" ref="I47:I55" si="31">ROUNDUP(((H29/$B$39)*$B$40)*((100+N47)/100),0)/100</f>
+        <f t="shared" ref="I47:I53" si="32">ROUNDUP(((H29/$B$39)*$B$40)*((100+N47)/100),0)/100</f>
         <v>0.02</v>
       </c>
       <c r="J47" s="12">
-        <f t="shared" ref="J47:J55" si="32">ROUNDUP(((I29/$B$39)*$B$40)*((100+N47)/100),0)/100</f>
+        <f t="shared" ref="J47:J53" si="33">ROUNDUP(((I29/$B$39)*$B$40)*((100+N47)/100),0)/100</f>
         <v>0.04</v>
       </c>
       <c r="K47" s="12">
-        <f t="shared" ref="K47:K55" si="33">ROUNDUP(((J29/$B$39)*$B$40)*((100+N47)/100),0)/100</f>
+        <f t="shared" ref="K47:K53" si="34">ROUNDUP(((J29/$B$39)*$B$40)*((100+N47)/100),0)/100</f>
         <v>0.08</v>
       </c>
       <c r="L47" s="12">
-        <f t="shared" ref="L47:L55" si="34">ROUNDUP(((K29/$B$39)*$B$40)*((100+N47)/100),0)/100</f>
+        <f t="shared" ref="L47:L53" si="35">ROUNDUP(((K29/$B$39)*$B$40)*((100+N47)/100),0)/100</f>
         <v>0.12</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" ref="M47:M55" si="35">ROUNDUP(((L29/$B$39)*$B$40)*((100+N47)/100),0)/100</f>
+        <f t="shared" ref="M47:M53" si="36">ROUNDUP(((L29/$B$39)*$B$40)*((100+N47)/100),0)/100</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="N47" s="13">
         <v>20</v>
       </c>
       <c r="O47" s="13">
-        <f t="shared" ref="O47:O55" si="36">SUM(H47:M47)</f>
+        <f t="shared" ref="O47:O53" si="37">SUM(H47:M47)</f>
         <v>0.41000000000000003</v>
       </c>
       <c r="P47" s="13">
-        <f t="shared" si="30"/>
-        <v>4.023552502453386</v>
+        <f t="shared" si="31"/>
+        <v>3.1060606060606064</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3845,35 +3952,35 @@
         <v>0.02</v>
       </c>
       <c r="I48" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.03</v>
       </c>
       <c r="J48" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.05</v>
       </c>
       <c r="K48" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.1</v>
       </c>
       <c r="L48" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.15</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.18</v>
       </c>
       <c r="N48" s="13">
         <v>30</v>
       </c>
       <c r="O48" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.53</v>
       </c>
       <c r="P48" s="13">
-        <f t="shared" si="30"/>
-        <v>5.2011776251226696</v>
+        <f t="shared" si="31"/>
+        <v>4.0151515151515156</v>
       </c>
     </row>
     <row r="49" spans="7:16">
@@ -3884,35 +3991,35 @@
         <v>0.02</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.04</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.13</v>
       </c>
       <c r="L49" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.19</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.22</v>
       </c>
       <c r="N49" s="13">
         <v>40</v>
       </c>
       <c r="O49" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.67</v>
       </c>
       <c r="P49" s="13">
-        <f t="shared" si="30"/>
-        <v>6.5750736015701676</v>
+        <f t="shared" si="31"/>
+        <v>5.0757575757575761</v>
       </c>
     </row>
     <row r="50" spans="7:16">
@@ -3923,35 +4030,35 @@
         <v>0.03</v>
       </c>
       <c r="I50" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.04</v>
       </c>
       <c r="J50" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.08</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.16</v>
       </c>
       <c r="L50" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.24</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="N50" s="13">
         <v>50</v>
       </c>
       <c r="O50" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="P50" s="13">
-        <f t="shared" si="30"/>
-        <v>8.1452404317958784</v>
+        <f t="shared" si="31"/>
+        <v>6.2878787878787881</v>
       </c>
     </row>
     <row r="51" spans="7:16">
@@ -3962,35 +4069,35 @@
         <v>0.03</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.05</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.1</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.2</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.34</v>
       </c>
       <c r="N51" s="13">
         <v>60</v>
       </c>
       <c r="O51" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.01</v>
       </c>
       <c r="P51" s="13">
-        <f t="shared" si="30"/>
-        <v>9.9116781157998055</v>
+        <f t="shared" si="31"/>
+        <v>7.6515151515151523</v>
       </c>
     </row>
     <row r="52" spans="7:16">
@@ -4001,35 +4108,35 @@
         <v>0.04</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.06</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.12</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.24</v>
       </c>
       <c r="L52" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.35</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.41</v>
       </c>
       <c r="N52" s="13">
         <v>70</v>
       </c>
       <c r="O52" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.22</v>
       </c>
       <c r="P52" s="13">
-        <f t="shared" si="30"/>
-        <v>11.97252208047105</v>
+        <f t="shared" si="31"/>
+        <v>9.2424242424242422</v>
       </c>
     </row>
     <row r="53" spans="7:16">
@@ -4040,35 +4147,35 @@
         <v>0.04</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.42</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.49</v>
       </c>
       <c r="N53" s="13">
         <v>80</v>
       </c>
       <c r="O53" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.44</v>
       </c>
       <c r="P53" s="13">
-        <f t="shared" si="30"/>
-        <v>14.131501472031404</v>
+        <f t="shared" si="31"/>
+        <v>10.90909090909091</v>
       </c>
     </row>
     <row r="54" spans="7:16">
@@ -4079,35 +4186,35 @@
         <v>0.05</v>
       </c>
       <c r="I54" s="12">
-        <f t="shared" si="31"/>
+        <f>ROUNDUP(((H36/$B$39)*$B$40)*((100+N54)/100),0)/100</f>
         <v>0.09</v>
       </c>
       <c r="J54" s="12">
-        <f t="shared" si="32"/>
+        <f>ROUNDUP(((I36/$B$39)*$B$40)*((100+N54)/100),0)/100</f>
         <v>0.17</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" si="33"/>
+        <f>ROUNDUP(((J36/$B$39)*$B$40)*((100+N54)/100),0)/100</f>
         <v>0.34</v>
       </c>
       <c r="L54" s="12">
-        <f t="shared" si="34"/>
+        <f>ROUNDUP(((K36/$B$39)*$B$40)*((100+N54)/100),0)/100</f>
         <v>0.5</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="35"/>
+        <f>ROUNDUP(((L36/$B$39)*$B$40)*((100+N54)/100),0)/100</f>
         <v>0.59</v>
       </c>
       <c r="N54" s="13">
         <v>90</v>
       </c>
       <c r="O54" s="13">
-        <f t="shared" si="36"/>
+        <f>SUM(H54:M54)</f>
         <v>1.7400000000000002</v>
       </c>
       <c r="P54" s="13">
-        <f t="shared" si="30"/>
-        <v>17.075564278704615</v>
+        <f>(O54/$O$44)*100</f>
+        <v>13.181818181818183</v>
       </c>
     </row>
     <row r="55" spans="7:16">
@@ -4118,353 +4225,421 @@
         <v>0.05</v>
       </c>
       <c r="I55" s="12">
-        <f t="shared" si="31"/>
+        <f>ROUNDUP(((H37/$B$39)*$B$40)*((100+N55)/100),0)/100</f>
         <v>0.1</v>
       </c>
       <c r="J55" s="12">
-        <f t="shared" si="32"/>
+        <f>ROUNDUP(((I37/$B$39)*$B$40)*((100+N55)/100),0)/100</f>
         <v>0.2</v>
       </c>
       <c r="K55" s="12">
-        <f t="shared" si="33"/>
+        <f>ROUNDUP(((J37/$B$39)*$B$40)*((100+N55)/100),0)/100</f>
         <v>0.4</v>
       </c>
       <c r="L55" s="12">
-        <f t="shared" si="34"/>
+        <f>ROUNDUP(((K37/$B$39)*$B$40)*((100+N55)/100),0)/100</f>
         <v>0.59</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="35"/>
+        <f>ROUNDUP(((L37/$B$39)*$B$40)*((100+N55)/100),0)/100</f>
         <v>0.69</v>
       </c>
       <c r="N55" s="13">
         <v>100</v>
       </c>
       <c r="O55" s="13">
-        <f t="shared" si="36"/>
+        <f>SUM(H55:M55)</f>
         <v>2.0299999999999998</v>
       </c>
       <c r="P55" s="13">
-        <f t="shared" si="30"/>
-        <v>19.921491658488712</v>
-      </c>
-    </row>
-    <row r="57" spans="7:16">
-      <c r="G57" s="12" t="s">
+        <f>(O55/$O$44)*100</f>
+        <v>15.378787878787877</v>
+      </c>
+    </row>
+    <row r="56" spans="7:16">
+      <c r="G56" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="I56" s="12">
+        <f>ROUNDUP(((H40/$B$39)*$B$40)*((100+N56)/100),0)/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="J56" s="12">
+        <f>ROUNDUP(((I40/$B$39)*$B$40)*((100+N56)/100),0)/100</f>
+        <v>0.3</v>
+      </c>
+      <c r="K56" s="12">
+        <f>ROUNDUP(((J40/$B$39)*$B$40)*((100+N56)/100),0)/100</f>
+        <v>0.59</v>
+      </c>
+      <c r="L56" s="12">
+        <f>ROUNDUP(((K40/$B$39)*$B$40)*((100+N56)/100),0)/100</f>
+        <v>0.88</v>
+      </c>
+      <c r="M56" s="12">
+        <f>ROUNDUP(((L40/$B$39)*$B$40)*((100+N56)/100),0)/100</f>
+        <v>1.03</v>
+      </c>
+      <c r="N56" s="13">
+        <v>110</v>
+      </c>
+      <c r="O56" s="13">
+        <f t="shared" ref="O56" si="38">SUM(H56:M56)</f>
+        <v>3.01</v>
+      </c>
+      <c r="P56" s="13">
+        <f t="shared" ref="P56" si="39">(O56/$O$44)*100</f>
+        <v>22.803030303030305</v>
+      </c>
+    </row>
+    <row r="58" spans="7:16">
+      <c r="G58" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="7:16" ht="17.25" thickBot="1">
-      <c r="G58" s="27" t="s">
+    <row r="59" spans="7:16" ht="17.25" thickBot="1">
+      <c r="G59" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="27">
+      <c r="H59" s="27">
         <v>0</v>
       </c>
-      <c r="I58" s="27">
+      <c r="I59" s="27">
         <v>1</v>
       </c>
-      <c r="J58" s="27">
+      <c r="J59" s="27">
         <v>2</v>
       </c>
-      <c r="K58" s="27">
+      <c r="K59" s="27">
         <v>3</v>
       </c>
-      <c r="L58" s="27">
+      <c r="L59" s="27">
         <v>4</v>
       </c>
-      <c r="M58" s="27">
+      <c r="M59" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="7:16" ht="17.25" thickTop="1">
-      <c r="G59" s="12" t="s">
+    <row r="60" spans="7:16" ht="17.25" thickTop="1">
+      <c r="G60" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="12">
-        <f t="shared" ref="H59:H68" si="37">H46</f>
+      <c r="H60" s="12">
+        <f t="shared" ref="H60:H70" si="40">H46</f>
         <v>0.01</v>
       </c>
-      <c r="I59" s="12">
-        <f t="shared" ref="I59:M68" si="38">I46+H59</f>
+      <c r="I60" s="12">
+        <f t="shared" ref="I60:M70" si="41">I46+H60</f>
         <v>0.03</v>
       </c>
-      <c r="J59" s="12">
-        <f t="shared" si="38"/>
+      <c r="J60" s="12">
+        <f t="shared" si="41"/>
         <v>0.06</v>
       </c>
-      <c r="K59" s="12">
-        <f t="shared" si="38"/>
+      <c r="K60" s="12">
+        <f t="shared" si="41"/>
         <v>0.12</v>
       </c>
-      <c r="L59" s="12">
-        <f t="shared" si="38"/>
+      <c r="L60" s="12">
+        <f t="shared" si="41"/>
         <v>0.21</v>
       </c>
-      <c r="M59" s="12">
-        <f t="shared" si="38"/>
+      <c r="M60" s="12">
+        <f t="shared" si="41"/>
         <v>0.31</v>
-      </c>
-    </row>
-    <row r="60" spans="7:16">
-      <c r="G60" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="12">
-        <f t="shared" si="37"/>
-        <v>0.01</v>
-      </c>
-      <c r="I60" s="12">
-        <f t="shared" si="38"/>
-        <v>0.03</v>
-      </c>
-      <c r="J60" s="12">
-        <f t="shared" si="38"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K60" s="12">
-        <f t="shared" si="38"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="L60" s="12">
-        <f t="shared" si="38"/>
-        <v>0.27</v>
-      </c>
-      <c r="M60" s="12">
-        <f t="shared" si="38"/>
-        <v>0.41000000000000003</v>
       </c>
     </row>
     <row r="61" spans="7:16">
       <c r="G61" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H61" s="12">
-        <f t="shared" si="37"/>
-        <v>0.02</v>
+        <f t="shared" si="40"/>
+        <v>0.01</v>
       </c>
       <c r="I61" s="12">
-        <f t="shared" si="38"/>
-        <v>0.05</v>
+        <f t="shared" si="41"/>
+        <v>0.03</v>
       </c>
       <c r="J61" s="12">
-        <f t="shared" si="38"/>
-        <v>0.1</v>
+        <f t="shared" si="41"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K61" s="12">
-        <f t="shared" si="38"/>
-        <v>0.2</v>
+        <f t="shared" si="41"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L61" s="12">
-        <f t="shared" si="38"/>
-        <v>0.35</v>
+        <f t="shared" si="41"/>
+        <v>0.27</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="38"/>
-        <v>0.53</v>
+        <f t="shared" si="41"/>
+        <v>0.41000000000000003</v>
       </c>
     </row>
     <row r="62" spans="7:16">
       <c r="G62" s="12" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H62" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.02</v>
       </c>
       <c r="I62" s="12">
-        <f t="shared" si="38"/>
-        <v>0.06</v>
+        <f t="shared" si="41"/>
+        <v>0.05</v>
       </c>
       <c r="J62" s="12">
-        <f t="shared" si="38"/>
-        <v>0.13</v>
+        <f t="shared" si="41"/>
+        <v>0.1</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" si="38"/>
-        <v>0.26</v>
+        <f t="shared" si="41"/>
+        <v>0.2</v>
       </c>
       <c r="L62" s="12">
-        <f t="shared" si="38"/>
-        <v>0.45</v>
+        <f t="shared" si="41"/>
+        <v>0.35</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" si="38"/>
-        <v>0.67</v>
+        <f t="shared" si="41"/>
+        <v>0.53</v>
       </c>
     </row>
     <row r="63" spans="7:16">
       <c r="G63" s="12" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="H63" s="12">
-        <f t="shared" si="37"/>
-        <v>0.03</v>
+        <f t="shared" si="40"/>
+        <v>0.02</v>
       </c>
       <c r="I63" s="12">
-        <f t="shared" si="38"/>
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" si="41"/>
+        <v>0.06</v>
       </c>
       <c r="J63" s="12">
-        <f t="shared" si="38"/>
-        <v>0.15000000000000002</v>
+        <f t="shared" si="41"/>
+        <v>0.13</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="38"/>
-        <v>0.31000000000000005</v>
+        <f t="shared" si="41"/>
+        <v>0.26</v>
       </c>
       <c r="L63" s="12">
-        <f t="shared" si="38"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="41"/>
+        <v>0.45</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="38"/>
-        <v>0.83000000000000007</v>
+        <f t="shared" si="41"/>
+        <v>0.67</v>
       </c>
     </row>
     <row r="64" spans="7:16">
       <c r="G64" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H64" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.03</v>
       </c>
       <c r="I64" s="12">
-        <f t="shared" si="38"/>
-        <v>0.08</v>
+        <f t="shared" si="41"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J64" s="12">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
+        <f t="shared" si="41"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="38"/>
-        <v>0.38</v>
+        <f t="shared" si="41"/>
+        <v>0.31000000000000005</v>
       </c>
       <c r="L64" s="12">
-        <f t="shared" si="38"/>
-        <v>0.66999999999999993</v>
+        <f t="shared" si="41"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M64" s="12">
-        <f t="shared" si="38"/>
-        <v>1.01</v>
+        <f t="shared" si="41"/>
+        <v>0.83000000000000007</v>
       </c>
     </row>
     <row r="65" spans="7:13">
       <c r="G65" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H65" s="12">
-        <f t="shared" si="37"/>
-        <v>0.04</v>
+        <f t="shared" si="40"/>
+        <v>0.03</v>
       </c>
       <c r="I65" s="12">
-        <f t="shared" si="38"/>
-        <v>0.1</v>
+        <f t="shared" si="41"/>
+        <v>0.08</v>
       </c>
       <c r="J65" s="12">
-        <f t="shared" si="38"/>
-        <v>0.22</v>
+        <f t="shared" si="41"/>
+        <v>0.18</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="38"/>
-        <v>0.45999999999999996</v>
+        <f t="shared" si="41"/>
+        <v>0.38</v>
       </c>
       <c r="L65" s="12">
-        <f t="shared" si="38"/>
-        <v>0.80999999999999994</v>
+        <f t="shared" si="41"/>
+        <v>0.66999999999999993</v>
       </c>
       <c r="M65" s="12">
-        <f t="shared" si="38"/>
-        <v>1.22</v>
+        <f t="shared" si="41"/>
+        <v>1.01</v>
       </c>
     </row>
     <row r="66" spans="7:13">
       <c r="G66" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H66" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.04</v>
       </c>
       <c r="I66" s="12">
-        <f t="shared" si="38"/>
-        <v>0.11000000000000001</v>
+        <f t="shared" si="41"/>
+        <v>0.1</v>
       </c>
       <c r="J66" s="12">
-        <f t="shared" si="38"/>
-        <v>0.25</v>
+        <f t="shared" si="41"/>
+        <v>0.22</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="38"/>
-        <v>0.53</v>
+        <f t="shared" si="41"/>
+        <v>0.45999999999999996</v>
       </c>
       <c r="L66" s="12">
-        <f t="shared" si="38"/>
-        <v>0.95</v>
+        <f t="shared" si="41"/>
+        <v>0.80999999999999994</v>
       </c>
       <c r="M66" s="12">
-        <f t="shared" si="38"/>
-        <v>1.44</v>
+        <f t="shared" si="41"/>
+        <v>1.22</v>
       </c>
     </row>
     <row r="67" spans="7:13">
       <c r="G67" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H67" s="12">
-        <f t="shared" si="37"/>
-        <v>0.05</v>
+        <f t="shared" si="40"/>
+        <v>0.04</v>
       </c>
       <c r="I67" s="12">
-        <f t="shared" si="38"/>
-        <v>0.14000000000000001</v>
+        <f t="shared" si="41"/>
+        <v>0.11000000000000001</v>
       </c>
       <c r="J67" s="12">
-        <f t="shared" si="38"/>
-        <v>0.31000000000000005</v>
+        <f t="shared" si="41"/>
+        <v>0.25</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="38"/>
-        <v>0.65000000000000013</v>
+        <f t="shared" si="41"/>
+        <v>0.53</v>
       </c>
       <c r="L67" s="12">
-        <f t="shared" si="38"/>
-        <v>1.1500000000000001</v>
+        <f t="shared" si="41"/>
+        <v>0.95</v>
       </c>
       <c r="M67" s="12">
-        <f t="shared" si="38"/>
-        <v>1.7400000000000002</v>
+        <f t="shared" si="41"/>
+        <v>1.44</v>
       </c>
     </row>
     <row r="68" spans="7:13">
       <c r="G68" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="12">
+        <f t="shared" si="40"/>
+        <v>0.05</v>
+      </c>
+      <c r="I68" s="12">
+        <f t="shared" si="41"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J68" s="12">
+        <f t="shared" si="41"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="K68" s="12">
+        <f t="shared" si="41"/>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="L68" s="12">
+        <f t="shared" si="41"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="M68" s="12">
+        <f t="shared" si="41"/>
+        <v>1.7400000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="7:13">
+      <c r="G69" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H68" s="12">
-        <f t="shared" si="37"/>
+      <c r="H69" s="12">
+        <f t="shared" si="40"/>
         <v>0.05</v>
       </c>
-      <c r="I68" s="12">
-        <f t="shared" si="38"/>
+      <c r="I69" s="12">
+        <f t="shared" si="41"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="J68" s="12">
-        <f t="shared" si="38"/>
+      <c r="J69" s="12">
+        <f t="shared" si="41"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="K68" s="12">
-        <f t="shared" si="38"/>
+      <c r="K69" s="12">
+        <f t="shared" si="41"/>
         <v>0.75</v>
       </c>
-      <c r="L68" s="12">
-        <f t="shared" si="38"/>
+      <c r="L69" s="12">
+        <f t="shared" si="41"/>
         <v>1.3399999999999999</v>
       </c>
-      <c r="M68" s="12">
-        <f t="shared" si="38"/>
+      <c r="M69" s="12">
+        <f t="shared" si="41"/>
         <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="7:13">
+      <c r="G70" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H70" s="12">
+        <f t="shared" si="40"/>
+        <v>0.06</v>
+      </c>
+      <c r="I70" s="12">
+        <f t="shared" si="41"/>
+        <v>0.21</v>
+      </c>
+      <c r="J70" s="12">
+        <f t="shared" si="41"/>
+        <v>0.51</v>
+      </c>
+      <c r="K70" s="12">
+        <f t="shared" si="41"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L70" s="12">
+        <f t="shared" si="41"/>
+        <v>1.98</v>
+      </c>
+      <c r="M70" s="12">
+        <f t="shared" si="41"/>
+        <v>3.01</v>
       </c>
     </row>
   </sheetData>
@@ -4488,14 +4663,14 @@
   <dimension ref="A2:W50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K13"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="27.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.875" customWidth="1"/>
-    <col min="12" max="16" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="7.875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.125" customWidth="1"/>
     <col min="23" max="23" width="18.375" customWidth="1"/>
   </cols>
@@ -4665,11 +4840,11 @@
         <v>8</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V26" si="5">POWER(10,U4)</f>
+        <f t="shared" ref="V4:V27" si="5">POWER(10,U4)</f>
         <v>100000000</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" ref="W4:W26" si="6">RIGHT(V4,U4)</f>
+        <f t="shared" ref="W4:W27" si="6">RIGHT(V4,U4)</f>
         <v>00000000</v>
       </c>
     </row>
@@ -5370,11 +5545,64 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="str">
+        <f t="shared" ref="B14" si="15">C14&amp;","&amp;D14&amp;","&amp;E14&amp;","&amp;F14&amp;","&amp;G14</f>
+        <v>10언,20언,50언,200언,1000언</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" ref="C14" si="16">$C$3&amp;H14</f>
+        <v>10언</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14" si="17">$D$3&amp;H14</f>
+        <v>20언</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" ref="E14" si="18">$E$3&amp;H14</f>
+        <v>50언</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" ref="F14" si="19">$F$3&amp;H14</f>
+        <v>200언</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ref="G14" si="20">$G$3&amp;H14</f>
+        <v>1000언</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="J14">
         <v>11</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3" t="str">
+        <f t="shared" ref="K14" si="21">L14&amp;","&amp;M14&amp;","&amp;N14&amp;","&amp;O14&amp;","&amp;P14</f>
+        <v>1E+101,2E+101,5E+101,2E+102,1E+103</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14" si="22">$C$3*Q14</f>
+        <v>9.9999999999999998E+100</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14" si="23">$D$3*Q14</f>
+        <v>2E+101</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14" si="24">$E$3*Q14</f>
+        <v>4.9999999999999999E+101</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14" si="25">$F$3*Q14</f>
+        <v>2E+102</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14" si="26">$G$3*Q14</f>
+        <v>1E+103</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" ref="Q14" si="27">VLOOKUP(H14,T:W,4,FALSE)</f>
+        <v>1E+100</v>
+      </c>
       <c r="T14" t="s">
         <v>133</v>
       </c>
@@ -5592,7 +5820,20 @@
       </c>
     </row>
     <row r="27" spans="20:23">
-      <c r="V27" s="40"/>
+      <c r="T27" t="s">
+        <v>210</v>
+      </c>
+      <c r="U27">
+        <v>100</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="5"/>
+        <v>1E+100</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="6"/>
+        <v>1E+100</v>
+      </c>
     </row>
     <row r="28" spans="20:23">
       <c r="V28" s="40"/>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3B1C99-3EE4-45C0-A6F0-C18964877E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24173AE2-C9D0-45C9-AA2F-C3BE6E12F7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhopetTable" sheetId="1" r:id="rId1"/>
@@ -814,14 +814,13 @@
     <t>10언,20언,50언,200언,1000언</t>
   </si>
   <si>
-    <t>303,303,303,303,303</t>
-  </si>
-  <si>
     <t>580,1160,2319,3478,4058</t>
   </si>
   <si>
-    <t>0.06,0.2,0.5,1.09,1.97,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>0.06,0.21,0.51,1.1,1.98,3.01</t>
+  </si>
+  <si>
+    <t>300,300,300,300,300</t>
   </si>
 </sst>
 </file>
@@ -1564,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2190,7 +2189,7 @@
         <v>37</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>17</v>
@@ -2205,7 +2204,7 @@
         <v>49</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O12" s="4">
         <v>5</v>
@@ -2214,7 +2213,7 @@
         <v>9016</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2228,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2735,7 +2734,7 @@
       </c>
       <c r="N18" s="2" t="str">
         <f>J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
-        <v>303,303,303,303,303</v>
+        <v>300,300,300,300,300</v>
       </c>
       <c r="O18" s="2" t="str">
         <f t="shared" ref="O18" si="5">H70&amp;","&amp;I70&amp;","&amp;J70&amp;","&amp;K70&amp;","&amp;L70&amp;","&amp;M70</f>
@@ -2768,8 +2767,7 @@
         <v>1512</v>
       </c>
       <c r="J19" s="12">
-        <f t="shared" ref="J19:J20" si="7">ROUNDUP((I19/5),0)</f>
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -2794,7 +2792,7 @@
         <v>1584</v>
       </c>
       <c r="J20" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J19:J20" si="7">ROUNDUP((I20/5),0)</f>
         <v>317</v>
       </c>
     </row>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24173AE2-C9D0-45C9-AA2F-C3BE6E12F7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D09741-D022-473B-8CC9-469AA466C0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhopetTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="230">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,36 +412,6 @@
     <t>260,260,260,260,260</t>
   </si>
   <si>
-    <t>106,212,423,634,740</t>
-  </si>
-  <si>
-    <t>130,260,519,778,908</t>
-  </si>
-  <si>
-    <t>156,312,624,936,1092</t>
-  </si>
-  <si>
-    <t>185,370,740,1109,1294</t>
-  </si>
-  <si>
-    <t>216,432,864,1296,1512</t>
-  </si>
-  <si>
-    <t>250,500,999,1498,1748</t>
-  </si>
-  <si>
-    <t>286,572,1143,1714,2000</t>
-  </si>
-  <si>
-    <t>324,648,1296,1944,2268</t>
-  </si>
-  <si>
-    <t>365,730,1460,2189,2554</t>
-  </si>
-  <si>
-    <t>408,816,1632,2448,2856</t>
-  </si>
-  <si>
     <t>펫 재화 지급 밸런스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -723,40 +693,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.01,0.03,0.06,0.12,0.21,0.31</t>
-  </si>
-  <si>
-    <t>0.01,0.03,0.07,0.15,0.27,0.41</t>
-  </si>
-  <si>
     <t>*실제 적용치는 *100 해야 함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.02,0.05,0.1,0.2,0.35,0.53</t>
-  </si>
-  <si>
-    <t>0.02,0.06,0.13,0.26,0.45,0.67</t>
-  </si>
-  <si>
-    <t>0.03,0.07,0.15,0.31,0.55,0.83</t>
-  </si>
-  <si>
-    <t>0.03,0.08,0.18,0.38,0.67,1.01</t>
-  </si>
-  <si>
-    <t>0.04,0.1,0.22,0.46,0.81,1.22</t>
-  </si>
-  <si>
-    <t>0.04,0.11,0.25,0.53,0.95,1.44</t>
-  </si>
-  <si>
-    <t>0.05,0.14,0.31,0.65,1.15,1.74</t>
-  </si>
-  <si>
-    <t>0.05,0.15,0.35,0.75,1.34,2.03</t>
-  </si>
-  <si>
     <t>달팽이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -814,13 +754,123 @@
     <t>10언,20언,50언,200언,1000언</t>
   </si>
   <si>
-    <t>580,1160,2319,3478,4058</t>
-  </si>
-  <si>
-    <t>0.06,0.21,0.51,1.1,1.98,3.01</t>
-  </si>
-  <si>
     <t>300,300,300,300,300</t>
+  </si>
+  <si>
+    <t>awakeSkillId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 각성 난이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5레벨에서 증가 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각성 능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>해태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1E+105,2E+105,5E+105,2E+106,1E+107</t>
+  </si>
+  <si>
+    <t>0.06,0.22,0.53,1.15,2.08,3.16,5.32</t>
+  </si>
+  <si>
+    <t>608,1215,2429,3644,4251,8502</t>
+  </si>
+  <si>
+    <t>320,320,320,320,320</t>
+  </si>
+  <si>
+    <t>0.01,0.03,0.06,0.12,0.21,0.31,0.51</t>
+  </si>
+  <si>
+    <t>0.01,0.03,0.07,0.15,0.27,0.41,0.68</t>
+  </si>
+  <si>
+    <t>0.02,0.05,0.1,0.2,0.35,0.53,0.88</t>
+  </si>
+  <si>
+    <t>0.02,0.06,0.13,0.26,0.45,0.67,1.11</t>
+  </si>
+  <si>
+    <t>0.03,0.07,0.15,0.31,0.55,0.83,1.38</t>
+  </si>
+  <si>
+    <t>0.03,0.08,0.18,0.38,0.67,1.01,1.69</t>
+  </si>
+  <si>
+    <t>0.04,0.1,0.22,0.46,0.81,1.22,2.04</t>
+  </si>
+  <si>
+    <t>0.04,0.11,0.25,0.53,0.95,1.44,2.42</t>
+  </si>
+  <si>
+    <t>0.05,0.14,0.31,0.65,1.15,1.74,2.91</t>
+  </si>
+  <si>
+    <t>0.05,0.15,0.35,0.75,1.34,2.03,3.41</t>
+  </si>
+  <si>
+    <t>0.06,0.21,0.51,1.1,1.98,3.01,5.06</t>
+  </si>
+  <si>
+    <t>승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106,212,423,634,740,1480</t>
+  </si>
+  <si>
+    <t>130,260,519,778,908,1816</t>
+  </si>
+  <si>
+    <t>156,312,624,936,1092,2184</t>
+  </si>
+  <si>
+    <t>185,370,740,1109,1294,2588</t>
+  </si>
+  <si>
+    <t>216,432,864,1296,1512,3024</t>
+  </si>
+  <si>
+    <t>250,500,999,1498,1748,3496</t>
+  </si>
+  <si>
+    <t>286,572,1143,1714,2000,4000</t>
+  </si>
+  <si>
+    <t>324,648,1296,1944,2268,4536</t>
+  </si>
+  <si>
+    <t>365,730,1460,2189,2554,5108</t>
+  </si>
+  <si>
+    <t>408,816,1632,2448,2856,5712</t>
+  </si>
+  <si>
+    <t>580,1160,2319,3478,4058,8116</t>
+  </si>
+  <si>
+    <t>10승,20승,50승,200승,1000승</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1230,19 +1280,16 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1561,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1575,12 +1622,12 @@
     <col min="9" max="9" width="39.375" customWidth="1"/>
     <col min="11" max="11" width="17.375" customWidth="1"/>
     <col min="12" max="12" width="19.875" customWidth="1"/>
-    <col min="14" max="14" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42" customWidth="1"/>
     <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1632,8 +1679,11 @@
       <c r="Q1" s="38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1641,25 +1691,25 @@
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>17</v>
@@ -1674,19 +1724,22 @@
         <v>49</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="O2" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P2" s="37">
         <v>9016</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>218</v>
+      </c>
+      <c r="R2" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1694,25 +1747,25 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>17</v>
@@ -1727,19 +1780,22 @@
         <v>49</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O3" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P3" s="37">
         <v>9016</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="R3" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1747,25 +1803,25 @@
         <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>17</v>
@@ -1780,19 +1836,22 @@
         <v>49</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="O4" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P4" s="37">
         <v>9016</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="R4" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1800,25 +1859,25 @@
         <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>17</v>
@@ -1833,19 +1892,22 @@
         <v>49</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="O5" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5" s="37">
         <v>9016</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="R5" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1853,25 +1915,25 @@
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>17</v>
@@ -1886,19 +1948,22 @@
         <v>49</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="O6" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P6" s="37">
         <v>9016</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="R6" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1906,25 +1971,25 @@
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>17</v>
@@ -1939,19 +2004,22 @@
         <v>49</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="O7" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P7" s="37">
         <v>9016</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="Q7" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="R7" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1959,25 +2027,25 @@
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>17</v>
@@ -1992,19 +2060,22 @@
         <v>49</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="O8" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8" s="37">
         <v>9016</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="R8" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2012,19 +2083,19 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>37</v>
@@ -2045,19 +2116,22 @@
         <v>49</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="O9" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P9" s="37">
         <v>9016</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1">
+      <c r="Q9" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="R9" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="1" customFormat="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2065,25 +2139,25 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>17</v>
@@ -2098,19 +2172,22 @@
         <v>49</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="O10" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P10" s="37">
         <v>9016</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="Q10" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="R10" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2118,25 +2195,25 @@
         <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>17</v>
@@ -2151,45 +2228,48 @@
         <v>49</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="O11" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11" s="37">
         <v>9016</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="Q11" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="R11" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>17</v>
@@ -2204,16 +2284,75 @@
         <v>49</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O12" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P12" s="37">
         <v>9016</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>213</v>
+      <c r="Q12" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="R12" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="44">
+        <v>9016</v>
+      </c>
+      <c r="L13" s="3">
+        <v>220</v>
+      </c>
+      <c r="M13" s="4">
+        <v>49</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="O13" s="4">
+        <v>5</v>
+      </c>
+      <c r="P13" s="37">
+        <v>9016</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="R13" s="4">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2225,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2242,26 +2381,26 @@
     <col min="8" max="8" width="10.25" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="12"/>
     <col min="10" max="10" width="14.875" style="12" customWidth="1"/>
-    <col min="11" max="12" width="8.75" style="12"/>
-    <col min="13" max="13" width="19.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.25" style="12" customWidth="1"/>
-    <col min="15" max="15" width="14.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.375" style="12" customWidth="1"/>
-    <col min="17" max="17" width="29.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="43.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="37.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.75" style="2"/>
+    <col min="11" max="13" width="8.75" style="12"/>
+    <col min="14" max="14" width="19.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.25" style="12" customWidth="1"/>
+    <col min="16" max="16" width="14.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.375" style="12" customWidth="1"/>
+    <col min="18" max="18" width="29.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="43.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="37.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -2272,11 +2411,12 @@
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" s="9" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -2287,27 +2427,28 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:17">
+      <c r="A6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
       <c r="G6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="17.25" thickBot="1">
+        <v>99</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" thickBot="1">
       <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
@@ -2327,20 +2468,20 @@
       <c r="J7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="N7" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="O7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="P7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="Q7" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="17.25" thickTop="1">
+    <row r="8" spans="1:17" ht="17.25" thickTop="1">
       <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
@@ -2362,23 +2503,23 @@
         <f>ROUNDUP((I8/5),-1)</f>
         <v>160</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="N8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="2" t="str">
+      <c r="O8" s="2" t="str">
         <f>J8&amp;","&amp;J8&amp;","&amp;J8&amp;","&amp;J8&amp;","&amp;J8</f>
         <v>160,160,160,160,160</v>
       </c>
-      <c r="O8" s="2" t="str">
-        <f>H60&amp;","&amp;I60&amp;","&amp;J60&amp;","&amp;K60&amp;","&amp;L60&amp;","&amp;M60</f>
-        <v>0.01,0.03,0.06,0.12,0.21,0.31</v>
-      </c>
-      <c r="P8" s="12" t="str">
-        <f t="shared" ref="P8:P16" si="0">H28&amp;","&amp;I28&amp;","&amp;J28&amp;","&amp;K28&amp;","&amp;L28</f>
-        <v>106,212,423,634,740</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8" s="2" t="str">
+        <f t="shared" ref="P8:P19" si="0">H62&amp;","&amp;I62&amp;","&amp;J62&amp;","&amp;K62&amp;","&amp;L62&amp;","&amp;M62&amp;","&amp;N62</f>
+        <v>0.01,0.03,0.06,0.12,0.21,0.31,0.51</v>
+      </c>
+      <c r="Q8" s="12" t="str">
+        <f>H28&amp;","&amp;I28&amp;","&amp;J28&amp;","&amp;K28&amp;","&amp;L28&amp;","&amp;M28</f>
+        <v>106,212,423,634,740,1480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="18" t="s">
         <v>48</v>
       </c>
@@ -2399,26 +2540,26 @@
         <v>864</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" ref="J9:J17" si="2">ROUNDUP((I9/5),-1)</f>
+        <f t="shared" ref="J9:J20" si="2">ROUNDUP((I9/5),-1)</f>
         <v>180</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="N9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="2" t="str">
-        <f t="shared" ref="N9:N16" si="3">J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9</f>
+      <c r="O9" s="2" t="str">
+        <f t="shared" ref="O9:O16" si="3">J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9</f>
         <v>180,180,180,180,180</v>
       </c>
-      <c r="O9" s="2" t="str">
-        <f t="shared" ref="O9:O16" si="4">H61&amp;","&amp;I61&amp;","&amp;J61&amp;","&amp;K61&amp;","&amp;L61&amp;","&amp;M61</f>
-        <v>0.01,0.03,0.07,0.15,0.27,0.41</v>
-      </c>
-      <c r="P9" s="12" t="str">
+      <c r="P9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>130,260,519,778,908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>0.01,0.03,0.07,0.15,0.27,0.41,0.68</v>
+      </c>
+      <c r="Q9" s="12" t="str">
+        <f t="shared" ref="Q9:Q17" si="4">H29&amp;","&amp;I29&amp;","&amp;J29&amp;","&amp;K29&amp;","&amp;L29&amp;","&amp;M29</f>
+        <v>130,260,519,778,908,1816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
@@ -2436,23 +2577,23 @@
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="2" t="str">
+      <c r="O10" s="2" t="str">
         <f t="shared" si="3"/>
         <v>190,190,190,190,190</v>
       </c>
-      <c r="O10" s="2" t="str">
+      <c r="P10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.02,0.05,0.1,0.2,0.35,0.53,0.88</v>
+      </c>
+      <c r="Q10" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>0.02,0.05,0.1,0.2,0.35,0.53</v>
-      </c>
-      <c r="P10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>156,312,624,936,1092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>156,312,624,936,1092,2184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="20" t="s">
         <v>51</v>
       </c>
@@ -2476,23 +2617,23 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="N11" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="N11" s="2" t="str">
+      <c r="O11" s="2" t="str">
         <f t="shared" si="3"/>
         <v>210,210,210,210,210</v>
       </c>
-      <c r="O11" s="2" t="str">
+      <c r="P11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.02,0.06,0.13,0.26,0.45,0.67,1.11</v>
+      </c>
+      <c r="Q11" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>0.02,0.06,0.13,0.26,0.45,0.67</v>
-      </c>
-      <c r="P11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>185,370,740,1109,1294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>185,370,740,1109,1294,2588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="21" t="s">
         <v>43</v>
       </c>
@@ -2517,23 +2658,23 @@
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="N12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="2" t="str">
+      <c r="O12" s="2" t="str">
         <f t="shared" si="3"/>
         <v>220,220,220,220,220</v>
       </c>
-      <c r="O12" s="2" t="str">
+      <c r="P12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.03,0.07,0.15,0.31,0.55,0.83,1.38</v>
+      </c>
+      <c r="Q12" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>0.03,0.07,0.15,0.31,0.55,0.83</v>
-      </c>
-      <c r="P12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>216,432,864,1296,1512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>216,432,864,1296,1512,3024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="21" t="s">
         <v>44</v>
       </c>
@@ -2557,23 +2698,23 @@
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="N13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="2" t="str">
+      <c r="O13" s="2" t="str">
         <f t="shared" si="3"/>
         <v>240,240,240,240,240</v>
       </c>
-      <c r="O13" s="2" t="str">
+      <c r="P13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.03,0.08,0.18,0.38,0.67,1.01,1.69</v>
+      </c>
+      <c r="Q13" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>0.03,0.08,0.18,0.38,0.67,1.01</v>
-      </c>
-      <c r="P13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>250,500,999,1498,1748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>250,500,999,1498,1748,3496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="16"/>
@@ -2591,23 +2732,23 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="N14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="2" t="str">
+      <c r="O14" s="2" t="str">
         <f t="shared" si="3"/>
         <v>250,250,250,250,250</v>
       </c>
-      <c r="O14" s="2" t="str">
+      <c r="P14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.04,0.1,0.22,0.46,0.81,1.22,2.04</v>
+      </c>
+      <c r="Q14" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>0.04,0.1,0.22,0.46,0.81,1.22</v>
-      </c>
-      <c r="P14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>286,572,1143,1714,2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>286,572,1143,1714,2000,4000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="D15" s="12"/>
       <c r="E15" s="16"/>
       <c r="G15" s="12" t="s">
@@ -2624,23 +2765,23 @@
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="N15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="2" t="str">
+      <c r="O15" s="2" t="str">
         <f t="shared" si="3"/>
         <v>260,260,260,260,260</v>
       </c>
-      <c r="O15" s="2" t="str">
+      <c r="P15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.04,0.11,0.25,0.53,0.95,1.44,2.42</v>
+      </c>
+      <c r="Q15" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>0.04,0.11,0.25,0.53,0.95,1.44</v>
-      </c>
-      <c r="P15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>324,648,1296,1944,2268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>324,648,1296,1944,2268,4536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -2662,23 +2803,23 @@
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="N16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="2" t="str">
+      <c r="O16" s="2" t="str">
         <f t="shared" si="3"/>
         <v>280,280,280,280,280</v>
       </c>
-      <c r="O16" s="2" t="str">
+      <c r="P16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.05,0.14,0.31,0.65,1.15,1.74,2.91</v>
+      </c>
+      <c r="Q16" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>0.05,0.14,0.31,0.65,1.15,1.74</v>
-      </c>
-      <c r="P16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>365,730,1460,2189,2554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>365,730,1460,2189,2554,5108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="23" t="s">
         <v>60</v>
       </c>
@@ -2698,23 +2839,23 @@
         <f t="shared" si="2"/>
         <v>290</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="N17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="2" t="str">
+      <c r="O17" s="2" t="str">
         <f>J17&amp;","&amp;J17&amp;","&amp;J17&amp;","&amp;J17&amp;","&amp;J17</f>
         <v>290,290,290,290,290</v>
       </c>
-      <c r="O17" s="2" t="str">
-        <f>H69&amp;","&amp;I69&amp;","&amp;J69&amp;","&amp;K69&amp;","&amp;L69&amp;","&amp;M69</f>
-        <v>0.05,0.15,0.35,0.75,1.34,2.03</v>
-      </c>
-      <c r="P17" s="12" t="str">
-        <f>H37&amp;","&amp;I37&amp;","&amp;J37&amp;","&amp;K37&amp;","&amp;L37</f>
-        <v>408,816,1632,2448,2856</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="P17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.05,0.15,0.35,0.75,1.34,2.03,3.41</v>
+      </c>
+      <c r="Q17" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>408,816,1632,2448,2856,5712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="18" t="s">
         <v>62</v>
       </c>
@@ -2724,28 +2865,28 @@
       <c r="C18" s="15"/>
       <c r="E18" s="16"/>
       <c r="G18" s="47" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="J18" s="47"/>
-      <c r="M18" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="N18" s="2" t="str">
+      <c r="N18" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" s="2" t="str">
         <f>J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
         <v>300,300,300,300,300</v>
       </c>
-      <c r="O18" s="2" t="str">
-        <f t="shared" ref="O18" si="5">H70&amp;","&amp;I70&amp;","&amp;J70&amp;","&amp;K70&amp;","&amp;L70&amp;","&amp;M70</f>
-        <v>0.06,0.21,0.51,1.1,1.98,3.01</v>
-      </c>
-      <c r="P18" s="12" t="str">
-        <f>H40&amp;","&amp;I40&amp;","&amp;J40&amp;","&amp;K40&amp;","&amp;L40</f>
-        <v>580,1160,2319,3478,4058</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="P18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.06,0.21,0.51,1.1,1.98,3.01,5.06</v>
+      </c>
+      <c r="Q18" s="12" t="str">
+        <f>H40&amp;","&amp;I40&amp;","&amp;J40&amp;","&amp;K40&amp;","&amp;L40&amp;","&amp;M40</f>
+        <v>580,1160,2319,3478,4058,8116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="18" t="s">
         <v>63</v>
       </c>
@@ -2757,20 +2898,35 @@
       </c>
       <c r="E19" s="16"/>
       <c r="G19" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H19" s="12">
         <v>210</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" ref="I19:I20" si="6">H19*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I19:I20" si="5">H19*$B$9*$B$18*($B$13/100)</f>
         <v>1512</v>
       </c>
       <c r="J19" s="12">
         <v>300</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="N19" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f>J20&amp;","&amp;J20&amp;","&amp;J20&amp;","&amp;J20&amp;","&amp;J20</f>
+        <v>320,320,320,320,320</v>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.06,0.22,0.53,1.15,2.08,3.16,5.32</v>
+      </c>
+      <c r="Q19" s="12" t="str">
+        <f>H41&amp;","&amp;I41&amp;","&amp;J41&amp;","&amp;K41&amp;","&amp;L41&amp;","&amp;M41</f>
+        <v>608,1215,2429,3644,4251,8502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="18" t="s">
         <v>67</v>
       </c>
@@ -2782,35 +2938,35 @@
       </c>
       <c r="E20" s="16"/>
       <c r="G20" s="12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H20" s="12">
         <v>220</v>
       </c>
       <c r="I20" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1584</v>
       </c>
       <c r="J20" s="12">
-        <f t="shared" ref="J19:J20" si="7">ROUNDUP((I20/5),0)</f>
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="18" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B21" s="19">
         <v>7</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:23">
       <c r="A22" s="18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B22" s="19">
         <v>5</v>
@@ -2822,26 +2978,26 @@
         <v>9120</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:23">
       <c r="A25" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="15"/>
-      <c r="Q25" s="45" t="s">
+      <c r="R25" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="R25" s="46"/>
-      <c r="S25" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="T25" s="46"/>
-      <c r="U25" s="45" t="s">
+      <c r="S25" s="46"/>
+      <c r="T25" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="U25" s="46"/>
+      <c r="V25" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="V25" s="46"/>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="15" t="s">
         <v>85</v>
       </c>
@@ -2850,35 +3006,35 @@
       <c r="G26" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="P26" s="25" t="s">
+      <c r="Q26" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="Q26" s="26">
-        <f t="shared" ref="Q26:V26" si="8">SUM(Q28:Q37)</f>
+      <c r="R26" s="26">
+        <f t="shared" ref="R26:W26" si="6">SUM(R28:R37)</f>
         <v>16.285714285714285</v>
       </c>
-      <c r="R26" s="26">
-        <f t="shared" si="8"/>
+      <c r="S26" s="26">
+        <f t="shared" si="6"/>
         <v>13.328571428571429</v>
       </c>
-      <c r="S26" s="26">
-        <f t="shared" si="8"/>
+      <c r="T26" s="26">
+        <f t="shared" si="6"/>
         <v>10.213240418118467</v>
       </c>
-      <c r="T26" s="26">
-        <f t="shared" si="8"/>
+      <c r="U26" s="26">
+        <f t="shared" si="6"/>
         <v>8.8857142857142843</v>
       </c>
-      <c r="U26" s="26">
-        <f t="shared" si="8"/>
+      <c r="V26" s="26">
+        <f t="shared" si="6"/>
         <v>6.4878048780487809</v>
       </c>
-      <c r="V26" s="26">
-        <f t="shared" si="8"/>
+      <c r="W26" s="26">
+        <f t="shared" si="6"/>
         <v>5.3097560975609763</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="17.25" thickBot="1">
+    <row r="27" spans="1:23" ht="17.25" thickBot="1">
       <c r="A27" s="15" t="s">
         <v>86</v>
       </c>
@@ -2903,37 +3059,40 @@
         <v>76</v>
       </c>
       <c r="M27" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="N27" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="N27" s="27" t="s">
+      <c r="O27" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="O27" s="27" t="s">
+      <c r="P27" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="P27" s="27" t="s">
+      <c r="Q27" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="Q27" s="28" t="s">
+      <c r="R27" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="R27" s="28" t="s">
+      <c r="S27" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="S27" s="28" t="s">
+      <c r="T27" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="T27" s="28" t="s">
+      <c r="U27" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="U27" s="28" t="s">
+      <c r="V27" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="V27" s="28" t="s">
+      <c r="W27" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="17.25" thickTop="1">
+    <row r="28" spans="1:23" ht="17.25" thickTop="1">
       <c r="A28" s="29" t="s">
         <v>88</v>
       </c>
@@ -2943,66 +3102,70 @@
         <v>16</v>
       </c>
       <c r="H28" s="12">
-        <f>ROUNDUP((O28*$B$30/100),0)</f>
+        <f>ROUNDUP((P28*$B$30/100),0)</f>
         <v>106</v>
       </c>
       <c r="I28" s="12">
-        <f>ROUNDUP((O28*$B$31/100),0)</f>
+        <f>ROUNDUP((P28*$B$31/100),0)</f>
         <v>212</v>
       </c>
       <c r="J28" s="12">
-        <f>ROUNDUP((O28*$B$32/100),0)</f>
+        <f>ROUNDUP((P28*$B$32/100),0)</f>
         <v>423</v>
       </c>
       <c r="K28" s="12">
-        <f>ROUNDUP((O28*$B$33/100),0)</f>
+        <f>ROUNDUP((P28*$B$33/100),0)</f>
         <v>634</v>
       </c>
       <c r="L28" s="12">
-        <f>ROUNDUP((O28*$B$34/100),0)</f>
+        <f>ROUNDUP((P28*$B$34/100),0)</f>
         <v>740</v>
       </c>
       <c r="M28" s="12">
+        <f>L28*$B$43</f>
+        <v>1480</v>
+      </c>
+      <c r="N28" s="12">
         <f>SUM(H28:L28)</f>
         <v>2115</v>
       </c>
-      <c r="N28" s="12">
+      <c r="O28" s="12">
         <v>50</v>
       </c>
-      <c r="O28" s="12">
-        <f t="shared" ref="O28:O37" si="9">(H8*$B$9*$B$18)*(N28/100)+I8</f>
+      <c r="P28" s="12">
+        <f t="shared" ref="P28:P37" si="7">(H8*$B$9*$B$18)*(O28/100)+I8</f>
         <v>2112</v>
       </c>
-      <c r="P28" s="12">
-        <f t="shared" ref="P28:P37" si="10">O28-I8</f>
+      <c r="Q28" s="12">
+        <f t="shared" ref="Q28:Q37" si="8">P28-I8</f>
         <v>1320</v>
       </c>
-      <c r="Q28" s="2">
-        <f t="shared" ref="Q28:Q37" si="11">(P28/H8)/($B$18*7)</f>
+      <c r="R28" s="2">
+        <f t="shared" ref="R28:R37" si="9">(Q28/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="R28" s="2">
-        <f t="shared" ref="R28:R37" si="12">(P28/$H$17)/(7*$B$18)</f>
+      <c r="S28" s="2">
+        <f t="shared" ref="S28:S37" si="10">(Q28/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
-      <c r="S28" s="2">
-        <f>(P28/H8)/($B$18*7+$B$21)</f>
+      <c r="T28" s="2">
+        <f>(Q28/H8)/($B$18*7+$B$21)</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="T28" s="2">
-        <f>(P28/$H$17)/($B$18*7+$B$21)</f>
+      <c r="U28" s="2">
+        <f>(Q28/$H$17)/($B$18*7+$B$21)</f>
         <v>0.31428571428571428</v>
       </c>
-      <c r="U28" s="2">
-        <f>(P28/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+      <c r="V28" s="2">
+        <f>(Q28/H8)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.34146341463414637</v>
       </c>
-      <c r="V28" s="2">
-        <f>(P28/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+      <c r="W28" s="2">
+        <f>(Q28/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.18780487804878049</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:23">
       <c r="A29" s="30" t="s">
         <v>89</v>
       </c>
@@ -3013,66 +3176,70 @@
         <v>18</v>
       </c>
       <c r="H29" s="12">
-        <f t="shared" ref="H29:H37" si="13">ROUNDUP((O29*$B$30/100),0)</f>
+        <f t="shared" ref="H29:H37" si="11">ROUNDUP((P29*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" ref="I29:I37" si="14">ROUNDUP((O29*$B$31/100),0)</f>
+        <f t="shared" ref="I29:I37" si="12">ROUNDUP((P29*$B$31/100),0)</f>
         <v>260</v>
       </c>
       <c r="J29" s="12">
-        <f t="shared" ref="J29:J37" si="15">ROUNDUP((O29*$B$32/100),0)</f>
+        <f t="shared" ref="J29:J37" si="13">ROUNDUP((P29*$B$32/100),0)</f>
         <v>519</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" ref="K29:K37" si="16">ROUNDUP((O29*$B$33/100),0)</f>
+        <f t="shared" ref="K29:K37" si="14">ROUNDUP((P29*$B$33/100),0)</f>
         <v>778</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" ref="L29:L37" si="17">ROUNDUP((O29*$B$34/100),0)</f>
+        <f t="shared" ref="L29:L37" si="15">ROUNDUP((P29*$B$34/100),0)</f>
         <v>908</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" ref="M29:M37" si="18">SUM(H29:L29)</f>
+        <f t="shared" ref="M29:M37" si="16">L29*$B$43</f>
+        <v>1816</v>
+      </c>
+      <c r="N29" s="12">
+        <f t="shared" ref="N29:N37" si="17">SUM(H29:L29)</f>
         <v>2595</v>
       </c>
-      <c r="N29" s="12">
+      <c r="O29" s="12">
         <v>60</v>
       </c>
-      <c r="O29" s="12">
+      <c r="P29" s="12">
+        <f t="shared" si="7"/>
+        <v>2592</v>
+      </c>
+      <c r="Q29" s="12">
+        <f t="shared" si="8"/>
+        <v>1728</v>
+      </c>
+      <c r="R29" s="2">
         <f t="shared" si="9"/>
-        <v>2592</v>
-      </c>
-      <c r="P29" s="12">
+        <v>1.0285714285714287</v>
+      </c>
+      <c r="S29" s="2">
         <f t="shared" si="10"/>
-        <v>1728</v>
-      </c>
-      <c r="Q29" s="2">
-        <f t="shared" si="11"/>
-        <v>1.0285714285714287</v>
-      </c>
-      <c r="R29" s="2">
-        <f t="shared" si="12"/>
         <v>0.61714285714285722</v>
       </c>
-      <c r="S29" s="2">
-        <f t="shared" ref="S29:S36" si="19">(P29/H9)/($B$18*7+$B$21)</f>
+      <c r="T29" s="2">
+        <f t="shared" ref="T29:T36" si="18">(Q29/H9)/($B$18*7+$B$21)</f>
         <v>0.68571428571428572</v>
       </c>
-      <c r="T29" s="2">
-        <f t="shared" ref="T29:T37" si="20">(P29/$H$17)/($B$18*7+$B$21)</f>
+      <c r="U29" s="2">
+        <f t="shared" ref="U29:U37" si="19">(Q29/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
-      <c r="U29" s="2">
-        <f t="shared" ref="U29:U37" si="21">(P29/H9)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+      <c r="V29" s="2">
+        <f t="shared" ref="V29:V37" si="20">(Q29/H9)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.40975609756097564</v>
       </c>
-      <c r="V29" s="2">
-        <f t="shared" ref="V29:V37" si="22">(P29/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+      <c r="W29" s="2">
+        <f t="shared" ref="W29:W37" si="21">(Q29/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:23">
       <c r="A30" s="21" t="s">
         <v>91</v>
       </c>
@@ -3083,66 +3250,70 @@
         <v>19</v>
       </c>
       <c r="H30" s="12">
+        <f t="shared" si="11"/>
+        <v>156</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" si="12"/>
+        <v>312</v>
+      </c>
+      <c r="J30" s="12">
         <f t="shared" si="13"/>
-        <v>156</v>
-      </c>
-      <c r="I30" s="12">
+        <v>624</v>
+      </c>
+      <c r="K30" s="12">
         <f t="shared" si="14"/>
-        <v>312</v>
-      </c>
-      <c r="J30" s="12">
+        <v>936</v>
+      </c>
+      <c r="L30" s="12">
         <f t="shared" si="15"/>
-        <v>624</v>
-      </c>
-      <c r="K30" s="12">
+        <v>1092</v>
+      </c>
+      <c r="M30" s="12">
         <f t="shared" si="16"/>
-        <v>936</v>
-      </c>
-      <c r="L30" s="12">
+        <v>2184</v>
+      </c>
+      <c r="N30" s="12">
         <f t="shared" si="17"/>
-        <v>1092</v>
-      </c>
-      <c r="M30" s="12">
+        <v>3120</v>
+      </c>
+      <c r="O30" s="12">
+        <v>70</v>
+      </c>
+      <c r="P30" s="12">
+        <f t="shared" si="7"/>
+        <v>3120</v>
+      </c>
+      <c r="Q30" s="12">
+        <f t="shared" si="8"/>
+        <v>2184</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" si="10"/>
+        <v>0.78</v>
+      </c>
+      <c r="T30" s="2">
         <f t="shared" si="18"/>
-        <v>3120</v>
-      </c>
-      <c r="N30" s="12">
-        <v>70</v>
-      </c>
-      <c r="O30" s="12">
-        <f t="shared" si="9"/>
-        <v>3120</v>
-      </c>
-      <c r="P30" s="12">
-        <f t="shared" si="10"/>
-        <v>2184</v>
-      </c>
-      <c r="Q30" s="2">
-        <f t="shared" si="11"/>
-        <v>1.2</v>
-      </c>
-      <c r="R30" s="2">
-        <f t="shared" si="12"/>
-        <v>0.78</v>
-      </c>
-      <c r="S30" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="U30" s="2">
         <f t="shared" si="19"/>
-        <v>0.8</v>
-      </c>
-      <c r="T30" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="V30" s="2">
         <f t="shared" si="20"/>
-        <v>0.52</v>
-      </c>
-      <c r="U30" s="2">
+        <v>0.47804878048780497</v>
+      </c>
+      <c r="W30" s="2">
         <f t="shared" si="21"/>
-        <v>0.47804878048780497</v>
-      </c>
-      <c r="V30" s="2">
-        <f t="shared" si="22"/>
         <v>0.31073170731707322</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:23">
       <c r="A31" s="21">
         <v>2</v>
       </c>
@@ -3153,206 +3324,218 @@
         <v>87</v>
       </c>
       <c r="H31" s="12">
+        <f t="shared" si="11"/>
+        <v>185</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" si="12"/>
+        <v>370</v>
+      </c>
+      <c r="J31" s="12">
         <f t="shared" si="13"/>
-        <v>185</v>
-      </c>
-      <c r="I31" s="12">
+        <v>740</v>
+      </c>
+      <c r="K31" s="12">
         <f t="shared" si="14"/>
-        <v>370</v>
-      </c>
-      <c r="J31" s="12">
+        <v>1109</v>
+      </c>
+      <c r="L31" s="12">
         <f t="shared" si="15"/>
-        <v>740</v>
-      </c>
-      <c r="K31" s="12">
+        <v>1294</v>
+      </c>
+      <c r="M31" s="12">
         <f t="shared" si="16"/>
-        <v>1109</v>
-      </c>
-      <c r="L31" s="12">
+        <v>2588</v>
+      </c>
+      <c r="N31" s="12">
         <f t="shared" si="17"/>
-        <v>1294</v>
-      </c>
-      <c r="M31" s="12">
+        <v>3698</v>
+      </c>
+      <c r="O31" s="12">
+        <v>80</v>
+      </c>
+      <c r="P31" s="12">
+        <f t="shared" si="7"/>
+        <v>3696</v>
+      </c>
+      <c r="Q31" s="12">
+        <f t="shared" si="8"/>
+        <v>2688</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="9"/>
+        <v>1.3714285714285714</v>
+      </c>
+      <c r="S31" s="2">
+        <f t="shared" si="10"/>
+        <v>0.96</v>
+      </c>
+      <c r="T31" s="2">
         <f t="shared" si="18"/>
-        <v>3698</v>
-      </c>
-      <c r="N31" s="12">
-        <v>80</v>
-      </c>
-      <c r="O31" s="12">
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="U31" s="2">
+        <f t="shared" si="19"/>
+        <v>0.64</v>
+      </c>
+      <c r="V31" s="2">
+        <f t="shared" si="20"/>
+        <v>0.54634146341463419</v>
+      </c>
+      <c r="W31" s="2">
+        <f t="shared" si="21"/>
+        <v>0.38243902439024391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="31">
+        <v>20</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" si="11"/>
+        <v>216</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="12"/>
+        <v>432</v>
+      </c>
+      <c r="J32" s="12">
+        <f t="shared" si="13"/>
+        <v>864</v>
+      </c>
+      <c r="K32" s="12">
+        <f t="shared" si="14"/>
+        <v>1296</v>
+      </c>
+      <c r="L32" s="12">
+        <f t="shared" si="15"/>
+        <v>1512</v>
+      </c>
+      <c r="M32" s="12">
+        <f t="shared" si="16"/>
+        <v>3024</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" si="17"/>
+        <v>4320</v>
+      </c>
+      <c r="O32" s="12">
+        <v>90</v>
+      </c>
+      <c r="P32" s="12">
+        <f t="shared" si="7"/>
+        <v>4320</v>
+      </c>
+      <c r="Q32" s="12">
+        <f t="shared" si="8"/>
+        <v>3240</v>
+      </c>
+      <c r="R32" s="2">
         <f t="shared" si="9"/>
-        <v>3696</v>
-      </c>
-      <c r="P31" s="12">
+        <v>1.5428571428571429</v>
+      </c>
+      <c r="S32" s="2">
         <f t="shared" si="10"/>
-        <v>2688</v>
-      </c>
-      <c r="Q31" s="2">
+        <v>1.157142857142857</v>
+      </c>
+      <c r="T32" s="2">
+        <f t="shared" si="18"/>
+        <v>1.0285714285714287</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" si="19"/>
+        <v>0.77142857142857135</v>
+      </c>
+      <c r="V32" s="2">
+        <f t="shared" si="20"/>
+        <v>0.61463414634146352</v>
+      </c>
+      <c r="W32" s="2">
+        <f t="shared" si="21"/>
+        <v>0.46097560975609758</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="33">
+        <v>30</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="12">
         <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="I33" s="12">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="J33" s="12">
+        <f t="shared" si="13"/>
+        <v>999</v>
+      </c>
+      <c r="K33" s="12">
+        <f t="shared" si="14"/>
+        <v>1498</v>
+      </c>
+      <c r="L33" s="12">
+        <f t="shared" si="15"/>
+        <v>1748</v>
+      </c>
+      <c r="M33" s="12">
+        <f t="shared" si="16"/>
+        <v>3496</v>
+      </c>
+      <c r="N33" s="12">
+        <f t="shared" si="17"/>
+        <v>4995</v>
+      </c>
+      <c r="O33" s="12">
+        <v>100</v>
+      </c>
+      <c r="P33" s="12">
+        <f t="shared" si="7"/>
+        <v>4992</v>
+      </c>
+      <c r="Q33" s="12">
+        <f t="shared" si="8"/>
+        <v>3840</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="9"/>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="S33" s="2">
+        <f t="shared" si="10"/>
         <v>1.3714285714285714</v>
       </c>
-      <c r="R31" s="2">
-        <f t="shared" si="12"/>
-        <v>0.96</v>
-      </c>
-      <c r="S31" s="2">
+      <c r="T33" s="2">
+        <f t="shared" si="18"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="U33" s="2">
         <f t="shared" si="19"/>
         <v>0.91428571428571426</v>
       </c>
-      <c r="T31" s="2">
+      <c r="V33" s="2">
         <f t="shared" si="20"/>
-        <v>0.64</v>
-      </c>
-      <c r="U31" s="2">
+        <v>0.68292682926829273</v>
+      </c>
+      <c r="W33" s="2">
         <f t="shared" si="21"/>
         <v>0.54634146341463419</v>
       </c>
-      <c r="V31" s="2">
-        <f t="shared" si="22"/>
-        <v>0.38243902439024391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="31">
-        <v>20</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="12">
-        <f t="shared" si="13"/>
-        <v>216</v>
-      </c>
-      <c r="I32" s="12">
-        <f t="shared" si="14"/>
-        <v>432</v>
-      </c>
-      <c r="J32" s="12">
-        <f t="shared" si="15"/>
-        <v>864</v>
-      </c>
-      <c r="K32" s="12">
-        <f t="shared" si="16"/>
-        <v>1296</v>
-      </c>
-      <c r="L32" s="12">
-        <f t="shared" si="17"/>
-        <v>1512</v>
-      </c>
-      <c r="M32" s="12">
-        <f t="shared" si="18"/>
-        <v>4320</v>
-      </c>
-      <c r="N32" s="12">
-        <v>90</v>
-      </c>
-      <c r="O32" s="12">
-        <f t="shared" si="9"/>
-        <v>4320</v>
-      </c>
-      <c r="P32" s="12">
-        <f t="shared" si="10"/>
-        <v>3240</v>
-      </c>
-      <c r="Q32" s="2">
-        <f t="shared" si="11"/>
-        <v>1.5428571428571429</v>
-      </c>
-      <c r="R32" s="2">
-        <f t="shared" si="12"/>
-        <v>1.157142857142857</v>
-      </c>
-      <c r="S32" s="2">
-        <f t="shared" si="19"/>
-        <v>1.0285714285714287</v>
-      </c>
-      <c r="T32" s="2">
-        <f t="shared" si="20"/>
-        <v>0.77142857142857135</v>
-      </c>
-      <c r="U32" s="2">
-        <f t="shared" si="21"/>
-        <v>0.61463414634146352</v>
-      </c>
-      <c r="V32" s="2">
-        <f t="shared" si="22"/>
-        <v>0.46097560975609758</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="33">
-        <v>30</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="12">
-        <f t="shared" si="13"/>
-        <v>250</v>
-      </c>
-      <c r="I33" s="12">
-        <f t="shared" si="14"/>
-        <v>500</v>
-      </c>
-      <c r="J33" s="12">
-        <f t="shared" si="15"/>
-        <v>999</v>
-      </c>
-      <c r="K33" s="12">
-        <f t="shared" si="16"/>
-        <v>1498</v>
-      </c>
-      <c r="L33" s="12">
-        <f t="shared" si="17"/>
-        <v>1748</v>
-      </c>
-      <c r="M33" s="12">
-        <f t="shared" si="18"/>
-        <v>4995</v>
-      </c>
-      <c r="N33" s="12">
-        <v>100</v>
-      </c>
-      <c r="O33" s="12">
-        <f t="shared" si="9"/>
-        <v>4992</v>
-      </c>
-      <c r="P33" s="12">
-        <f t="shared" si="10"/>
-        <v>3840</v>
-      </c>
-      <c r="Q33" s="2">
-        <f t="shared" si="11"/>
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="R33" s="2">
-        <f t="shared" si="12"/>
-        <v>1.3714285714285714</v>
-      </c>
-      <c r="S33" s="2">
-        <f t="shared" si="19"/>
-        <v>1.1428571428571428</v>
-      </c>
-      <c r="T33" s="2">
-        <f t="shared" si="20"/>
-        <v>0.91428571428571426</v>
-      </c>
-      <c r="U33" s="2">
-        <f t="shared" si="21"/>
-        <v>0.68292682926829273</v>
-      </c>
-      <c r="V33" s="2">
-        <f t="shared" si="22"/>
-        <v>0.54634146341463419</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="21" t="s">
         <v>94</v>
       </c>
@@ -3363,66 +3546,70 @@
         <v>22</v>
       </c>
       <c r="H34" s="12">
+        <f t="shared" si="11"/>
+        <v>286</v>
+      </c>
+      <c r="I34" s="12">
+        <f t="shared" si="12"/>
+        <v>572</v>
+      </c>
+      <c r="J34" s="12">
         <f t="shared" si="13"/>
-        <v>286</v>
-      </c>
-      <c r="I34" s="12">
+        <v>1143</v>
+      </c>
+      <c r="K34" s="12">
         <f t="shared" si="14"/>
-        <v>572</v>
-      </c>
-      <c r="J34" s="12">
+        <v>1714</v>
+      </c>
+      <c r="L34" s="12">
         <f t="shared" si="15"/>
-        <v>1143</v>
-      </c>
-      <c r="K34" s="12">
+        <v>2000</v>
+      </c>
+      <c r="M34" s="12">
         <f t="shared" si="16"/>
-        <v>1714</v>
-      </c>
-      <c r="L34" s="12">
+        <v>4000</v>
+      </c>
+      <c r="N34" s="12">
         <f t="shared" si="17"/>
-        <v>2000</v>
-      </c>
-      <c r="M34" s="12">
+        <v>5715</v>
+      </c>
+      <c r="O34" s="12">
+        <v>110</v>
+      </c>
+      <c r="P34" s="12">
+        <f t="shared" si="7"/>
+        <v>5712</v>
+      </c>
+      <c r="Q34" s="12">
+        <f t="shared" si="8"/>
+        <v>4488</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="9"/>
+        <v>1.8857142857142857</v>
+      </c>
+      <c r="S34" s="2">
+        <f t="shared" si="10"/>
+        <v>1.602857142857143</v>
+      </c>
+      <c r="T34" s="2">
         <f t="shared" si="18"/>
-        <v>5715</v>
-      </c>
-      <c r="N34" s="12">
-        <v>110</v>
-      </c>
-      <c r="O34" s="12">
-        <f t="shared" si="9"/>
-        <v>5712</v>
-      </c>
-      <c r="P34" s="12">
-        <f t="shared" si="10"/>
-        <v>4488</v>
-      </c>
-      <c r="Q34" s="2">
-        <f t="shared" si="11"/>
-        <v>1.8857142857142857</v>
-      </c>
-      <c r="R34" s="2">
-        <f t="shared" si="12"/>
-        <v>1.602857142857143</v>
-      </c>
-      <c r="S34" s="2">
+        <v>1.2571428571428571</v>
+      </c>
+      <c r="U34" s="2">
         <f t="shared" si="19"/>
-        <v>1.2571428571428571</v>
-      </c>
-      <c r="T34" s="2">
+        <v>1.0685714285714287</v>
+      </c>
+      <c r="V34" s="2">
         <f t="shared" si="20"/>
-        <v>1.0685714285714287</v>
-      </c>
-      <c r="U34" s="2">
+        <v>0.75121951219512195</v>
+      </c>
+      <c r="W34" s="2">
         <f t="shared" si="21"/>
-        <v>0.75121951219512195</v>
-      </c>
-      <c r="V34" s="2">
-        <f t="shared" si="22"/>
         <v>0.63853658536585378</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:23">
       <c r="A35" s="34" t="s">
         <v>70</v>
       </c>
@@ -3434,131 +3621,139 @@
         <v>23</v>
       </c>
       <c r="H35" s="12">
+        <f t="shared" si="11"/>
+        <v>324</v>
+      </c>
+      <c r="I35" s="12">
+        <f t="shared" si="12"/>
+        <v>648</v>
+      </c>
+      <c r="J35" s="12">
         <f t="shared" si="13"/>
-        <v>324</v>
-      </c>
-      <c r="I35" s="12">
+        <v>1296</v>
+      </c>
+      <c r="K35" s="12">
         <f t="shared" si="14"/>
-        <v>648</v>
-      </c>
-      <c r="J35" s="12">
+        <v>1944</v>
+      </c>
+      <c r="L35" s="12">
         <f t="shared" si="15"/>
-        <v>1296</v>
-      </c>
-      <c r="K35" s="12">
+        <v>2268</v>
+      </c>
+      <c r="M35" s="12">
         <f t="shared" si="16"/>
-        <v>1944</v>
-      </c>
-      <c r="L35" s="12">
+        <v>4536</v>
+      </c>
+      <c r="N35" s="12">
         <f t="shared" si="17"/>
-        <v>2268</v>
-      </c>
-      <c r="M35" s="12">
+        <v>6480</v>
+      </c>
+      <c r="O35" s="12">
+        <v>120</v>
+      </c>
+      <c r="P35" s="12">
+        <f t="shared" si="7"/>
+        <v>6480</v>
+      </c>
+      <c r="Q35" s="12">
+        <f t="shared" si="8"/>
+        <v>5184</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="9"/>
+        <v>2.0571428571428574</v>
+      </c>
+      <c r="S35" s="2">
+        <f t="shared" si="10"/>
+        <v>1.8514285714285716</v>
+      </c>
+      <c r="T35" s="2">
         <f t="shared" si="18"/>
-        <v>6480</v>
-      </c>
-      <c r="N35" s="12">
-        <v>120</v>
-      </c>
-      <c r="O35" s="12">
-        <f t="shared" si="9"/>
-        <v>6480</v>
-      </c>
-      <c r="P35" s="12">
-        <f t="shared" si="10"/>
-        <v>5184</v>
-      </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="11"/>
-        <v>2.0571428571428574</v>
-      </c>
-      <c r="R35" s="2">
-        <f t="shared" si="12"/>
-        <v>1.8514285714285716</v>
-      </c>
-      <c r="S35" s="2">
+        <v>1.3714285714285714</v>
+      </c>
+      <c r="U35" s="2">
         <f t="shared" si="19"/>
-        <v>1.3714285714285714</v>
-      </c>
-      <c r="T35" s="2">
+        <v>1.2342857142857144</v>
+      </c>
+      <c r="V35" s="2">
         <f t="shared" si="20"/>
-        <v>1.2342857142857144</v>
-      </c>
-      <c r="U35" s="2">
+        <v>0.81951219512195128</v>
+      </c>
+      <c r="W35" s="2">
         <f t="shared" si="21"/>
-        <v>0.81951219512195128</v>
-      </c>
-      <c r="V35" s="2">
-        <f t="shared" si="22"/>
         <v>0.7375609756097562</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:23">
       <c r="D36" s="15"/>
       <c r="G36" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="12">
+        <f t="shared" si="11"/>
+        <v>365</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" si="12"/>
+        <v>730</v>
+      </c>
+      <c r="J36" s="12">
         <f t="shared" si="13"/>
-        <v>365</v>
-      </c>
-      <c r="I36" s="12">
+        <v>1460</v>
+      </c>
+      <c r="K36" s="12">
         <f t="shared" si="14"/>
-        <v>730</v>
-      </c>
-      <c r="J36" s="12">
+        <v>2189</v>
+      </c>
+      <c r="L36" s="12">
         <f t="shared" si="15"/>
-        <v>1460</v>
-      </c>
-      <c r="K36" s="12">
-        <f t="shared" si="16"/>
-        <v>2189</v>
-      </c>
-      <c r="L36" s="12">
+        <v>2554</v>
+      </c>
+      <c r="M36" s="12">
+        <f>L36*$B$43</f>
+        <v>5108</v>
+      </c>
+      <c r="N36" s="12">
         <f t="shared" si="17"/>
-        <v>2554</v>
-      </c>
-      <c r="M36" s="12">
+        <v>7298</v>
+      </c>
+      <c r="O36" s="12">
+        <v>130</v>
+      </c>
+      <c r="P36" s="12">
+        <f t="shared" si="7"/>
+        <v>7296</v>
+      </c>
+      <c r="Q36" s="12">
+        <f t="shared" si="8"/>
+        <v>5928</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="9"/>
+        <v>2.2285714285714286</v>
+      </c>
+      <c r="S36" s="2">
+        <f t="shared" si="10"/>
+        <v>2.117142857142857</v>
+      </c>
+      <c r="T36" s="2">
         <f t="shared" si="18"/>
-        <v>7298</v>
-      </c>
-      <c r="N36" s="12">
-        <v>130</v>
-      </c>
-      <c r="O36" s="12">
-        <f t="shared" si="9"/>
-        <v>7296</v>
-      </c>
-      <c r="P36" s="12">
-        <f t="shared" si="10"/>
-        <v>5928</v>
-      </c>
-      <c r="Q36" s="2">
-        <f t="shared" si="11"/>
-        <v>2.2285714285714286</v>
-      </c>
-      <c r="R36" s="2">
-        <f t="shared" si="12"/>
-        <v>2.117142857142857</v>
-      </c>
-      <c r="S36" s="2">
+        <v>1.4857142857142858</v>
+      </c>
+      <c r="U36" s="2">
         <f t="shared" si="19"/>
-        <v>1.4857142857142858</v>
-      </c>
-      <c r="T36" s="2">
+        <v>1.4114285714285715</v>
+      </c>
+      <c r="V36" s="2">
         <f t="shared" si="20"/>
-        <v>1.4114285714285715</v>
-      </c>
-      <c r="U36" s="2">
+        <v>0.88780487804878061</v>
+      </c>
+      <c r="W36" s="2">
         <f t="shared" si="21"/>
-        <v>0.88780487804878061</v>
-      </c>
-      <c r="V36" s="2">
-        <f t="shared" si="22"/>
         <v>0.84341463414634155</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:23">
       <c r="A37" s="2" t="s">
         <v>95</v>
       </c>
@@ -3567,69 +3762,73 @@
         <v>25</v>
       </c>
       <c r="H37" s="12">
+        <f t="shared" si="11"/>
+        <v>408</v>
+      </c>
+      <c r="I37" s="12">
+        <f t="shared" si="12"/>
+        <v>816</v>
+      </c>
+      <c r="J37" s="12">
         <f t="shared" si="13"/>
-        <v>408</v>
-      </c>
-      <c r="I37" s="12">
+        <v>1632</v>
+      </c>
+      <c r="K37" s="12">
         <f t="shared" si="14"/>
-        <v>816</v>
-      </c>
-      <c r="J37" s="12">
+        <v>2448</v>
+      </c>
+      <c r="L37" s="12">
         <f t="shared" si="15"/>
-        <v>1632</v>
-      </c>
-      <c r="K37" s="12">
+        <v>2856</v>
+      </c>
+      <c r="M37" s="12">
         <f t="shared" si="16"/>
-        <v>2448</v>
-      </c>
-      <c r="L37" s="12">
+        <v>5712</v>
+      </c>
+      <c r="N37" s="12">
         <f t="shared" si="17"/>
-        <v>2856</v>
-      </c>
-      <c r="M37" s="12">
-        <f t="shared" si="18"/>
         <v>8160</v>
       </c>
-      <c r="N37" s="12">
+      <c r="O37" s="12">
         <v>140</v>
       </c>
-      <c r="O37" s="12">
+      <c r="P37" s="12">
+        <f t="shared" si="7"/>
+        <v>8160</v>
+      </c>
+      <c r="Q37" s="12">
+        <f t="shared" si="8"/>
+        <v>6720</v>
+      </c>
+      <c r="R37" s="2">
         <f t="shared" si="9"/>
-        <v>8160</v>
-      </c>
-      <c r="P37" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="S37" s="2">
         <f t="shared" si="10"/>
-        <v>6720</v>
-      </c>
-      <c r="Q37" s="2">
-        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
-      <c r="R37" s="2">
-        <f t="shared" si="12"/>
-        <v>2.4</v>
-      </c>
-      <c r="S37" s="2">
-        <f t="shared" ref="S37" si="23">(P37/H17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+      <c r="T37" s="2">
+        <f t="shared" ref="T37" si="22">(Q37/H17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.95609756097560994</v>
       </c>
-      <c r="T37" s="2">
+      <c r="U37" s="2">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
+      <c r="V37" s="2">
         <f t="shared" si="20"/>
-        <v>1.6</v>
-      </c>
-      <c r="U37" s="2">
+        <v>0.95609756097560994</v>
+      </c>
+      <c r="W37" s="2">
         <f t="shared" si="21"/>
         <v>0.95609756097560994</v>
       </c>
-      <c r="V37" s="2">
-        <f t="shared" si="22"/>
-        <v>0.95609756097560994</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+    </row>
+    <row r="38" spans="1:23">
       <c r="D38" s="12"/>
       <c r="G38" s="47" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H38" s="47"/>
       <c r="I38" s="47"/>
@@ -3646,193 +3845,215 @@
       <c r="T38" s="47"/>
       <c r="U38" s="47"/>
       <c r="V38" s="47"/>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38" s="47"/>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="18" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B39" s="19">
         <v>100</v>
       </c>
       <c r="D39" s="12"/>
-      <c r="P39" s="25" t="s">
+      <c r="Q39" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="Q39" s="26">
-        <f>SUM(Q40:Q41)</f>
-        <v>7.7142857142857135</v>
-      </c>
       <c r="R39" s="26">
-        <f t="shared" ref="R39:V39" si="24">SUM(R40:R41)</f>
-        <v>7.5584415584415581</v>
+        <f>SUM(R40:R41)</f>
+        <v>6.8571428571428568</v>
       </c>
       <c r="S39" s="26">
-        <f t="shared" si="24"/>
-        <v>3.0731707317073171</v>
+        <f t="shared" ref="S39:W39" si="23">SUM(S40:S41)</f>
+        <v>6.7012987012987013</v>
       </c>
       <c r="T39" s="26">
-        <f t="shared" si="24"/>
-        <v>5.0389610389610393</v>
+        <f t="shared" si="23"/>
+        <v>2.7317073170731709</v>
       </c>
       <c r="U39" s="26">
-        <f t="shared" si="24"/>
-        <v>3.0731707317073171</v>
+        <f t="shared" si="23"/>
+        <v>4.4675324675324681</v>
       </c>
       <c r="V39" s="26">
-        <f t="shared" si="24"/>
-        <v>3.0110864745011092</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+        <f t="shared" si="23"/>
+        <v>2.7317073170731709</v>
+      </c>
+      <c r="W39" s="26">
+        <f t="shared" si="23"/>
+        <v>2.6696230598669626</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="18" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B40" s="42">
         <v>1.2</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" ref="H40:H41" si="25">ROUNDUP((O40*$B$30/100),0)</f>
+        <f t="shared" ref="H40:H41" si="24">ROUNDUP((P40*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I40" s="12">
-        <f t="shared" ref="I40:I41" si="26">ROUNDUP((O40*$B$31/100),0)</f>
+        <f t="shared" ref="I40:I41" si="25">ROUNDUP((P40*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" ref="J40:J41" si="27">ROUNDUP((O40*$B$32/100),0)</f>
+        <f t="shared" ref="J40:J41" si="26">ROUNDUP((P40*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40:K41" si="28">ROUNDUP((O40*$B$33/100),0)</f>
+        <f t="shared" ref="K40:K41" si="27">ROUNDUP((P40*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L40" s="12">
-        <f t="shared" ref="L40:L41" si="29">ROUNDUP((O40*$B$34/100),0)</f>
+        <f t="shared" ref="L40:L41" si="28">ROUNDUP((P40*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M40" s="12">
-        <f t="shared" ref="M40:M41" si="30">SUM(H40:L40)</f>
+        <f>L40*$B$43</f>
+        <v>8116</v>
+      </c>
+      <c r="N40" s="12">
+        <f t="shared" ref="N40" si="29">SUM(H40:L40)</f>
         <v>11595</v>
       </c>
-      <c r="N40" s="12">
+      <c r="O40" s="12">
         <v>200</v>
       </c>
-      <c r="O40" s="12">
-        <f>(H19*$B$9*$B$18)*(N40/100)+I19</f>
+      <c r="P40" s="12">
+        <f>(H19*$B$9*$B$18)*(O40/100)+I19</f>
         <v>11592</v>
       </c>
-      <c r="P40" s="12">
-        <f>O40-I19</f>
+      <c r="Q40" s="12">
+        <f>P40-I19</f>
         <v>10080</v>
       </c>
-      <c r="Q40" s="2">
-        <f>(P40/H19)/($B$18*7)</f>
+      <c r="R40" s="2">
+        <f>(Q40/H19)/($B$18*7)</f>
         <v>3.4285714285714284</v>
       </c>
-      <c r="R40" s="2">
-        <f>(P40/$H$20)/(7*$B$18)</f>
+      <c r="S40" s="2">
+        <f>(Q40/$H$20)/(7*$B$18)</f>
         <v>3.2727272727272729</v>
       </c>
-      <c r="S40" s="2">
-        <f>(P40/H19)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+      <c r="T40" s="2">
+        <f>(Q40/H19)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>1.3658536585365855</v>
       </c>
-      <c r="T40" s="2">
-        <f>(P40/$H$20)/($B$18*7+$B$21)</f>
+      <c r="U40" s="2">
+        <f>(Q40/$H$20)/($B$18*7+$B$21)</f>
         <v>2.1818181818181821</v>
       </c>
-      <c r="U40" s="2">
-        <f>(P40/H19)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+      <c r="V40" s="2">
+        <f>(Q40/H19)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>1.3658536585365855</v>
       </c>
-      <c r="V40" s="2">
-        <f>(P40/$H$20)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+      <c r="W40" s="2">
+        <f>(Q40/$H$20)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>1.3037694013303771</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:23">
       <c r="G41" s="12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H41" s="12">
+        <f t="shared" si="24"/>
+        <v>608</v>
+      </c>
+      <c r="I41" s="12">
         <f t="shared" si="25"/>
-        <v>740</v>
-      </c>
-      <c r="I41" s="12">
+        <v>1215</v>
+      </c>
+      <c r="J41" s="12">
         <f t="shared" si="26"/>
-        <v>1479</v>
-      </c>
-      <c r="J41" s="12">
+        <v>2429</v>
+      </c>
+      <c r="K41" s="12">
         <f t="shared" si="27"/>
-        <v>2957</v>
-      </c>
-      <c r="K41" s="12">
+        <v>3644</v>
+      </c>
+      <c r="L41" s="12">
         <f t="shared" si="28"/>
-        <v>4436</v>
-      </c>
-      <c r="L41" s="12">
-        <f t="shared" si="29"/>
-        <v>5175</v>
+        <v>4251</v>
       </c>
       <c r="M41" s="12">
-        <f t="shared" si="30"/>
-        <v>14787</v>
+        <f>L41*$B$43</f>
+        <v>8502</v>
       </c>
       <c r="N41" s="12">
-        <v>250</v>
+        <f>SUM(H41:L41)</f>
+        <v>12147</v>
       </c>
       <c r="O41" s="12">
-        <f>(H20*$B$9*$B$18)*(N41/100)+I20</f>
-        <v>14784</v>
+        <v>200</v>
       </c>
       <c r="P41" s="12">
-        <f>O41-I20</f>
-        <v>13200</v>
-      </c>
-      <c r="Q41" s="2">
-        <f>(P41/H20)/($B$18*7)</f>
-        <v>4.2857142857142856</v>
+        <f>(H20*$B$9*$B$18)*(O41/100)+I20</f>
+        <v>12144</v>
+      </c>
+      <c r="Q41" s="12">
+        <f>P41-I20</f>
+        <v>10560</v>
       </c>
       <c r="R41" s="2">
-        <f>(P41/$H$20)/(7*$B$18)</f>
-        <v>4.2857142857142856</v>
+        <f>(Q41/H20)/($B$18*7)</f>
+        <v>3.4285714285714284</v>
       </c>
       <c r="S41" s="2">
-        <f>(P41/H20)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
-        <v>1.7073170731707319</v>
+        <f>(Q41/$H$20)/(7*$B$18)</f>
+        <v>3.4285714285714284</v>
       </c>
       <c r="T41" s="2">
-        <f>(P41/$H$20)/($B$18*7+$B$21)</f>
-        <v>2.8571428571428572</v>
+        <f>(Q41/H20)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <v>1.3658536585365855</v>
       </c>
       <c r="U41" s="2">
-        <f>(P41/H20)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
-        <v>1.7073170731707319</v>
+        <f>(Q41/$H$20)/($B$18*7+$B$21)</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="V41" s="2">
-        <f>(P41/$H$20)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
-        <v>1.7073170731707319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+        <f>(Q41/H20)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <v>1.3658536585365855</v>
+      </c>
+      <c r="W41" s="2">
+        <f>(Q41/$H$20)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <v>1.3658536585365855</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="G44" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="N44" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="O44" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="O44" s="39">
-        <f>SUM(O46:O56)</f>
-        <v>13.2</v>
-      </c>
-      <c r="P44" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="17.25" thickBot="1">
+      <c r="P44" s="39">
+        <f>SUM(P46:P56)+SUM(Q46:Q56)</f>
+        <v>22.09</v>
+      </c>
+      <c r="Q44" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="17.25" thickBot="1">
       <c r="G45" s="27" t="s">
         <v>71</v>
       </c>
@@ -3855,16 +4076,22 @@
         <v>5</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="O45" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="P45" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="P45" s="27" t="s">
+      <c r="Q45" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="R45" s="27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="17.25" thickTop="1">
+    <row r="46" spans="1:23" ht="17.25" thickTop="1">
       <c r="G46" s="12" t="s">
         <v>16</v>
       </c>
@@ -3872,38 +4099,46 @@
         <v>0.01</v>
       </c>
       <c r="I46" s="12">
-        <f>ROUNDUP(((H28/$B$39)*$B$40)*((100+N46)/100),0)/100</f>
+        <f t="shared" ref="I46:I55" si="30">ROUNDUP(((H28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
         <v>0.02</v>
       </c>
       <c r="J46" s="12">
-        <f>ROUNDUP(((I28/$B$39)*$B$40)*((100+N46)/100),0)/100</f>
+        <f t="shared" ref="J46:J55" si="31">ROUNDUP(((I28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
         <v>0.03</v>
       </c>
       <c r="K46" s="12">
-        <f>ROUNDUP(((J28/$B$39)*$B$40)*((100+N46)/100),0)/100</f>
+        <f t="shared" ref="K46:K55" si="32">ROUNDUP(((J28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
         <v>0.06</v>
       </c>
       <c r="L46" s="12">
-        <f>ROUNDUP(((K28/$B$39)*$B$40)*((100+N46)/100),0)/100</f>
+        <f t="shared" ref="L46:L55" si="33">ROUNDUP(((K28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
         <v>0.09</v>
       </c>
       <c r="M46" s="12">
-        <f>ROUNDUP(((L28/$B$39)*$B$40)*((100+N46)/100),0)/100</f>
+        <f t="shared" ref="M46:M55" si="34">ROUNDUP(((L28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
         <v>0.1</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N46" s="12">
+        <f>ROUNDUP(((M28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="O46" s="13">
         <v>10</v>
       </c>
-      <c r="O46" s="13">
-        <f>SUM(H46:M46)</f>
+      <c r="P46" s="13">
+        <f t="shared" ref="P46:P57" si="35">SUM(H46:M46)</f>
         <v>0.31</v>
       </c>
-      <c r="P46" s="13">
-        <f t="shared" ref="P46:P53" si="31">(O46/$O$44)*100</f>
-        <v>2.3484848484848486</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="Q46" s="12">
+        <f>N46</f>
+        <v>0.2</v>
+      </c>
+      <c r="R46" s="13">
+        <f t="shared" ref="R46:R55" si="36">((P46+Q46)/$P$44)*100</f>
+        <v>2.3087369850611137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="G47" s="12" t="s">
         <v>18</v>
       </c>
@@ -3911,38 +4146,46 @@
         <v>0.01</v>
       </c>
       <c r="I47" s="12">
-        <f t="shared" ref="I47:I53" si="32">ROUNDUP(((H29/$B$39)*$B$40)*((100+N47)/100),0)/100</f>
+        <f t="shared" si="30"/>
         <v>0.02</v>
       </c>
       <c r="J47" s="12">
-        <f t="shared" ref="J47:J53" si="33">ROUNDUP(((I29/$B$39)*$B$40)*((100+N47)/100),0)/100</f>
+        <f t="shared" si="31"/>
         <v>0.04</v>
       </c>
       <c r="K47" s="12">
-        <f t="shared" ref="K47:K53" si="34">ROUNDUP(((J29/$B$39)*$B$40)*((100+N47)/100),0)/100</f>
+        <f t="shared" si="32"/>
         <v>0.08</v>
       </c>
       <c r="L47" s="12">
-        <f t="shared" ref="L47:L53" si="35">ROUNDUP(((K29/$B$39)*$B$40)*((100+N47)/100),0)/100</f>
+        <f t="shared" si="33"/>
         <v>0.12</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" ref="M47:M53" si="36">ROUNDUP(((L29/$B$39)*$B$40)*((100+N47)/100),0)/100</f>
+        <f t="shared" si="34"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N47" s="12">
+        <f t="shared" ref="N47:N55" si="37">ROUNDUP(((M29/$B$39)*$B$40)*((100+O47)/100),0)/100</f>
+        <v>0.27</v>
+      </c>
+      <c r="O47" s="13">
         <v>20</v>
       </c>
-      <c r="O47" s="13">
-        <f t="shared" ref="O47:O53" si="37">SUM(H47:M47)</f>
+      <c r="P47" s="13">
+        <f t="shared" si="35"/>
         <v>0.41000000000000003</v>
       </c>
-      <c r="P47" s="13">
-        <f t="shared" si="31"/>
-        <v>3.1060606060606064</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="Q47" s="12">
+        <f t="shared" ref="Q47:Q57" si="38">N47</f>
+        <v>0.27</v>
+      </c>
+      <c r="R47" s="13">
+        <f t="shared" si="36"/>
+        <v>3.0783159800814848</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="G48" s="12" t="s">
         <v>19</v>
       </c>
@@ -3950,38 +4193,46 @@
         <v>0.02</v>
       </c>
       <c r="I48" s="12">
+        <f t="shared" si="30"/>
+        <v>0.03</v>
+      </c>
+      <c r="J48" s="12">
+        <f t="shared" si="31"/>
+        <v>0.05</v>
+      </c>
+      <c r="K48" s="12">
         <f t="shared" si="32"/>
-        <v>0.03</v>
-      </c>
-      <c r="J48" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L48" s="12">
         <f t="shared" si="33"/>
-        <v>0.05</v>
-      </c>
-      <c r="K48" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="M48" s="12">
         <f t="shared" si="34"/>
-        <v>0.1</v>
-      </c>
-      <c r="L48" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="N48" s="12">
+        <f t="shared" si="37"/>
+        <v>0.35</v>
+      </c>
+      <c r="O48" s="13">
+        <v>30</v>
+      </c>
+      <c r="P48" s="13">
         <f t="shared" si="35"/>
-        <v>0.15</v>
-      </c>
-      <c r="M48" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="Q48" s="12">
+        <f t="shared" si="38"/>
+        <v>0.35</v>
+      </c>
+      <c r="R48" s="13">
         <f t="shared" si="36"/>
-        <v>0.18</v>
-      </c>
-      <c r="N48" s="13">
-        <v>30</v>
-      </c>
-      <c r="O48" s="13">
-        <f t="shared" si="37"/>
-        <v>0.53</v>
-      </c>
-      <c r="P48" s="13">
-        <f t="shared" si="31"/>
-        <v>4.0151515151515156</v>
-      </c>
-    </row>
-    <row r="49" spans="7:16">
+        <v>3.9837030330466274</v>
+      </c>
+    </row>
+    <row r="49" spans="7:18">
       <c r="G49" s="12" t="s">
         <v>87</v>
       </c>
@@ -3989,38 +4240,46 @@
         <v>0.02</v>
       </c>
       <c r="I49" s="12">
+        <f t="shared" si="30"/>
+        <v>0.04</v>
+      </c>
+      <c r="J49" s="12">
+        <f t="shared" si="31"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K49" s="12">
         <f t="shared" si="32"/>
-        <v>0.04</v>
-      </c>
-      <c r="J49" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="L49" s="12">
         <f t="shared" si="33"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K49" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="M49" s="12">
         <f t="shared" si="34"/>
-        <v>0.13</v>
-      </c>
-      <c r="L49" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="N49" s="12">
+        <f t="shared" si="37"/>
+        <v>0.44</v>
+      </c>
+      <c r="O49" s="13">
+        <v>40</v>
+      </c>
+      <c r="P49" s="13">
         <f t="shared" si="35"/>
-        <v>0.19</v>
-      </c>
-      <c r="M49" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="Q49" s="12">
+        <f t="shared" si="38"/>
+        <v>0.44</v>
+      </c>
+      <c r="R49" s="13">
         <f t="shared" si="36"/>
-        <v>0.22</v>
-      </c>
-      <c r="N49" s="13">
-        <v>40</v>
-      </c>
-      <c r="O49" s="13">
-        <f t="shared" si="37"/>
-        <v>0.67</v>
-      </c>
-      <c r="P49" s="13">
-        <f t="shared" si="31"/>
-        <v>5.0757575757575761</v>
-      </c>
-    </row>
-    <row r="50" spans="7:16">
+        <v>5.0248981439565421</v>
+      </c>
+    </row>
+    <row r="50" spans="7:18">
       <c r="G50" s="12" t="s">
         <v>20</v>
       </c>
@@ -4028,38 +4287,46 @@
         <v>0.03</v>
       </c>
       <c r="I50" s="12">
+        <f t="shared" si="30"/>
+        <v>0.04</v>
+      </c>
+      <c r="J50" s="12">
+        <f t="shared" si="31"/>
+        <v>0.08</v>
+      </c>
+      <c r="K50" s="12">
         <f t="shared" si="32"/>
-        <v>0.04</v>
-      </c>
-      <c r="J50" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="L50" s="12">
         <f t="shared" si="33"/>
-        <v>0.08</v>
-      </c>
-      <c r="K50" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="M50" s="12">
         <f t="shared" si="34"/>
-        <v>0.16</v>
-      </c>
-      <c r="L50" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N50" s="12">
+        <f t="shared" si="37"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O50" s="13">
+        <v>50</v>
+      </c>
+      <c r="P50" s="13">
         <f t="shared" si="35"/>
-        <v>0.24</v>
-      </c>
-      <c r="M50" s="12">
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="Q50" s="12">
+        <f t="shared" si="38"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R50" s="13">
         <f t="shared" si="36"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N50" s="13">
-        <v>50</v>
-      </c>
-      <c r="O50" s="13">
-        <f t="shared" si="37"/>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="P50" s="13">
-        <f t="shared" si="31"/>
-        <v>6.2878787878787881</v>
-      </c>
-    </row>
-    <row r="51" spans="7:16">
+        <v>6.2471706654594845</v>
+      </c>
+    </row>
+    <row r="51" spans="7:18">
       <c r="G51" s="12" t="s">
         <v>21</v>
       </c>
@@ -4067,38 +4334,46 @@
         <v>0.03</v>
       </c>
       <c r="I51" s="12">
+        <f t="shared" si="30"/>
+        <v>0.05</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="31"/>
+        <v>0.1</v>
+      </c>
+      <c r="K51" s="12">
         <f t="shared" si="32"/>
-        <v>0.05</v>
-      </c>
-      <c r="J51" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="L51" s="12">
         <f t="shared" si="33"/>
-        <v>0.1</v>
-      </c>
-      <c r="K51" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M51" s="12">
         <f t="shared" si="34"/>
-        <v>0.2</v>
-      </c>
-      <c r="L51" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="N51" s="12">
+        <f t="shared" si="37"/>
+        <v>0.68</v>
+      </c>
+      <c r="O51" s="13">
+        <v>60</v>
+      </c>
+      <c r="P51" s="13">
         <f t="shared" si="35"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M51" s="12">
+        <v>1.01</v>
+      </c>
+      <c r="Q51" s="12">
+        <f t="shared" si="38"/>
+        <v>0.68</v>
+      </c>
+      <c r="R51" s="13">
         <f t="shared" si="36"/>
-        <v>0.34</v>
-      </c>
-      <c r="N51" s="13">
-        <v>60</v>
-      </c>
-      <c r="O51" s="13">
-        <f t="shared" si="37"/>
-        <v>1.01</v>
-      </c>
-      <c r="P51" s="13">
-        <f t="shared" si="31"/>
-        <v>7.6515151515151523</v>
-      </c>
-    </row>
-    <row r="52" spans="7:16">
+        <v>7.6505205975554542</v>
+      </c>
+    </row>
+    <row r="52" spans="7:18">
       <c r="G52" s="12" t="s">
         <v>22</v>
       </c>
@@ -4106,38 +4381,46 @@
         <v>0.04</v>
       </c>
       <c r="I52" s="12">
+        <f t="shared" si="30"/>
+        <v>0.06</v>
+      </c>
+      <c r="J52" s="12">
+        <f t="shared" si="31"/>
+        <v>0.12</v>
+      </c>
+      <c r="K52" s="12">
         <f t="shared" si="32"/>
-        <v>0.06</v>
-      </c>
-      <c r="J52" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="L52" s="12">
         <f t="shared" si="33"/>
-        <v>0.12</v>
-      </c>
-      <c r="K52" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="M52" s="12">
         <f t="shared" si="34"/>
-        <v>0.24</v>
-      </c>
-      <c r="L52" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="N52" s="12">
+        <f t="shared" si="37"/>
+        <v>0.82</v>
+      </c>
+      <c r="O52" s="13">
+        <v>70</v>
+      </c>
+      <c r="P52" s="13">
         <f t="shared" si="35"/>
-        <v>0.35</v>
-      </c>
-      <c r="M52" s="12">
+        <v>1.22</v>
+      </c>
+      <c r="Q52" s="12">
+        <f t="shared" si="38"/>
+        <v>0.82</v>
+      </c>
+      <c r="R52" s="13">
         <f t="shared" si="36"/>
-        <v>0.41</v>
-      </c>
-      <c r="N52" s="13">
-        <v>70</v>
-      </c>
-      <c r="O52" s="13">
-        <f t="shared" si="37"/>
-        <v>1.22</v>
-      </c>
-      <c r="P52" s="13">
-        <f t="shared" si="31"/>
-        <v>9.2424242424242422</v>
-      </c>
-    </row>
-    <row r="53" spans="7:16">
+        <v>9.2349479402444548</v>
+      </c>
+    </row>
+    <row r="53" spans="7:18">
       <c r="G53" s="12" t="s">
         <v>23</v>
       </c>
@@ -4145,38 +4428,46 @@
         <v>0.04</v>
       </c>
       <c r="I53" s="12">
+        <f t="shared" si="30"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J53" s="12">
+        <f t="shared" si="31"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K53" s="12">
         <f t="shared" si="32"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J53" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L53" s="12">
         <f t="shared" si="33"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K53" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="M53" s="12">
         <f t="shared" si="34"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L53" s="12">
+        <v>0.49</v>
+      </c>
+      <c r="N53" s="12">
+        <f t="shared" si="37"/>
+        <v>0.98</v>
+      </c>
+      <c r="O53" s="13">
+        <v>80</v>
+      </c>
+      <c r="P53" s="13">
         <f t="shared" si="35"/>
-        <v>0.42</v>
-      </c>
-      <c r="M53" s="12">
+        <v>1.44</v>
+      </c>
+      <c r="Q53" s="12">
+        <f t="shared" si="38"/>
+        <v>0.98</v>
+      </c>
+      <c r="R53" s="13">
         <f t="shared" si="36"/>
-        <v>0.49</v>
-      </c>
-      <c r="N53" s="13">
-        <v>80</v>
-      </c>
-      <c r="O53" s="13">
-        <f t="shared" si="37"/>
-        <v>1.44</v>
-      </c>
-      <c r="P53" s="13">
-        <f t="shared" si="31"/>
-        <v>10.90909090909091</v>
-      </c>
-    </row>
-    <row r="54" spans="7:16">
+        <v>10.955183340878225</v>
+      </c>
+    </row>
+    <row r="54" spans="7:18">
       <c r="G54" s="12" t="s">
         <v>24</v>
       </c>
@@ -4184,38 +4475,46 @@
         <v>0.05</v>
       </c>
       <c r="I54" s="12">
-        <f>ROUNDUP(((H36/$B$39)*$B$40)*((100+N54)/100),0)/100</f>
+        <f t="shared" si="30"/>
         <v>0.09</v>
       </c>
       <c r="J54" s="12">
-        <f>ROUNDUP(((I36/$B$39)*$B$40)*((100+N54)/100),0)/100</f>
+        <f t="shared" si="31"/>
         <v>0.17</v>
       </c>
       <c r="K54" s="12">
-        <f>ROUNDUP(((J36/$B$39)*$B$40)*((100+N54)/100),0)/100</f>
+        <f t="shared" si="32"/>
         <v>0.34</v>
       </c>
       <c r="L54" s="12">
-        <f>ROUNDUP(((K36/$B$39)*$B$40)*((100+N54)/100),0)/100</f>
+        <f t="shared" si="33"/>
         <v>0.5</v>
       </c>
       <c r="M54" s="12">
-        <f>ROUNDUP(((L36/$B$39)*$B$40)*((100+N54)/100),0)/100</f>
+        <f t="shared" si="34"/>
         <v>0.59</v>
       </c>
-      <c r="N54" s="13">
+      <c r="N54" s="12">
+        <f t="shared" si="37"/>
+        <v>1.17</v>
+      </c>
+      <c r="O54" s="13">
         <v>90</v>
       </c>
-      <c r="O54" s="13">
-        <f>SUM(H54:M54)</f>
+      <c r="P54" s="13">
+        <f t="shared" si="35"/>
         <v>1.7400000000000002</v>
       </c>
-      <c r="P54" s="13">
-        <f>(O54/$O$44)*100</f>
-        <v>13.181818181818183</v>
-      </c>
-    </row>
-    <row r="55" spans="7:16">
+      <c r="Q54" s="12">
+        <f t="shared" si="38"/>
+        <v>1.17</v>
+      </c>
+      <c r="R54" s="13">
+        <f t="shared" si="36"/>
+        <v>13.173381620642827</v>
+      </c>
+    </row>
+    <row r="55" spans="7:18">
       <c r="G55" s="12" t="s">
         <v>25</v>
       </c>
@@ -4223,432 +4522,569 @@
         <v>0.05</v>
       </c>
       <c r="I55" s="12">
-        <f>ROUNDUP(((H37/$B$39)*$B$40)*((100+N55)/100),0)/100</f>
+        <f t="shared" si="30"/>
         <v>0.1</v>
       </c>
       <c r="J55" s="12">
-        <f>ROUNDUP(((I37/$B$39)*$B$40)*((100+N55)/100),0)/100</f>
+        <f t="shared" si="31"/>
         <v>0.2</v>
       </c>
       <c r="K55" s="12">
-        <f>ROUNDUP(((J37/$B$39)*$B$40)*((100+N55)/100),0)/100</f>
+        <f t="shared" si="32"/>
         <v>0.4</v>
       </c>
       <c r="L55" s="12">
-        <f>ROUNDUP(((K37/$B$39)*$B$40)*((100+N55)/100),0)/100</f>
+        <f t="shared" si="33"/>
         <v>0.59</v>
       </c>
       <c r="M55" s="12">
-        <f>ROUNDUP(((L37/$B$39)*$B$40)*((100+N55)/100),0)/100</f>
+        <f t="shared" si="34"/>
         <v>0.69</v>
       </c>
-      <c r="N55" s="13">
+      <c r="N55" s="12">
+        <f t="shared" si="37"/>
+        <v>1.38</v>
+      </c>
+      <c r="O55" s="13">
         <v>100</v>
       </c>
-      <c r="O55" s="13">
-        <f>SUM(H55:M55)</f>
+      <c r="P55" s="13">
+        <f t="shared" si="35"/>
         <v>2.0299999999999998</v>
       </c>
-      <c r="P55" s="13">
-        <f>(O55/$O$44)*100</f>
-        <v>15.378787878787877</v>
-      </c>
-    </row>
-    <row r="56" spans="7:16">
+      <c r="Q55" s="12">
+        <f t="shared" si="38"/>
+        <v>1.38</v>
+      </c>
+      <c r="R55" s="13">
+        <f t="shared" si="36"/>
+        <v>15.436849253055678</v>
+      </c>
+    </row>
+    <row r="56" spans="7:18">
       <c r="G56" s="12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H56" s="12">
         <v>0.06</v>
       </c>
       <c r="I56" s="12">
-        <f>ROUNDUP(((H40/$B$39)*$B$40)*((100+N56)/100),0)/100</f>
+        <f>ROUNDUP(((H40/$B$39)*$B$40)*((100+O56)/100),0)/100</f>
         <v>0.15</v>
       </c>
       <c r="J56" s="12">
-        <f>ROUNDUP(((I40/$B$39)*$B$40)*((100+N56)/100),0)/100</f>
+        <f>ROUNDUP(((I40/$B$39)*$B$40)*((100+O56)/100),0)/100</f>
         <v>0.3</v>
       </c>
       <c r="K56" s="12">
-        <f>ROUNDUP(((J40/$B$39)*$B$40)*((100+N56)/100),0)/100</f>
+        <f>ROUNDUP(((J40/$B$39)*$B$40)*((100+O56)/100),0)/100</f>
         <v>0.59</v>
       </c>
       <c r="L56" s="12">
-        <f>ROUNDUP(((K40/$B$39)*$B$40)*((100+N56)/100),0)/100</f>
+        <f>ROUNDUP(((K40/$B$39)*$B$40)*((100+O56)/100),0)/100</f>
         <v>0.88</v>
       </c>
       <c r="M56" s="12">
-        <f>ROUNDUP(((L40/$B$39)*$B$40)*((100+N56)/100),0)/100</f>
+        <f>ROUNDUP(((L40/$B$39)*$B$40)*((100+O56)/100),0)/100</f>
         <v>1.03</v>
       </c>
-      <c r="N56" s="13">
+      <c r="N56" s="12">
+        <f>ROUNDUP(((M40/$B$39)*$B$40)*((100+O56)/100),0)/100</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O56" s="13">
         <v>110</v>
       </c>
-      <c r="O56" s="13">
-        <f t="shared" ref="O56" si="38">SUM(H56:M56)</f>
+      <c r="P56" s="13">
+        <f t="shared" si="35"/>
         <v>3.01</v>
       </c>
-      <c r="P56" s="13">
-        <f t="shared" ref="P56" si="39">(O56/$O$44)*100</f>
-        <v>22.803030303030305</v>
-      </c>
-    </row>
-    <row r="58" spans="7:16">
-      <c r="G58" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="7:16" ht="17.25" thickBot="1">
-      <c r="G59" s="27" t="s">
+      <c r="Q56" s="12">
+        <f t="shared" si="38"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R56" s="13">
+        <f>((P56+Q56)/$P$44)*100</f>
+        <v>22.906292440018106</v>
+      </c>
+    </row>
+    <row r="57" spans="7:18">
+      <c r="G57" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="I57" s="12">
+        <f>ROUNDUP(((H41/$B$39)*$B$40)*((100+O57)/100),0)/100</f>
+        <v>0.16</v>
+      </c>
+      <c r="J57" s="12">
+        <f>ROUNDUP(((I41/$B$39)*$B$40)*((100+O57)/100),0)/100</f>
+        <v>0.31</v>
+      </c>
+      <c r="K57" s="12">
+        <f>ROUNDUP(((J41/$B$39)*$B$40)*((100+O57)/100),0)/100</f>
+        <v>0.62</v>
+      </c>
+      <c r="L57" s="12">
+        <f>ROUNDUP(((K41/$B$39)*$B$40)*((100+O57)/100),0)/100</f>
+        <v>0.93</v>
+      </c>
+      <c r="M57" s="12">
+        <f>ROUNDUP(((L41/$B$39)*$B$40)*((100+O57)/100),0)/100</f>
+        <v>1.08</v>
+      </c>
+      <c r="N57" s="12">
+        <f>ROUNDUP(((M41/$B$39)*$B$40)*((100+O57)/100),0)/100</f>
+        <v>2.16</v>
+      </c>
+      <c r="O57" s="13">
+        <v>111</v>
+      </c>
+      <c r="P57" s="13">
+        <f t="shared" si="35"/>
+        <v>3.16</v>
+      </c>
+      <c r="Q57" s="12">
+        <f t="shared" si="38"/>
+        <v>2.16</v>
+      </c>
+      <c r="R57" s="13">
+        <f>((P57+Q57)/$P$44)*100</f>
+        <v>24.083295608872795</v>
+      </c>
+    </row>
+    <row r="60" spans="7:18">
+      <c r="G60" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="7:18" ht="17.25" thickBot="1">
+      <c r="G61" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="H59" s="27">
+      <c r="H61" s="27">
         <v>0</v>
       </c>
-      <c r="I59" s="27">
+      <c r="I61" s="27">
         <v>1</v>
       </c>
-      <c r="J59" s="27">
+      <c r="J61" s="27">
         <v>2</v>
       </c>
-      <c r="K59" s="27">
+      <c r="K61" s="27">
         <v>3</v>
       </c>
-      <c r="L59" s="27">
+      <c r="L61" s="27">
         <v>4</v>
       </c>
-      <c r="M59" s="27">
+      <c r="M61" s="27">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="7:16" ht="17.25" thickTop="1">
-      <c r="G60" s="12" t="s">
+      <c r="N61" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="7:18" ht="17.25" thickTop="1">
+      <c r="G62" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H60" s="12">
-        <f t="shared" ref="H60:H70" si="40">H46</f>
+      <c r="H62" s="12">
+        <f t="shared" ref="H62:H73" si="39">H46</f>
         <v>0.01</v>
       </c>
-      <c r="I60" s="12">
-        <f t="shared" ref="I60:M70" si="41">I46+H60</f>
+      <c r="I62" s="12">
+        <f t="shared" ref="I62:N73" si="40">I46+H62</f>
         <v>0.03</v>
       </c>
-      <c r="J60" s="12">
-        <f t="shared" si="41"/>
+      <c r="J62" s="12">
+        <f t="shared" si="40"/>
         <v>0.06</v>
       </c>
-      <c r="K60" s="12">
-        <f t="shared" si="41"/>
+      <c r="K62" s="12">
+        <f t="shared" si="40"/>
         <v>0.12</v>
       </c>
-      <c r="L60" s="12">
-        <f t="shared" si="41"/>
+      <c r="L62" s="12">
+        <f t="shared" si="40"/>
         <v>0.21</v>
       </c>
-      <c r="M60" s="12">
-        <f t="shared" si="41"/>
+      <c r="M62" s="12">
+        <f t="shared" si="40"/>
         <v>0.31</v>
       </c>
-    </row>
-    <row r="61" spans="7:16">
-      <c r="G61" s="12" t="s">
+      <c r="N62" s="12">
+        <f t="shared" si="40"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="63" spans="7:18">
+      <c r="G63" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="12">
-        <f t="shared" si="40"/>
+      <c r="H63" s="12">
+        <f t="shared" si="39"/>
         <v>0.01</v>
       </c>
-      <c r="I61" s="12">
-        <f t="shared" si="41"/>
+      <c r="I63" s="12">
+        <f t="shared" si="40"/>
         <v>0.03</v>
       </c>
-      <c r="J61" s="12">
-        <f t="shared" si="41"/>
+      <c r="J63" s="12">
+        <f t="shared" si="40"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K61" s="12">
-        <f t="shared" si="41"/>
+      <c r="K63" s="12">
+        <f t="shared" si="40"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="L61" s="12">
-        <f t="shared" si="41"/>
+      <c r="L63" s="12">
+        <f t="shared" si="40"/>
         <v>0.27</v>
       </c>
-      <c r="M61" s="12">
-        <f t="shared" si="41"/>
+      <c r="M63" s="12">
+        <f t="shared" si="40"/>
         <v>0.41000000000000003</v>
       </c>
-    </row>
-    <row r="62" spans="7:16">
-      <c r="G62" s="12" t="s">
+      <c r="N63" s="12">
+        <f t="shared" si="40"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="64" spans="7:18">
+      <c r="G64" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H62" s="12">
-        <f t="shared" si="40"/>
+      <c r="H64" s="12">
+        <f t="shared" si="39"/>
         <v>0.02</v>
       </c>
-      <c r="I62" s="12">
-        <f t="shared" si="41"/>
+      <c r="I64" s="12">
+        <f t="shared" si="40"/>
         <v>0.05</v>
       </c>
-      <c r="J62" s="12">
-        <f t="shared" si="41"/>
+      <c r="J64" s="12">
+        <f t="shared" si="40"/>
         <v>0.1</v>
       </c>
-      <c r="K62" s="12">
-        <f t="shared" si="41"/>
+      <c r="K64" s="12">
+        <f t="shared" si="40"/>
         <v>0.2</v>
       </c>
-      <c r="L62" s="12">
-        <f t="shared" si="41"/>
+      <c r="L64" s="12">
+        <f t="shared" si="40"/>
         <v>0.35</v>
       </c>
-      <c r="M62" s="12">
-        <f t="shared" si="41"/>
+      <c r="M64" s="12">
+        <f t="shared" si="40"/>
         <v>0.53</v>
       </c>
-    </row>
-    <row r="63" spans="7:16">
-      <c r="G63" s="12" t="s">
+      <c r="N64" s="12">
+        <f t="shared" si="40"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="65" spans="7:14">
+      <c r="G65" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="H63" s="12">
-        <f t="shared" si="40"/>
+      <c r="H65" s="12">
+        <f t="shared" si="39"/>
         <v>0.02</v>
       </c>
-      <c r="I63" s="12">
-        <f t="shared" si="41"/>
+      <c r="I65" s="12">
+        <f t="shared" si="40"/>
         <v>0.06</v>
       </c>
-      <c r="J63" s="12">
-        <f t="shared" si="41"/>
+      <c r="J65" s="12">
+        <f t="shared" si="40"/>
         <v>0.13</v>
       </c>
-      <c r="K63" s="12">
-        <f t="shared" si="41"/>
+      <c r="K65" s="12">
+        <f t="shared" si="40"/>
         <v>0.26</v>
       </c>
-      <c r="L63" s="12">
-        <f t="shared" si="41"/>
+      <c r="L65" s="12">
+        <f t="shared" si="40"/>
         <v>0.45</v>
       </c>
-      <c r="M63" s="12">
-        <f t="shared" si="41"/>
+      <c r="M65" s="12">
+        <f t="shared" si="40"/>
         <v>0.67</v>
       </c>
-    </row>
-    <row r="64" spans="7:16">
-      <c r="G64" s="12" t="s">
+      <c r="N65" s="12">
+        <f t="shared" si="40"/>
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="7:14">
+      <c r="G66" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="12">
-        <f t="shared" si="40"/>
+      <c r="H66" s="12">
+        <f t="shared" si="39"/>
         <v>0.03</v>
       </c>
-      <c r="I64" s="12">
-        <f t="shared" si="41"/>
+      <c r="I66" s="12">
+        <f t="shared" si="40"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J64" s="12">
-        <f t="shared" si="41"/>
+      <c r="J66" s="12">
+        <f t="shared" si="40"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="K64" s="12">
-        <f t="shared" si="41"/>
+      <c r="K66" s="12">
+        <f t="shared" si="40"/>
         <v>0.31000000000000005</v>
       </c>
-      <c r="L64" s="12">
-        <f t="shared" si="41"/>
+      <c r="L66" s="12">
+        <f t="shared" si="40"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="M64" s="12">
-        <f t="shared" si="41"/>
+      <c r="M66" s="12">
+        <f t="shared" si="40"/>
         <v>0.83000000000000007</v>
       </c>
-    </row>
-    <row r="65" spans="7:13">
-      <c r="G65" s="12" t="s">
+      <c r="N66" s="12">
+        <f t="shared" si="40"/>
+        <v>1.3800000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="7:14">
+      <c r="G67" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H65" s="12">
-        <f t="shared" si="40"/>
+      <c r="H67" s="12">
+        <f t="shared" si="39"/>
         <v>0.03</v>
       </c>
-      <c r="I65" s="12">
-        <f t="shared" si="41"/>
+      <c r="I67" s="12">
+        <f t="shared" si="40"/>
         <v>0.08</v>
       </c>
-      <c r="J65" s="12">
-        <f t="shared" si="41"/>
+      <c r="J67" s="12">
+        <f t="shared" si="40"/>
         <v>0.18</v>
       </c>
-      <c r="K65" s="12">
-        <f t="shared" si="41"/>
+      <c r="K67" s="12">
+        <f t="shared" si="40"/>
         <v>0.38</v>
       </c>
-      <c r="L65" s="12">
-        <f t="shared" si="41"/>
+      <c r="L67" s="12">
+        <f t="shared" si="40"/>
         <v>0.66999999999999993</v>
       </c>
-      <c r="M65" s="12">
-        <f t="shared" si="41"/>
+      <c r="M67" s="12">
+        <f t="shared" si="40"/>
         <v>1.01</v>
       </c>
-    </row>
-    <row r="66" spans="7:13">
-      <c r="G66" s="12" t="s">
+      <c r="N67" s="12">
+        <f t="shared" si="40"/>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="68" spans="7:14">
+      <c r="G68" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H66" s="12">
-        <f t="shared" si="40"/>
+      <c r="H68" s="12">
+        <f t="shared" si="39"/>
         <v>0.04</v>
       </c>
-      <c r="I66" s="12">
-        <f t="shared" si="41"/>
+      <c r="I68" s="12">
+        <f t="shared" si="40"/>
         <v>0.1</v>
       </c>
-      <c r="J66" s="12">
-        <f t="shared" si="41"/>
+      <c r="J68" s="12">
+        <f t="shared" si="40"/>
         <v>0.22</v>
       </c>
-      <c r="K66" s="12">
-        <f t="shared" si="41"/>
+      <c r="K68" s="12">
+        <f t="shared" si="40"/>
         <v>0.45999999999999996</v>
       </c>
-      <c r="L66" s="12">
-        <f t="shared" si="41"/>
+      <c r="L68" s="12">
+        <f t="shared" si="40"/>
         <v>0.80999999999999994</v>
       </c>
-      <c r="M66" s="12">
-        <f t="shared" si="41"/>
+      <c r="M68" s="12">
+        <f t="shared" si="40"/>
         <v>1.22</v>
       </c>
-    </row>
-    <row r="67" spans="7:13">
-      <c r="G67" s="12" t="s">
+      <c r="N68" s="12">
+        <f t="shared" si="40"/>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="69" spans="7:14">
+      <c r="G69" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H67" s="12">
-        <f t="shared" si="40"/>
+      <c r="H69" s="12">
+        <f t="shared" si="39"/>
         <v>0.04</v>
       </c>
-      <c r="I67" s="12">
-        <f t="shared" si="41"/>
+      <c r="I69" s="12">
+        <f t="shared" si="40"/>
         <v>0.11000000000000001</v>
       </c>
-      <c r="J67" s="12">
-        <f t="shared" si="41"/>
+      <c r="J69" s="12">
+        <f t="shared" si="40"/>
         <v>0.25</v>
       </c>
-      <c r="K67" s="12">
-        <f t="shared" si="41"/>
+      <c r="K69" s="12">
+        <f t="shared" si="40"/>
         <v>0.53</v>
       </c>
-      <c r="L67" s="12">
-        <f t="shared" si="41"/>
+      <c r="L69" s="12">
+        <f t="shared" si="40"/>
         <v>0.95</v>
       </c>
-      <c r="M67" s="12">
-        <f t="shared" si="41"/>
+      <c r="M69" s="12">
+        <f t="shared" si="40"/>
         <v>1.44</v>
       </c>
-    </row>
-    <row r="68" spans="7:13">
-      <c r="G68" s="12" t="s">
+      <c r="N69" s="12">
+        <f t="shared" si="40"/>
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="70" spans="7:14">
+      <c r="G70" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H68" s="12">
-        <f t="shared" si="40"/>
+      <c r="H70" s="12">
+        <f t="shared" si="39"/>
         <v>0.05</v>
       </c>
-      <c r="I68" s="12">
-        <f t="shared" si="41"/>
+      <c r="I70" s="12">
+        <f t="shared" si="40"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="J68" s="12">
-        <f t="shared" si="41"/>
+      <c r="J70" s="12">
+        <f t="shared" si="40"/>
         <v>0.31000000000000005</v>
       </c>
-      <c r="K68" s="12">
-        <f t="shared" si="41"/>
+      <c r="K70" s="12">
+        <f t="shared" si="40"/>
         <v>0.65000000000000013</v>
       </c>
-      <c r="L68" s="12">
-        <f t="shared" si="41"/>
+      <c r="L70" s="12">
+        <f t="shared" si="40"/>
         <v>1.1500000000000001</v>
       </c>
-      <c r="M68" s="12">
-        <f t="shared" si="41"/>
+      <c r="M70" s="12">
+        <f t="shared" si="40"/>
         <v>1.7400000000000002</v>
       </c>
-    </row>
-    <row r="69" spans="7:13">
-      <c r="G69" s="12" t="s">
+      <c r="N70" s="12">
+        <f t="shared" si="40"/>
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="71" spans="7:14">
+      <c r="G71" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H69" s="12">
-        <f t="shared" si="40"/>
+      <c r="H71" s="12">
+        <f t="shared" si="39"/>
         <v>0.05</v>
       </c>
-      <c r="I69" s="12">
-        <f t="shared" si="41"/>
+      <c r="I71" s="12">
+        <f t="shared" si="40"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="J69" s="12">
-        <f t="shared" si="41"/>
+      <c r="J71" s="12">
+        <f t="shared" si="40"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="K69" s="12">
-        <f t="shared" si="41"/>
+      <c r="K71" s="12">
+        <f t="shared" si="40"/>
         <v>0.75</v>
       </c>
-      <c r="L69" s="12">
-        <f t="shared" si="41"/>
+      <c r="L71" s="12">
+        <f t="shared" si="40"/>
         <v>1.3399999999999999</v>
       </c>
-      <c r="M69" s="12">
-        <f t="shared" si="41"/>
+      <c r="M71" s="12">
+        <f t="shared" si="40"/>
         <v>2.0299999999999998</v>
       </c>
-    </row>
-    <row r="70" spans="7:13">
-      <c r="G70" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H70" s="12">
-        <f t="shared" si="40"/>
+      <c r="N71" s="12">
+        <f t="shared" si="40"/>
+        <v>3.4099999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="7:14">
+      <c r="G72" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H72" s="12">
+        <f t="shared" si="39"/>
         <v>0.06</v>
       </c>
-      <c r="I70" s="12">
-        <f t="shared" si="41"/>
+      <c r="I72" s="12">
+        <f t="shared" si="40"/>
         <v>0.21</v>
       </c>
-      <c r="J70" s="12">
-        <f t="shared" si="41"/>
+      <c r="J72" s="12">
+        <f t="shared" si="40"/>
         <v>0.51</v>
       </c>
-      <c r="K70" s="12">
-        <f t="shared" si="41"/>
+      <c r="K72" s="12">
+        <f t="shared" si="40"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L70" s="12">
-        <f t="shared" si="41"/>
+      <c r="L72" s="12">
+        <f t="shared" si="40"/>
         <v>1.98</v>
       </c>
-      <c r="M70" s="12">
-        <f t="shared" si="41"/>
+      <c r="M72" s="12">
+        <f t="shared" si="40"/>
         <v>3.01</v>
       </c>
+      <c r="N72" s="12">
+        <f t="shared" si="40"/>
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="7:14">
+      <c r="G73" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H73" s="12">
+        <f t="shared" si="39"/>
+        <v>0.06</v>
+      </c>
+      <c r="I73" s="12">
+        <f t="shared" si="40"/>
+        <v>0.22</v>
+      </c>
+      <c r="J73" s="12">
+        <f t="shared" si="40"/>
+        <v>0.53</v>
+      </c>
+      <c r="K73" s="12">
+        <f t="shared" si="40"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L73" s="12">
+        <f t="shared" si="40"/>
+        <v>2.08</v>
+      </c>
+      <c r="M73" s="12">
+        <f t="shared" si="40"/>
+        <v>3.16</v>
+      </c>
+      <c r="N73" s="12">
+        <f t="shared" si="40"/>
+        <v>5.32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="G38:V38"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="G18:J18"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4661,7 +5097,7 @@
   <dimension ref="A2:W50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4678,49 +5114,49 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="M2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="N2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="O2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="Q2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="T2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="U2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -4755,7 +5191,7 @@
         <v>1000</v>
       </c>
       <c r="T3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="U3">
         <v>4</v>
@@ -4798,7 +5234,7 @@
         <v>1000나</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -4832,7 +5268,7 @@
         <v>1E+60</v>
       </c>
       <c r="T4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="U4">
         <v>8</v>
@@ -4875,7 +5311,7 @@
         <v>1000불</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -4909,7 +5345,7 @@
         <v>1E+64</v>
       </c>
       <c r="T5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="U5">
         <v>12</v>
@@ -4952,7 +5388,7 @@
         <v>1000무</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -4986,7 +5422,7 @@
         <v>1E+68</v>
       </c>
       <c r="T6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="U6">
         <v>16</v>
@@ -5029,7 +5465,7 @@
         <v>1000대</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -5063,7 +5499,7 @@
         <v>1E+72</v>
       </c>
       <c r="T7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="U7">
         <v>20</v>
@@ -5106,7 +5542,7 @@
         <v>1000겁</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -5140,7 +5576,7 @@
         <v>1E+76</v>
       </c>
       <c r="T8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="U8">
         <v>24</v>
@@ -5183,7 +5619,7 @@
         <v>1000업</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -5217,7 +5653,7 @@
         <v>1E+80</v>
       </c>
       <c r="T9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="U9">
         <v>28</v>
@@ -5260,7 +5696,7 @@
         <v>1000긍</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J10">
         <v>7</v>
@@ -5294,7 +5730,7 @@
         <v>1E+84</v>
       </c>
       <c r="T10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="U10">
         <v>32</v>
@@ -5337,7 +5773,7 @@
         <v>1000갈</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J11">
         <v>8</v>
@@ -5371,7 +5807,7 @@
         <v>1E+88</v>
       </c>
       <c r="T11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="U11">
         <v>36</v>
@@ -5414,7 +5850,7 @@
         <v>1000라</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -5448,7 +5884,7 @@
         <v>1E+92</v>
       </c>
       <c r="T12" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="U12">
         <v>40</v>
@@ -5491,7 +5927,7 @@
         <v>1000가</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -5525,7 +5961,7 @@
         <v>1E+96</v>
       </c>
       <c r="T13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="U13">
         <v>44</v>
@@ -5568,7 +6004,7 @@
         <v>1000언</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J14">
         <v>11</v>
@@ -5602,7 +6038,7 @@
         <v>1E+100</v>
       </c>
       <c r="T14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="U14">
         <v>48</v>
@@ -5620,13 +6056,66 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="str">
+        <f t="shared" ref="B15" si="28">C15&amp;","&amp;D15&amp;","&amp;E15&amp;","&amp;F15&amp;","&amp;G15</f>
+        <v>10승,20승,50승,200승,1000승</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" ref="C15" si="29">$C$3&amp;H15</f>
+        <v>10승</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15" si="30">$D$3&amp;H15</f>
+        <v>20승</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ref="E15" si="31">$E$3&amp;H15</f>
+        <v>50승</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ref="F15" si="32">$F$3&amp;H15</f>
+        <v>200승</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ref="G15" si="33">$G$3&amp;H15</f>
+        <v>1000승</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="J15">
         <v>12</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3" t="str">
+        <f t="shared" ref="K15" si="34">L15&amp;","&amp;M15&amp;","&amp;N15&amp;","&amp;O15&amp;","&amp;P15</f>
+        <v>1E+105,2E+105,5E+105,2E+106,1E+107</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15" si="35">$C$3*Q15</f>
+        <v>9.9999999999999994E+104</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15" si="36">$D$3*Q15</f>
+        <v>1.9999999999999999E+105</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15" si="37">$E$3*Q15</f>
+        <v>5.0000000000000005E+105</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ref="O15" si="38">$F$3*Q15</f>
+        <v>2.0000000000000002E+106</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ref="P15" si="39">$G$3*Q15</f>
+        <v>9.9999999999999997E+106</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" ref="Q15" si="40">VLOOKUP(H15,T:W,4,FALSE)</f>
+        <v>1E+104</v>
+      </c>
       <c r="T15" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="U15">
         <v>52</v>
@@ -5643,7 +6132,7 @@
     <row r="16" spans="1:23">
       <c r="K16" s="40"/>
       <c r="T16" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="U16">
         <v>56</v>
@@ -5659,7 +6148,7 @@
     </row>
     <row r="17" spans="20:23">
       <c r="T17" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="U17">
         <v>60</v>
@@ -5675,7 +6164,7 @@
     </row>
     <row r="18" spans="20:23">
       <c r="T18" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="U18">
         <v>64</v>
@@ -5691,7 +6180,7 @@
     </row>
     <row r="19" spans="20:23">
       <c r="T19" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="U19">
         <v>68</v>
@@ -5707,7 +6196,7 @@
     </row>
     <row r="20" spans="20:23">
       <c r="T20" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="U20">
         <v>72</v>
@@ -5723,7 +6212,7 @@
     </row>
     <row r="21" spans="20:23">
       <c r="T21" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="U21">
         <v>76</v>
@@ -5739,7 +6228,7 @@
     </row>
     <row r="22" spans="20:23">
       <c r="T22" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="U22">
         <v>80</v>
@@ -5755,7 +6244,7 @@
     </row>
     <row r="23" spans="20:23">
       <c r="T23" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="U23">
         <v>84</v>
@@ -5771,7 +6260,7 @@
     </row>
     <row r="24" spans="20:23">
       <c r="T24" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="U24">
         <v>88</v>
@@ -5787,7 +6276,7 @@
     </row>
     <row r="25" spans="20:23">
       <c r="T25" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="U25">
         <v>92</v>
@@ -5803,7 +6292,7 @@
     </row>
     <row r="26" spans="20:23">
       <c r="T26" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="U26">
         <v>96</v>
@@ -5819,7 +6308,7 @@
     </row>
     <row r="27" spans="20:23">
       <c r="T27" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="U27">
         <v>100</v>
@@ -5834,10 +6323,36 @@
       </c>
     </row>
     <row r="28" spans="20:23">
-      <c r="V28" s="40"/>
+      <c r="T28" t="s">
+        <v>216</v>
+      </c>
+      <c r="U28">
+        <v>104</v>
+      </c>
+      <c r="V28">
+        <f t="shared" ref="V28:V29" si="41">POWER(10,U28)</f>
+        <v>1E+104</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" ref="W28:W29" si="42">RIGHT(V28,U28)</f>
+        <v>1E+104</v>
+      </c>
     </row>
     <row r="29" spans="20:23">
-      <c r="V29" s="40"/>
+      <c r="T29" t="s">
+        <v>217</v>
+      </c>
+      <c r="U29">
+        <v>108</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="41"/>
+        <v>1E+108</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+108</v>
+      </c>
     </row>
     <row r="30" spans="20:23">
       <c r="V30" s="40"/>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D09741-D022-473B-8CC9-469AA466C0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B347B2E6-3CF2-44C4-8E4E-9B4086919F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhopetTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="241">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -780,97 +780,133 @@
     <t>p11</t>
   </si>
   <si>
+    <t>1E+105,2E+105,5E+105,2E+106,1E+107</t>
+  </si>
+  <si>
+    <t>0.06,0.22,0.53,1.15,2.08,3.16,5.32</t>
+  </si>
+  <si>
+    <t>608,1215,2429,3644,4251,8502</t>
+  </si>
+  <si>
+    <t>320,320,320,320,320</t>
+  </si>
+  <si>
+    <t>0.01,0.03,0.06,0.12,0.21,0.31,0.51</t>
+  </si>
+  <si>
+    <t>0.01,0.03,0.07,0.15,0.27,0.41,0.68</t>
+  </si>
+  <si>
+    <t>0.02,0.05,0.1,0.2,0.35,0.53,0.88</t>
+  </si>
+  <si>
+    <t>0.02,0.06,0.13,0.26,0.45,0.67,1.11</t>
+  </si>
+  <si>
+    <t>0.03,0.07,0.15,0.31,0.55,0.83,1.38</t>
+  </si>
+  <si>
+    <t>0.03,0.08,0.18,0.38,0.67,1.01,1.69</t>
+  </si>
+  <si>
+    <t>0.04,0.1,0.22,0.46,0.81,1.22,2.04</t>
+  </si>
+  <si>
+    <t>0.04,0.11,0.25,0.53,0.95,1.44,2.42</t>
+  </si>
+  <si>
+    <t>0.05,0.14,0.31,0.65,1.15,1.74,2.91</t>
+  </si>
+  <si>
+    <t>0.05,0.15,0.35,0.75,1.34,2.03,3.41</t>
+  </si>
+  <si>
+    <t>0.06,0.21,0.51,1.1,1.98,3.01,5.06</t>
+  </si>
+  <si>
+    <t>승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106,212,423,634,740,1480</t>
+  </si>
+  <si>
+    <t>130,260,519,778,908,1816</t>
+  </si>
+  <si>
+    <t>156,312,624,936,1092,2184</t>
+  </si>
+  <si>
+    <t>185,370,740,1109,1294,2588</t>
+  </si>
+  <si>
+    <t>216,432,864,1296,1512,3024</t>
+  </si>
+  <si>
+    <t>250,500,999,1498,1748,3496</t>
+  </si>
+  <si>
+    <t>286,572,1143,1714,2000,4000</t>
+  </si>
+  <si>
+    <t>324,648,1296,1944,2268,4536</t>
+  </si>
+  <si>
+    <t>365,730,1460,2189,2554,5108</t>
+  </si>
+  <si>
+    <t>408,816,1632,2448,2856,5712</t>
+  </si>
+  <si>
+    <t>580,1160,2319,3478,4058,8116</t>
+  </si>
+  <si>
+    <t>10승,20승,50승,200승,1000승</t>
+  </si>
+  <si>
+    <t>흑랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>해태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1E+105,2E+105,5E+105,2E+106,1E+107</t>
-  </si>
-  <si>
-    <t>0.06,0.22,0.53,1.15,2.08,3.16,5.32</t>
-  </si>
-  <si>
-    <t>608,1215,2429,3644,4251,8502</t>
-  </si>
-  <si>
-    <t>320,320,320,320,320</t>
-  </si>
-  <si>
-    <t>0.01,0.03,0.06,0.12,0.21,0.31,0.51</t>
-  </si>
-  <si>
-    <t>0.01,0.03,0.07,0.15,0.27,0.41,0.68</t>
-  </si>
-  <si>
-    <t>0.02,0.05,0.1,0.2,0.35,0.53,0.88</t>
-  </si>
-  <si>
-    <t>0.02,0.06,0.13,0.26,0.45,0.67,1.11</t>
-  </si>
-  <si>
-    <t>0.03,0.07,0.15,0.31,0.55,0.83,1.38</t>
-  </si>
-  <si>
-    <t>0.03,0.08,0.18,0.38,0.67,1.01,1.69</t>
-  </si>
-  <si>
-    <t>0.04,0.1,0.22,0.46,0.81,1.22,2.04</t>
-  </si>
-  <si>
-    <t>0.04,0.11,0.25,0.53,0.95,1.44,2.42</t>
-  </si>
-  <si>
-    <t>0.05,0.14,0.31,0.65,1.15,1.74,2.91</t>
-  </si>
-  <si>
-    <t>0.05,0.15,0.35,0.75,1.34,2.03,3.41</t>
-  </si>
-  <si>
-    <t>0.06,0.21,0.51,1.1,1.98,3.01,5.06</t>
-  </si>
-  <si>
-    <t>승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106,212,423,634,740,1480</t>
-  </si>
-  <si>
-    <t>130,260,519,778,908,1816</t>
-  </si>
-  <si>
-    <t>156,312,624,936,1092,2184</t>
-  </si>
-  <si>
-    <t>185,370,740,1109,1294,2588</t>
-  </si>
-  <si>
-    <t>216,432,864,1296,1512,3024</t>
-  </si>
-  <si>
-    <t>250,500,999,1498,1748,3496</t>
-  </si>
-  <si>
-    <t>286,572,1143,1714,2000,4000</t>
-  </si>
-  <si>
-    <t>324,648,1296,1944,2268,4536</t>
-  </si>
-  <si>
-    <t>365,730,1460,2189,2554,5108</t>
-  </si>
-  <si>
-    <t>408,816,1632,2448,2856,5712</t>
-  </si>
-  <si>
-    <t>580,1160,2319,3478,4058,8116</t>
-  </si>
-  <si>
-    <t>10승,20승,50승,200승,1000승</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t>흑량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>340,340,340,340,340</t>
+  </si>
+  <si>
+    <t>10마,20마,50마,200마,1000마</t>
+  </si>
+  <si>
+    <t>1E+109,2E+109,5E+109,2E+110,1E+111</t>
+  </si>
+  <si>
+    <t>0.07,0.24,0.57,1.22,2.19,3.33,5.6</t>
+  </si>
+  <si>
+    <t>635,1270,2540,3809,4444,8888</t>
   </si>
 </sst>
 </file>
@@ -1608,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1624,7 +1660,7 @@
     <col min="12" max="12" width="19.875" customWidth="1"/>
     <col min="14" max="14" width="42" customWidth="1"/>
     <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.375" customWidth="1"/>
+    <col min="17" max="17" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1724,7 +1760,7 @@
         <v>49</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O2" s="4">
         <v>6</v>
@@ -1733,7 +1769,7 @@
         <v>9016</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R2" s="4">
         <v>56</v>
@@ -1780,7 +1816,7 @@
         <v>49</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O3" s="4">
         <v>6</v>
@@ -1789,7 +1825,7 @@
         <v>9016</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R3" s="4">
         <v>57</v>
@@ -1836,7 +1872,7 @@
         <v>49</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O4" s="4">
         <v>6</v>
@@ -1845,7 +1881,7 @@
         <v>9016</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R4" s="4">
         <v>58</v>
@@ -1892,7 +1928,7 @@
         <v>49</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O5" s="4">
         <v>6</v>
@@ -1901,7 +1937,7 @@
         <v>9016</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R5" s="4">
         <v>59</v>
@@ -1948,7 +1984,7 @@
         <v>49</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O6" s="4">
         <v>6</v>
@@ -1957,7 +1993,7 @@
         <v>9016</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R6" s="4">
         <v>60</v>
@@ -2004,7 +2040,7 @@
         <v>49</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O7" s="4">
         <v>6</v>
@@ -2013,7 +2049,7 @@
         <v>9016</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R7" s="4">
         <v>61</v>
@@ -2060,7 +2096,7 @@
         <v>49</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O8" s="4">
         <v>6</v>
@@ -2069,7 +2105,7 @@
         <v>9016</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R8" s="4">
         <v>62</v>
@@ -2116,7 +2152,7 @@
         <v>49</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O9" s="4">
         <v>6</v>
@@ -2125,7 +2161,7 @@
         <v>9016</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R9" s="4">
         <v>63</v>
@@ -2172,7 +2208,7 @@
         <v>49</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O10" s="4">
         <v>6</v>
@@ -2181,7 +2217,7 @@
         <v>9016</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R10" s="4">
         <v>64</v>
@@ -2228,7 +2264,7 @@
         <v>49</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O11" s="4">
         <v>6</v>
@@ -2237,7 +2273,7 @@
         <v>9016</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R11" s="4">
         <v>65</v>
@@ -2284,7 +2320,7 @@
         <v>49</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O12" s="4">
         <v>6</v>
@@ -2293,7 +2329,7 @@
         <v>9016</v>
       </c>
       <c r="Q12" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R12" s="4">
         <v>66</v>
@@ -2307,28 +2343,28 @@
         <v>199</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>201</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="K13" s="44">
         <v>9016</v>
@@ -2340,7 +2376,7 @@
         <v>49</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O13" s="4">
         <v>5</v>
@@ -2349,10 +2385,66 @@
         <v>9016</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R13" s="4">
         <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="44">
+        <v>9016</v>
+      </c>
+      <c r="L14" s="3">
+        <v>230</v>
+      </c>
+      <c r="M14" s="4">
+        <v>49</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O14" s="4">
+        <v>5</v>
+      </c>
+      <c r="P14" s="37">
+        <v>9016</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="R14" s="4">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2364,10 +2456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:W73"/>
+  <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2540,7 +2632,7 @@
         <v>864</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" ref="J9:J20" si="2">ROUNDUP((I9/5),-1)</f>
+        <f t="shared" ref="J9:J21" si="2">ROUNDUP((I9/5),-1)</f>
         <v>180</v>
       </c>
       <c r="N9" s="12" t="s">
@@ -2904,7 +2996,7 @@
         <v>210</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" ref="I19:I20" si="5">H19*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I19:I21" si="5">H19*$B$9*$B$18*($B$13/100)</f>
         <v>1512</v>
       </c>
       <c r="J19" s="12">
@@ -2951,6 +3043,21 @@
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
+      <c r="N20" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f>J21&amp;","&amp;J21&amp;","&amp;J21&amp;","&amp;J21&amp;","&amp;J21</f>
+        <v>340,340,340,340,340</v>
+      </c>
+      <c r="P20" s="2" t="str">
+        <f t="shared" ref="P20" si="6">H74&amp;","&amp;I74&amp;","&amp;J74&amp;","&amp;K74&amp;","&amp;L74&amp;","&amp;M74&amp;","&amp;N74</f>
+        <v>0.07,0.24,0.57,1.22,2.19,3.33,5.6</v>
+      </c>
+      <c r="Q20" s="12" t="str">
+        <f>H42&amp;","&amp;I42&amp;","&amp;J42&amp;","&amp;K42&amp;","&amp;L42&amp;","&amp;M42</f>
+        <v>635,1270,2540,3809,4444,8888</v>
+      </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="18" t="s">
@@ -2963,6 +3070,20 @@
         <v>136</v>
       </c>
       <c r="E21" s="16"/>
+      <c r="G21" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" s="12">
+        <v>230</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="5"/>
+        <v>1656</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="18" t="s">
@@ -2973,10 +3094,6 @@
       </c>
       <c r="C22" s="24"/>
       <c r="E22" s="16"/>
-      <c r="J22" s="12">
-        <f>SUM(J8:J17)*4</f>
-        <v>9120</v>
-      </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="15" t="s">
@@ -3010,27 +3127,27 @@
         <v>70</v>
       </c>
       <c r="R26" s="26">
-        <f t="shared" ref="R26:W26" si="6">SUM(R28:R37)</f>
+        <f t="shared" ref="R26:W26" si="7">SUM(R28:R37)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="S26" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.328571428571429</v>
       </c>
       <c r="T26" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.213240418118467</v>
       </c>
       <c r="U26" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="V26" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="W26" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.3097560975609763</v>
       </c>
     </row>
@@ -3133,19 +3250,19 @@
         <v>50</v>
       </c>
       <c r="P28" s="12">
-        <f t="shared" ref="P28:P37" si="7">(H8*$B$9*$B$18)*(O28/100)+I8</f>
+        <f t="shared" ref="P28:P37" si="8">(H8*$B$9*$B$18)*(O28/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="Q28" s="12">
-        <f t="shared" ref="Q28:Q37" si="8">P28-I8</f>
+        <f t="shared" ref="Q28:Q37" si="9">P28-I8</f>
         <v>1320</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" ref="R28:R37" si="9">(Q28/H8)/($B$18*7)</f>
+        <f t="shared" ref="R28:R37" si="10">(Q28/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" ref="S28:S37" si="10">(Q28/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="S28:S37" si="11">(Q28/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="T28" s="2">
@@ -3176,66 +3293,66 @@
         <v>18</v>
       </c>
       <c r="H29" s="12">
-        <f t="shared" ref="H29:H37" si="11">ROUNDUP((P29*$B$30/100),0)</f>
+        <f t="shared" ref="H29:H37" si="12">ROUNDUP((P29*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" ref="I29:I37" si="12">ROUNDUP((P29*$B$31/100),0)</f>
+        <f t="shared" ref="I29:I37" si="13">ROUNDUP((P29*$B$31/100),0)</f>
         <v>260</v>
       </c>
       <c r="J29" s="12">
-        <f t="shared" ref="J29:J37" si="13">ROUNDUP((P29*$B$32/100),0)</f>
+        <f t="shared" ref="J29:J37" si="14">ROUNDUP((P29*$B$32/100),0)</f>
         <v>519</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" ref="K29:K37" si="14">ROUNDUP((P29*$B$33/100),0)</f>
+        <f t="shared" ref="K29:K37" si="15">ROUNDUP((P29*$B$33/100),0)</f>
         <v>778</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" ref="L29:L37" si="15">ROUNDUP((P29*$B$34/100),0)</f>
+        <f t="shared" ref="L29:L37" si="16">ROUNDUP((P29*$B$34/100),0)</f>
         <v>908</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" ref="M29:M37" si="16">L29*$B$43</f>
+        <f t="shared" ref="M29:M37" si="17">L29*$B$43</f>
         <v>1816</v>
       </c>
       <c r="N29" s="12">
-        <f t="shared" ref="N29:N37" si="17">SUM(H29:L29)</f>
+        <f t="shared" ref="N29:N37" si="18">SUM(H29:L29)</f>
         <v>2595</v>
       </c>
       <c r="O29" s="12">
         <v>60</v>
       </c>
       <c r="P29" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2592</v>
       </c>
       <c r="Q29" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1728</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.61714285714285722</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" ref="T29:T36" si="18">(Q29/H9)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T29:T36" si="19">(Q29/H9)/($B$18*7+$B$21)</f>
         <v>0.68571428571428572</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" ref="U29:U37" si="19">(Q29/$H$17)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="U29:U37" si="20">(Q29/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" ref="V29:V37" si="20">(Q29/H9)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V29:V37" si="21">(Q29/H9)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.40975609756097564</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" ref="W29:W37" si="21">(Q29/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="W29:W37" si="22">(Q29/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
     </row>
@@ -3250,66 +3367,66 @@
         <v>19</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>156</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>312</v>
       </c>
       <c r="J30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>624</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>936</v>
       </c>
       <c r="L30" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1092</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2184</v>
       </c>
       <c r="N30" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3120</v>
       </c>
       <c r="O30" s="12">
         <v>70</v>
       </c>
       <c r="P30" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3120</v>
       </c>
       <c r="Q30" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2184</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.78</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.52</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.47804878048780497</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.31073170731707322</v>
       </c>
     </row>
@@ -3324,66 +3441,66 @@
         <v>87</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>185</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>370</v>
       </c>
       <c r="J31" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>740</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1109</v>
       </c>
       <c r="L31" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1294</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2588</v>
       </c>
       <c r="N31" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3698</v>
       </c>
       <c r="O31" s="12">
         <v>80</v>
       </c>
       <c r="P31" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3696</v>
       </c>
       <c r="Q31" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2688</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="U31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.64</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.38243902439024391</v>
       </c>
     </row>
@@ -3398,66 +3515,66 @@
         <v>20</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>216</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>432</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>864</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1296</v>
       </c>
       <c r="L32" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1512</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3024</v>
       </c>
       <c r="N32" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4320</v>
       </c>
       <c r="O32" s="12">
         <v>90</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4320</v>
       </c>
       <c r="Q32" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3240</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5428571428571429</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.157142857142857</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.77142857142857135</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.61463414634146352</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.46097560975609758</v>
       </c>
     </row>
@@ -3472,66 +3589,66 @@
         <v>21</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>250</v>
       </c>
       <c r="I33" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="J33" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>999</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1498</v>
       </c>
       <c r="L33" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1748</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3496</v>
       </c>
       <c r="N33" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4995</v>
       </c>
       <c r="O33" s="12">
         <v>100</v>
       </c>
       <c r="P33" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4992</v>
       </c>
       <c r="Q33" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3840</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="U33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.54634146341463419</v>
       </c>
     </row>
@@ -3546,66 +3663,66 @@
         <v>22</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>286</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>572</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1143</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1714</v>
       </c>
       <c r="L34" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2000</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4000</v>
       </c>
       <c r="N34" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5715</v>
       </c>
       <c r="O34" s="12">
         <v>110</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5712</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4488</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.8857142857142857</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.602857142857143</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2571428571428571</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0685714285714287</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.75121951219512195</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.63853658536585378</v>
       </c>
     </row>
@@ -3621,66 +3738,66 @@
         <v>23</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>324</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>648</v>
       </c>
       <c r="J35" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1296</v>
       </c>
       <c r="K35" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1944</v>
       </c>
       <c r="L35" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2268</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4536</v>
       </c>
       <c r="N35" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6480</v>
       </c>
       <c r="O35" s="12">
         <v>120</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6480</v>
       </c>
       <c r="Q35" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5184</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0571428571428574</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8514285714285716</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.2342857142857144</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.81951219512195128</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.7375609756097562</v>
       </c>
     </row>
@@ -3690,23 +3807,23 @@
         <v>24</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>365</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>730</v>
       </c>
       <c r="J36" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1460</v>
       </c>
       <c r="K36" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2189</v>
       </c>
       <c r="L36" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2554</v>
       </c>
       <c r="M36" s="12">
@@ -3714,42 +3831,42 @@
         <v>5108</v>
       </c>
       <c r="N36" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7298</v>
       </c>
       <c r="O36" s="12">
         <v>130</v>
       </c>
       <c r="P36" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7296</v>
       </c>
       <c r="Q36" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5928</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.117142857142857</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.4114285714285715</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.88780487804878061</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.84341463414634155</v>
       </c>
     </row>
@@ -3762,66 +3879,66 @@
         <v>25</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>408</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>816</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1632</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2448</v>
       </c>
       <c r="L37" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2856</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5712</v>
       </c>
       <c r="N37" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8160</v>
       </c>
       <c r="O37" s="12">
         <v>140</v>
       </c>
       <c r="P37" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8160</v>
       </c>
       <c r="Q37" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6720</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="9"/>
-        <v>2.4</v>
-      </c>
-      <c r="S37" s="2">
         <f t="shared" si="10"/>
         <v>2.4</v>
       </c>
+      <c r="S37" s="2">
+        <f t="shared" si="11"/>
+        <v>2.4</v>
+      </c>
       <c r="T37" s="2">
-        <f t="shared" ref="T37" si="22">(Q37/H17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="T37" si="23">(Q37/H17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.95609756097560994</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.95609756097560994</v>
       </c>
     </row>
@@ -3863,23 +3980,23 @@
         <v>6.8571428571428568</v>
       </c>
       <c r="S39" s="26">
-        <f t="shared" ref="S39:W39" si="23">SUM(S40:S41)</f>
+        <f t="shared" ref="S39:W39" si="24">SUM(S40:S41)</f>
         <v>6.7012987012987013</v>
       </c>
       <c r="T39" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="U39" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.4675324675324681</v>
       </c>
       <c r="V39" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="W39" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.6696230598669626</v>
       </c>
     </row>
@@ -3894,23 +4011,23 @@
         <v>108</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" ref="H40:H41" si="24">ROUNDUP((P40*$B$30/100),0)</f>
+        <f t="shared" ref="H40:H41" si="25">ROUNDUP((P40*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I40" s="12">
-        <f t="shared" ref="I40:I41" si="25">ROUNDUP((P40*$B$31/100),0)</f>
+        <f t="shared" ref="I40:I41" si="26">ROUNDUP((P40*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" ref="J40:J41" si="26">ROUNDUP((P40*$B$32/100),0)</f>
+        <f t="shared" ref="J40:J41" si="27">ROUNDUP((P40*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40:K41" si="27">ROUNDUP((P40*$B$33/100),0)</f>
+        <f t="shared" ref="K40:K41" si="28">ROUNDUP((P40*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L40" s="12">
-        <f t="shared" ref="L40:L41" si="28">ROUNDUP((P40*$B$34/100),0)</f>
+        <f t="shared" ref="L40:L41" si="29">ROUNDUP((P40*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M40" s="12">
@@ -3918,7 +4035,7 @@
         <v>8116</v>
       </c>
       <c r="N40" s="12">
-        <f t="shared" ref="N40" si="29">SUM(H40:L40)</f>
+        <f t="shared" ref="N40" si="30">SUM(H40:L40)</f>
         <v>11595</v>
       </c>
       <c r="O40" s="12">
@@ -3962,23 +4079,23 @@
         <v>109</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>608</v>
       </c>
       <c r="I41" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1215</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2429</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3644</v>
       </c>
       <c r="L41" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4251</v>
       </c>
       <c r="M41" s="12">
@@ -4029,6 +4146,44 @@
       <c r="A42" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="G42" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H42" s="12">
+        <f t="shared" ref="H42" si="31">ROUNDUP((P42*$B$30/100),0)</f>
+        <v>635</v>
+      </c>
+      <c r="I42" s="12">
+        <f t="shared" ref="I42" si="32">ROUNDUP((P42*$B$31/100),0)</f>
+        <v>1270</v>
+      </c>
+      <c r="J42" s="12">
+        <f t="shared" ref="J42" si="33">ROUNDUP((P42*$B$32/100),0)</f>
+        <v>2540</v>
+      </c>
+      <c r="K42" s="12">
+        <f t="shared" ref="K42" si="34">ROUNDUP((P42*$B$33/100),0)</f>
+        <v>3809</v>
+      </c>
+      <c r="L42" s="12">
+        <f t="shared" ref="L42" si="35">ROUNDUP((P42*$B$34/100),0)</f>
+        <v>4444</v>
+      </c>
+      <c r="M42" s="12">
+        <f>L42*$B$43</f>
+        <v>8888</v>
+      </c>
+      <c r="N42" s="12">
+        <f>SUM(H42:L42)</f>
+        <v>12698</v>
+      </c>
+      <c r="O42" s="12">
+        <v>200</v>
+      </c>
+      <c r="P42" s="12">
+        <f>(H21*$B$9*$B$18)*(O42/100)+I21</f>
+        <v>12696</v>
+      </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="18" t="s">
@@ -4099,23 +4254,23 @@
         <v>0.01</v>
       </c>
       <c r="I46" s="12">
-        <f t="shared" ref="I46:I55" si="30">ROUNDUP(((H28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
+        <f t="shared" ref="I46:I55" si="36">ROUNDUP(((H28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
         <v>0.02</v>
       </c>
       <c r="J46" s="12">
-        <f t="shared" ref="J46:J55" si="31">ROUNDUP(((I28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
+        <f t="shared" ref="J46:J55" si="37">ROUNDUP(((I28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
         <v>0.03</v>
       </c>
       <c r="K46" s="12">
-        <f t="shared" ref="K46:K55" si="32">ROUNDUP(((J28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
+        <f t="shared" ref="K46:K55" si="38">ROUNDUP(((J28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
         <v>0.06</v>
       </c>
       <c r="L46" s="12">
-        <f t="shared" ref="L46:L55" si="33">ROUNDUP(((K28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
+        <f t="shared" ref="L46:L55" si="39">ROUNDUP(((K28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
         <v>0.09</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" ref="M46:M55" si="34">ROUNDUP(((L28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
+        <f t="shared" ref="M46:M55" si="40">ROUNDUP(((L28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
         <v>0.1</v>
       </c>
       <c r="N46" s="12">
@@ -4126,7 +4281,7 @@
         <v>10</v>
       </c>
       <c r="P46" s="13">
-        <f t="shared" ref="P46:P57" si="35">SUM(H46:M46)</f>
+        <f t="shared" ref="P46:P57" si="41">SUM(H46:M46)</f>
         <v>0.31</v>
       </c>
       <c r="Q46" s="12">
@@ -4134,7 +4289,7 @@
         <v>0.2</v>
       </c>
       <c r="R46" s="13">
-        <f t="shared" ref="R46:R55" si="36">((P46+Q46)/$P$44)*100</f>
+        <f t="shared" ref="R46:R55" si="42">((P46+Q46)/$P$44)*100</f>
         <v>2.3087369850611137</v>
       </c>
     </row>
@@ -4146,42 +4301,42 @@
         <v>0.01</v>
       </c>
       <c r="I47" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.02</v>
       </c>
       <c r="J47" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.04</v>
       </c>
       <c r="K47" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.08</v>
       </c>
       <c r="L47" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.12</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="N47" s="12">
-        <f t="shared" ref="N47:N55" si="37">ROUNDUP(((M29/$B$39)*$B$40)*((100+O47)/100),0)/100</f>
+        <f t="shared" ref="N47:N55" si="43">ROUNDUP(((M29/$B$39)*$B$40)*((100+O47)/100),0)/100</f>
         <v>0.27</v>
       </c>
       <c r="O47" s="13">
         <v>20</v>
       </c>
       <c r="P47" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="Q47" s="12">
-        <f t="shared" ref="Q47:Q57" si="38">N47</f>
+        <f t="shared" ref="Q47:Q57" si="44">N47</f>
         <v>0.27</v>
       </c>
       <c r="R47" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>3.0783159800814848</v>
       </c>
     </row>
@@ -4193,42 +4348,42 @@
         <v>0.02</v>
       </c>
       <c r="I48" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.03</v>
       </c>
       <c r="J48" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.05</v>
       </c>
       <c r="K48" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.1</v>
       </c>
       <c r="L48" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.15</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.18</v>
       </c>
       <c r="N48" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.35</v>
       </c>
       <c r="O48" s="13">
         <v>30</v>
       </c>
       <c r="P48" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.53</v>
       </c>
       <c r="Q48" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0.35</v>
       </c>
       <c r="R48" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>3.9837030330466274</v>
       </c>
     </row>
@@ -4240,42 +4395,42 @@
         <v>0.02</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.04</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.13</v>
       </c>
       <c r="L49" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.19</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.22</v>
       </c>
       <c r="N49" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.44</v>
       </c>
       <c r="O49" s="13">
         <v>40</v>
       </c>
       <c r="P49" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.67</v>
       </c>
       <c r="Q49" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0.44</v>
       </c>
       <c r="R49" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>5.0248981439565421</v>
       </c>
     </row>
@@ -4287,42 +4442,42 @@
         <v>0.03</v>
       </c>
       <c r="I50" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.04</v>
       </c>
       <c r="J50" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.08</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.16</v>
       </c>
       <c r="L50" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.24</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="N50" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="O50" s="13">
         <v>50</v>
       </c>
       <c r="P50" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="Q50" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R50" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>6.2471706654594845</v>
       </c>
     </row>
@@ -4334,42 +4489,42 @@
         <v>0.03</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.05</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.1</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.2</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.34</v>
       </c>
       <c r="N51" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.68</v>
       </c>
       <c r="O51" s="13">
         <v>60</v>
       </c>
       <c r="P51" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1.01</v>
       </c>
       <c r="Q51" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0.68</v>
       </c>
       <c r="R51" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7.6505205975554542</v>
       </c>
     </row>
@@ -4381,42 +4536,42 @@
         <v>0.04</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.06</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.12</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.24</v>
       </c>
       <c r="L52" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.35</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.41</v>
       </c>
       <c r="N52" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.82</v>
       </c>
       <c r="O52" s="13">
         <v>70</v>
       </c>
       <c r="P52" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1.22</v>
       </c>
       <c r="Q52" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0.82</v>
       </c>
       <c r="R52" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>9.2349479402444548</v>
       </c>
     </row>
@@ -4428,42 +4583,42 @@
         <v>0.04</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.42</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.49</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.98</v>
       </c>
       <c r="O53" s="13">
         <v>80</v>
       </c>
       <c r="P53" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1.44</v>
       </c>
       <c r="Q53" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0.98</v>
       </c>
       <c r="R53" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>10.955183340878225</v>
       </c>
     </row>
@@ -4475,42 +4630,42 @@
         <v>0.05</v>
       </c>
       <c r="I54" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.09</v>
       </c>
       <c r="J54" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.17</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.34</v>
       </c>
       <c r="L54" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.5</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.59</v>
       </c>
       <c r="N54" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>1.17</v>
       </c>
       <c r="O54" s="13">
         <v>90</v>
       </c>
       <c r="P54" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="Q54" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>1.17</v>
       </c>
       <c r="R54" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>13.173381620642827</v>
       </c>
     </row>
@@ -4522,42 +4677,42 @@
         <v>0.05</v>
       </c>
       <c r="I55" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.1</v>
       </c>
       <c r="J55" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
       <c r="K55" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.4</v>
       </c>
       <c r="L55" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.59</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.69</v>
       </c>
       <c r="N55" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>1.38</v>
       </c>
       <c r="O55" s="13">
         <v>100</v>
       </c>
       <c r="P55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="Q55" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>1.38</v>
       </c>
       <c r="R55" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>15.436849253055678</v>
       </c>
     </row>
@@ -4596,11 +4751,11 @@
         <v>110</v>
       </c>
       <c r="P56" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>3.01</v>
       </c>
       <c r="Q56" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="R56" s="13">
@@ -4643,11 +4798,11 @@
         <v>111</v>
       </c>
       <c r="P57" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>3.16</v>
       </c>
       <c r="Q57" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2.16</v>
       </c>
       <c r="R57" s="13">
@@ -4655,6 +4810,53 @@
         <v>24.083295608872795</v>
       </c>
     </row>
+    <row r="58" spans="7:18">
+      <c r="G58" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H58" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I58" s="12">
+        <f>ROUNDUP(((H42/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+        <v>0.17</v>
+      </c>
+      <c r="J58" s="12">
+        <f>ROUNDUP(((I42/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+        <v>0.33</v>
+      </c>
+      <c r="K58" s="12">
+        <f>ROUNDUP(((J42/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+        <v>0.65</v>
+      </c>
+      <c r="L58" s="12">
+        <f>ROUNDUP(((K42/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+        <v>0.97</v>
+      </c>
+      <c r="M58" s="12">
+        <f>ROUNDUP(((L42/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N58" s="12">
+        <f>ROUNDUP(((M42/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+        <v>2.27</v>
+      </c>
+      <c r="O58" s="13">
+        <v>112</v>
+      </c>
+      <c r="P58" s="13">
+        <f t="shared" ref="P58" si="45">SUM(H58:M58)</f>
+        <v>3.33</v>
+      </c>
+      <c r="Q58" s="12">
+        <f t="shared" ref="Q58" si="46">N58</f>
+        <v>2.27</v>
+      </c>
+      <c r="R58" s="13">
+        <f>((P58+Q58)/$P$44)*100</f>
+        <v>25.350837483023991</v>
+      </c>
+    </row>
     <row r="60" spans="7:18">
       <c r="G60" s="12" t="s">
         <v>176</v>
@@ -4691,31 +4893,31 @@
         <v>16</v>
       </c>
       <c r="H62" s="12">
-        <f t="shared" ref="H62:H73" si="39">H46</f>
+        <f t="shared" ref="H62:H74" si="47">H46</f>
         <v>0.01</v>
       </c>
       <c r="I62" s="12">
-        <f t="shared" ref="I62:N73" si="40">I46+H62</f>
+        <f t="shared" ref="I62:N73" si="48">I46+H62</f>
         <v>0.03</v>
       </c>
       <c r="J62" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.06</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.12</v>
       </c>
       <c r="L62" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.21</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.31</v>
       </c>
       <c r="N62" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.51</v>
       </c>
     </row>
@@ -4724,31 +4926,31 @@
         <v>18</v>
       </c>
       <c r="H63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.01</v>
       </c>
       <c r="I63" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.03</v>
       </c>
       <c r="J63" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="L63" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.27</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="N63" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.68</v>
       </c>
     </row>
@@ -4757,31 +4959,31 @@
         <v>19</v>
       </c>
       <c r="H64" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.02</v>
       </c>
       <c r="I64" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.05</v>
       </c>
       <c r="J64" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.1</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.2</v>
       </c>
       <c r="L64" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.35</v>
       </c>
       <c r="M64" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.53</v>
       </c>
       <c r="N64" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.88</v>
       </c>
     </row>
@@ -4790,31 +4992,31 @@
         <v>87</v>
       </c>
       <c r="H65" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.02</v>
       </c>
       <c r="I65" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.06</v>
       </c>
       <c r="J65" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.13</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.26</v>
       </c>
       <c r="L65" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.45</v>
       </c>
       <c r="M65" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.67</v>
       </c>
       <c r="N65" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -4823,31 +5025,31 @@
         <v>20</v>
       </c>
       <c r="H66" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.03</v>
       </c>
       <c r="I66" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J66" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="L66" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="M66" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="N66" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>1.3800000000000001</v>
       </c>
     </row>
@@ -4856,31 +5058,31 @@
         <v>21</v>
       </c>
       <c r="H67" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.03</v>
       </c>
       <c r="I67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.08</v>
       </c>
       <c r="J67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.18</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.38</v>
       </c>
       <c r="L67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="M67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>1.01</v>
       </c>
       <c r="N67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>1.69</v>
       </c>
     </row>
@@ -4889,31 +5091,31 @@
         <v>22</v>
       </c>
       <c r="H68" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.04</v>
       </c>
       <c r="I68" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.1</v>
       </c>
       <c r="J68" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.22</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.45999999999999996</v>
       </c>
       <c r="L68" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.80999999999999994</v>
       </c>
       <c r="M68" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>1.22</v>
       </c>
       <c r="N68" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2.04</v>
       </c>
     </row>
@@ -4922,31 +5124,31 @@
         <v>23</v>
       </c>
       <c r="H69" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.04</v>
       </c>
       <c r="I69" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.11000000000000001</v>
       </c>
       <c r="J69" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.25</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.53</v>
       </c>
       <c r="L69" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.95</v>
       </c>
       <c r="M69" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>1.44</v>
       </c>
       <c r="N69" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2.42</v>
       </c>
     </row>
@@ -4955,31 +5157,31 @@
         <v>24</v>
       </c>
       <c r="H70" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.05</v>
       </c>
       <c r="I70" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="J70" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="L70" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="M70" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="N70" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2.91</v>
       </c>
     </row>
@@ -4988,31 +5190,31 @@
         <v>25</v>
       </c>
       <c r="H71" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.05</v>
       </c>
       <c r="I71" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="J71" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.75</v>
       </c>
       <c r="L71" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="M71" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="N71" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>3.4099999999999997</v>
       </c>
     </row>
@@ -5021,31 +5223,31 @@
         <v>108</v>
       </c>
       <c r="H72" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.06</v>
       </c>
       <c r="I72" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.21</v>
       </c>
       <c r="J72" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.51</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="L72" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>1.98</v>
       </c>
       <c r="M72" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>3.01</v>
       </c>
       <c r="N72" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>5.0599999999999996</v>
       </c>
     </row>
@@ -5054,32 +5256,65 @@
         <v>109</v>
       </c>
       <c r="H73" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.06</v>
       </c>
       <c r="I73" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.22</v>
       </c>
       <c r="J73" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.53</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="L73" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2.08</v>
       </c>
       <c r="M73" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>3.16</v>
       </c>
       <c r="N73" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>5.32</v>
+      </c>
+    </row>
+    <row r="74" spans="7:14">
+      <c r="G74" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H74" s="12">
+        <f t="shared" si="47"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I74" s="12">
+        <f t="shared" ref="I74" si="49">I58+H74</f>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="J74" s="12">
+        <f t="shared" ref="J74" si="50">J58+I74</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="K74" s="12">
+        <f t="shared" ref="K74" si="51">K58+J74</f>
+        <v>1.2200000000000002</v>
+      </c>
+      <c r="L74" s="12">
+        <f t="shared" ref="L74" si="52">L58+K74</f>
+        <v>2.1900000000000004</v>
+      </c>
+      <c r="M74" s="12">
+        <f t="shared" ref="M74" si="53">M58+L74</f>
+        <v>3.33</v>
+      </c>
+      <c r="N74" s="12">
+        <f t="shared" ref="N74" si="54">N58+M74</f>
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>
@@ -5096,8 +5331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EF5D34-81E7-475D-8B1B-AFFF2EFE6FF9}">
   <dimension ref="A2:W50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6081,7 +6316,7 @@
         <v>1000승</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J15">
         <v>12</v>
@@ -6130,7 +6365,67 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="K16" s="40"/>
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" ref="B16" si="41">C16&amp;","&amp;D16&amp;","&amp;E16&amp;","&amp;F16&amp;","&amp;G16</f>
+        <v>10마,20마,50마,200마,1000마</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" ref="C16" si="42">$C$3&amp;H16</f>
+        <v>10마</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ref="D16" si="43">$D$3&amp;H16</f>
+        <v>20마</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" ref="E16" si="44">$E$3&amp;H16</f>
+        <v>50마</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" ref="F16" si="45">$F$3&amp;H16</f>
+        <v>200마</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ref="G16" si="46">$G$3&amp;H16</f>
+        <v>1000마</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16" s="3" t="str">
+        <f t="shared" ref="K16" si="47">L16&amp;","&amp;M16&amp;","&amp;N16&amp;","&amp;O16&amp;","&amp;P16</f>
+        <v>1E+109,2E+109,5E+109,2E+110,1E+111</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16" si="48">$C$3*Q16</f>
+        <v>9.9999999999999998E+108</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16" si="49">$D$3*Q16</f>
+        <v>2E+109</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16" si="50">$E$3*Q16</f>
+        <v>5.0000000000000001E+109</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ref="O16" si="51">$F$3*Q16</f>
+        <v>2E+110</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16" si="52">$G$3*Q16</f>
+        <v>1.0000000000000001E+111</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" ref="Q16" si="53">VLOOKUP(H16,T:W,4,FALSE)</f>
+        <v>1E+108</v>
+      </c>
       <c r="T16" t="s">
         <v>125</v>
       </c>
@@ -6324,33 +6619,33 @@
     </row>
     <row r="28" spans="20:23">
       <c r="T28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U28">
         <v>104</v>
       </c>
       <c r="V28">
-        <f t="shared" ref="V28:V29" si="41">POWER(10,U28)</f>
+        <f t="shared" ref="V28:V29" si="54">POWER(10,U28)</f>
         <v>1E+104</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" ref="W28:W29" si="42">RIGHT(V28,U28)</f>
+        <f t="shared" ref="W28:W29" si="55">RIGHT(V28,U28)</f>
         <v>1E+104</v>
       </c>
     </row>
     <row r="29" spans="20:23">
       <c r="T29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U29">
         <v>108</v>
       </c>
       <c r="V29">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>1E+108</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>1E+108</v>
       </c>
     </row>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B347B2E6-3CF2-44C4-8E4E-9B4086919F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E730179E-0660-4A81-9BA8-53B5D6122574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhopetTable" sheetId="1" r:id="rId1"/>
@@ -1334,7 +1334,99 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1646,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2379,7 +2471,7 @@
         <v>201</v>
       </c>
       <c r="O13" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P13" s="37">
         <v>9016</v>
@@ -2435,7 +2527,7 @@
         <v>239</v>
       </c>
       <c r="O14" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P14" s="37">
         <v>9016</v>
@@ -2449,6 +2541,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="O2:O1048576">
+    <cfRule type="uniqueValues" dxfId="8" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M14 M16:M1048576">
+    <cfRule type="uniqueValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P15 P17:P1048576">
+    <cfRule type="uniqueValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="uniqueValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J14 J16:J1048576">
+    <cfRule type="uniqueValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E730179E-0660-4A81-9BA8-53B5D6122574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E713499-43F6-42DC-9402-74F6CADA8F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="182">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>9016,9016,9016,9016,9016</t>
-  </si>
-  <si>
-    <t>9016,9016,9016,9016,9016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -409,9 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>260,260,260,260,260</t>
-  </si>
-  <si>
     <t>펫 재화 지급 밸런스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,93 +592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10나,20나,50나,200나,1000나</t>
-  </si>
-  <si>
-    <t>10불,20불,50불,200불,1000불</t>
-  </si>
-  <si>
-    <t>10무,20무,50무,200무,1000무</t>
-  </si>
-  <si>
-    <t>10대,20대,50대,200대,1000대</t>
-  </si>
-  <si>
-    <t>10겁,20겁,50겁,200겁,1000겁</t>
-  </si>
-  <si>
-    <t>10업,20업,50업,200업,1000업</t>
-  </si>
-  <si>
-    <t>10긍,20긍,50긍,200긍,1000긍</t>
-  </si>
-  <si>
-    <t>10갈,20갈,50갈,200갈,1000갈</t>
-  </si>
-  <si>
-    <t>10라,20라,50라,200라,1000라</t>
-  </si>
-  <si>
-    <t>10가,20가,50가,200가,1000가</t>
-  </si>
-  <si>
-    <t>1E+61,2E+61,5E+61,2E+62,1E+63</t>
-  </si>
-  <si>
-    <t>1E+65,2E+65,5E+65,2E+66,1E+67</t>
-  </si>
-  <si>
-    <t>1E+69,2E+69,5E+69,2E+70,1E+71</t>
-  </si>
-  <si>
-    <t>1E+73,2E+73,5E+73,2E+74,1E+75</t>
-  </si>
-  <si>
-    <t>1E+77,2E+77,5E+77,2E+78,1E+79</t>
-  </si>
-  <si>
-    <t>1E+81,2E+81,5E+81,2E+82,1E+83</t>
-  </si>
-  <si>
-    <t>1E+85,2E+85,5E+85,2E+86,1E+87</t>
-  </si>
-  <si>
-    <t>1E+89,2E+89,5E+89,2E+90,1E+91</t>
-  </si>
-  <si>
-    <t>1E+93,2E+93,5E+93,2E+94,1E+95</t>
-  </si>
-  <si>
-    <t>1E+97,2E+97,5E+97,2E+98,1E+99</t>
-  </si>
-  <si>
-    <t>160,160,160,160,160</t>
-  </si>
-  <si>
-    <t>180,180,180,180,180</t>
-  </si>
-  <si>
-    <t>190,190,190,190,190</t>
-  </si>
-  <si>
-    <t>210,210,210,210,210</t>
-  </si>
-  <si>
-    <t>220,220,220,220,220</t>
-  </si>
-  <si>
-    <t>240,240,240,240,240</t>
-  </si>
-  <si>
-    <t>250,250,250,250,250</t>
-  </si>
-  <si>
-    <t>280,280,280,280,280</t>
-  </si>
-  <si>
-    <t>290,290,290,290,290</t>
-  </si>
-  <si>
     <t>펫 능력치 밸런스 (렙업당 증가량)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,15 +655,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1E+101,2E+101,5E+101,2E+102,1E+103</t>
-  </si>
-  <si>
-    <t>10언,20언,50언,200언,1000언</t>
-  </si>
-  <si>
-    <t>300,300,300,300,300</t>
-  </si>
-  <si>
     <t>awakeSkillId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -780,51 +678,6 @@
     <t>p11</t>
   </si>
   <si>
-    <t>1E+105,2E+105,5E+105,2E+106,1E+107</t>
-  </si>
-  <si>
-    <t>0.06,0.22,0.53,1.15,2.08,3.16,5.32</t>
-  </si>
-  <si>
-    <t>608,1215,2429,3644,4251,8502</t>
-  </si>
-  <si>
-    <t>320,320,320,320,320</t>
-  </si>
-  <si>
-    <t>0.01,0.03,0.06,0.12,0.21,0.31,0.51</t>
-  </si>
-  <si>
-    <t>0.01,0.03,0.07,0.15,0.27,0.41,0.68</t>
-  </si>
-  <si>
-    <t>0.02,0.05,0.1,0.2,0.35,0.53,0.88</t>
-  </si>
-  <si>
-    <t>0.02,0.06,0.13,0.26,0.45,0.67,1.11</t>
-  </si>
-  <si>
-    <t>0.03,0.07,0.15,0.31,0.55,0.83,1.38</t>
-  </si>
-  <si>
-    <t>0.03,0.08,0.18,0.38,0.67,1.01,1.69</t>
-  </si>
-  <si>
-    <t>0.04,0.1,0.22,0.46,0.81,1.22,2.04</t>
-  </si>
-  <si>
-    <t>0.04,0.11,0.25,0.53,0.95,1.44,2.42</t>
-  </si>
-  <si>
-    <t>0.05,0.14,0.31,0.65,1.15,1.74,2.91</t>
-  </si>
-  <si>
-    <t>0.05,0.15,0.35,0.75,1.34,2.03,3.41</t>
-  </si>
-  <si>
-    <t>0.06,0.21,0.51,1.1,1.98,3.01,5.06</t>
-  </si>
-  <si>
     <t>승</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -833,42 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>106,212,423,634,740,1480</t>
-  </si>
-  <si>
-    <t>130,260,519,778,908,1816</t>
-  </si>
-  <si>
-    <t>156,312,624,936,1092,2184</t>
-  </si>
-  <si>
-    <t>185,370,740,1109,1294,2588</t>
-  </si>
-  <si>
-    <t>216,432,864,1296,1512,3024</t>
-  </si>
-  <si>
-    <t>250,500,999,1498,1748,3496</t>
-  </si>
-  <si>
-    <t>286,572,1143,1714,2000,4000</t>
-  </si>
-  <si>
-    <t>324,648,1296,1944,2268,4536</t>
-  </si>
-  <si>
-    <t>365,730,1460,2189,2554,5108</t>
-  </si>
-  <si>
-    <t>408,816,1632,2448,2856,5712</t>
-  </si>
-  <si>
-    <t>580,1160,2319,3478,4058,8116</t>
-  </si>
-  <si>
-    <t>10승,20승,50승,200승,1000승</t>
-  </si>
-  <si>
     <t>흑랑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -894,19 +711,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>340,340,340,340,340</t>
-  </si>
-  <si>
-    <t>10마,20마,50마,200마,1000마</t>
-  </si>
-  <si>
-    <t>1E+109,2E+109,5E+109,2E+110,1E+111</t>
-  </si>
-  <si>
-    <t>0.07,0.24,0.57,1.22,2.19,3.33,5.6</t>
-  </si>
-  <si>
-    <t>635,1270,2540,3809,4444,8888</t>
+    <t>펫14</t>
+  </si>
+  <si>
+    <t>펫14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14단계</t>
+  </si>
+  <si>
+    <t>p13</t>
+  </si>
+  <si>
+    <t>살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1171,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1280,9 +1107,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1334,63 +1158,7 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1736,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1765,10 +1533,10 @@
       <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="14" t="s">
@@ -1786,29 +1554,29 @@
       <c r="J1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="42" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="38" t="s">
-        <v>194</v>
+      <c r="R1" s="37" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1819,30 +1587,33 @@
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="40" t="str">
+        <f>UnitExchange!K4</f>
+        <v>1E+61,2E+61,5E+61,2E+62,1E+63</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f>UnitExchange!B4</f>
+        <v>10나,20나,50나,200나,1000나</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>166</v>
+        <v>37</v>
+      </c>
+      <c r="I2" s="35" t="str">
+        <f>Balance!O8</f>
+        <v>160,160,160,160,160</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="44">
+      <c r="K2" s="43">
         <v>9016</v>
       </c>
       <c r="L2" s="3">
@@ -1851,17 +1622,19 @@
       <c r="M2" s="4">
         <v>49</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>204</v>
+      <c r="N2" s="4" t="str">
+        <f>Balance!P8</f>
+        <v>0.01,0.03,0.06,0.12,0.21,0.31,0.51</v>
       </c>
       <c r="O2" s="4">
         <v>6</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="36">
         <v>9016</v>
       </c>
-      <c r="Q2" s="36" t="s">
-        <v>217</v>
+      <c r="Q2" s="4" t="str">
+        <f>Balance!Q8</f>
+        <v>106,212,423,634,740,1480</v>
       </c>
       <c r="R2" s="4">
         <v>56</v>
@@ -1875,30 +1648,34 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>167</v>
+        <v>148</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="40" t="str">
+        <f>UnitExchange!K5</f>
+        <v>1E+65,2E+65,5E+65,2E+66,1E+67</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f>UnitExchange!B5</f>
+        <v>10불,20불,50불,200불,1000불</v>
+      </c>
+      <c r="H3" s="6" t="str">
+        <f>H2</f>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I3" s="35" t="str">
+        <f>Balance!O9</f>
+        <v>180,180,180,180,180</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="43">
         <v>9016</v>
       </c>
       <c r="L3" s="3">
@@ -1907,17 +1684,19 @@
       <c r="M3" s="4">
         <v>49</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>205</v>
+      <c r="N3" s="4" t="str">
+        <f>Balance!P9</f>
+        <v>0.01,0.03,0.07,0.15,0.27,0.41,0.68</v>
       </c>
       <c r="O3" s="4">
         <v>6</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="36">
         <v>9016</v>
       </c>
-      <c r="Q3" s="36" t="s">
-        <v>218</v>
+      <c r="Q3" s="4" t="str">
+        <f>Balance!Q9</f>
+        <v>130,260,519,778,908,1816</v>
       </c>
       <c r="R3" s="4">
         <v>57</v>
@@ -1931,30 +1710,34 @@
         <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>168</v>
+        <v>151</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="40" t="str">
+        <f>UnitExchange!K6</f>
+        <v>1E+69,2E+69,5E+69,2E+70,1E+71</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f>UnitExchange!B6</f>
+        <v>10무,20무,50무,200무,1000무</v>
+      </c>
+      <c r="H4" s="6" t="str">
+        <f t="shared" ref="H4:H15" si="0">H3</f>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I4" s="35" t="str">
+        <f>Balance!O10</f>
+        <v>190,190,190,190,190</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="43">
         <v>9016</v>
       </c>
       <c r="L4" s="3">
@@ -1963,17 +1746,19 @@
       <c r="M4" s="4">
         <v>49</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>206</v>
+      <c r="N4" s="4" t="str">
+        <f>Balance!P10</f>
+        <v>0.02,0.05,0.1,0.2,0.35,0.53,0.88</v>
       </c>
       <c r="O4" s="4">
         <v>6</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="36">
         <v>9016</v>
       </c>
-      <c r="Q4" s="36" t="s">
-        <v>219</v>
+      <c r="Q4" s="4" t="str">
+        <f>Balance!Q10</f>
+        <v>156,312,624,936,1092,2184</v>
       </c>
       <c r="R4" s="4">
         <v>58</v>
@@ -1987,30 +1772,34 @@
         <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>169</v>
+        <v>152</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="40" t="str">
+        <f>UnitExchange!K7</f>
+        <v>1E+73,2E+73,5E+73,2E+74,1E+75</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f>UnitExchange!B7</f>
+        <v>10대,20대,50대,200대,1000대</v>
+      </c>
+      <c r="H5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I5" s="35" t="str">
+        <f>Balance!O11</f>
+        <v>210,210,210,210,210</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="43">
         <v>9016</v>
       </c>
       <c r="L5" s="3">
@@ -2019,17 +1808,19 @@
       <c r="M5" s="4">
         <v>49</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>207</v>
+      <c r="N5" s="4" t="str">
+        <f>Balance!P11</f>
+        <v>0.02,0.06,0.13,0.26,0.45,0.67,1.11</v>
       </c>
       <c r="O5" s="4">
         <v>6</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="36">
         <v>9016</v>
       </c>
-      <c r="Q5" s="36" t="s">
-        <v>220</v>
+      <c r="Q5" s="4" t="str">
+        <f>Balance!Q11</f>
+        <v>185,370,740,1109,1294,2588</v>
       </c>
       <c r="R5" s="4">
         <v>59</v>
@@ -2043,30 +1834,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>170</v>
+        <v>156</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="40" t="str">
+        <f>UnitExchange!K8</f>
+        <v>1E+77,2E+77,5E+77,2E+78,1E+79</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f>UnitExchange!B8</f>
+        <v>10겁,20겁,50겁,200겁,1000겁</v>
+      </c>
+      <c r="H6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I6" s="35" t="str">
+        <f>Balance!O12</f>
+        <v>220,220,220,220,220</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="43">
         <v>9016</v>
       </c>
       <c r="L6" s="3">
@@ -2075,17 +1870,19 @@
       <c r="M6" s="4">
         <v>49</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>208</v>
+      <c r="N6" s="4" t="str">
+        <f>Balance!P12</f>
+        <v>0.03,0.07,0.15,0.31,0.55,0.83,1.38</v>
       </c>
       <c r="O6" s="4">
         <v>6</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="36">
         <v>9016</v>
       </c>
-      <c r="Q6" s="36" t="s">
-        <v>221</v>
+      <c r="Q6" s="4" t="str">
+        <f>Balance!Q12</f>
+        <v>216,432,864,1296,1512,3024</v>
       </c>
       <c r="R6" s="4">
         <v>60</v>
@@ -2099,30 +1896,34 @@
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>171</v>
+        <v>153</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="40" t="str">
+        <f>UnitExchange!K9</f>
+        <v>1E+81,2E+81,5E+81,2E+82,1E+83</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f>UnitExchange!B9</f>
+        <v>10업,20업,50업,200업,1000업</v>
+      </c>
+      <c r="H7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I7" s="35" t="str">
+        <f>Balance!O13</f>
+        <v>240,240,240,240,240</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="43">
         <v>9016</v>
       </c>
       <c r="L7" s="3">
@@ -2131,17 +1932,19 @@
       <c r="M7" s="4">
         <v>49</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>209</v>
+      <c r="N7" s="4" t="str">
+        <f>Balance!P13</f>
+        <v>0.03,0.08,0.18,0.38,0.67,1.01,1.69</v>
       </c>
       <c r="O7" s="4">
         <v>6</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="36">
         <v>9016</v>
       </c>
-      <c r="Q7" s="36" t="s">
-        <v>222</v>
+      <c r="Q7" s="4" t="str">
+        <f>Balance!Q13</f>
+        <v>250,500,999,1498,1748,3496</v>
       </c>
       <c r="R7" s="4">
         <v>61</v>
@@ -2155,30 +1958,34 @@
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>172</v>
+        <v>154</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="40" t="str">
+        <f>UnitExchange!K10</f>
+        <v>1E+85,2E+85,5E+85,2E+86,1E+87</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f>UnitExchange!B10</f>
+        <v>10긍,20긍,50긍,200긍,1000긍</v>
+      </c>
+      <c r="H8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I8" s="35" t="str">
+        <f>Balance!O14</f>
+        <v>250,250,250,250,250</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="43">
         <v>9016</v>
       </c>
       <c r="L8" s="3">
@@ -2187,17 +1994,19 @@
       <c r="M8" s="4">
         <v>49</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>210</v>
+      <c r="N8" s="4" t="str">
+        <f>Balance!P14</f>
+        <v>0.04,0.1,0.22,0.46,0.81,1.22,2.04</v>
       </c>
       <c r="O8" s="4">
         <v>6</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="36">
         <v>9016</v>
       </c>
-      <c r="Q8" s="36" t="s">
-        <v>223</v>
+      <c r="Q8" s="4" t="str">
+        <f>Balance!Q14</f>
+        <v>286,572,1143,1714,2000,4000</v>
       </c>
       <c r="R8" s="4">
         <v>62</v>
@@ -2211,30 +2020,34 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>98</v>
+        <v>155</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="40" t="str">
+        <f>UnitExchange!K11</f>
+        <v>1E+89,2E+89,5E+89,2E+90,1E+91</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f>UnitExchange!B11</f>
+        <v>10갈,20갈,50갈,200갈,1000갈</v>
+      </c>
+      <c r="H9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I9" s="35" t="str">
+        <f>Balance!O15</f>
+        <v>260,260,260,260,260</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="43">
         <v>9016</v>
       </c>
       <c r="L9" s="3">
@@ -2243,17 +2056,19 @@
       <c r="M9" s="4">
         <v>49</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>211</v>
+      <c r="N9" s="4" t="str">
+        <f>Balance!P15</f>
+        <v>0.04,0.11,0.25,0.53,0.95,1.44,2.42</v>
       </c>
       <c r="O9" s="4">
         <v>6</v>
       </c>
-      <c r="P9" s="37">
+      <c r="P9" s="36">
         <v>9016</v>
       </c>
-      <c r="Q9" s="36" t="s">
-        <v>224</v>
+      <c r="Q9" s="4" t="str">
+        <f>Balance!Q15</f>
+        <v>324,648,1296,1944,2268,4536</v>
       </c>
       <c r="R9" s="4">
         <v>63</v>
@@ -2267,30 +2082,34 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>173</v>
+        <v>150</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="40" t="str">
+        <f>UnitExchange!K12</f>
+        <v>1E+93,2E+93,5E+93,2E+94,1E+95</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f>UnitExchange!B12</f>
+        <v>10라,20라,50라,200라,1000라</v>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I10" s="35" t="str">
+        <f>Balance!O16</f>
+        <v>280,280,280,280,280</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="43">
         <v>9016</v>
       </c>
       <c r="L10" s="3">
@@ -2299,17 +2118,19 @@
       <c r="M10" s="4">
         <v>49</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>212</v>
+      <c r="N10" s="4" t="str">
+        <f>Balance!P16</f>
+        <v>0.05,0.14,0.31,0.65,1.15,1.74,2.91</v>
       </c>
       <c r="O10" s="4">
         <v>6</v>
       </c>
-      <c r="P10" s="37">
+      <c r="P10" s="36">
         <v>9016</v>
       </c>
-      <c r="Q10" s="36" t="s">
-        <v>225</v>
+      <c r="Q10" s="4" t="str">
+        <f>Balance!Q16</f>
+        <v>365,730,1460,2189,2554,5108</v>
       </c>
       <c r="R10" s="4">
         <v>64</v>
@@ -2323,30 +2144,34 @@
         <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>174</v>
+        <v>149</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="40" t="str">
+        <f>UnitExchange!K13</f>
+        <v>1E+97,2E+97,5E+97,2E+98,1E+99</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f>UnitExchange!B13</f>
+        <v>10가,20가,50가,200가,1000가</v>
+      </c>
+      <c r="H11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f>Balance!O17</f>
+        <v>290,290,290,290,290</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="43">
         <v>9016</v>
       </c>
       <c r="L11" s="3">
@@ -2355,17 +2180,19 @@
       <c r="M11" s="4">
         <v>49</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>213</v>
+      <c r="N11" s="4" t="str">
+        <f>Balance!P17</f>
+        <v>0.05,0.15,0.35,0.75,1.34,2.03,3.41</v>
       </c>
       <c r="O11" s="4">
         <v>6</v>
       </c>
-      <c r="P11" s="37">
+      <c r="P11" s="36">
         <v>9016</v>
       </c>
-      <c r="Q11" s="36" t="s">
-        <v>226</v>
+      <c r="Q11" s="4" t="str">
+        <f>Balance!Q17</f>
+        <v>408,816,1632,2448,2856,5712</v>
       </c>
       <c r="R11" s="4">
         <v>65</v>
@@ -2376,33 +2203,37 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>193</v>
+        <v>158</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="40" t="str">
+        <f>UnitExchange!K14</f>
+        <v>1E+101,2E+101,5E+101,2E+102,1E+103</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f>UnitExchange!B14</f>
+        <v>10언,20언,50언,200언,1000언</v>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I12" s="35" t="str">
+        <f>Balance!O18</f>
+        <v>300,300,300,300,300</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="43">
         <v>9016</v>
       </c>
       <c r="L12" s="3">
@@ -2411,17 +2242,19 @@
       <c r="M12" s="4">
         <v>49</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>214</v>
+      <c r="N12" s="4" t="str">
+        <f>Balance!P18</f>
+        <v>0.06,0.21,0.51,1.1,1.98,3.01,5.06</v>
       </c>
       <c r="O12" s="4">
         <v>6</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="36">
         <v>9016</v>
       </c>
-      <c r="Q12" s="36" t="s">
-        <v>227</v>
+      <c r="Q12" s="4" t="str">
+        <f>Balance!Q18</f>
+        <v>580,1160,2319,3478,4058,8116</v>
       </c>
       <c r="R12" s="4">
         <v>66</v>
@@ -2432,33 +2265,37 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>203</v>
+        <v>169</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="40" t="str">
+        <f>UnitExchange!K15</f>
+        <v>1E+105,2E+105,5E+105,2E+106,1E+107</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f>UnitExchange!B15</f>
+        <v>10승,20승,50승,200승,1000승</v>
+      </c>
+      <c r="H13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I13" s="35" t="str">
+        <f>Balance!O19</f>
+        <v>320,320,320,320,320</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K13" s="44">
+        <v>170</v>
+      </c>
+      <c r="K13" s="43">
         <v>9016</v>
       </c>
       <c r="L13" s="3">
@@ -2467,17 +2304,19 @@
       <c r="M13" s="4">
         <v>49</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>201</v>
+      <c r="N13" s="4" t="str">
+        <f>Balance!P19</f>
+        <v>0.06,0.23,0.56,1.21,2.18,3.31,5.56</v>
       </c>
       <c r="O13" s="4">
         <v>6</v>
       </c>
-      <c r="P13" s="37">
+      <c r="P13" s="36">
         <v>9016</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>202</v>
+      <c r="Q13" s="4" t="str">
+        <f>Balance!Q19</f>
+        <v>608,1215,2429,3644,4251,8502</v>
       </c>
       <c r="R13" s="4">
         <v>67</v>
@@ -2488,73 +2327,143 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>236</v>
+        <v>168</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="40" t="str">
+        <f>UnitExchange!K16</f>
+        <v>1E+109,2E+109,5E+109,2E+110,1E+111</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f>UnitExchange!B16</f>
+        <v>10마,20마,50마,200마,1000마</v>
+      </c>
+      <c r="H14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I14" s="35" t="str">
+        <f>Balance!O20</f>
+        <v>340,340,340,340,340</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K14" s="44">
+        <v>170</v>
+      </c>
+      <c r="K14" s="43">
         <v>9016</v>
       </c>
       <c r="L14" s="3">
+        <f>Balance!H21</f>
         <v>230</v>
       </c>
       <c r="M14" s="4">
         <v>49</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>239</v>
+      <c r="N14" s="4" t="str">
+        <f>Balance!P20</f>
+        <v>0.07,0.25,0.61,1.32,2.38,3.61,6.07</v>
       </c>
       <c r="O14" s="4">
         <v>6</v>
       </c>
-      <c r="P14" s="37">
+      <c r="P14" s="36">
         <v>9016</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>240</v>
+      <c r="Q14" s="4" t="str">
+        <f>Balance!Q20</f>
+        <v>635,1270,2540,3809,4444,8888</v>
       </c>
       <c r="R14" s="4">
         <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="40" t="str">
+        <f>UnitExchange!K17</f>
+        <v>1E+113,2E+113,5E+113,2E+114,1E+115</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f>UnitExchange!B17</f>
+        <v>10살,20살,50살,200살,1000살</v>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I15" s="35" t="str">
+        <f>Balance!O21</f>
+        <v>350,350,350,350,350</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L15" s="3">
+        <f>Balance!H22</f>
+        <v>240</v>
+      </c>
+      <c r="M15" s="4">
+        <v>49</v>
+      </c>
+      <c r="N15" s="4" t="str">
+        <f>Balance!P21</f>
+        <v>0.07,0.27,0.67,1.47,2.67,4.07,6.86</v>
+      </c>
+      <c r="O15" s="4">
+        <v>6</v>
+      </c>
+      <c r="P15" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q15" s="4" t="str">
+        <f>Balance!Q21</f>
+        <v>692,1383,2765,4148,4839,9678</v>
+      </c>
+      <c r="R15" s="4">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="uniqueValues" dxfId="8" priority="5"/>
+    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M14 M16:M1048576">
-    <cfRule type="uniqueValues" dxfId="7" priority="4"/>
+  <conditionalFormatting sqref="M2:M1048576">
+    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P15 P17:P1048576">
-    <cfRule type="uniqueValues" dxfId="6" priority="3"/>
+  <conditionalFormatting sqref="P17:P1048576 P2:P15">
+    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="uniqueValues" dxfId="5" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J14 J16:J1048576">
-    <cfRule type="uniqueValues" dxfId="4" priority="1"/>
+  <conditionalFormatting sqref="J2:J1048576">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2563,10 +2472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:W74"/>
+  <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2595,11 +2504,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="A1" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -2613,9 +2522,9 @@
       <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" s="9" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -2635,40 +2544,40 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="G6" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" thickBot="1">
       <c r="A7" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
       <c r="G7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="I7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="J7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>45</v>
-      </c>
       <c r="N7" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O7" s="27" t="s">
         <v>36</v>
@@ -2682,14 +2591,14 @@
     </row>
     <row r="8" spans="1:17" ht="17.25" thickTop="1">
       <c r="A8" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="G8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="12">
         <v>110</v>
@@ -2710,7 +2619,7 @@
         <v>160,160,160,160,160</v>
       </c>
       <c r="P8" s="2" t="str">
-        <f t="shared" ref="P8:P19" si="0">H62&amp;","&amp;I62&amp;","&amp;J62&amp;","&amp;K62&amp;","&amp;L62&amp;","&amp;M62&amp;","&amp;N62</f>
+        <f t="shared" ref="P8:P21" si="0">H66&amp;","&amp;I66&amp;","&amp;J66&amp;","&amp;K66&amp;","&amp;L66&amp;","&amp;M66&amp;","&amp;N66</f>
         <v>0.01,0.03,0.06,0.12,0.21,0.31,0.51</v>
       </c>
       <c r="Q8" s="12" t="str">
@@ -2720,7 +2629,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="19">
         <v>12</v>
@@ -2729,7 +2638,7 @@
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
       <c r="G9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="12">
         <v>120</v>
@@ -2763,7 +2672,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="G10" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="12">
         <v>130</v>
@@ -2794,16 +2703,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="16"/>
       <c r="G11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="12">
         <v>140</v>
@@ -2817,7 +2726,7 @@
         <v>210</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O11" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2834,7 +2743,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="22">
         <f>100-B13</f>
@@ -2844,7 +2753,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="16"/>
       <c r="G12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="12">
         <v>150</v>
@@ -2875,7 +2784,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="22">
         <v>30</v>
@@ -2884,7 +2793,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="16"/>
       <c r="G13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" s="12">
         <v>160</v>
@@ -2918,7 +2827,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="16"/>
       <c r="G14" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="12">
         <v>170</v>
@@ -2951,7 +2860,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="16"/>
       <c r="G15" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="12">
         <v>180</v>
@@ -2982,14 +2891,14 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="16"/>
       <c r="G16" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="12">
         <v>190</v>
@@ -3020,12 +2929,12 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
       <c r="G17" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="12">
         <v>200</v>
@@ -3056,21 +2965,21 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="19">
         <v>2</v>
       </c>
       <c r="C18" s="15"/>
       <c r="E18" s="16"/>
-      <c r="G18" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="G18" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
       <c r="N18" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O18" s="2" t="str">
         <f>J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
@@ -3087,17 +2996,17 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="19">
         <v>7</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="16"/>
       <c r="G19" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H19" s="12">
         <v>210</v>
@@ -3110,7 +3019,7 @@
         <v>300</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>J20&amp;","&amp;J20&amp;","&amp;J20&amp;","&amp;J20&amp;","&amp;J20</f>
@@ -3118,7 +3027,7 @@
       </c>
       <c r="P19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.06,0.22,0.53,1.15,2.08,3.16,5.32</v>
+        <v>0.06,0.23,0.56,1.21,2.18,3.31,5.56</v>
       </c>
       <c r="Q19" s="12" t="str">
         <f>H41&amp;","&amp;I41&amp;","&amp;J41&amp;","&amp;K41&amp;","&amp;L41&amp;","&amp;M41</f>
@@ -3127,17 +3036,17 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="19">
         <v>50</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="16"/>
       <c r="G20" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H20" s="12">
         <v>220</v>
@@ -3151,15 +3060,15 @@
         <v>320</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="O20" s="2" t="str">
         <f>J21&amp;","&amp;J21&amp;","&amp;J21&amp;","&amp;J21&amp;","&amp;J21</f>
         <v>340,340,340,340,340</v>
       </c>
       <c r="P20" s="2" t="str">
-        <f t="shared" ref="P20" si="6">H74&amp;","&amp;I74&amp;","&amp;J74&amp;","&amp;K74&amp;","&amp;L74&amp;","&amp;M74&amp;","&amp;N74</f>
-        <v>0.07,0.24,0.57,1.22,2.19,3.33,5.6</v>
+        <f t="shared" si="0"/>
+        <v>0.07,0.25,0.61,1.32,2.38,3.61,6.07</v>
       </c>
       <c r="Q20" s="12" t="str">
         <f>H42&amp;","&amp;I42&amp;","&amp;J42&amp;","&amp;K42&amp;","&amp;L42&amp;","&amp;M42</f>
@@ -3168,17 +3077,17 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B21" s="19">
         <v>7</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E21" s="16"/>
       <c r="G21" s="12" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="H21" s="12">
         <v>230</v>
@@ -3191,134 +3100,163 @@
         <f t="shared" si="2"/>
         <v>340</v>
       </c>
+      <c r="N21" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f>J22&amp;","&amp;J22&amp;","&amp;J22&amp;","&amp;J22&amp;","&amp;J22</f>
+        <v>350,350,350,350,350</v>
+      </c>
+      <c r="P21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.07,0.27,0.67,1.47,2.67,4.07,6.86</v>
+      </c>
+      <c r="Q21" s="12" t="str">
+        <f>H43&amp;","&amp;I43&amp;","&amp;J43&amp;","&amp;K43&amp;","&amp;L43&amp;","&amp;M43</f>
+        <v>692,1383,2765,4148,4839,9678</v>
+      </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B22" s="19">
         <v>5</v>
       </c>
       <c r="C22" s="24"/>
       <c r="E22" s="16"/>
+      <c r="G22" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="12">
+        <v>240</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" ref="I22" si="6">H22*$B$9*$B$18*($B$13/100)</f>
+        <v>1728</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" ref="J22" si="7">ROUNDUP((I22/5),-1)</f>
+        <v>350</v>
+      </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="15"/>
-      <c r="R25" s="45" t="s">
+      <c r="R25" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="S25" s="45"/>
+      <c r="T25" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="U25" s="45"/>
+      <c r="V25" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="S25" s="46"/>
-      <c r="T25" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="U25" s="46"/>
-      <c r="V25" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="W25" s="46"/>
+      <c r="W25" s="45"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="G26" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q26" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="Q26" s="25" t="s">
-        <v>70</v>
-      </c>
       <c r="R26" s="26">
-        <f t="shared" ref="R26:W26" si="7">SUM(R28:R37)</f>
+        <f t="shared" ref="R26:W26" si="8">SUM(R28:R37)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="S26" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.328571428571429</v>
       </c>
       <c r="T26" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.213240418118467</v>
       </c>
       <c r="U26" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="V26" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="W26" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.3097560975609763</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17.25" thickBot="1">
       <c r="A27" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="G27" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="I27" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="J27" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="K27" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="L27" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="M27" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="N27" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="M27" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="N27" s="27" t="s">
+      <c r="O27" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="O27" s="27" t="s">
+      <c r="P27" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="P27" s="27" t="s">
+      <c r="Q27" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="Q27" s="27" t="s">
+      <c r="R27" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="R27" s="28" t="s">
+      <c r="S27" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="28" t="s">
+      <c r="T27" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U27" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="T27" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="U27" s="28" t="s">
-        <v>83</v>
-      </c>
       <c r="V27" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W27" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="17.25" thickTop="1">
       <c r="A28" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -3357,19 +3295,19 @@
         <v>50</v>
       </c>
       <c r="P28" s="12">
-        <f t="shared" ref="P28:P37" si="8">(H8*$B$9*$B$18)*(O28/100)+I8</f>
+        <f t="shared" ref="P28:P37" si="9">(H8*$B$9*$B$18)*(O28/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="Q28" s="12">
-        <f t="shared" ref="Q28:Q37" si="9">P28-I8</f>
+        <f t="shared" ref="Q28:Q37" si="10">P28-I8</f>
         <v>1320</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" ref="R28:R37" si="10">(Q28/H8)/($B$18*7)</f>
+        <f t="shared" ref="R28:R37" si="11">(Q28/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" ref="S28:S37" si="11">(Q28/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="S28:S37" si="12">(Q28/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="T28" s="2">
@@ -3391,81 +3329,81 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>89</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>90</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H29" s="12">
-        <f t="shared" ref="H29:H37" si="12">ROUNDUP((P29*$B$30/100),0)</f>
+        <f t="shared" ref="H29:H37" si="13">ROUNDUP((P29*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" ref="I29:I37" si="13">ROUNDUP((P29*$B$31/100),0)</f>
+        <f t="shared" ref="I29:I37" si="14">ROUNDUP((P29*$B$31/100),0)</f>
         <v>260</v>
       </c>
       <c r="J29" s="12">
-        <f t="shared" ref="J29:J37" si="14">ROUNDUP((P29*$B$32/100),0)</f>
+        <f t="shared" ref="J29:J37" si="15">ROUNDUP((P29*$B$32/100),0)</f>
         <v>519</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" ref="K29:K37" si="15">ROUNDUP((P29*$B$33/100),0)</f>
+        <f t="shared" ref="K29:K37" si="16">ROUNDUP((P29*$B$33/100),0)</f>
         <v>778</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" ref="L29:L37" si="16">ROUNDUP((P29*$B$34/100),0)</f>
+        <f t="shared" ref="L29:L37" si="17">ROUNDUP((P29*$B$34/100),0)</f>
         <v>908</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" ref="M29:M37" si="17">L29*$B$43</f>
+        <f t="shared" ref="M29:M37" si="18">L29*$B$43</f>
         <v>1816</v>
       </c>
       <c r="N29" s="12">
-        <f t="shared" ref="N29:N37" si="18">SUM(H29:L29)</f>
+        <f t="shared" ref="N29:N37" si="19">SUM(H29:L29)</f>
         <v>2595</v>
       </c>
       <c r="O29" s="12">
         <v>60</v>
       </c>
       <c r="P29" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2592</v>
       </c>
       <c r="Q29" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1728</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.61714285714285722</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" ref="T29:T36" si="19">(Q29/H9)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T29:T36" si="20">(Q29/H9)/($B$18*7+$B$21)</f>
         <v>0.68571428571428572</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" ref="U29:U37" si="20">(Q29/$H$17)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="U29:U37" si="21">(Q29/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" ref="V29:V37" si="21">(Q29/H9)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V29:V37" si="22">(Q29/H9)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.40975609756097564</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" ref="W29:W37" si="22">(Q29/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="W29:W37" si="23">(Q29/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="31">
         <v>5</v>
@@ -3474,66 +3412,66 @@
         <v>19</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>156</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>312</v>
       </c>
       <c r="J30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>624</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>936</v>
       </c>
       <c r="L30" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1092</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2184</v>
       </c>
       <c r="N30" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3120</v>
       </c>
       <c r="O30" s="12">
         <v>70</v>
       </c>
       <c r="P30" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3120</v>
       </c>
       <c r="Q30" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2184</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.78</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.8</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.52</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.47804878048780497</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.31073170731707322</v>
       </c>
     </row>
@@ -3545,75 +3483,75 @@
         <v>10</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>185</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>370</v>
       </c>
       <c r="J31" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>740</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1109</v>
       </c>
       <c r="L31" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1294</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2588</v>
       </c>
       <c r="N31" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3698</v>
       </c>
       <c r="O31" s="12">
         <v>80</v>
       </c>
       <c r="P31" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3696</v>
       </c>
       <c r="Q31" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2688</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.96</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="U31" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.64</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.38243902439024391</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="31">
         <v>20</v>
@@ -3622,72 +3560,72 @@
         <v>20</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>216</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>432</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>864</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1296</v>
       </c>
       <c r="L32" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1512</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3024</v>
       </c>
       <c r="N32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4320</v>
       </c>
       <c r="O32" s="12">
         <v>90</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4320</v>
       </c>
       <c r="Q32" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3240</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5428571428571429</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.157142857142857</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.77142857142857135</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.61463414634146352</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.46097560975609758</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="33">
         <v>30</v>
@@ -3696,72 +3634,72 @@
         <v>21</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>250</v>
       </c>
       <c r="I33" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="J33" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>999</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1498</v>
       </c>
       <c r="L33" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1748</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3496</v>
       </c>
       <c r="N33" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4995</v>
       </c>
       <c r="O33" s="12">
         <v>100</v>
       </c>
       <c r="P33" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4992</v>
       </c>
       <c r="Q33" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3840</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="U33" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.54634146341463419</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34" s="31">
         <v>35</v>
@@ -3770,72 +3708,72 @@
         <v>22</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>286</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>572</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1143</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1714</v>
       </c>
       <c r="L34" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2000</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="N34" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5715</v>
       </c>
       <c r="O34" s="12">
         <v>110</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5712</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4488</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8857142857142857</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.602857142857143</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.2571428571428571</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0685714285714287</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.75121951219512195</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.63853658536585378</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="31">
         <f>SUM(B30:B34)</f>
@@ -3845,66 +3783,66 @@
         <v>23</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>324</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>648</v>
       </c>
       <c r="J35" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1296</v>
       </c>
       <c r="K35" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1944</v>
       </c>
       <c r="L35" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2268</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4536</v>
       </c>
       <c r="N35" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6480</v>
       </c>
       <c r="O35" s="12">
         <v>120</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6480</v>
       </c>
       <c r="Q35" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5184</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0571428571428574</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.8514285714285716</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.2342857142857144</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.81951219512195128</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.7375609756097562</v>
       </c>
     </row>
@@ -3914,23 +3852,23 @@
         <v>24</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>365</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>730</v>
       </c>
       <c r="J36" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1460</v>
       </c>
       <c r="K36" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2189</v>
       </c>
       <c r="L36" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2554</v>
       </c>
       <c r="M36" s="12">
@@ -3938,203 +3876,203 @@
         <v>5108</v>
       </c>
       <c r="N36" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7298</v>
       </c>
       <c r="O36" s="12">
         <v>130</v>
       </c>
       <c r="P36" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7296</v>
       </c>
       <c r="Q36" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5928</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.117142857142857</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.4114285714285715</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.88780487804878061</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.84341463414634155</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="12"/>
       <c r="G37" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>408</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>816</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1632</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2448</v>
       </c>
       <c r="L37" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2856</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5712</v>
       </c>
       <c r="N37" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8160</v>
       </c>
       <c r="O37" s="12">
         <v>140</v>
       </c>
       <c r="P37" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8160</v>
       </c>
       <c r="Q37" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6720</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="10"/>
-        <v>2.4</v>
-      </c>
-      <c r="S37" s="2">
         <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
+      <c r="S37" s="2">
+        <f t="shared" si="12"/>
+        <v>2.4</v>
+      </c>
       <c r="T37" s="2">
-        <f t="shared" ref="T37" si="23">(Q37/H17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="T37" si="24">(Q37/H17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.95609756097560994</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.6</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="21"/>
-        <v>0.95609756097560994</v>
-      </c>
-      <c r="W37" s="2">
         <f t="shared" si="22"/>
         <v>0.95609756097560994</v>
       </c>
+      <c r="W37" s="2">
+        <f t="shared" si="23"/>
+        <v>0.95609756097560994</v>
+      </c>
     </row>
     <row r="38" spans="1:23">
       <c r="D38" s="12"/>
-      <c r="G38" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="47"/>
+      <c r="G38" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" s="19">
         <v>100</v>
       </c>
       <c r="D39" s="12"/>
       <c r="Q39" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R39" s="26">
         <f>SUM(R40:R41)</f>
         <v>6.8571428571428568</v>
       </c>
       <c r="S39" s="26">
-        <f t="shared" ref="S39:W39" si="24">SUM(S40:S41)</f>
+        <f t="shared" ref="S39:W39" si="25">SUM(S40:S41)</f>
         <v>6.7012987012987013</v>
       </c>
       <c r="T39" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="U39" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.4675324675324681</v>
       </c>
       <c r="V39" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="W39" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.6696230598669626</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="42">
+        <v>100</v>
+      </c>
+      <c r="B40" s="41">
         <v>1.2</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" ref="H40:H41" si="25">ROUNDUP((P40*$B$30/100),0)</f>
+        <f t="shared" ref="H40:H41" si="26">ROUNDUP((P40*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I40" s="12">
-        <f t="shared" ref="I40:I41" si="26">ROUNDUP((P40*$B$31/100),0)</f>
+        <f t="shared" ref="I40:I41" si="27">ROUNDUP((P40*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" ref="J40:J41" si="27">ROUNDUP((P40*$B$32/100),0)</f>
+        <f t="shared" ref="J40:J41" si="28">ROUNDUP((P40*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40:K41" si="28">ROUNDUP((P40*$B$33/100),0)</f>
+        <f t="shared" ref="K40:K41" si="29">ROUNDUP((P40*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L40" s="12">
-        <f t="shared" ref="L40:L41" si="29">ROUNDUP((P40*$B$34/100),0)</f>
+        <f t="shared" ref="L40:L41" si="30">ROUNDUP((P40*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M40" s="12">
@@ -4142,7 +4080,7 @@
         <v>8116</v>
       </c>
       <c r="N40" s="12">
-        <f t="shared" ref="N40" si="30">SUM(H40:L40)</f>
+        <f t="shared" ref="N40" si="31">SUM(H40:L40)</f>
         <v>11595</v>
       </c>
       <c r="O40" s="12">
@@ -4183,26 +4121,26 @@
     </row>
     <row r="41" spans="1:23">
       <c r="G41" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>608</v>
       </c>
       <c r="I41" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1215</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2429</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3644</v>
       </c>
       <c r="L41" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4251</v>
       </c>
       <c r="M41" s="12">
@@ -4251,29 +4189,29 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="2" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" ref="H42" si="31">ROUNDUP((P42*$B$30/100),0)</f>
+        <f t="shared" ref="H42" si="32">ROUNDUP((P42*$B$30/100),0)</f>
         <v>635</v>
       </c>
       <c r="I42" s="12">
-        <f t="shared" ref="I42" si="32">ROUNDUP((P42*$B$31/100),0)</f>
+        <f t="shared" ref="I42" si="33">ROUNDUP((P42*$B$31/100),0)</f>
         <v>1270</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" ref="J42" si="33">ROUNDUP((P42*$B$32/100),0)</f>
+        <f t="shared" ref="J42" si="34">ROUNDUP((P42*$B$32/100),0)</f>
         <v>2540</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" ref="K42" si="34">ROUNDUP((P42*$B$33/100),0)</f>
+        <f t="shared" ref="K42" si="35">ROUNDUP((P42*$B$33/100),0)</f>
         <v>3809</v>
       </c>
       <c r="L42" s="12">
-        <f t="shared" ref="L42" si="35">ROUNDUP((P42*$B$34/100),0)</f>
+        <f t="shared" ref="L42" si="36">ROUNDUP((P42*$B$34/100),0)</f>
         <v>4444</v>
       </c>
       <c r="M42" s="12">
@@ -4294,1134 +4232,1252 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B43" s="42">
+        <v>163</v>
+      </c>
+      <c r="B43" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
-      <c r="G44" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="O44" s="25" t="s">
+      <c r="G43" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H43" s="12">
+        <f t="shared" ref="H43" si="37">ROUNDUP((P43*$B$30/100),0)</f>
+        <v>692</v>
+      </c>
+      <c r="I43" s="12">
+        <f t="shared" ref="I43" si="38">ROUNDUP((P43*$B$31/100),0)</f>
+        <v>1383</v>
+      </c>
+      <c r="J43" s="12">
+        <f t="shared" ref="J43" si="39">ROUNDUP((P43*$B$32/100),0)</f>
+        <v>2765</v>
+      </c>
+      <c r="K43" s="12">
+        <f t="shared" ref="K43" si="40">ROUNDUP((P43*$B$33/100),0)</f>
+        <v>4148</v>
+      </c>
+      <c r="L43" s="12">
+        <f t="shared" ref="L43" si="41">ROUNDUP((P43*$B$34/100),0)</f>
+        <v>4839</v>
+      </c>
+      <c r="M43" s="12">
+        <f>L43*$B$43</f>
+        <v>9678</v>
+      </c>
+      <c r="N43" s="12">
+        <f>SUM(H43:L43)</f>
+        <v>13827</v>
+      </c>
+      <c r="O43" s="12">
+        <v>210</v>
+      </c>
+      <c r="P43" s="12">
+        <f>(H22*$B$9*$B$18)*(O43/100)+I22</f>
+        <v>13824</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="G46" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O46" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" s="38">
+        <f>SUM(P48:P58)+SUM(Q48:Q58)</f>
+        <v>22.09</v>
+      </c>
+      <c r="Q46" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="17.25" thickBot="1">
+      <c r="G47" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="P44" s="39">
-        <f>SUM(P46:P56)+SUM(Q46:Q56)</f>
-        <v>22.09</v>
-      </c>
-      <c r="Q44" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="17.25" thickBot="1">
-      <c r="G45" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="27">
+      <c r="H47" s="27">
         <v>0</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I47" s="27">
         <v>1</v>
       </c>
-      <c r="J45" s="27">
+      <c r="J47" s="27">
         <v>2</v>
       </c>
-      <c r="K45" s="27">
+      <c r="K47" s="27">
         <v>3</v>
       </c>
-      <c r="L45" s="27">
+      <c r="L47" s="27">
         <v>4</v>
       </c>
-      <c r="M45" s="27">
+      <c r="M47" s="27">
         <v>5</v>
       </c>
-      <c r="N45" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="O45" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="P45" s="27" t="s">
+      <c r="N47" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="O47" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P47" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q47" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="R47" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="Q45" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="R45" s="27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="17.25" thickTop="1">
-      <c r="G46" s="12" t="s">
+    </row>
+    <row r="48" spans="1:23" ht="17.25" thickTop="1">
+      <c r="G48" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H48" s="12">
         <v>0.01</v>
       </c>
-      <c r="I46" s="12">
-        <f t="shared" ref="I46:I55" si="36">ROUNDUP(((H28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
+      <c r="I48" s="12">
+        <f t="shared" ref="I48:I57" si="42">ROUNDUP(((H28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
         <v>0.02</v>
       </c>
-      <c r="J46" s="12">
-        <f t="shared" ref="J46:J55" si="37">ROUNDUP(((I28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
+      <c r="J48" s="12">
+        <f t="shared" ref="J48:J57" si="43">ROUNDUP(((I28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
         <v>0.03</v>
       </c>
-      <c r="K46" s="12">
-        <f t="shared" ref="K46:K55" si="38">ROUNDUP(((J28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
+      <c r="K48" s="12">
+        <f t="shared" ref="K48:K57" si="44">ROUNDUP(((J28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
         <v>0.06</v>
       </c>
-      <c r="L46" s="12">
-        <f t="shared" ref="L46:L55" si="39">ROUNDUP(((K28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
+      <c r="L48" s="12">
+        <f t="shared" ref="L48:L57" si="45">ROUNDUP(((K28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
         <v>0.09</v>
       </c>
-      <c r="M46" s="12">
-        <f t="shared" ref="M46:M55" si="40">ROUNDUP(((L28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
+      <c r="M48" s="12">
+        <f t="shared" ref="M48:M57" si="46">ROUNDUP(((L28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
         <v>0.1</v>
       </c>
-      <c r="N46" s="12">
-        <f>ROUNDUP(((M28/$B$39)*$B$40)*((100+O46)/100),0)/100</f>
+      <c r="N48" s="12">
+        <f t="shared" ref="N48:N57" si="47">ROUNDUP(((M28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
         <v>0.2</v>
       </c>
-      <c r="O46" s="13">
+      <c r="O48" s="13">
         <v>10</v>
       </c>
-      <c r="P46" s="13">
-        <f t="shared" ref="P46:P57" si="41">SUM(H46:M46)</f>
+      <c r="P48" s="13">
+        <f t="shared" ref="P48:P59" si="48">SUM(H48:M48)</f>
         <v>0.31</v>
       </c>
-      <c r="Q46" s="12">
-        <f>N46</f>
+      <c r="Q48" s="12">
+        <f>N48</f>
         <v>0.2</v>
       </c>
-      <c r="R46" s="13">
-        <f t="shared" ref="R46:R55" si="42">((P46+Q46)/$P$44)*100</f>
+      <c r="R48" s="13">
+        <f t="shared" ref="R48:R61" si="49">((P48+Q48)/$P$46)*100</f>
         <v>2.3087369850611137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
-      <c r="G47" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I47" s="12">
-        <f t="shared" si="36"/>
-        <v>0.02</v>
-      </c>
-      <c r="J47" s="12">
-        <f t="shared" si="37"/>
-        <v>0.04</v>
-      </c>
-      <c r="K47" s="12">
-        <f t="shared" si="38"/>
-        <v>0.08</v>
-      </c>
-      <c r="L47" s="12">
-        <f t="shared" si="39"/>
-        <v>0.12</v>
-      </c>
-      <c r="M47" s="12">
-        <f t="shared" si="40"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N47" s="12">
-        <f t="shared" ref="N47:N55" si="43">ROUNDUP(((M29/$B$39)*$B$40)*((100+O47)/100),0)/100</f>
-        <v>0.27</v>
-      </c>
-      <c r="O47" s="13">
-        <v>20</v>
-      </c>
-      <c r="P47" s="13">
-        <f t="shared" si="41"/>
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="Q47" s="12">
-        <f t="shared" ref="Q47:Q57" si="44">N47</f>
-        <v>0.27</v>
-      </c>
-      <c r="R47" s="13">
-        <f t="shared" si="42"/>
-        <v>3.0783159800814848</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
-      <c r="G48" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="I48" s="12">
-        <f t="shared" si="36"/>
-        <v>0.03</v>
-      </c>
-      <c r="J48" s="12">
-        <f t="shared" si="37"/>
-        <v>0.05</v>
-      </c>
-      <c r="K48" s="12">
-        <f t="shared" si="38"/>
-        <v>0.1</v>
-      </c>
-      <c r="L48" s="12">
-        <f t="shared" si="39"/>
-        <v>0.15</v>
-      </c>
-      <c r="M48" s="12">
-        <f t="shared" si="40"/>
-        <v>0.18</v>
-      </c>
-      <c r="N48" s="12">
-        <f t="shared" si="43"/>
-        <v>0.35</v>
-      </c>
-      <c r="O48" s="13">
-        <v>30</v>
-      </c>
-      <c r="P48" s="13">
-        <f t="shared" si="41"/>
-        <v>0.53</v>
-      </c>
-      <c r="Q48" s="12">
-        <f t="shared" si="44"/>
-        <v>0.35</v>
-      </c>
-      <c r="R48" s="13">
-        <f t="shared" si="42"/>
-        <v>3.9837030330466274</v>
       </c>
     </row>
     <row r="49" spans="7:18">
       <c r="G49" s="12" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H49" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="I49" s="12">
+        <f t="shared" si="42"/>
         <v>0.02</v>
       </c>
-      <c r="I49" s="12">
-        <f t="shared" si="36"/>
+      <c r="J49" s="12">
+        <f t="shared" si="43"/>
         <v>0.04</v>
       </c>
-      <c r="J49" s="12">
-        <f t="shared" si="37"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="K49" s="12">
-        <f t="shared" si="38"/>
-        <v>0.13</v>
+        <f t="shared" si="44"/>
+        <v>0.08</v>
       </c>
       <c r="L49" s="12">
-        <f t="shared" si="39"/>
-        <v>0.19</v>
+        <f t="shared" si="45"/>
+        <v>0.12</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="40"/>
-        <v>0.22</v>
+        <f t="shared" si="46"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N49" s="12">
-        <f t="shared" si="43"/>
-        <v>0.44</v>
+        <f t="shared" si="47"/>
+        <v>0.27</v>
       </c>
       <c r="O49" s="13">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P49" s="13">
-        <f t="shared" si="41"/>
-        <v>0.67</v>
+        <f t="shared" si="48"/>
+        <v>0.41000000000000003</v>
       </c>
       <c r="Q49" s="12">
-        <f t="shared" si="44"/>
-        <v>0.44</v>
+        <f t="shared" ref="Q49:Q59" si="50">N49</f>
+        <v>0.27</v>
       </c>
       <c r="R49" s="13">
-        <f t="shared" si="42"/>
-        <v>5.0248981439565421</v>
+        <f t="shared" si="49"/>
+        <v>3.0783159800814848</v>
       </c>
     </row>
     <row r="50" spans="7:18">
       <c r="G50" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H50" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="I50" s="12">
+        <f t="shared" si="42"/>
         <v>0.03</v>
       </c>
-      <c r="I50" s="12">
-        <f t="shared" si="36"/>
-        <v>0.04</v>
-      </c>
       <c r="J50" s="12">
-        <f t="shared" si="37"/>
-        <v>0.08</v>
+        <f t="shared" si="43"/>
+        <v>0.05</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" si="38"/>
-        <v>0.16</v>
+        <f t="shared" si="44"/>
+        <v>0.1</v>
       </c>
       <c r="L50" s="12">
-        <f t="shared" si="39"/>
-        <v>0.24</v>
+        <f t="shared" si="45"/>
+        <v>0.15</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="40"/>
-        <v>0.28000000000000003</v>
+        <f t="shared" si="46"/>
+        <v>0.18</v>
       </c>
       <c r="N50" s="12">
-        <f t="shared" si="43"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="47"/>
+        <v>0.35</v>
       </c>
       <c r="O50" s="13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="P50" s="13">
-        <f t="shared" si="41"/>
-        <v>0.83000000000000007</v>
+        <f t="shared" si="48"/>
+        <v>0.53</v>
       </c>
       <c r="Q50" s="12">
-        <f t="shared" si="44"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="50"/>
+        <v>0.35</v>
       </c>
       <c r="R50" s="13">
-        <f t="shared" si="42"/>
-        <v>6.2471706654594845</v>
+        <f t="shared" si="49"/>
+        <v>3.9837030330466274</v>
       </c>
     </row>
     <row r="51" spans="7:18">
       <c r="G51" s="12" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="H51" s="12">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="36"/>
-        <v>0.05</v>
+        <f t="shared" si="42"/>
+        <v>0.04</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="37"/>
-        <v>0.1</v>
+        <f t="shared" si="43"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" si="38"/>
-        <v>0.2</v>
+        <f t="shared" si="44"/>
+        <v>0.13</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" si="39"/>
-        <v>0.28999999999999998</v>
+        <f t="shared" si="45"/>
+        <v>0.19</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="40"/>
-        <v>0.34</v>
+        <f t="shared" si="46"/>
+        <v>0.22</v>
       </c>
       <c r="N51" s="12">
-        <f t="shared" si="43"/>
-        <v>0.68</v>
+        <f t="shared" si="47"/>
+        <v>0.44</v>
       </c>
       <c r="O51" s="13">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="P51" s="13">
-        <f t="shared" si="41"/>
-        <v>1.01</v>
+        <f t="shared" si="48"/>
+        <v>0.67</v>
       </c>
       <c r="Q51" s="12">
-        <f t="shared" si="44"/>
-        <v>0.68</v>
+        <f t="shared" si="50"/>
+        <v>0.44</v>
       </c>
       <c r="R51" s="13">
-        <f t="shared" si="42"/>
-        <v>7.6505205975554542</v>
+        <f t="shared" si="49"/>
+        <v>5.0248981439565421</v>
       </c>
     </row>
     <row r="52" spans="7:18">
       <c r="G52" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H52" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="I52" s="12">
+        <f t="shared" si="42"/>
         <v>0.04</v>
       </c>
-      <c r="I52" s="12">
-        <f t="shared" si="36"/>
-        <v>0.06</v>
-      </c>
       <c r="J52" s="12">
-        <f t="shared" si="37"/>
-        <v>0.12</v>
+        <f t="shared" si="43"/>
+        <v>0.08</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
+        <v>0.16</v>
+      </c>
+      <c r="L52" s="12">
+        <f t="shared" si="45"/>
         <v>0.24</v>
       </c>
-      <c r="L52" s="12">
-        <f t="shared" si="39"/>
-        <v>0.35</v>
-      </c>
       <c r="M52" s="12">
-        <f t="shared" si="40"/>
-        <v>0.41</v>
+        <f t="shared" si="46"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N52" s="12">
-        <f t="shared" si="43"/>
-        <v>0.82</v>
+        <f t="shared" si="47"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O52" s="13">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="P52" s="13">
-        <f t="shared" si="41"/>
-        <v>1.22</v>
+        <f t="shared" si="48"/>
+        <v>0.83000000000000007</v>
       </c>
       <c r="Q52" s="12">
-        <f t="shared" si="44"/>
-        <v>0.82</v>
+        <f t="shared" si="50"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R52" s="13">
-        <f t="shared" si="42"/>
-        <v>9.2349479402444548</v>
+        <f t="shared" si="49"/>
+        <v>6.2471706654594845</v>
       </c>
     </row>
     <row r="53" spans="7:18">
       <c r="G53" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H53" s="12">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="36"/>
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" si="42"/>
+        <v>0.05</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="37"/>
-        <v>0.14000000000000001</v>
+        <f t="shared" si="43"/>
+        <v>0.1</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="38"/>
-        <v>0.28000000000000003</v>
+        <f t="shared" si="44"/>
+        <v>0.2</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="39"/>
-        <v>0.42</v>
+        <f t="shared" si="45"/>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="40"/>
-        <v>0.49</v>
+        <f t="shared" si="46"/>
+        <v>0.34</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" si="43"/>
-        <v>0.98</v>
+        <f t="shared" si="47"/>
+        <v>0.68</v>
       </c>
       <c r="O53" s="13">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P53" s="13">
-        <f t="shared" si="41"/>
-        <v>1.44</v>
+        <f t="shared" si="48"/>
+        <v>1.01</v>
       </c>
       <c r="Q53" s="12">
-        <f t="shared" si="44"/>
-        <v>0.98</v>
+        <f t="shared" si="50"/>
+        <v>0.68</v>
       </c>
       <c r="R53" s="13">
-        <f t="shared" si="42"/>
-        <v>10.955183340878225</v>
+        <f t="shared" si="49"/>
+        <v>7.6505205975554542</v>
       </c>
     </row>
     <row r="54" spans="7:18">
       <c r="G54" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H54" s="12">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I54" s="12">
-        <f t="shared" si="36"/>
-        <v>0.09</v>
+        <f t="shared" si="42"/>
+        <v>0.06</v>
       </c>
       <c r="J54" s="12">
-        <f t="shared" si="37"/>
-        <v>0.17</v>
+        <f t="shared" si="43"/>
+        <v>0.12</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" si="38"/>
-        <v>0.34</v>
+        <f t="shared" si="44"/>
+        <v>0.24</v>
       </c>
       <c r="L54" s="12">
-        <f t="shared" si="39"/>
-        <v>0.5</v>
+        <f t="shared" si="45"/>
+        <v>0.35</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="40"/>
-        <v>0.59</v>
+        <f t="shared" si="46"/>
+        <v>0.41</v>
       </c>
       <c r="N54" s="12">
-        <f t="shared" si="43"/>
-        <v>1.17</v>
+        <f t="shared" si="47"/>
+        <v>0.82</v>
       </c>
       <c r="O54" s="13">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P54" s="13">
-        <f t="shared" si="41"/>
-        <v>1.7400000000000002</v>
+        <f t="shared" si="48"/>
+        <v>1.22</v>
       </c>
       <c r="Q54" s="12">
-        <f t="shared" si="44"/>
-        <v>1.17</v>
+        <f t="shared" si="50"/>
+        <v>0.82</v>
       </c>
       <c r="R54" s="13">
-        <f t="shared" si="42"/>
-        <v>13.173381620642827</v>
+        <f t="shared" si="49"/>
+        <v>9.2349479402444548</v>
       </c>
     </row>
     <row r="55" spans="7:18">
       <c r="G55" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H55" s="12">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I55" s="12">
-        <f t="shared" si="36"/>
-        <v>0.1</v>
+        <f t="shared" si="42"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J55" s="12">
-        <f t="shared" si="37"/>
-        <v>0.2</v>
+        <f t="shared" si="43"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K55" s="12">
-        <f t="shared" si="38"/>
-        <v>0.4</v>
+        <f t="shared" si="44"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L55" s="12">
-        <f t="shared" si="39"/>
-        <v>0.59</v>
+        <f t="shared" si="45"/>
+        <v>0.42</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="40"/>
-        <v>0.69</v>
+        <f t="shared" si="46"/>
+        <v>0.49</v>
       </c>
       <c r="N55" s="12">
-        <f t="shared" si="43"/>
-        <v>1.38</v>
+        <f t="shared" si="47"/>
+        <v>0.98</v>
       </c>
       <c r="O55" s="13">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P55" s="13">
-        <f t="shared" si="41"/>
-        <v>2.0299999999999998</v>
+        <f t="shared" si="48"/>
+        <v>1.44</v>
       </c>
       <c r="Q55" s="12">
-        <f t="shared" si="44"/>
-        <v>1.38</v>
+        <f t="shared" si="50"/>
+        <v>0.98</v>
       </c>
       <c r="R55" s="13">
-        <f t="shared" si="42"/>
-        <v>15.436849253055678</v>
+        <f t="shared" si="49"/>
+        <v>10.955183340878225</v>
       </c>
     </row>
     <row r="56" spans="7:18">
       <c r="G56" s="12" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="H56" s="12">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I56" s="12">
-        <f>ROUNDUP(((H40/$B$39)*$B$40)*((100+O56)/100),0)/100</f>
-        <v>0.15</v>
+        <f t="shared" si="42"/>
+        <v>0.09</v>
       </c>
       <c r="J56" s="12">
-        <f>ROUNDUP(((I40/$B$39)*$B$40)*((100+O56)/100),0)/100</f>
-        <v>0.3</v>
+        <f t="shared" si="43"/>
+        <v>0.17</v>
       </c>
       <c r="K56" s="12">
-        <f>ROUNDUP(((J40/$B$39)*$B$40)*((100+O56)/100),0)/100</f>
+        <f t="shared" si="44"/>
+        <v>0.34</v>
+      </c>
+      <c r="L56" s="12">
+        <f t="shared" si="45"/>
+        <v>0.5</v>
+      </c>
+      <c r="M56" s="12">
+        <f t="shared" si="46"/>
         <v>0.59</v>
       </c>
-      <c r="L56" s="12">
-        <f>ROUNDUP(((K40/$B$39)*$B$40)*((100+O56)/100),0)/100</f>
-        <v>0.88</v>
-      </c>
-      <c r="M56" s="12">
-        <f>ROUNDUP(((L40/$B$39)*$B$40)*((100+O56)/100),0)/100</f>
-        <v>1.03</v>
-      </c>
       <c r="N56" s="12">
-        <f>ROUNDUP(((M40/$B$39)*$B$40)*((100+O56)/100),0)/100</f>
-        <v>2.0499999999999998</v>
+        <f t="shared" si="47"/>
+        <v>1.17</v>
       </c>
       <c r="O56" s="13">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="P56" s="13">
-        <f t="shared" si="41"/>
-        <v>3.01</v>
+        <f t="shared" si="48"/>
+        <v>1.7400000000000002</v>
       </c>
       <c r="Q56" s="12">
-        <f t="shared" si="44"/>
-        <v>2.0499999999999998</v>
+        <f t="shared" si="50"/>
+        <v>1.17</v>
       </c>
       <c r="R56" s="13">
-        <f>((P56+Q56)/$P$44)*100</f>
-        <v>22.906292440018106</v>
+        <f t="shared" si="49"/>
+        <v>13.173381620642827</v>
       </c>
     </row>
     <row r="57" spans="7:18">
       <c r="G57" s="12" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="H57" s="12">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I57" s="12">
-        <f>ROUNDUP(((H41/$B$39)*$B$40)*((100+O57)/100),0)/100</f>
-        <v>0.16</v>
+        <f t="shared" si="42"/>
+        <v>0.1</v>
       </c>
       <c r="J57" s="12">
-        <f>ROUNDUP(((I41/$B$39)*$B$40)*((100+O57)/100),0)/100</f>
-        <v>0.31</v>
+        <f t="shared" si="43"/>
+        <v>0.2</v>
       </c>
       <c r="K57" s="12">
-        <f>ROUNDUP(((J41/$B$39)*$B$40)*((100+O57)/100),0)/100</f>
-        <v>0.62</v>
+        <f t="shared" si="44"/>
+        <v>0.4</v>
       </c>
       <c r="L57" s="12">
-        <f>ROUNDUP(((K41/$B$39)*$B$40)*((100+O57)/100),0)/100</f>
-        <v>0.93</v>
+        <f t="shared" si="45"/>
+        <v>0.59</v>
       </c>
       <c r="M57" s="12">
-        <f>ROUNDUP(((L41/$B$39)*$B$40)*((100+O57)/100),0)/100</f>
-        <v>1.08</v>
+        <f t="shared" si="46"/>
+        <v>0.69</v>
       </c>
       <c r="N57" s="12">
-        <f>ROUNDUP(((M41/$B$39)*$B$40)*((100+O57)/100),0)/100</f>
-        <v>2.16</v>
+        <f t="shared" si="47"/>
+        <v>1.38</v>
       </c>
       <c r="O57" s="13">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P57" s="13">
-        <f t="shared" si="41"/>
-        <v>3.16</v>
+        <f t="shared" si="48"/>
+        <v>2.0299999999999998</v>
       </c>
       <c r="Q57" s="12">
-        <f t="shared" si="44"/>
-        <v>2.16</v>
+        <f t="shared" si="50"/>
+        <v>1.38</v>
       </c>
       <c r="R57" s="13">
-        <f>((P57+Q57)/$P$44)*100</f>
-        <v>24.083295608872795</v>
+        <f t="shared" si="49"/>
+        <v>15.436849253055678</v>
       </c>
     </row>
     <row r="58" spans="7:18">
       <c r="G58" s="12" t="s">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="H58" s="12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="I58" s="12">
-        <f>ROUNDUP(((H42/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+        <f>ROUNDUP(((H40/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="J58" s="12">
+        <f>ROUNDUP(((I40/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+        <v>0.3</v>
+      </c>
+      <c r="K58" s="12">
+        <f>ROUNDUP(((J40/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+        <v>0.59</v>
+      </c>
+      <c r="L58" s="12">
+        <f>ROUNDUP(((K40/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+        <v>0.88</v>
+      </c>
+      <c r="M58" s="12">
+        <f>ROUNDUP(((L40/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+        <v>1.03</v>
+      </c>
+      <c r="N58" s="12">
+        <f>ROUNDUP(((M40/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O58" s="13">
+        <v>110</v>
+      </c>
+      <c r="P58" s="13">
+        <f t="shared" si="48"/>
+        <v>3.01</v>
+      </c>
+      <c r="Q58" s="12">
+        <f t="shared" si="50"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R58" s="13">
+        <f t="shared" si="49"/>
+        <v>22.906292440018106</v>
+      </c>
+    </row>
+    <row r="59" spans="7:18">
+      <c r="G59" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="I59" s="12">
+        <f>ROUNDUP(((H41/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.17</v>
       </c>
-      <c r="J58" s="12">
-        <f>ROUNDUP(((I42/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+      <c r="J59" s="12">
+        <f>ROUNDUP(((I41/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.33</v>
       </c>
-      <c r="K58" s="12">
-        <f>ROUNDUP(((J42/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+      <c r="K59" s="12">
+        <f>ROUNDUP(((J41/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.65</v>
       </c>
-      <c r="L58" s="12">
-        <f>ROUNDUP(((K42/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
+      <c r="L59" s="12">
+        <f>ROUNDUP(((K41/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
         <v>0.97</v>
       </c>
-      <c r="M58" s="12">
-        <f>ROUNDUP(((L42/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="N58" s="12">
-        <f>ROUNDUP(((M42/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
-        <v>2.27</v>
-      </c>
-      <c r="O58" s="13">
-        <v>112</v>
-      </c>
-      <c r="P58" s="13">
-        <f t="shared" ref="P58" si="45">SUM(H58:M58)</f>
-        <v>3.33</v>
-      </c>
-      <c r="Q58" s="12">
-        <f t="shared" ref="Q58" si="46">N58</f>
-        <v>2.27</v>
-      </c>
-      <c r="R58" s="13">
-        <f>((P58+Q58)/$P$44)*100</f>
-        <v>25.350837483023991</v>
+      <c r="M59" s="12">
+        <f>ROUNDUP(((L41/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N59" s="12">
+        <f>ROUNDUP(((M41/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
+        <v>2.25</v>
+      </c>
+      <c r="O59" s="13">
+        <v>120</v>
+      </c>
+      <c r="P59" s="13">
+        <f t="shared" si="48"/>
+        <v>3.3099999999999996</v>
+      </c>
+      <c r="Q59" s="12">
+        <f t="shared" si="50"/>
+        <v>2.25</v>
+      </c>
+      <c r="R59" s="13">
+        <f t="shared" si="49"/>
+        <v>25.169760072430964</v>
       </c>
     </row>
     <row r="60" spans="7:18">
       <c r="G60" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H60" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I60" s="12">
+        <f>ROUNDUP(((H42/$B$39)*$B$40)*((100+O60)/100),0)/100</f>
+        <v>0.18</v>
+      </c>
+      <c r="J60" s="12">
+        <f>ROUNDUP(((I42/$B$39)*$B$40)*((100+O60)/100),0)/100</f>
+        <v>0.36</v>
+      </c>
+      <c r="K60" s="12">
+        <f>ROUNDUP(((J42/$B$39)*$B$40)*((100+O60)/100),0)/100</f>
+        <v>0.71</v>
+      </c>
+      <c r="L60" s="12">
+        <f>ROUNDUP(((K42/$B$39)*$B$40)*((100+O60)/100),0)/100</f>
+        <v>1.06</v>
+      </c>
+      <c r="M60" s="12">
+        <f>ROUNDUP(((L42/$B$39)*$B$40)*((100+O60)/100),0)/100</f>
+        <v>1.23</v>
+      </c>
+      <c r="N60" s="12">
+        <f>ROUNDUP(((M42/$B$39)*$B$40)*((100+O60)/100),0)/100</f>
+        <v>2.46</v>
+      </c>
+      <c r="O60" s="13">
+        <v>130</v>
+      </c>
+      <c r="P60" s="13">
+        <f t="shared" ref="P60" si="51">SUM(H60:M60)</f>
+        <v>3.61</v>
+      </c>
+      <c r="Q60" s="12">
+        <f t="shared" ref="Q60" si="52">N60</f>
+        <v>2.46</v>
+      </c>
+      <c r="R60" s="13">
+        <f t="shared" si="49"/>
+        <v>27.478497057492078</v>
+      </c>
+    </row>
+    <row r="61" spans="7:18">
+      <c r="G61" s="12" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="61" spans="7:18" ht="17.25" thickBot="1">
-      <c r="G61" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="H61" s="27">
-        <v>0</v>
-      </c>
-      <c r="I61" s="27">
-        <v>1</v>
-      </c>
-      <c r="J61" s="27">
-        <v>2</v>
-      </c>
-      <c r="K61" s="27">
-        <v>3</v>
-      </c>
-      <c r="L61" s="27">
-        <v>4</v>
-      </c>
-      <c r="M61" s="27">
-        <v>5</v>
-      </c>
-      <c r="N61" s="27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" spans="7:18" ht="17.25" thickTop="1">
-      <c r="G62" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="12">
-        <f t="shared" ref="H62:H74" si="47">H46</f>
-        <v>0.01</v>
-      </c>
-      <c r="I62" s="12">
-        <f t="shared" ref="I62:N73" si="48">I46+H62</f>
-        <v>0.03</v>
-      </c>
-      <c r="J62" s="12">
-        <f t="shared" si="48"/>
-        <v>0.06</v>
-      </c>
-      <c r="K62" s="12">
-        <f t="shared" si="48"/>
-        <v>0.12</v>
-      </c>
-      <c r="L62" s="12">
-        <f t="shared" si="48"/>
-        <v>0.21</v>
-      </c>
-      <c r="M62" s="12">
-        <f t="shared" si="48"/>
-        <v>0.31</v>
-      </c>
-      <c r="N62" s="12">
-        <f t="shared" si="48"/>
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="63" spans="7:18">
-      <c r="G63" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="12">
-        <f t="shared" si="47"/>
-        <v>0.01</v>
-      </c>
-      <c r="I63" s="12">
-        <f t="shared" si="48"/>
-        <v>0.03</v>
-      </c>
-      <c r="J63" s="12">
-        <f t="shared" si="48"/>
+      <c r="H61" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K63" s="12">
-        <f t="shared" si="48"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="L63" s="12">
-        <f t="shared" si="48"/>
-        <v>0.27</v>
-      </c>
-      <c r="M63" s="12">
-        <f t="shared" si="48"/>
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="N63" s="12">
-        <f t="shared" si="48"/>
-        <v>0.68</v>
+      <c r="I61" s="12">
+        <f>ROUNDUP(((H43/$B$39)*$B$40)*((100+O61)/100),0)/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="J61" s="12">
+        <f>ROUNDUP(((I43/$B$39)*$B$40)*((100+O61)/100),0)/100</f>
+        <v>0.4</v>
+      </c>
+      <c r="K61" s="12">
+        <f>ROUNDUP(((J43/$B$39)*$B$40)*((100+O61)/100),0)/100</f>
+        <v>0.8</v>
+      </c>
+      <c r="L61" s="12">
+        <f>ROUNDUP(((K43/$B$39)*$B$40)*((100+O61)/100),0)/100</f>
+        <v>1.2</v>
+      </c>
+      <c r="M61" s="12">
+        <f>ROUNDUP(((L43/$B$39)*$B$40)*((100+O61)/100),0)/100</f>
+        <v>1.4</v>
+      </c>
+      <c r="N61" s="12">
+        <f>ROUNDUP(((M43/$B$39)*$B$40)*((100+O61)/100),0)/100</f>
+        <v>2.79</v>
+      </c>
+      <c r="O61" s="13">
+        <v>140</v>
+      </c>
+      <c r="P61" s="13">
+        <f t="shared" ref="P61" si="53">SUM(H61:M61)</f>
+        <v>4.07</v>
+      </c>
+      <c r="Q61" s="12">
+        <f t="shared" ref="Q61" si="54">N61</f>
+        <v>2.79</v>
+      </c>
+      <c r="R61" s="13">
+        <f t="shared" si="49"/>
+        <v>31.05477591670439</v>
       </c>
     </row>
     <row r="64" spans="7:18">
       <c r="G64" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="12">
-        <f t="shared" si="47"/>
-        <v>0.02</v>
-      </c>
-      <c r="I64" s="12">
-        <f t="shared" si="48"/>
-        <v>0.05</v>
-      </c>
-      <c r="J64" s="12">
-        <f t="shared" si="48"/>
-        <v>0.1</v>
-      </c>
-      <c r="K64" s="12">
-        <f t="shared" si="48"/>
-        <v>0.2</v>
-      </c>
-      <c r="L64" s="12">
-        <f t="shared" si="48"/>
-        <v>0.35</v>
-      </c>
-      <c r="M64" s="12">
-        <f t="shared" si="48"/>
-        <v>0.53</v>
-      </c>
-      <c r="N64" s="12">
-        <f t="shared" si="48"/>
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="65" spans="7:14">
-      <c r="G65" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H65" s="12">
-        <f t="shared" si="47"/>
-        <v>0.02</v>
-      </c>
-      <c r="I65" s="12">
-        <f t="shared" si="48"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="7:14" ht="17.25" thickBot="1">
+      <c r="G65" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" s="27">
+        <v>0</v>
+      </c>
+      <c r="I65" s="27">
+        <v>1</v>
+      </c>
+      <c r="J65" s="27">
+        <v>2</v>
+      </c>
+      <c r="K65" s="27">
+        <v>3</v>
+      </c>
+      <c r="L65" s="27">
+        <v>4</v>
+      </c>
+      <c r="M65" s="27">
+        <v>5</v>
+      </c>
+      <c r="N65" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="7:14" ht="17.25" thickTop="1">
+      <c r="G66" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="12">
+        <f t="shared" ref="H66:H79" si="55">H48</f>
+        <v>0.01</v>
+      </c>
+      <c r="I66" s="12">
+        <f t="shared" ref="I66:N79" si="56">I48+H66</f>
+        <v>0.03</v>
+      </c>
+      <c r="J66" s="12">
+        <f t="shared" si="56"/>
         <v>0.06</v>
       </c>
-      <c r="J65" s="12">
-        <f t="shared" si="48"/>
-        <v>0.13</v>
-      </c>
-      <c r="K65" s="12">
-        <f t="shared" si="48"/>
-        <v>0.26</v>
-      </c>
-      <c r="L65" s="12">
-        <f t="shared" si="48"/>
-        <v>0.45</v>
-      </c>
-      <c r="M65" s="12">
-        <f t="shared" si="48"/>
-        <v>0.67</v>
-      </c>
-      <c r="N65" s="12">
-        <f t="shared" si="48"/>
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="7:14">
-      <c r="G66" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="12">
-        <f t="shared" si="47"/>
-        <v>0.03</v>
-      </c>
-      <c r="I66" s="12">
-        <f t="shared" si="48"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J66" s="12">
-        <f t="shared" si="48"/>
-        <v>0.15000000000000002</v>
-      </c>
       <c r="K66" s="12">
-        <f t="shared" si="48"/>
-        <v>0.31000000000000005</v>
+        <f t="shared" si="56"/>
+        <v>0.12</v>
       </c>
       <c r="L66" s="12">
-        <f t="shared" si="48"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="56"/>
+        <v>0.21</v>
       </c>
       <c r="M66" s="12">
-        <f t="shared" si="48"/>
-        <v>0.83000000000000007</v>
+        <f t="shared" si="56"/>
+        <v>0.31</v>
       </c>
       <c r="N66" s="12">
-        <f t="shared" si="48"/>
-        <v>1.3800000000000001</v>
+        <f t="shared" si="56"/>
+        <v>0.51</v>
       </c>
     </row>
     <row r="67" spans="7:14">
       <c r="G67" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H67" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
+        <v>0.01</v>
+      </c>
+      <c r="I67" s="12">
+        <f t="shared" si="56"/>
         <v>0.03</v>
       </c>
-      <c r="I67" s="12">
-        <f t="shared" si="48"/>
-        <v>0.08</v>
-      </c>
       <c r="J67" s="12">
-        <f t="shared" si="48"/>
-        <v>0.18</v>
+        <f t="shared" si="56"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="48"/>
-        <v>0.38</v>
+        <f t="shared" si="56"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L67" s="12">
-        <f t="shared" si="48"/>
-        <v>0.66999999999999993</v>
+        <f t="shared" si="56"/>
+        <v>0.27</v>
       </c>
       <c r="M67" s="12">
-        <f t="shared" si="48"/>
-        <v>1.01</v>
+        <f t="shared" si="56"/>
+        <v>0.41000000000000003</v>
       </c>
       <c r="N67" s="12">
-        <f t="shared" si="48"/>
-        <v>1.69</v>
+        <f t="shared" si="56"/>
+        <v>0.68</v>
       </c>
     </row>
     <row r="68" spans="7:14">
       <c r="G68" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H68" s="12">
-        <f t="shared" si="47"/>
-        <v>0.04</v>
+        <f t="shared" si="55"/>
+        <v>0.02</v>
       </c>
       <c r="I68" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
+        <v>0.05</v>
+      </c>
+      <c r="J68" s="12">
+        <f t="shared" si="56"/>
         <v>0.1</v>
       </c>
-      <c r="J68" s="12">
-        <f t="shared" si="48"/>
-        <v>0.22</v>
-      </c>
       <c r="K68" s="12">
-        <f t="shared" si="48"/>
-        <v>0.45999999999999996</v>
+        <f t="shared" si="56"/>
+        <v>0.2</v>
       </c>
       <c r="L68" s="12">
-        <f t="shared" si="48"/>
-        <v>0.80999999999999994</v>
+        <f t="shared" si="56"/>
+        <v>0.35</v>
       </c>
       <c r="M68" s="12">
-        <f t="shared" si="48"/>
-        <v>1.22</v>
+        <f t="shared" si="56"/>
+        <v>0.53</v>
       </c>
       <c r="N68" s="12">
-        <f t="shared" si="48"/>
-        <v>2.04</v>
+        <f t="shared" si="56"/>
+        <v>0.88</v>
       </c>
     </row>
     <row r="69" spans="7:14">
       <c r="G69" s="12" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H69" s="12">
-        <f t="shared" si="47"/>
-        <v>0.04</v>
+        <f t="shared" si="55"/>
+        <v>0.02</v>
       </c>
       <c r="I69" s="12">
-        <f t="shared" si="48"/>
-        <v>0.11000000000000001</v>
+        <f t="shared" si="56"/>
+        <v>0.06</v>
       </c>
       <c r="J69" s="12">
-        <f t="shared" si="48"/>
-        <v>0.25</v>
+        <f t="shared" si="56"/>
+        <v>0.13</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" si="48"/>
-        <v>0.53</v>
+        <f t="shared" si="56"/>
+        <v>0.26</v>
       </c>
       <c r="L69" s="12">
-        <f t="shared" si="48"/>
-        <v>0.95</v>
+        <f t="shared" si="56"/>
+        <v>0.45</v>
       </c>
       <c r="M69" s="12">
-        <f t="shared" si="48"/>
-        <v>1.44</v>
+        <f t="shared" si="56"/>
+        <v>0.67</v>
       </c>
       <c r="N69" s="12">
-        <f t="shared" si="48"/>
-        <v>2.42</v>
+        <f t="shared" si="56"/>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="70" spans="7:14">
       <c r="G70" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H70" s="12">
-        <f t="shared" si="47"/>
-        <v>0.05</v>
+        <f t="shared" si="55"/>
+        <v>0.03</v>
       </c>
       <c r="I70" s="12">
-        <f t="shared" si="48"/>
-        <v>0.14000000000000001</v>
+        <f t="shared" si="56"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J70" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="K70" s="12">
+        <f t="shared" si="56"/>
         <v>0.31000000000000005</v>
       </c>
-      <c r="K70" s="12">
-        <f t="shared" si="48"/>
-        <v>0.65000000000000013</v>
-      </c>
       <c r="L70" s="12">
-        <f t="shared" si="48"/>
-        <v>1.1500000000000001</v>
+        <f t="shared" si="56"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M70" s="12">
-        <f t="shared" si="48"/>
-        <v>1.7400000000000002</v>
+        <f t="shared" si="56"/>
+        <v>0.83000000000000007</v>
       </c>
       <c r="N70" s="12">
-        <f t="shared" si="48"/>
-        <v>2.91</v>
+        <f t="shared" si="56"/>
+        <v>1.3800000000000001</v>
       </c>
     </row>
     <row r="71" spans="7:14">
       <c r="G71" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H71" s="12">
-        <f t="shared" si="47"/>
-        <v>0.05</v>
+        <f t="shared" si="55"/>
+        <v>0.03</v>
       </c>
       <c r="I71" s="12">
-        <f t="shared" si="48"/>
-        <v>0.15000000000000002</v>
+        <f t="shared" si="56"/>
+        <v>0.08</v>
       </c>
       <c r="J71" s="12">
-        <f t="shared" si="48"/>
-        <v>0.35000000000000003</v>
+        <f t="shared" si="56"/>
+        <v>0.18</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" si="48"/>
-        <v>0.75</v>
+        <f t="shared" si="56"/>
+        <v>0.38</v>
       </c>
       <c r="L71" s="12">
-        <f t="shared" si="48"/>
-        <v>1.3399999999999999</v>
+        <f t="shared" si="56"/>
+        <v>0.66999999999999993</v>
       </c>
       <c r="M71" s="12">
-        <f t="shared" si="48"/>
-        <v>2.0299999999999998</v>
+        <f t="shared" si="56"/>
+        <v>1.01</v>
       </c>
       <c r="N71" s="12">
-        <f t="shared" si="48"/>
-        <v>3.4099999999999997</v>
+        <f t="shared" si="56"/>
+        <v>1.69</v>
       </c>
     </row>
     <row r="72" spans="7:14">
       <c r="G72" s="12" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="H72" s="12">
-        <f t="shared" si="47"/>
-        <v>0.06</v>
+        <f t="shared" si="55"/>
+        <v>0.04</v>
       </c>
       <c r="I72" s="12">
-        <f t="shared" si="48"/>
-        <v>0.21</v>
+        <f t="shared" si="56"/>
+        <v>0.1</v>
       </c>
       <c r="J72" s="12">
-        <f t="shared" si="48"/>
-        <v>0.51</v>
+        <f t="shared" si="56"/>
+        <v>0.22</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="48"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="56"/>
+        <v>0.45999999999999996</v>
       </c>
       <c r="L72" s="12">
-        <f t="shared" si="48"/>
-        <v>1.98</v>
+        <f t="shared" si="56"/>
+        <v>0.80999999999999994</v>
       </c>
       <c r="M72" s="12">
-        <f t="shared" si="48"/>
-        <v>3.01</v>
+        <f t="shared" si="56"/>
+        <v>1.22</v>
       </c>
       <c r="N72" s="12">
-        <f t="shared" si="48"/>
-        <v>5.0599999999999996</v>
+        <f t="shared" si="56"/>
+        <v>2.04</v>
       </c>
     </row>
     <row r="73" spans="7:14">
       <c r="G73" s="12" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="H73" s="12">
-        <f t="shared" si="47"/>
-        <v>0.06</v>
+        <f t="shared" si="55"/>
+        <v>0.04</v>
       </c>
       <c r="I73" s="12">
-        <f t="shared" si="48"/>
-        <v>0.22</v>
+        <f t="shared" si="56"/>
+        <v>0.11000000000000001</v>
       </c>
       <c r="J73" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
+        <v>0.25</v>
+      </c>
+      <c r="K73" s="12">
+        <f t="shared" si="56"/>
         <v>0.53</v>
       </c>
-      <c r="K73" s="12">
-        <f t="shared" si="48"/>
-        <v>1.1499999999999999</v>
-      </c>
       <c r="L73" s="12">
-        <f t="shared" si="48"/>
-        <v>2.08</v>
+        <f t="shared" si="56"/>
+        <v>0.95</v>
       </c>
       <c r="M73" s="12">
-        <f t="shared" si="48"/>
-        <v>3.16</v>
+        <f t="shared" si="56"/>
+        <v>1.44</v>
       </c>
       <c r="N73" s="12">
-        <f t="shared" si="48"/>
-        <v>5.32</v>
+        <f t="shared" si="56"/>
+        <v>2.42</v>
       </c>
     </row>
     <row r="74" spans="7:14">
       <c r="G74" s="12" t="s">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="H74" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
+        <v>0.05</v>
+      </c>
+      <c r="I74" s="12">
+        <f t="shared" si="56"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J74" s="12">
+        <f t="shared" si="56"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="K74" s="12">
+        <f t="shared" si="56"/>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="L74" s="12">
+        <f t="shared" si="56"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="M74" s="12">
+        <f t="shared" si="56"/>
+        <v>1.7400000000000002</v>
+      </c>
+      <c r="N74" s="12">
+        <f t="shared" si="56"/>
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="75" spans="7:14">
+      <c r="G75" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" s="12">
+        <f t="shared" si="55"/>
+        <v>0.05</v>
+      </c>
+      <c r="I75" s="12">
+        <f t="shared" si="56"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J75" s="12">
+        <f t="shared" si="56"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="K75" s="12">
+        <f t="shared" si="56"/>
+        <v>0.75</v>
+      </c>
+      <c r="L75" s="12">
+        <f t="shared" si="56"/>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="M75" s="12">
+        <f t="shared" si="56"/>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N75" s="12">
+        <f t="shared" si="56"/>
+        <v>3.4099999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="7:14">
+      <c r="G76" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H76" s="12">
+        <f t="shared" si="55"/>
+        <v>0.06</v>
+      </c>
+      <c r="I76" s="12">
+        <f t="shared" si="56"/>
+        <v>0.21</v>
+      </c>
+      <c r="J76" s="12">
+        <f t="shared" si="56"/>
+        <v>0.51</v>
+      </c>
+      <c r="K76" s="12">
+        <f t="shared" si="56"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L76" s="12">
+        <f t="shared" si="56"/>
+        <v>1.98</v>
+      </c>
+      <c r="M76" s="12">
+        <f t="shared" si="56"/>
+        <v>3.01</v>
+      </c>
+      <c r="N76" s="12">
+        <f t="shared" si="56"/>
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="7:14">
+      <c r="G77" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H77" s="12">
+        <f t="shared" si="55"/>
+        <v>0.06</v>
+      </c>
+      <c r="I77" s="12">
+        <f t="shared" si="56"/>
+        <v>0.23</v>
+      </c>
+      <c r="J77" s="12">
+        <f t="shared" si="56"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K77" s="12">
+        <f t="shared" si="56"/>
+        <v>1.21</v>
+      </c>
+      <c r="L77" s="12">
+        <f t="shared" si="56"/>
+        <v>2.1799999999999997</v>
+      </c>
+      <c r="M77" s="12">
+        <f t="shared" si="56"/>
+        <v>3.3099999999999996</v>
+      </c>
+      <c r="N77" s="12">
+        <f t="shared" si="56"/>
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="78" spans="7:14">
+      <c r="G78" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H78" s="12">
+        <f t="shared" si="55"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I74" s="12">
-        <f t="shared" ref="I74" si="49">I58+H74</f>
-        <v>0.24000000000000002</v>
-      </c>
-      <c r="J74" s="12">
-        <f t="shared" ref="J74" si="50">J58+I74</f>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="K74" s="12">
-        <f t="shared" ref="K74" si="51">K58+J74</f>
-        <v>1.2200000000000002</v>
-      </c>
-      <c r="L74" s="12">
-        <f t="shared" ref="L74" si="52">L58+K74</f>
-        <v>2.1900000000000004</v>
-      </c>
-      <c r="M74" s="12">
-        <f t="shared" ref="M74" si="53">M58+L74</f>
-        <v>3.33</v>
-      </c>
-      <c r="N74" s="12">
-        <f t="shared" ref="N74" si="54">N58+M74</f>
-        <v>5.6</v>
+      <c r="I78" s="12">
+        <f t="shared" si="56"/>
+        <v>0.25</v>
+      </c>
+      <c r="J78" s="12">
+        <f t="shared" si="56"/>
+        <v>0.61</v>
+      </c>
+      <c r="K78" s="12">
+        <f t="shared" si="56"/>
+        <v>1.3199999999999998</v>
+      </c>
+      <c r="L78" s="12">
+        <f t="shared" si="56"/>
+        <v>2.38</v>
+      </c>
+      <c r="M78" s="12">
+        <f t="shared" si="56"/>
+        <v>3.61</v>
+      </c>
+      <c r="N78" s="12">
+        <f t="shared" si="56"/>
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="79" spans="7:14">
+      <c r="G79" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H79" s="12">
+        <f t="shared" si="55"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I79" s="12">
+        <f t="shared" si="56"/>
+        <v>0.27</v>
+      </c>
+      <c r="J79" s="12">
+        <f t="shared" si="56"/>
+        <v>0.67</v>
+      </c>
+      <c r="K79" s="12">
+        <f t="shared" si="56"/>
+        <v>1.4700000000000002</v>
+      </c>
+      <c r="L79" s="12">
+        <f t="shared" si="56"/>
+        <v>2.67</v>
+      </c>
+      <c r="M79" s="12">
+        <f t="shared" si="56"/>
+        <v>4.07</v>
+      </c>
+      <c r="N79" s="12">
+        <f t="shared" si="56"/>
+        <v>6.86</v>
       </c>
     </row>
   </sheetData>
@@ -5438,8 +5494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EF5D34-81E7-475D-8B1B-AFFF2EFE6FF9}">
   <dimension ref="A2:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5456,49 +5512,49 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
         <v>141</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>142</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>143</v>
       </c>
-      <c r="F2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" t="s">
-        <v>145</v>
-      </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
       </c>
       <c r="L2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" t="s">
         <v>141</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>142</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>143</v>
       </c>
-      <c r="O2" t="s">
-        <v>144</v>
-      </c>
-      <c r="P2" t="s">
-        <v>145</v>
-      </c>
       <c r="Q2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -5533,7 +5589,7 @@
         <v>1000</v>
       </c>
       <c r="T3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U3">
         <v>4</v>
@@ -5576,7 +5632,7 @@
         <v>1000나</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -5610,7 +5666,7 @@
         <v>1E+60</v>
       </c>
       <c r="T4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="U4">
         <v>8</v>
@@ -5653,7 +5709,7 @@
         <v>1000불</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -5687,7 +5743,7 @@
         <v>1E+64</v>
       </c>
       <c r="T5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U5">
         <v>12</v>
@@ -5730,7 +5786,7 @@
         <v>1000무</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -5764,7 +5820,7 @@
         <v>1E+68</v>
       </c>
       <c r="T6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U6">
         <v>16</v>
@@ -5807,7 +5863,7 @@
         <v>1000대</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -5841,7 +5897,7 @@
         <v>1E+72</v>
       </c>
       <c r="T7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U7">
         <v>20</v>
@@ -5884,7 +5940,7 @@
         <v>1000겁</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -5918,7 +5974,7 @@
         <v>1E+76</v>
       </c>
       <c r="T8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U8">
         <v>24</v>
@@ -5961,7 +6017,7 @@
         <v>1000업</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -5995,7 +6051,7 @@
         <v>1E+80</v>
       </c>
       <c r="T9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U9">
         <v>28</v>
@@ -6038,7 +6094,7 @@
         <v>1000긍</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J10">
         <v>7</v>
@@ -6072,7 +6128,7 @@
         <v>1E+84</v>
       </c>
       <c r="T10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U10">
         <v>32</v>
@@ -6115,7 +6171,7 @@
         <v>1000갈</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J11">
         <v>8</v>
@@ -6149,7 +6205,7 @@
         <v>1E+88</v>
       </c>
       <c r="T11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U11">
         <v>36</v>
@@ -6192,7 +6248,7 @@
         <v>1000라</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -6226,7 +6282,7 @@
         <v>1E+92</v>
       </c>
       <c r="T12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U12">
         <v>40</v>
@@ -6269,7 +6325,7 @@
         <v>1000가</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -6303,7 +6359,7 @@
         <v>1E+96</v>
       </c>
       <c r="T13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U13">
         <v>44</v>
@@ -6346,7 +6402,7 @@
         <v>1000언</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="J14">
         <v>11</v>
@@ -6380,7 +6436,7 @@
         <v>1E+100</v>
       </c>
       <c r="T14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U14">
         <v>48</v>
@@ -6423,7 +6479,7 @@
         <v>1000승</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="J15">
         <v>12</v>
@@ -6457,7 +6513,7 @@
         <v>1E+104</v>
       </c>
       <c r="T15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U15">
         <v>52</v>
@@ -6476,65 +6532,65 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f t="shared" ref="B16" si="41">C16&amp;","&amp;D16&amp;","&amp;E16&amp;","&amp;F16&amp;","&amp;G16</f>
+        <f t="shared" ref="B16:B17" si="41">C16&amp;","&amp;D16&amp;","&amp;E16&amp;","&amp;F16&amp;","&amp;G16</f>
         <v>10마,20마,50마,200마,1000마</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" ref="C16" si="42">$C$3&amp;H16</f>
+        <f t="shared" ref="C16:C17" si="42">$C$3&amp;H16</f>
         <v>10마</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" ref="D16" si="43">$D$3&amp;H16</f>
+        <f t="shared" ref="D16:D17" si="43">$D$3&amp;H16</f>
         <v>20마</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" ref="E16" si="44">$E$3&amp;H16</f>
+        <f t="shared" ref="E16:E17" si="44">$E$3&amp;H16</f>
         <v>50마</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" ref="F16" si="45">$F$3&amp;H16</f>
+        <f t="shared" ref="F16:F17" si="45">$F$3&amp;H16</f>
         <v>200마</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" ref="G16" si="46">$G$3&amp;H16</f>
+        <f t="shared" ref="G16:G17" si="46">$G$3&amp;H16</f>
         <v>1000마</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="J16">
         <v>13</v>
       </c>
       <c r="K16" s="3" t="str">
-        <f t="shared" ref="K16" si="47">L16&amp;","&amp;M16&amp;","&amp;N16&amp;","&amp;O16&amp;","&amp;P16</f>
+        <f t="shared" ref="K16:K17" si="47">L16&amp;","&amp;M16&amp;","&amp;N16&amp;","&amp;O16&amp;","&amp;P16</f>
         <v>1E+109,2E+109,5E+109,2E+110,1E+111</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16" si="48">$C$3*Q16</f>
+        <f t="shared" ref="L16:L17" si="48">$C$3*Q16</f>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16" si="49">$D$3*Q16</f>
+        <f t="shared" ref="M16:M17" si="49">$D$3*Q16</f>
         <v>2E+109</v>
       </c>
       <c r="N16">
-        <f t="shared" ref="N16" si="50">$E$3*Q16</f>
+        <f t="shared" ref="N16:N17" si="50">$E$3*Q16</f>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="O16">
-        <f t="shared" ref="O16" si="51">$F$3*Q16</f>
+        <f t="shared" ref="O16:O17" si="51">$F$3*Q16</f>
         <v>2E+110</v>
       </c>
       <c r="P16">
-        <f t="shared" ref="P16" si="52">$G$3*Q16</f>
+        <f t="shared" ref="P16:P17" si="52">$G$3*Q16</f>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" ref="Q16" si="53">VLOOKUP(H16,T:W,4,FALSE)</f>
+        <f t="shared" ref="Q16:Q17" si="53">VLOOKUP(H16,T:W,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="T16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U16">
         <v>56</v>
@@ -6548,9 +6604,70 @@
         <v>1E+56</v>
       </c>
     </row>
-    <row r="17" spans="20:23">
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>10살,20살,50살,200살,1000살</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="42"/>
+        <v>10살</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="43"/>
+        <v>20살</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="44"/>
+        <v>50살</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="45"/>
+        <v>200살</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="46"/>
+        <v>1000살</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="K17" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>1E+113,2E+113,5E+113,2E+114,1E+115</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="48"/>
+        <v>1E+113</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="49"/>
+        <v>2E+113</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="50"/>
+        <v>4.9999999999999994E+113</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="51"/>
+        <v>1.9999999999999998E+114</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="52"/>
+        <v>1E+115</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="53"/>
+        <v>1E+112</v>
+      </c>
       <c r="T17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U17">
         <v>60</v>
@@ -6564,9 +6681,9 @@
         <v>1E+60</v>
       </c>
     </row>
-    <row r="18" spans="20:23">
+    <row r="18" spans="1:23">
       <c r="T18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U18">
         <v>64</v>
@@ -6580,9 +6697,9 @@
         <v>1E+64</v>
       </c>
     </row>
-    <row r="19" spans="20:23">
+    <row r="19" spans="1:23">
       <c r="T19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U19">
         <v>68</v>
@@ -6596,9 +6713,9 @@
         <v>1E+68</v>
       </c>
     </row>
-    <row r="20" spans="20:23">
+    <row r="20" spans="1:23">
       <c r="T20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U20">
         <v>72</v>
@@ -6612,9 +6729,9 @@
         <v>1E+72</v>
       </c>
     </row>
-    <row r="21" spans="20:23">
+    <row r="21" spans="1:23">
       <c r="T21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U21">
         <v>76</v>
@@ -6628,9 +6745,9 @@
         <v>1E+76</v>
       </c>
     </row>
-    <row r="22" spans="20:23">
+    <row r="22" spans="1:23">
       <c r="T22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U22">
         <v>80</v>
@@ -6644,9 +6761,9 @@
         <v>1E+80</v>
       </c>
     </row>
-    <row r="23" spans="20:23">
+    <row r="23" spans="1:23">
       <c r="T23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U23">
         <v>84</v>
@@ -6660,9 +6777,9 @@
         <v>1E+84</v>
       </c>
     </row>
-    <row r="24" spans="20:23">
+    <row r="24" spans="1:23">
       <c r="T24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U24">
         <v>88</v>
@@ -6676,9 +6793,9 @@
         <v>1E+88</v>
       </c>
     </row>
-    <row r="25" spans="20:23">
+    <row r="25" spans="1:23">
       <c r="T25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U25">
         <v>92</v>
@@ -6692,9 +6809,9 @@
         <v>1E+92</v>
       </c>
     </row>
-    <row r="26" spans="20:23">
+    <row r="26" spans="1:23">
       <c r="T26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U26">
         <v>96</v>
@@ -6708,9 +6825,9 @@
         <v>1E+96</v>
       </c>
     </row>
-    <row r="27" spans="20:23">
+    <row r="27" spans="1:23">
       <c r="T27" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="U27">
         <v>100</v>
@@ -6724,9 +6841,9 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="28" spans="20:23">
+    <row r="28" spans="1:23">
       <c r="T28" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="U28">
         <v>104</v>
@@ -6740,9 +6857,9 @@
         <v>1E+104</v>
       </c>
     </row>
-    <row r="29" spans="20:23">
+    <row r="29" spans="1:23">
       <c r="T29" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="U29">
         <v>108</v>
@@ -6756,68 +6873,94 @@
         <v>1E+108</v>
       </c>
     </row>
-    <row r="30" spans="20:23">
-      <c r="V30" s="40"/>
-    </row>
-    <row r="31" spans="20:23">
-      <c r="V31" s="40"/>
-    </row>
-    <row r="32" spans="20:23">
-      <c r="V32" s="40"/>
+    <row r="30" spans="1:23">
+      <c r="T30" t="s">
+        <v>179</v>
+      </c>
+      <c r="U30">
+        <v>112</v>
+      </c>
+      <c r="V30">
+        <f t="shared" ref="V30:V31" si="56">POWER(10,U30)</f>
+        <v>9.9999999999999993E+111</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" ref="W30:W31" si="57">RIGHT(V30,U30)</f>
+        <v>1E+112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="T31" t="s">
+        <v>180</v>
+      </c>
+      <c r="U31">
+        <v>116</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="56"/>
+        <v>1E+116</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="57"/>
+        <v>1E+116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="V32" s="39"/>
     </row>
     <row r="33" spans="22:22">
-      <c r="V33" s="40"/>
+      <c r="V33" s="39"/>
     </row>
     <row r="34" spans="22:22">
-      <c r="V34" s="40"/>
+      <c r="V34" s="39"/>
     </row>
     <row r="35" spans="22:22">
-      <c r="V35" s="40"/>
+      <c r="V35" s="39"/>
     </row>
     <row r="36" spans="22:22">
-      <c r="V36" s="40"/>
+      <c r="V36" s="39"/>
     </row>
     <row r="37" spans="22:22">
-      <c r="V37" s="40"/>
+      <c r="V37" s="39"/>
     </row>
     <row r="38" spans="22:22">
-      <c r="V38" s="40"/>
+      <c r="V38" s="39"/>
     </row>
     <row r="39" spans="22:22">
-      <c r="V39" s="40"/>
+      <c r="V39" s="39"/>
     </row>
     <row r="40" spans="22:22">
-      <c r="V40" s="40"/>
+      <c r="V40" s="39"/>
     </row>
     <row r="41" spans="22:22">
-      <c r="V41" s="40"/>
+      <c r="V41" s="39"/>
     </row>
     <row r="42" spans="22:22">
-      <c r="V42" s="40"/>
+      <c r="V42" s="39"/>
     </row>
     <row r="43" spans="22:22">
-      <c r="V43" s="40"/>
+      <c r="V43" s="39"/>
     </row>
     <row r="44" spans="22:22">
-      <c r="V44" s="40"/>
+      <c r="V44" s="39"/>
     </row>
     <row r="45" spans="22:22">
-      <c r="V45" s="40"/>
+      <c r="V45" s="39"/>
     </row>
     <row r="46" spans="22:22">
-      <c r="V46" s="40"/>
+      <c r="V46" s="39"/>
     </row>
     <row r="47" spans="22:22">
-      <c r="V47" s="40"/>
+      <c r="V47" s="39"/>
     </row>
     <row r="48" spans="22:22">
-      <c r="V48" s="40"/>
+      <c r="V48" s="39"/>
     </row>
     <row r="49" spans="22:22">
-      <c r="V49" s="40"/>
+      <c r="V49" s="39"/>
     </row>
     <row r="50" spans="22:22">
-      <c r="V50" s="40"/>
+      <c r="V50" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E713499-43F6-42DC-9402-74F6CADA8F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5470C067-299B-4C20-AF23-9DC729B59605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhopetTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="248">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -733,6 +733,224 @@
   </si>
   <si>
     <t>천마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuhoPetType</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p14</t>
+  </si>
+  <si>
+    <t>p15</t>
+  </si>
+  <si>
+    <t>p16</t>
+  </si>
+  <si>
+    <t>p17</t>
+  </si>
+  <si>
+    <t>350,350,350,350,350</t>
+  </si>
+  <si>
+    <t>350,350,350,350,351</t>
+  </si>
+  <si>
+    <t>350,350,350,350,352</t>
+  </si>
+  <si>
+    <t>350,350,350,350,353</t>
+  </si>
+  <si>
+    <t>AcquireDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫15</t>
+  </si>
+  <si>
+    <t>15단계</t>
+  </si>
+  <si>
+    <t>특별 수호펫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별펫 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별펫 2</t>
+  </si>
+  <si>
+    <t>특별펫 3</t>
+  </si>
+  <si>
+    <t>특별펫 4</t>
+  </si>
+  <si>
+    <t>특별펫 5</t>
+  </si>
+  <si>
+    <t>특별펫 6</t>
+  </si>
+  <si>
+    <t>특별펫 7</t>
+  </si>
+  <si>
+    <t>특별펫 8</t>
+  </si>
+  <si>
+    <t>특별펫 9</t>
+  </si>
+  <si>
+    <t>특별펫 10</t>
+  </si>
+  <si>
+    <t>특별펫 11</t>
+  </si>
+  <si>
+    <t>특별펫 12</t>
+  </si>
+  <si>
+    <t>특별펫 13</t>
+  </si>
+  <si>
+    <t>특별펫 14</t>
+  </si>
+  <si>
+    <t>특별펫 15</t>
+  </si>
+  <si>
+    <t>난이도 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별펫 재화 소모 밸런스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360,360,360,360,360</t>
+  </si>
+  <si>
+    <t>0.08,0.31,0.76,1.66,3.01,4.59,7.74</t>
+  </si>
+  <si>
+    <t>750,1500,3000,4500,5250,10500</t>
+  </si>
+  <si>
+    <t>1E+117,2E+117,5E+117,2E+118,1E+119</t>
+  </si>
+  <si>
+    <t>10섬,20섬,50섬,200섬,1000섬</t>
+  </si>
+  <si>
+    <t>특별펫 복붙용(해당 칼럼에 맞게 복붙, 복사 후 ctr+alt+v -&gt; alt+v)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별펫 능력치 밸런스 (렙업당 증가량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별펫 능력치 적용값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01,0.23,0.67,1.54,2.84,4.36</t>
+  </si>
+  <si>
+    <t>0.02,0.26,0.73,1.66,3.06,4.69</t>
+  </si>
+  <si>
+    <t>0.03,0.28,0.78,1.78,3.28,5.03</t>
+  </si>
+  <si>
+    <t>0.04,0.31,0.85,1.92,3.52,5.39</t>
+  </si>
+  <si>
+    <t>720,1440,2880,4320,5040</t>
+  </si>
+  <si>
+    <t>744,1488,2976,4464,5208</t>
+  </si>
+  <si>
+    <t>768,1536,3072,4608,5376</t>
+  </si>
+  <si>
+    <t>792,1584,3168,4752,5544</t>
+  </si>
+  <si>
+    <t>보스도전
+산군전에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴사냥
+수호동물에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradeDescription</t>
+  </si>
+  <si>
+    <t>1단계</t>
+  </si>
+  <si>
+    <t>2단계</t>
+  </si>
+  <si>
+    <t>3단계</t>
+  </si>
+  <si>
+    <t>4단계</t>
+  </si>
+  <si>
+    <t>11단계</t>
+  </si>
+  <si>
+    <t>12단계</t>
+  </si>
+  <si>
+    <t>13단계</t>
+  </si>
+  <si>
+    <t>특별</t>
+  </si>
+  <si>
+    <t>15단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑삼범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황산범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적산범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백산범</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +961,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,8 +1039,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFE1BFFF"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF787878"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,6 +1116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +1242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1146,6 +1390,30 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1158,14 +1426,7 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1504,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1521,9 +1782,11 @@
     <col min="14" max="14" width="42" customWidth="1"/>
     <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="33.375" customWidth="1"/>
+    <col min="19" max="19" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1578,8 +1841,17 @@
       <c r="R1" s="37" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="T1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="33">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1627,6 +1899,7 @@
         <v>0.01,0.03,0.06,0.12,0.21,0.31,0.51</v>
       </c>
       <c r="O2" s="4">
+        <f>IF(S2="Basic",6,IF(S2="Special",5,0))</f>
         <v>6</v>
       </c>
       <c r="P2" s="36">
@@ -1639,8 +1912,17 @@
       <c r="R2" s="4">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T2" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="33">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1689,6 +1971,7 @@
         <v>0.01,0.03,0.07,0.15,0.27,0.41,0.68</v>
       </c>
       <c r="O3" s="4">
+        <f t="shared" ref="O3:O20" si="0">IF(S3="Basic",6,IF(S3="Special",5,0))</f>
         <v>6</v>
       </c>
       <c r="P3" s="36">
@@ -1701,8 +1984,17 @@
       <c r="R3" s="4">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="33">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1727,7 +2019,7 @@
         <v>10무,20무,50무,200무,1000무</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f t="shared" ref="H4:H15" si="0">H3</f>
+        <f t="shared" ref="H4:H20" si="1">H3</f>
         <v>9016,9016,9016,9016,9016</v>
       </c>
       <c r="I4" s="35" t="str">
@@ -1751,6 +2043,7 @@
         <v>0.02,0.05,0.1,0.2,0.35,0.53,0.88</v>
       </c>
       <c r="O4" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P4" s="36">
@@ -1763,8 +2056,17 @@
       <c r="R4" s="4">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T4" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="33">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1789,7 +2091,7 @@
         <v>10대,20대,50대,200대,1000대</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9016,9016,9016,9016,9016</v>
       </c>
       <c r="I5" s="35" t="str">
@@ -1813,6 +2115,7 @@
         <v>0.02,0.06,0.13,0.26,0.45,0.67,1.11</v>
       </c>
       <c r="O5" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P5" s="36">
@@ -1825,8 +2128,17 @@
       <c r="R5" s="4">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T5" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="33">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1851,7 +2163,7 @@
         <v>10겁,20겁,50겁,200겁,1000겁</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9016,9016,9016,9016,9016</v>
       </c>
       <c r="I6" s="35" t="str">
@@ -1875,6 +2187,7 @@
         <v>0.03,0.07,0.15,0.31,0.55,0.83,1.38</v>
       </c>
       <c r="O6" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P6" s="36">
@@ -1887,8 +2200,17 @@
       <c r="R6" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T6" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="33">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1913,7 +2235,7 @@
         <v>10업,20업,50업,200업,1000업</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9016,9016,9016,9016,9016</v>
       </c>
       <c r="I7" s="35" t="str">
@@ -1937,6 +2259,7 @@
         <v>0.03,0.08,0.18,0.38,0.67,1.01,1.69</v>
       </c>
       <c r="O7" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P7" s="36">
@@ -1949,8 +2272,17 @@
       <c r="R7" s="4">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T7" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="33">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1975,7 +2307,7 @@
         <v>10긍,20긍,50긍,200긍,1000긍</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9016,9016,9016,9016,9016</v>
       </c>
       <c r="I8" s="35" t="str">
@@ -1999,6 +2331,7 @@
         <v>0.04,0.1,0.22,0.46,0.81,1.22,2.04</v>
       </c>
       <c r="O8" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P8" s="36">
@@ -2011,8 +2344,17 @@
       <c r="R8" s="4">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T8" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="33">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2037,7 +2379,7 @@
         <v>10갈,20갈,50갈,200갈,1000갈</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9016,9016,9016,9016,9016</v>
       </c>
       <c r="I9" s="35" t="str">
@@ -2061,6 +2403,7 @@
         <v>0.04,0.11,0.25,0.53,0.95,1.44,2.42</v>
       </c>
       <c r="O9" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P9" s="36">
@@ -2073,8 +2416,17 @@
       <c r="R9" s="4">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="1" customFormat="1">
+      <c r="S9" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T9" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="1" customFormat="1" ht="33">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2099,7 +2451,7 @@
         <v>10라,20라,50라,200라,1000라</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9016,9016,9016,9016,9016</v>
       </c>
       <c r="I10" s="35" t="str">
@@ -2123,6 +2475,7 @@
         <v>0.05,0.14,0.31,0.65,1.15,1.74,2.91</v>
       </c>
       <c r="O10" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P10" s="36">
@@ -2135,8 +2488,17 @@
       <c r="R10" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1">
+      <c r="S10" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T10" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2161,7 +2523,7 @@
         <v>10가,20가,50가,200가,1000가</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9016,9016,9016,9016,9016</v>
       </c>
       <c r="I11" s="35" t="str">
@@ -2185,6 +2547,7 @@
         <v>0.05,0.15,0.35,0.75,1.34,2.03,3.41</v>
       </c>
       <c r="O11" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P11" s="36">
@@ -2197,8 +2560,17 @@
       <c r="R11" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T11" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="33">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2223,7 +2595,7 @@
         <v>10언,20언,50언,200언,1000언</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9016,9016,9016,9016,9016</v>
       </c>
       <c r="I12" s="35" t="str">
@@ -2247,6 +2619,7 @@
         <v>0.06,0.21,0.51,1.1,1.98,3.01,5.06</v>
       </c>
       <c r="O12" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P12" s="36">
@@ -2259,8 +2632,17 @@
       <c r="R12" s="4">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T12" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="33">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2285,7 +2667,7 @@
         <v>10승,20승,50승,200승,1000승</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9016,9016,9016,9016,9016</v>
       </c>
       <c r="I13" s="35" t="str">
@@ -2309,6 +2691,7 @@
         <v>0.06,0.23,0.56,1.21,2.18,3.31,5.56</v>
       </c>
       <c r="O13" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P13" s="36">
@@ -2321,8 +2704,17 @@
       <c r="R13" s="4">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T13" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="33">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2347,7 +2739,7 @@
         <v>10마,20마,50마,200마,1000마</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9016,9016,9016,9016,9016</v>
       </c>
       <c r="I14" s="35" t="str">
@@ -2372,6 +2764,7 @@
         <v>0.07,0.25,0.61,1.32,2.38,3.61,6.07</v>
       </c>
       <c r="O14" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P14" s="36">
@@ -2384,8 +2777,17 @@
       <c r="R14" s="4">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T14" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="33">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2410,7 +2812,7 @@
         <v>10살,20살,50살,200살,1000살</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9016,9016,9016,9016,9016</v>
       </c>
       <c r="I15" s="35" t="str">
@@ -2435,6 +2837,7 @@
         <v>0.07,0.27,0.67,1.47,2.67,4.07,6.86</v>
       </c>
       <c r="O15" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P15" s="36">
@@ -2447,20 +2850,369 @@
       <c r="R15" s="4">
         <v>69</v>
       </c>
+      <c r="S15" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T15" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="33">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="53" t="str">
+        <f>UnitExchange!K18</f>
+        <v>1E+109,2E+109,5E+109,2E+110,1E+111</v>
+      </c>
+      <c r="G16" s="52" t="str">
+        <f>UnitExchange!B18</f>
+        <v>10마,20마,50마,200마,1000마</v>
+      </c>
+      <c r="H16" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L16" s="3">
+        <v>250</v>
+      </c>
+      <c r="M16" s="4">
+        <v>49</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P16" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="R16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="T16" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="U16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="33">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="53" t="str">
+        <f>UnitExchange!K19</f>
+        <v>1E+113,2E+113,5E+113,2E+114,1E+115</v>
+      </c>
+      <c r="G17" s="52" t="str">
+        <f>UnitExchange!B19</f>
+        <v>10살,20살,50살,200살,1000살</v>
+      </c>
+      <c r="H17" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L17" s="3">
+        <v>250</v>
+      </c>
+      <c r="M17" s="4">
+        <v>49</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P17" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="R17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="S17" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="T17" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="U17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="33">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="53" t="str">
+        <f>UnitExchange!K20</f>
+        <v>1E+109,2E+109,5E+109,2E+110,1E+111</v>
+      </c>
+      <c r="G18" s="52" t="str">
+        <f>UnitExchange!B20</f>
+        <v>10마,20마,50마,200마,1000마</v>
+      </c>
+      <c r="H18" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L18" s="3">
+        <v>250</v>
+      </c>
+      <c r="M18" s="4">
+        <v>49</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P18" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="R18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="S18" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="T18" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="U18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="33">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="53" t="str">
+        <f>UnitExchange!K21</f>
+        <v>1E+113,2E+113,5E+113,2E+114,1E+115</v>
+      </c>
+      <c r="G19" s="52" t="str">
+        <f>UnitExchange!B21</f>
+        <v>10살,20살,50살,200살,1000살</v>
+      </c>
+      <c r="H19" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L19" s="3">
+        <v>250</v>
+      </c>
+      <c r="M19" s="4">
+        <v>49</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P19" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="R19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="S19" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="T19" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="U19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="33">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L20" s="3">
+        <v>250</v>
+      </c>
+      <c r="M20" s="4">
+        <v>49</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P20" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="R20" s="4">
+        <v>70</v>
+      </c>
+      <c r="S20" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T20" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U20" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
+    <cfRule type="uniqueValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M1048576">
-    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P1048576 P2:P15">
-    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16">
-    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="P2:P1048576">
+    <cfRule type="uniqueValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J1048576">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
@@ -2472,10 +3224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:W79"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AF48" sqref="AF48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2495,16 +3247,21 @@
     <col min="16" max="16" width="14.625" style="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.375" style="12" customWidth="1"/>
     <col min="18" max="18" width="29.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="43.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="37.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.75" style="2"/>
+    <col min="19" max="19" width="38" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="43.5" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="40.75" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="32.375" style="2" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="37.25" style="2" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="10" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.75" style="2"/>
+    <col min="26" max="26" width="26.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:27" s="7" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="47"/>
@@ -2521,8 +3278,8 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A2" s="50"/>
+    <row r="2" spans="1:27" s="9" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A2" s="58"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
       <c r="G2" s="10"/>
@@ -2537,12 +3294,12 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:27">
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:27">
       <c r="A6" s="14" t="s">
         <v>39</v>
       </c>
@@ -2555,8 +3312,14 @@
       <c r="N6" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="17.25" thickBot="1">
+      <c r="V6" s="12"/>
+      <c r="Y6" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+    </row>
+    <row r="7" spans="1:27" ht="17.25" thickBot="1">
       <c r="A7" s="15" t="s">
         <v>40</v>
       </c>
@@ -2580,7 +3343,7 @@
         <v>70</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>14</v>
@@ -2588,8 +3351,17 @@
       <c r="Q7" s="27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" thickTop="1">
+      <c r="Y7" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z7" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="17.25" thickTop="1">
       <c r="A8" s="15" t="s">
         <v>45</v>
       </c>
@@ -2619,15 +3391,26 @@
         <v>160,160,160,160,160</v>
       </c>
       <c r="P8" s="2" t="str">
-        <f t="shared" ref="P8:P21" si="0">H66&amp;","&amp;I66&amp;","&amp;J66&amp;","&amp;K66&amp;","&amp;L66&amp;","&amp;M66&amp;","&amp;N66</f>
+        <f t="shared" ref="P8:P22" si="0">H66&amp;","&amp;I66&amp;","&amp;J66&amp;","&amp;K66&amp;","&amp;L66&amp;","&amp;M66&amp;","&amp;N66</f>
         <v>0.01,0.03,0.06,0.12,0.21,0.31,0.51</v>
       </c>
       <c r="Q8" s="12" t="str">
         <f>H28&amp;","&amp;I28&amp;","&amp;J28&amp;","&amp;K28&amp;","&amp;L28&amp;","&amp;M28</f>
         <v>106,212,423,634,740,1480</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Y8" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z8" s="2" t="str">
+        <f t="shared" ref="Z8:Z22" si="1">Z66&amp;","&amp;AA66&amp;","&amp;AB66&amp;","&amp;AC66&amp;","&amp;AD66&amp;","&amp;AE66</f>
+        <v>0.01,0.23,0.67,1.54,2.84,4.36</v>
+      </c>
+      <c r="AA8" s="56" t="str">
+        <f t="shared" ref="AA8:AA22" si="2">Z28&amp;","&amp;AA28&amp;","&amp;AB28&amp;","&amp;AC28&amp;","&amp;AD28</f>
+        <v>720,1440,2880,4320,5040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="18" t="s">
         <v>47</v>
       </c>
@@ -2644,18 +3427,18 @@
         <v>120</v>
       </c>
       <c r="I9" s="12">
-        <f t="shared" ref="I9:I17" si="1">H9*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I9:I17" si="3">H9*$B$9*$B$18*($B$13/100)</f>
         <v>864</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" ref="J9:J21" si="2">ROUNDUP((I9/5),-1)</f>
+        <f t="shared" ref="J9:J21" si="4">ROUNDUP((I9/5),-1)</f>
         <v>180</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f t="shared" ref="O9:O16" si="3">J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9</f>
+        <f t="shared" ref="O9:O16" si="5">J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9&amp;","&amp;J9</f>
         <v>180,180,180,180,180</v>
       </c>
       <c r="P9" s="2" t="str">
@@ -2663,11 +3446,22 @@
         <v>0.01,0.03,0.07,0.15,0.27,0.41,0.68</v>
       </c>
       <c r="Q9" s="12" t="str">
-        <f t="shared" ref="Q9:Q17" si="4">H29&amp;","&amp;I29&amp;","&amp;J29&amp;","&amp;K29&amp;","&amp;L29&amp;","&amp;M29</f>
+        <f t="shared" ref="Q9:Q17" si="6">H29&amp;","&amp;I29&amp;","&amp;J29&amp;","&amp;K29&amp;","&amp;L29&amp;","&amp;M29</f>
         <v>130,260,519,778,908,1816</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Y9" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0.02,0.26,0.73,1.66,3.06,4.69</v>
+      </c>
+      <c r="AA9" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>744,1488,2976,4464,5208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
@@ -2678,18 +3472,18 @@
         <v>130</v>
       </c>
       <c r="I10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>936</v>
       </c>
       <c r="J10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>190</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>190,190,190,190,190</v>
       </c>
       <c r="P10" s="2" t="str">
@@ -2697,11 +3491,22 @@
         <v>0.02,0.05,0.1,0.2,0.35,0.53,0.88</v>
       </c>
       <c r="Q10" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>156,312,624,936,1092,2184</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Y10" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0.03,0.28,0.78,1.78,3.28,5.03</v>
+      </c>
+      <c r="AA10" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>768,1536,3072,4608,5376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="20" t="s">
         <v>50</v>
       </c>
@@ -2718,18 +3523,18 @@
         <v>140</v>
       </c>
       <c r="I11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1008</v>
       </c>
       <c r="J11" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>86</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>210,210,210,210,210</v>
       </c>
       <c r="P11" s="2" t="str">
@@ -2737,11 +3542,22 @@
         <v>0.02,0.06,0.13,0.26,0.45,0.67,1.11</v>
       </c>
       <c r="Q11" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>185,370,740,1109,1294,2588</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="Y11" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0.04,0.31,0.85,1.92,3.52,5.39</v>
+      </c>
+      <c r="AA11" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>792,1584,3168,4752,5544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="21" t="s">
         <v>42</v>
       </c>
@@ -2759,18 +3575,18 @@
         <v>150</v>
       </c>
       <c r="I12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1080</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>20</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>220,220,220,220,220</v>
       </c>
       <c r="P12" s="2" t="str">
@@ -2778,11 +3594,22 @@
         <v>0.03,0.07,0.15,0.31,0.55,0.83,1.38</v>
       </c>
       <c r="Q12" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>216,432,864,1296,1512,3024</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="Y12" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0.05,0.34,0.91,2.05,3.76,5.75</v>
+      </c>
+      <c r="AA12" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>816,1632,3264,4896,5712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="21" t="s">
         <v>43</v>
       </c>
@@ -2799,18 +3626,18 @@
         <v>160</v>
       </c>
       <c r="I13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1152</v>
       </c>
       <c r="J13" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>240,240,240,240,240</v>
       </c>
       <c r="P13" s="2" t="str">
@@ -2818,11 +3645,22 @@
         <v>0.03,0.08,0.18,0.38,0.67,1.01,1.69</v>
       </c>
       <c r="Q13" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>250,500,999,1498,1748,3496</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="Y13" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0.06,0.37,0.98,2.19,4.01,6.13</v>
+      </c>
+      <c r="AA13" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>840,1680,3360,5040,5880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="16"/>
@@ -2833,18 +3671,18 @@
         <v>170</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1224</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>22</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>250,250,250,250,250</v>
       </c>
       <c r="P14" s="2" t="str">
@@ -2852,11 +3690,22 @@
         <v>0.04,0.1,0.22,0.46,0.81,1.22,2.04</v>
       </c>
       <c r="Q14" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>286,572,1143,1714,2000,4000</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="Y14" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0.07,0.4,1.05,2.34,4.27,6.52</v>
+      </c>
+      <c r="AA14" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>864,1728,3456,5184,6048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="D15" s="12"/>
       <c r="E15" s="16"/>
       <c r="G15" s="12" t="s">
@@ -2866,18 +3715,18 @@
         <v>180</v>
       </c>
       <c r="I15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1296</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>23</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>260,260,260,260,260</v>
       </c>
       <c r="P15" s="2" t="str">
@@ -2885,11 +3734,22 @@
         <v>0.04,0.11,0.25,0.53,0.95,1.44,2.42</v>
       </c>
       <c r="Q15" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>324,648,1296,1944,2268,4536</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="Y15" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0.08,0.43,1.12,2.49,4.54,6.93</v>
+      </c>
+      <c r="AA15" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>888,1776,3552,5328,6216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="15" t="s">
         <v>57</v>
       </c>
@@ -2904,18 +3764,18 @@
         <v>190</v>
       </c>
       <c r="I16" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1368</v>
       </c>
       <c r="J16" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>280,280,280,280,280</v>
       </c>
       <c r="P16" s="2" t="str">
@@ -2923,11 +3783,22 @@
         <v>0.05,0.14,0.31,0.65,1.15,1.74,2.91</v>
       </c>
       <c r="Q16" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>365,730,1460,2189,2554,5108</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="Y16" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0.09,0.46,1.19,2.64,4.81,7.34</v>
+      </c>
+      <c r="AA16" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>912,1824,3648,5472,6384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="23" t="s">
         <v>59</v>
       </c>
@@ -2940,11 +3811,11 @@
         <v>200</v>
       </c>
       <c r="I17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1440</v>
       </c>
       <c r="J17" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="N17" s="12" t="s">
@@ -2959,11 +3830,22 @@
         <v>0.05,0.15,0.35,0.75,1.34,2.03,3.41</v>
       </c>
       <c r="Q17" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>408,816,1632,2448,2856,5712</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="Y17" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0.1,0.49,1.26,2.79,5.09,7.77</v>
+      </c>
+      <c r="AA17" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>936,1872,3744,5616,6552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="18" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3875,19 @@
         <f>H40&amp;","&amp;I40&amp;","&amp;J40&amp;","&amp;K40&amp;","&amp;L40&amp;","&amp;M40</f>
         <v>580,1160,2319,3478,4058,8116</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="Y18" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0.11,0.52,1.33,2.95,5.37,8.2</v>
+      </c>
+      <c r="AA18" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>960,1920,3840,5760,6720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="18" t="s">
         <v>62</v>
       </c>
@@ -3012,7 +3905,7 @@
         <v>210</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" ref="I19:I21" si="5">H19*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I19:I21" si="7">H19*$B$9*$B$18*($B$13/100)</f>
         <v>1512</v>
       </c>
       <c r="J19" s="12">
@@ -3033,8 +3926,19 @@
         <f>H41&amp;","&amp;I41&amp;","&amp;J41&amp;","&amp;K41&amp;","&amp;L41&amp;","&amp;M41</f>
         <v>608,1215,2429,3644,4251,8502</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="Y19" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0.12,0.55,1.41,3.12,5.68,8.66</v>
+      </c>
+      <c r="AA19" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>984,1968,3936,5904,6888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="18" t="s">
         <v>66</v>
       </c>
@@ -3052,11 +3956,11 @@
         <v>220</v>
       </c>
       <c r="I20" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1584</v>
       </c>
       <c r="J20" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="N20" s="12" t="s">
@@ -3074,8 +3978,19 @@
         <f>H42&amp;","&amp;I42&amp;","&amp;J42&amp;","&amp;K42&amp;","&amp;L42&amp;","&amp;M42</f>
         <v>635,1270,2540,3809,4444,8888</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="Y20" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0.13,0.58,1.48,3.28,5.97,9.11</v>
+      </c>
+      <c r="AA20" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>1008,2016,4032,6048,7056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="18" t="s">
         <v>135</v>
       </c>
@@ -3093,11 +4008,11 @@
         <v>230</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1656</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>340</v>
       </c>
       <c r="N21" s="12" t="s">
@@ -3115,8 +4030,19 @@
         <f>H43&amp;","&amp;I43&amp;","&amp;J43&amp;","&amp;K43&amp;","&amp;L43&amp;","&amp;M43</f>
         <v>692,1383,2765,4148,4839,9678</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="Y21" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0.14,0.62,1.57,3.46,6.29,9.59</v>
+      </c>
+      <c r="AA21" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>1032,2064,4128,6192,7224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="18" t="s">
         <v>136</v>
       </c>
@@ -3132,15 +4058,56 @@
         <v>240</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" ref="I22" si="6">H22*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I22" si="8">H22*$B$9*$B$18*($B$13/100)</f>
         <v>1728</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" ref="J22" si="7">ROUNDUP((I22/5),-1)</f>
+        <f t="shared" ref="J22" si="9">ROUNDUP((I22/5),-1)</f>
         <v>350</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="N22" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f>J23&amp;","&amp;J23&amp;","&amp;J23&amp;","&amp;J23&amp;","&amp;J23</f>
+        <v>360,360,360,360,360</v>
+      </c>
+      <c r="P22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.08,0.31,0.76,1.66,3.01,4.59,7.74</v>
+      </c>
+      <c r="Q22" s="12" t="str">
+        <f>H44&amp;","&amp;I44&amp;","&amp;J44&amp;","&amp;K44&amp;","&amp;L44&amp;","&amp;M44</f>
+        <v>750,1500,3000,4500,5250,10500</v>
+      </c>
+      <c r="Y22" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0.15,0.65,1.64,3.62,6.59,10.05</v>
+      </c>
+      <c r="AA22" s="56" t="str">
+        <f t="shared" si="2"/>
+        <v>1056,2112,4224,6336,7392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="G23" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="12">
+        <v>250</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" ref="I23" si="10">H23*$B$9*$B$18*($B$13/100)</f>
+        <v>1800</v>
+      </c>
+      <c r="J23" s="12">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="15" t="s">
         <v>83</v>
       </c>
@@ -3159,7 +4126,7 @@
       </c>
       <c r="W25" s="45"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:32">
       <c r="A26" s="15" t="s">
         <v>84</v>
       </c>
@@ -3172,31 +4139,40 @@
         <v>69</v>
       </c>
       <c r="R26" s="26">
-        <f t="shared" ref="R26:W26" si="8">SUM(R28:R37)</f>
+        <f t="shared" ref="R26:W26" si="11">SUM(R28:R37)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="S26" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>13.328571428571429</v>
       </c>
       <c r="T26" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>10.213240418118467</v>
       </c>
       <c r="U26" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="V26" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="W26" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.3097560975609763</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="17.25" thickBot="1">
+      <c r="X26"/>
+      <c r="Y26" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+    </row>
+    <row r="27" spans="1:32" ht="17.25" thickBot="1">
       <c r="A27" s="15" t="s">
         <v>85</v>
       </c>
@@ -3253,8 +4229,32 @@
       <c r="W27" s="28" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="17.25" thickTop="1">
+      <c r="Y27" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z27" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA27" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB27" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC27" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD27" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE27" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF27" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="17.25" thickTop="1">
       <c r="A28" s="29" t="s">
         <v>87</v>
       </c>
@@ -3295,19 +4295,19 @@
         <v>50</v>
       </c>
       <c r="P28" s="12">
-        <f t="shared" ref="P28:P37" si="9">(H8*$B$9*$B$18)*(O28/100)+I8</f>
+        <f t="shared" ref="P28:P37" si="12">(H8*$B$9*$B$18)*(O28/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="Q28" s="12">
-        <f t="shared" ref="Q28:Q37" si="10">P28-I8</f>
+        <f t="shared" ref="Q28:Q37" si="13">P28-I8</f>
         <v>1320</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" ref="R28:R37" si="11">(Q28/H8)/($B$18*7)</f>
+        <f t="shared" ref="R28:R37" si="14">(Q28/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" ref="S28:S37" si="12">(Q28/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="S28:S37" si="15">(Q28/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="T28" s="2">
@@ -3326,8 +4326,38 @@
         <f>(Q28/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.18780487804878049</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="Y28" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z28" s="12">
+        <f>ROUNDUP((AE28*$B$30/100),0)</f>
+        <v>720</v>
+      </c>
+      <c r="AA28" s="12">
+        <f>ROUNDUP((AE28*$B$31/100),0)</f>
+        <v>1440</v>
+      </c>
+      <c r="AB28" s="12">
+        <f>ROUNDUP((AE28*$B$32/100),0)</f>
+        <v>2880</v>
+      </c>
+      <c r="AC28" s="12">
+        <f>ROUNDUP((AE28*$B$33/100),0)</f>
+        <v>4320</v>
+      </c>
+      <c r="AD28" s="12">
+        <f>ROUNDUP((AE28*$B$34/100),0)</f>
+        <v>5040</v>
+      </c>
+      <c r="AE28" s="2">
+        <f>($H$17*$B$9*$B$18)*(AF28/100)</f>
+        <v>14400</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="30" t="s">
         <v>88</v>
       </c>
@@ -3338,70 +4368,100 @@
         <v>18</v>
       </c>
       <c r="H29" s="12">
-        <f t="shared" ref="H29:H37" si="13">ROUNDUP((P29*$B$30/100),0)</f>
+        <f t="shared" ref="H29:H37" si="16">ROUNDUP((P29*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" ref="I29:I37" si="14">ROUNDUP((P29*$B$31/100),0)</f>
+        <f t="shared" ref="I29:I37" si="17">ROUNDUP((P29*$B$31/100),0)</f>
         <v>260</v>
       </c>
       <c r="J29" s="12">
-        <f t="shared" ref="J29:J37" si="15">ROUNDUP((P29*$B$32/100),0)</f>
+        <f t="shared" ref="J29:J37" si="18">ROUNDUP((P29*$B$32/100),0)</f>
         <v>519</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" ref="K29:K37" si="16">ROUNDUP((P29*$B$33/100),0)</f>
+        <f t="shared" ref="K29:K37" si="19">ROUNDUP((P29*$B$33/100),0)</f>
         <v>778</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" ref="L29:L37" si="17">ROUNDUP((P29*$B$34/100),0)</f>
+        <f t="shared" ref="L29:L37" si="20">ROUNDUP((P29*$B$34/100),0)</f>
         <v>908</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" ref="M29:M37" si="18">L29*$B$43</f>
+        <f t="shared" ref="M29:M37" si="21">L29*$B$43</f>
         <v>1816</v>
       </c>
       <c r="N29" s="12">
-        <f t="shared" ref="N29:N37" si="19">SUM(H29:L29)</f>
+        <f t="shared" ref="N29:N37" si="22">SUM(H29:L29)</f>
         <v>2595</v>
       </c>
       <c r="O29" s="12">
         <v>60</v>
       </c>
       <c r="P29" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2592</v>
       </c>
       <c r="Q29" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1728</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.61714285714285722</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" ref="T29:T36" si="20">(Q29/H9)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T29:T36" si="23">(Q29/H9)/($B$18*7+$B$21)</f>
         <v>0.68571428571428572</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" ref="U29:U37" si="21">(Q29/$H$17)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="U29:U37" si="24">(Q29/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" ref="V29:V37" si="22">(Q29/H9)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V29:V37" si="25">(Q29/H9)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.40975609756097564</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" ref="W29:W37" si="23">(Q29/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="W29:W37" si="26">(Q29/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="Y29" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z29" s="12">
+        <f t="shared" ref="Z29:Z31" si="27">ROUNDUP((AE29*$B$30/100),0)</f>
+        <v>744</v>
+      </c>
+      <c r="AA29" s="12">
+        <f t="shared" ref="AA29:AA31" si="28">ROUNDUP((AE29*$B$31/100),0)</f>
+        <v>1488</v>
+      </c>
+      <c r="AB29" s="12">
+        <f t="shared" ref="AB29:AB31" si="29">ROUNDUP((AE29*$B$32/100),0)</f>
+        <v>2976</v>
+      </c>
+      <c r="AC29" s="12">
+        <f t="shared" ref="AC29:AC31" si="30">ROUNDUP((AE29*$B$33/100),0)</f>
+        <v>4464</v>
+      </c>
+      <c r="AD29" s="12">
+        <f t="shared" ref="AD29:AD42" si="31">ROUNDUP((AE29*$B$34/100),0)</f>
+        <v>5208</v>
+      </c>
+      <c r="AE29" s="2">
+        <f t="shared" ref="AE29:AE42" si="32">($H$17*$B$9*$B$18)*(AF29/100)</f>
+        <v>14880</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="21" t="s">
         <v>90</v>
       </c>
@@ -3412,70 +4472,100 @@
         <v>19</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>156</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>312</v>
       </c>
       <c r="J30" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>624</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>936</v>
       </c>
       <c r="L30" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1092</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2184</v>
       </c>
       <c r="N30" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3120</v>
       </c>
       <c r="O30" s="12">
         <v>70</v>
       </c>
       <c r="P30" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3120</v>
       </c>
       <c r="Q30" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2184</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.78</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.8</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.52</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.47804878048780497</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.31073170731707322</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="Y30" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z30" s="12">
+        <f t="shared" si="27"/>
+        <v>768</v>
+      </c>
+      <c r="AA30" s="12">
+        <f t="shared" si="28"/>
+        <v>1536</v>
+      </c>
+      <c r="AB30" s="12">
+        <f t="shared" si="29"/>
+        <v>3072</v>
+      </c>
+      <c r="AC30" s="12">
+        <f t="shared" si="30"/>
+        <v>4608</v>
+      </c>
+      <c r="AD30" s="12">
+        <f t="shared" si="31"/>
+        <v>5376</v>
+      </c>
+      <c r="AE30" s="2">
+        <f t="shared" si="32"/>
+        <v>15360</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" s="21">
         <v>2</v>
       </c>
@@ -3486,70 +4576,100 @@
         <v>86</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>185</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>370</v>
       </c>
       <c r="J31" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>740</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1109</v>
       </c>
       <c r="L31" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1294</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2588</v>
       </c>
       <c r="N31" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3698</v>
       </c>
       <c r="O31" s="12">
         <v>80</v>
       </c>
       <c r="P31" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3696</v>
       </c>
       <c r="Q31" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2688</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.96</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="U31" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.64</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.38243902439024391</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="Y31" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z31" s="12">
+        <f t="shared" si="27"/>
+        <v>792</v>
+      </c>
+      <c r="AA31" s="12">
+        <f t="shared" si="28"/>
+        <v>1584</v>
+      </c>
+      <c r="AB31" s="12">
+        <f t="shared" si="29"/>
+        <v>3168</v>
+      </c>
+      <c r="AC31" s="12">
+        <f t="shared" si="30"/>
+        <v>4752</v>
+      </c>
+      <c r="AD31" s="12">
+        <f t="shared" si="31"/>
+        <v>5544</v>
+      </c>
+      <c r="AE31" s="2">
+        <f t="shared" si="32"/>
+        <v>15840</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="21" t="s">
         <v>91</v>
       </c>
@@ -3560,70 +4680,100 @@
         <v>20</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>216</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>432</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>864</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1296</v>
       </c>
       <c r="L32" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1512</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3024</v>
       </c>
       <c r="N32" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4320</v>
       </c>
       <c r="O32" s="12">
         <v>90</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4320</v>
       </c>
       <c r="Q32" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3240</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5428571428571429</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.157142857142857</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.77142857142857135</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.61463414634146352</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.46097560975609758</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="Y32" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z32" s="12">
+        <f t="shared" ref="Z32:Z42" si="33">ROUNDUP((AE32*$B$30/100),0)</f>
+        <v>816</v>
+      </c>
+      <c r="AA32" s="12">
+        <f t="shared" ref="AA32:AA42" si="34">ROUNDUP((AE32*$B$31/100),0)</f>
+        <v>1632</v>
+      </c>
+      <c r="AB32" s="12">
+        <f t="shared" ref="AB32:AB42" si="35">ROUNDUP((AE32*$B$32/100),0)</f>
+        <v>3264</v>
+      </c>
+      <c r="AC32" s="12">
+        <f t="shared" ref="AC32:AC42" si="36">ROUNDUP((AE32*$B$33/100),0)</f>
+        <v>4896</v>
+      </c>
+      <c r="AD32" s="12">
+        <f t="shared" si="31"/>
+        <v>5712</v>
+      </c>
+      <c r="AE32" s="2">
+        <f t="shared" si="32"/>
+        <v>16320</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" s="32" t="s">
         <v>92</v>
       </c>
@@ -3634,70 +4784,100 @@
         <v>21</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="I33" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>500</v>
       </c>
       <c r="J33" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>999</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1498</v>
       </c>
       <c r="L33" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1748</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3496</v>
       </c>
       <c r="N33" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4995</v>
       </c>
       <c r="O33" s="12">
         <v>100</v>
       </c>
       <c r="P33" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4992</v>
       </c>
       <c r="Q33" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3840</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="U33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.54634146341463419</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="Y33" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z33" s="12">
+        <f t="shared" si="33"/>
+        <v>840</v>
+      </c>
+      <c r="AA33" s="12">
+        <f t="shared" si="34"/>
+        <v>1680</v>
+      </c>
+      <c r="AB33" s="12">
+        <f t="shared" si="35"/>
+        <v>3360</v>
+      </c>
+      <c r="AC33" s="12">
+        <f t="shared" si="36"/>
+        <v>5040</v>
+      </c>
+      <c r="AD33" s="12">
+        <f t="shared" si="31"/>
+        <v>5880</v>
+      </c>
+      <c r="AE33" s="2">
+        <f t="shared" si="32"/>
+        <v>16800</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" s="21" t="s">
         <v>93</v>
       </c>
@@ -3708,70 +4888,100 @@
         <v>22</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>286</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>572</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1143</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1714</v>
       </c>
       <c r="L34" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2000</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>4000</v>
       </c>
       <c r="N34" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5715</v>
       </c>
       <c r="O34" s="12">
         <v>110</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5712</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4488</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.8857142857142857</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.602857142857143</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2571428571428571</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.0685714285714287</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.75121951219512195</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.63853658536585378</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="Y34" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z34" s="12">
+        <f t="shared" si="33"/>
+        <v>864</v>
+      </c>
+      <c r="AA34" s="12">
+        <f t="shared" si="34"/>
+        <v>1728</v>
+      </c>
+      <c r="AB34" s="12">
+        <f t="shared" si="35"/>
+        <v>3456</v>
+      </c>
+      <c r="AC34" s="12">
+        <f t="shared" si="36"/>
+        <v>5184</v>
+      </c>
+      <c r="AD34" s="12">
+        <f t="shared" si="31"/>
+        <v>6048</v>
+      </c>
+      <c r="AE34" s="2">
+        <f t="shared" si="32"/>
+        <v>17280</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" s="34" t="s">
         <v>69</v>
       </c>
@@ -3783,92 +4993,122 @@
         <v>23</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>324</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>648</v>
       </c>
       <c r="J35" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1296</v>
       </c>
       <c r="K35" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1944</v>
       </c>
       <c r="L35" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2268</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>4536</v>
       </c>
       <c r="N35" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6480</v>
       </c>
       <c r="O35" s="12">
         <v>120</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6480</v>
       </c>
       <c r="Q35" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5184</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.0571428571428574</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.8514285714285716</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.2342857142857144</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.81951219512195128</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.7375609756097562</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="Y35" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z35" s="12">
+        <f t="shared" si="33"/>
+        <v>888</v>
+      </c>
+      <c r="AA35" s="12">
+        <f t="shared" si="34"/>
+        <v>1776</v>
+      </c>
+      <c r="AB35" s="12">
+        <f t="shared" si="35"/>
+        <v>3552</v>
+      </c>
+      <c r="AC35" s="12">
+        <f t="shared" si="36"/>
+        <v>5328</v>
+      </c>
+      <c r="AD35" s="12">
+        <f t="shared" si="31"/>
+        <v>6216</v>
+      </c>
+      <c r="AE35" s="2">
+        <f t="shared" si="32"/>
+        <v>17760</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32">
       <c r="D36" s="15"/>
       <c r="G36" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>365</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>730</v>
       </c>
       <c r="J36" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1460</v>
       </c>
       <c r="K36" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2189</v>
       </c>
       <c r="L36" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2554</v>
       </c>
       <c r="M36" s="12">
@@ -3876,46 +5116,76 @@
         <v>5108</v>
       </c>
       <c r="N36" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7298</v>
       </c>
       <c r="O36" s="12">
         <v>130</v>
       </c>
       <c r="P36" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7296</v>
       </c>
       <c r="Q36" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5928</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.117142857142857</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.4114285714285715</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.88780487804878061</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.84341463414634155</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="Y36" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z36" s="12">
+        <f t="shared" si="33"/>
+        <v>912</v>
+      </c>
+      <c r="AA36" s="12">
+        <f t="shared" si="34"/>
+        <v>1824</v>
+      </c>
+      <c r="AB36" s="12">
+        <f t="shared" si="35"/>
+        <v>3648</v>
+      </c>
+      <c r="AC36" s="12">
+        <f t="shared" si="36"/>
+        <v>5472</v>
+      </c>
+      <c r="AD36" s="12">
+        <f t="shared" si="31"/>
+        <v>6384</v>
+      </c>
+      <c r="AE36" s="2">
+        <f t="shared" si="32"/>
+        <v>18240</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" s="2" t="s">
         <v>94</v>
       </c>
@@ -3924,70 +5194,100 @@
         <v>25</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>408</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>816</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1632</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2448</v>
       </c>
       <c r="L37" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2856</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5712</v>
       </c>
       <c r="N37" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8160</v>
       </c>
       <c r="O37" s="12">
         <v>140</v>
       </c>
       <c r="P37" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8160</v>
       </c>
       <c r="Q37" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6720</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.4</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.4</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" ref="T37" si="24">(Q37/H17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="T37" si="37">(Q37/H17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.95609756097560994</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.6</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.95609756097560994</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="Y37" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z37" s="12">
+        <f t="shared" si="33"/>
+        <v>936</v>
+      </c>
+      <c r="AA37" s="12">
+        <f t="shared" si="34"/>
+        <v>1872</v>
+      </c>
+      <c r="AB37" s="12">
+        <f t="shared" si="35"/>
+        <v>3744</v>
+      </c>
+      <c r="AC37" s="12">
+        <f t="shared" si="36"/>
+        <v>5616</v>
+      </c>
+      <c r="AD37" s="12">
+        <f t="shared" si="31"/>
+        <v>6552</v>
+      </c>
+      <c r="AE37" s="2">
+        <f t="shared" si="32"/>
+        <v>18720</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32">
       <c r="D38" s="12"/>
       <c r="G38" s="46" t="s">
         <v>105</v>
@@ -4008,8 +5308,39 @@
       <c r="U38" s="46"/>
       <c r="V38" s="46"/>
       <c r="W38" s="46"/>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" s="46"/>
+      <c r="Y38" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z38" s="12">
+        <f t="shared" si="33"/>
+        <v>960</v>
+      </c>
+      <c r="AA38" s="12">
+        <f t="shared" si="34"/>
+        <v>1920</v>
+      </c>
+      <c r="AB38" s="12">
+        <f t="shared" si="35"/>
+        <v>3840</v>
+      </c>
+      <c r="AC38" s="12">
+        <f t="shared" si="36"/>
+        <v>5760</v>
+      </c>
+      <c r="AD38" s="12">
+        <f t="shared" si="31"/>
+        <v>6720</v>
+      </c>
+      <c r="AE38" s="2">
+        <f t="shared" si="32"/>
+        <v>19200</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32">
       <c r="A39" s="18" t="s">
         <v>99</v>
       </c>
@@ -4025,27 +5356,58 @@
         <v>6.8571428571428568</v>
       </c>
       <c r="S39" s="26">
-        <f t="shared" ref="S39:W39" si="25">SUM(S40:S41)</f>
+        <f t="shared" ref="S39:W39" si="38">SUM(S40:S41)</f>
         <v>6.7012987012987013</v>
       </c>
       <c r="T39" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="U39" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>4.4675324675324681</v>
       </c>
       <c r="V39" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="W39" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>2.6696230598669626</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39"/>
+      <c r="Y39" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z39" s="12">
+        <f t="shared" si="33"/>
+        <v>984</v>
+      </c>
+      <c r="AA39" s="12">
+        <f t="shared" si="34"/>
+        <v>1968</v>
+      </c>
+      <c r="AB39" s="12">
+        <f t="shared" si="35"/>
+        <v>3936</v>
+      </c>
+      <c r="AC39" s="12">
+        <f t="shared" si="36"/>
+        <v>5904</v>
+      </c>
+      <c r="AD39" s="12">
+        <f t="shared" si="31"/>
+        <v>6888</v>
+      </c>
+      <c r="AE39" s="2">
+        <f t="shared" si="32"/>
+        <v>19680</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32">
       <c r="A40" s="18" t="s">
         <v>100</v>
       </c>
@@ -4056,23 +5418,23 @@
         <v>106</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" ref="H40:H41" si="26">ROUNDUP((P40*$B$30/100),0)</f>
+        <f t="shared" ref="H40:H41" si="39">ROUNDUP((P40*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I40" s="12">
-        <f t="shared" ref="I40:I41" si="27">ROUNDUP((P40*$B$31/100),0)</f>
+        <f t="shared" ref="I40:I41" si="40">ROUNDUP((P40*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" ref="J40:J41" si="28">ROUNDUP((P40*$B$32/100),0)</f>
+        <f t="shared" ref="J40:J41" si="41">ROUNDUP((P40*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40:K41" si="29">ROUNDUP((P40*$B$33/100),0)</f>
+        <f t="shared" ref="K40:K41" si="42">ROUNDUP((P40*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L40" s="12">
-        <f t="shared" ref="L40:L41" si="30">ROUNDUP((P40*$B$34/100),0)</f>
+        <f t="shared" ref="L40:L41" si="43">ROUNDUP((P40*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M40" s="12">
@@ -4080,7 +5442,7 @@
         <v>8116</v>
       </c>
       <c r="N40" s="12">
-        <f t="shared" ref="N40" si="31">SUM(H40:L40)</f>
+        <f t="shared" ref="N40" si="44">SUM(H40:L40)</f>
         <v>11595</v>
       </c>
       <c r="O40" s="12">
@@ -4118,29 +5480,59 @@
         <f>(Q40/$H$20)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>1.3037694013303771</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="Y40" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z40" s="12">
+        <f t="shared" si="33"/>
+        <v>1008</v>
+      </c>
+      <c r="AA40" s="12">
+        <f t="shared" si="34"/>
+        <v>2016</v>
+      </c>
+      <c r="AB40" s="12">
+        <f t="shared" si="35"/>
+        <v>4032</v>
+      </c>
+      <c r="AC40" s="12">
+        <f t="shared" si="36"/>
+        <v>6048</v>
+      </c>
+      <c r="AD40" s="12">
+        <f t="shared" si="31"/>
+        <v>7056</v>
+      </c>
+      <c r="AE40" s="2">
+        <f t="shared" si="32"/>
+        <v>20160</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32">
       <c r="G41" s="12" t="s">
         <v>107</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>608</v>
       </c>
       <c r="I41" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>1215</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>2429</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>3644</v>
       </c>
       <c r="L41" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>4251</v>
       </c>
       <c r="M41" s="12">
@@ -4186,8 +5578,38 @@
         <f>(Q41/$H$20)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>1.3658536585365855</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="Y41" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z41" s="12">
+        <f t="shared" si="33"/>
+        <v>1032</v>
+      </c>
+      <c r="AA41" s="12">
+        <f t="shared" si="34"/>
+        <v>2064</v>
+      </c>
+      <c r="AB41" s="12">
+        <f t="shared" si="35"/>
+        <v>4128</v>
+      </c>
+      <c r="AC41" s="12">
+        <f t="shared" si="36"/>
+        <v>6192</v>
+      </c>
+      <c r="AD41" s="12">
+        <f t="shared" si="31"/>
+        <v>7224</v>
+      </c>
+      <c r="AE41" s="2">
+        <f t="shared" si="32"/>
+        <v>20640</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" s="2" t="s">
         <v>162</v>
       </c>
@@ -4195,23 +5617,23 @@
         <v>173</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" ref="H42" si="32">ROUNDUP((P42*$B$30/100),0)</f>
+        <f t="shared" ref="H42" si="45">ROUNDUP((P42*$B$30/100),0)</f>
         <v>635</v>
       </c>
       <c r="I42" s="12">
-        <f t="shared" ref="I42" si="33">ROUNDUP((P42*$B$31/100),0)</f>
+        <f t="shared" ref="I42" si="46">ROUNDUP((P42*$B$31/100),0)</f>
         <v>1270</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" ref="J42" si="34">ROUNDUP((P42*$B$32/100),0)</f>
+        <f t="shared" ref="J42" si="47">ROUNDUP((P42*$B$32/100),0)</f>
         <v>2540</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" ref="K42" si="35">ROUNDUP((P42*$B$33/100),0)</f>
+        <f t="shared" ref="K42" si="48">ROUNDUP((P42*$B$33/100),0)</f>
         <v>3809</v>
       </c>
       <c r="L42" s="12">
-        <f t="shared" ref="L42" si="36">ROUNDUP((P42*$B$34/100),0)</f>
+        <f t="shared" ref="L42" si="49">ROUNDUP((P42*$B$34/100),0)</f>
         <v>4444</v>
       </c>
       <c r="M42" s="12">
@@ -4229,8 +5651,38 @@
         <f>(H21*$B$9*$B$18)*(O42/100)+I21</f>
         <v>12696</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="Y42" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z42" s="12">
+        <f t="shared" si="33"/>
+        <v>1056</v>
+      </c>
+      <c r="AA42" s="12">
+        <f t="shared" si="34"/>
+        <v>2112</v>
+      </c>
+      <c r="AB42" s="12">
+        <f t="shared" si="35"/>
+        <v>4224</v>
+      </c>
+      <c r="AC42" s="12">
+        <f t="shared" si="36"/>
+        <v>6336</v>
+      </c>
+      <c r="AD42" s="12">
+        <f t="shared" si="31"/>
+        <v>7392</v>
+      </c>
+      <c r="AE42" s="2">
+        <f t="shared" si="32"/>
+        <v>21120</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32">
       <c r="A43" s="18" t="s">
         <v>163</v>
       </c>
@@ -4241,23 +5693,23 @@
         <v>176</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" ref="H43" si="37">ROUNDUP((P43*$B$30/100),0)</f>
+        <f t="shared" ref="H43" si="50">ROUNDUP((P43*$B$30/100),0)</f>
         <v>692</v>
       </c>
       <c r="I43" s="12">
-        <f t="shared" ref="I43" si="38">ROUNDUP((P43*$B$31/100),0)</f>
+        <f t="shared" ref="I43" si="51">ROUNDUP((P43*$B$31/100),0)</f>
         <v>1383</v>
       </c>
       <c r="J43" s="12">
-        <f t="shared" ref="J43" si="39">ROUNDUP((P43*$B$32/100),0)</f>
+        <f t="shared" ref="J43" si="52">ROUNDUP((P43*$B$32/100),0)</f>
         <v>2765</v>
       </c>
       <c r="K43" s="12">
-        <f t="shared" ref="K43" si="40">ROUNDUP((P43*$B$33/100),0)</f>
+        <f t="shared" ref="K43" si="53">ROUNDUP((P43*$B$33/100),0)</f>
         <v>4148</v>
       </c>
       <c r="L43" s="12">
-        <f t="shared" ref="L43" si="41">ROUNDUP((P43*$B$34/100),0)</f>
+        <f t="shared" ref="L43" si="54">ROUNDUP((P43*$B$34/100),0)</f>
         <v>4839</v>
       </c>
       <c r="M43" s="12">
@@ -4276,7 +5728,47 @@
         <v>13824</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="44" spans="1:32">
+      <c r="G44" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" s="12">
+        <f t="shared" ref="H44" si="55">ROUNDUP((P44*$B$30/100),0)</f>
+        <v>750</v>
+      </c>
+      <c r="I44" s="12">
+        <f t="shared" ref="I44" si="56">ROUNDUP((P44*$B$31/100),0)</f>
+        <v>1500</v>
+      </c>
+      <c r="J44" s="12">
+        <f t="shared" ref="J44" si="57">ROUNDUP((P44*$B$32/100),0)</f>
+        <v>3000</v>
+      </c>
+      <c r="K44" s="12">
+        <f t="shared" ref="K44" si="58">ROUNDUP((P44*$B$33/100),0)</f>
+        <v>4500</v>
+      </c>
+      <c r="L44" s="12">
+        <f t="shared" ref="L44" si="59">ROUNDUP((P44*$B$34/100),0)</f>
+        <v>5250</v>
+      </c>
+      <c r="M44" s="12">
+        <f>L44*$B$43</f>
+        <v>10500</v>
+      </c>
+      <c r="N44" s="12">
+        <f>SUM(H44:L44)</f>
+        <v>15000</v>
+      </c>
+      <c r="O44" s="12">
+        <v>220</v>
+      </c>
+      <c r="P44" s="12">
+        <f>(H23*$B$9*$B$18)*(O44/100)+I23</f>
+        <v>15000.000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32">
       <c r="G46" s="12" t="s">
         <v>144</v>
       </c>
@@ -4290,8 +5782,11 @@
       <c r="Q46" s="24" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" ht="17.25" thickBot="1">
+      <c r="Y46" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" ht="17.25" thickBot="1">
       <c r="G47" s="27" t="s">
         <v>70</v>
       </c>
@@ -4328,8 +5823,32 @@
       <c r="R47" s="27" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" ht="17.25" thickTop="1">
+      <c r="Y47" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z47" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="27">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="27">
+        <v>3</v>
+      </c>
+      <c r="AD47" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE47" s="27">
+        <v>5</v>
+      </c>
+      <c r="AF47" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" ht="17.25" thickTop="1">
       <c r="G48" s="12" t="s">
         <v>16</v>
       </c>
@@ -4337,34 +5856,34 @@
         <v>0.01</v>
       </c>
       <c r="I48" s="12">
-        <f t="shared" ref="I48:I57" si="42">ROUNDUP(((H28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
+        <f t="shared" ref="I48:I57" si="60">ROUNDUP(((H28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
         <v>0.02</v>
       </c>
       <c r="J48" s="12">
-        <f t="shared" ref="J48:J57" si="43">ROUNDUP(((I28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
+        <f t="shared" ref="J48:J57" si="61">ROUNDUP(((I28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
         <v>0.03</v>
       </c>
       <c r="K48" s="12">
-        <f t="shared" ref="K48:K57" si="44">ROUNDUP(((J28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
+        <f t="shared" ref="K48:K57" si="62">ROUNDUP(((J28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
         <v>0.06</v>
       </c>
       <c r="L48" s="12">
-        <f t="shared" ref="L48:L57" si="45">ROUNDUP(((K28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
+        <f t="shared" ref="L48:L57" si="63">ROUNDUP(((K28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
         <v>0.09</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" ref="M48:M57" si="46">ROUNDUP(((L28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
+        <f t="shared" ref="M48:M57" si="64">ROUNDUP(((L28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
         <v>0.1</v>
       </c>
       <c r="N48" s="12">
-        <f t="shared" ref="N48:N57" si="47">ROUNDUP(((M28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
+        <f t="shared" ref="N48:N57" si="65">ROUNDUP(((M28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
         <v>0.2</v>
       </c>
       <c r="O48" s="13">
         <v>10</v>
       </c>
       <c r="P48" s="13">
-        <f t="shared" ref="P48:P59" si="48">SUM(H48:M48)</f>
+        <f t="shared" ref="P48:P59" si="66">SUM(H48:M48)</f>
         <v>0.31</v>
       </c>
       <c r="Q48" s="12">
@@ -4372,11 +5891,40 @@
         <v>0.2</v>
       </c>
       <c r="R48" s="13">
-        <f t="shared" ref="R48:R61" si="49">((P48+Q48)/$P$46)*100</f>
+        <f t="shared" ref="R48:R59" si="67">((P48+Q48)/$P$46)*100</f>
         <v>2.3087369850611137</v>
       </c>
-    </row>
-    <row r="49" spans="7:18">
+      <c r="Y48" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AA48" s="12">
+        <f t="shared" ref="AA48:AA62" si="68">ROUNDUP(((Z28/$B$39)*$B$40)*((100+AF48)/100),0)/100</f>
+        <v>0.22</v>
+      </c>
+      <c r="AB48" s="12">
+        <f t="shared" ref="AB48:AB62" si="69">ROUNDUP(((AA28/$B$39)*$B$40)*((100+AF48)/100),0)/100</f>
+        <v>0.44</v>
+      </c>
+      <c r="AC48" s="12">
+        <f t="shared" ref="AC48:AC62" si="70">ROUNDUP(((AB28/$B$39)*$B$40)*((100+AF48)/100),0)/100</f>
+        <v>0.87</v>
+      </c>
+      <c r="AD48" s="12">
+        <f t="shared" ref="AD48:AD62" si="71">ROUNDUP(((AC28/$B$39)*$B$40)*((100+AF48)/100),0)/100</f>
+        <v>1.3</v>
+      </c>
+      <c r="AE48" s="12">
+        <f t="shared" ref="AE48:AE62" si="72">ROUNDUP(((AD28/$B$39)*$B$40)*((100+AF48)/100),0)/100</f>
+        <v>1.52</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="7:32">
       <c r="G49" s="12" t="s">
         <v>18</v>
       </c>
@@ -4384,46 +5932,75 @@
         <v>0.01</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>0.02</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>0.04</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="62"/>
         <v>0.08</v>
       </c>
       <c r="L49" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="63"/>
         <v>0.12</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="64"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="N49" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="65"/>
         <v>0.27</v>
       </c>
       <c r="O49" s="13">
         <v>20</v>
       </c>
       <c r="P49" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="66"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="Q49" s="12">
-        <f t="shared" ref="Q49:Q59" si="50">N49</f>
+        <f t="shared" ref="Q49:Q59" si="73">N49</f>
         <v>0.27</v>
       </c>
       <c r="R49" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>3.0783159800814848</v>
       </c>
-    </row>
-    <row r="50" spans="7:18">
+      <c r="Y49" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z49" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AA49" s="12">
+        <f t="shared" si="68"/>
+        <v>0.24</v>
+      </c>
+      <c r="AB49" s="12">
+        <f t="shared" si="69"/>
+        <v>0.47</v>
+      </c>
+      <c r="AC49" s="12">
+        <f t="shared" si="70"/>
+        <v>0.93</v>
+      </c>
+      <c r="AD49" s="12">
+        <f t="shared" si="71"/>
+        <v>1.4</v>
+      </c>
+      <c r="AE49" s="12">
+        <f t="shared" si="72"/>
+        <v>1.63</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="7:32">
       <c r="G50" s="12" t="s">
         <v>19</v>
       </c>
@@ -4431,46 +6008,75 @@
         <v>0.02</v>
       </c>
       <c r="I50" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>0.03</v>
       </c>
       <c r="J50" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>0.05</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="62"/>
         <v>0.1</v>
       </c>
       <c r="L50" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="63"/>
         <v>0.15</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="64"/>
         <v>0.18</v>
       </c>
       <c r="N50" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="65"/>
         <v>0.35</v>
       </c>
       <c r="O50" s="13">
         <v>30</v>
       </c>
       <c r="P50" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="66"/>
         <v>0.53</v>
       </c>
       <c r="Q50" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="73"/>
         <v>0.35</v>
       </c>
       <c r="R50" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>3.9837030330466274</v>
       </c>
-    </row>
-    <row r="51" spans="7:18">
+      <c r="Y50" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z50" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="AA50" s="12">
+        <f t="shared" si="68"/>
+        <v>0.25</v>
+      </c>
+      <c r="AB50" s="12">
+        <f t="shared" si="69"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC50" s="12">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="AD50" s="12">
+        <f t="shared" si="71"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE50" s="12">
+        <f t="shared" si="72"/>
+        <v>1.75</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="7:32">
       <c r="G51" s="12" t="s">
         <v>86</v>
       </c>
@@ -4478,46 +6084,75 @@
         <v>0.02</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>0.04</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="62"/>
         <v>0.13</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="63"/>
         <v>0.19</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="64"/>
         <v>0.22</v>
       </c>
       <c r="N51" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="65"/>
         <v>0.44</v>
       </c>
       <c r="O51" s="13">
         <v>40</v>
       </c>
       <c r="P51" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="66"/>
         <v>0.67</v>
       </c>
       <c r="Q51" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="73"/>
         <v>0.44</v>
       </c>
       <c r="R51" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>5.0248981439565421</v>
       </c>
-    </row>
-    <row r="52" spans="7:18">
+      <c r="Y51" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z51" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="AA51" s="12">
+        <f t="shared" si="68"/>
+        <v>0.27</v>
+      </c>
+      <c r="AB51" s="12">
+        <f t="shared" si="69"/>
+        <v>0.54</v>
+      </c>
+      <c r="AC51" s="12">
+        <f t="shared" si="70"/>
+        <v>1.07</v>
+      </c>
+      <c r="AD51" s="12">
+        <f t="shared" si="71"/>
+        <v>1.6</v>
+      </c>
+      <c r="AE51" s="12">
+        <f t="shared" si="72"/>
+        <v>1.87</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="7:32">
       <c r="G52" s="12" t="s">
         <v>20</v>
       </c>
@@ -4525,46 +6160,75 @@
         <v>0.03</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>0.04</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>0.08</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="62"/>
         <v>0.16</v>
       </c>
       <c r="L52" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="63"/>
         <v>0.24</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="64"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="N52" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="65"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="O52" s="13">
         <v>50</v>
       </c>
       <c r="P52" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="66"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="Q52" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="73"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R52" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>6.2471706654594845</v>
       </c>
-    </row>
-    <row r="53" spans="7:18">
+      <c r="Y52" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z52" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AA52" s="12">
+        <f t="shared" si="68"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AB52" s="12">
+        <f t="shared" si="69"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AC52" s="12">
+        <f t="shared" si="70"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AD52" s="12">
+        <f t="shared" si="71"/>
+        <v>1.71</v>
+      </c>
+      <c r="AE52" s="12">
+        <f t="shared" si="72"/>
+        <v>1.99</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="7:32">
       <c r="G53" s="12" t="s">
         <v>21</v>
       </c>
@@ -4572,46 +6236,75 @@
         <v>0.03</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>0.05</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>0.1</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="62"/>
         <v>0.2</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="63"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="64"/>
         <v>0.34</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="65"/>
         <v>0.68</v>
       </c>
       <c r="O53" s="13">
         <v>60</v>
       </c>
       <c r="P53" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="66"/>
         <v>1.01</v>
       </c>
       <c r="Q53" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="73"/>
         <v>0.68</v>
       </c>
       <c r="R53" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>7.6505205975554542</v>
       </c>
-    </row>
-    <row r="54" spans="7:18">
+      <c r="Y53" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z53" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="AA53" s="12">
+        <f t="shared" si="68"/>
+        <v>0.31</v>
+      </c>
+      <c r="AB53" s="12">
+        <f t="shared" si="69"/>
+        <v>0.61</v>
+      </c>
+      <c r="AC53" s="12">
+        <f t="shared" si="70"/>
+        <v>1.21</v>
+      </c>
+      <c r="AD53" s="12">
+        <f t="shared" si="71"/>
+        <v>1.82</v>
+      </c>
+      <c r="AE53" s="12">
+        <f t="shared" si="72"/>
+        <v>2.12</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="7:32">
       <c r="G54" s="12" t="s">
         <v>22</v>
       </c>
@@ -4619,46 +6312,75 @@
         <v>0.04</v>
       </c>
       <c r="I54" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>0.06</v>
       </c>
       <c r="J54" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>0.12</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="62"/>
         <v>0.24</v>
       </c>
       <c r="L54" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="63"/>
         <v>0.35</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="64"/>
         <v>0.41</v>
       </c>
       <c r="N54" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="65"/>
         <v>0.82</v>
       </c>
       <c r="O54" s="13">
         <v>70</v>
       </c>
       <c r="P54" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="66"/>
         <v>1.22</v>
       </c>
       <c r="Q54" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="73"/>
         <v>0.82</v>
       </c>
       <c r="R54" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>9.2349479402444548</v>
       </c>
-    </row>
-    <row r="55" spans="7:18">
+      <c r="Y54" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z54" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA54" s="12">
+        <f t="shared" si="68"/>
+        <v>0.33</v>
+      </c>
+      <c r="AB54" s="12">
+        <f t="shared" si="69"/>
+        <v>0.65</v>
+      </c>
+      <c r="AC54" s="12">
+        <f t="shared" si="70"/>
+        <v>1.29</v>
+      </c>
+      <c r="AD54" s="12">
+        <f t="shared" si="71"/>
+        <v>1.93</v>
+      </c>
+      <c r="AE54" s="12">
+        <f t="shared" si="72"/>
+        <v>2.25</v>
+      </c>
+      <c r="AF54" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="7:32">
       <c r="G55" s="12" t="s">
         <v>23</v>
       </c>
@@ -4666,46 +6388,75 @@
         <v>0.04</v>
       </c>
       <c r="I55" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J55" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K55" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="62"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="L55" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="63"/>
         <v>0.42</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="64"/>
         <v>0.49</v>
       </c>
       <c r="N55" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="65"/>
         <v>0.98</v>
       </c>
       <c r="O55" s="13">
         <v>80</v>
       </c>
       <c r="P55" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="66"/>
         <v>1.44</v>
       </c>
       <c r="Q55" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="73"/>
         <v>0.98</v>
       </c>
       <c r="R55" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>10.955183340878225</v>
       </c>
-    </row>
-    <row r="56" spans="7:18">
+      <c r="Y55" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z55" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="AA55" s="12">
+        <f t="shared" si="68"/>
+        <v>0.35</v>
+      </c>
+      <c r="AB55" s="12">
+        <f t="shared" si="69"/>
+        <v>0.69</v>
+      </c>
+      <c r="AC55" s="12">
+        <f t="shared" si="70"/>
+        <v>1.37</v>
+      </c>
+      <c r="AD55" s="12">
+        <f t="shared" si="71"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AE55" s="12">
+        <f t="shared" si="72"/>
+        <v>2.39</v>
+      </c>
+      <c r="AF55" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="7:32">
       <c r="G56" s="12" t="s">
         <v>24</v>
       </c>
@@ -4713,46 +6464,75 @@
         <v>0.05</v>
       </c>
       <c r="I56" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>0.09</v>
       </c>
       <c r="J56" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>0.17</v>
       </c>
       <c r="K56" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="62"/>
         <v>0.34</v>
       </c>
       <c r="L56" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="63"/>
         <v>0.5</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="64"/>
         <v>0.59</v>
       </c>
       <c r="N56" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="65"/>
         <v>1.17</v>
       </c>
       <c r="O56" s="13">
         <v>90</v>
       </c>
       <c r="P56" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="66"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="Q56" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="73"/>
         <v>1.17</v>
       </c>
       <c r="R56" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>13.173381620642827</v>
       </c>
-    </row>
-    <row r="57" spans="7:18">
+      <c r="Y56" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z56" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="AA56" s="12">
+        <f t="shared" si="68"/>
+        <v>0.37</v>
+      </c>
+      <c r="AB56" s="12">
+        <f t="shared" si="69"/>
+        <v>0.73</v>
+      </c>
+      <c r="AC56" s="12">
+        <f t="shared" si="70"/>
+        <v>1.45</v>
+      </c>
+      <c r="AD56" s="12">
+        <f t="shared" si="71"/>
+        <v>2.17</v>
+      </c>
+      <c r="AE56" s="12">
+        <f t="shared" si="72"/>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="7:32">
       <c r="G57" s="12" t="s">
         <v>25</v>
       </c>
@@ -4760,46 +6540,75 @@
         <v>0.05</v>
       </c>
       <c r="I57" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>0.1</v>
       </c>
       <c r="J57" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>0.2</v>
       </c>
       <c r="K57" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="62"/>
         <v>0.4</v>
       </c>
       <c r="L57" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="63"/>
         <v>0.59</v>
       </c>
       <c r="M57" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="64"/>
         <v>0.69</v>
       </c>
       <c r="N57" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="65"/>
         <v>1.38</v>
       </c>
       <c r="O57" s="13">
         <v>100</v>
       </c>
       <c r="P57" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="66"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="Q57" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="73"/>
         <v>1.38</v>
       </c>
       <c r="R57" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>15.436849253055678</v>
       </c>
-    </row>
-    <row r="58" spans="7:18">
+      <c r="Y57" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z57" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="AA57" s="12">
+        <f t="shared" si="68"/>
+        <v>0.39</v>
+      </c>
+      <c r="AB57" s="12">
+        <f t="shared" si="69"/>
+        <v>0.77</v>
+      </c>
+      <c r="AC57" s="12">
+        <f t="shared" si="70"/>
+        <v>1.53</v>
+      </c>
+      <c r="AD57" s="12">
+        <f t="shared" si="71"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AE57" s="12">
+        <f t="shared" si="72"/>
+        <v>2.68</v>
+      </c>
+      <c r="AF57" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="7:32">
       <c r="G58" s="12" t="s">
         <v>106</v>
       </c>
@@ -4834,19 +6643,48 @@
         <v>110</v>
       </c>
       <c r="P58" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="66"/>
         <v>3.01</v>
       </c>
       <c r="Q58" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="73"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="R58" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>22.906292440018106</v>
       </c>
-    </row>
-    <row r="59" spans="7:18">
+      <c r="Y58" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z58" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="AA58" s="12">
+        <f t="shared" si="68"/>
+        <v>0.41</v>
+      </c>
+      <c r="AB58" s="12">
+        <f t="shared" si="69"/>
+        <v>0.81</v>
+      </c>
+      <c r="AC58" s="12">
+        <f t="shared" si="70"/>
+        <v>1.62</v>
+      </c>
+      <c r="AD58" s="12">
+        <f t="shared" si="71"/>
+        <v>2.42</v>
+      </c>
+      <c r="AE58" s="12">
+        <f t="shared" si="72"/>
+        <v>2.83</v>
+      </c>
+      <c r="AF58" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="7:32">
       <c r="G59" s="12" t="s">
         <v>107</v>
       </c>
@@ -4881,19 +6719,48 @@
         <v>120</v>
       </c>
       <c r="P59" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="66"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="Q59" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="73"/>
         <v>2.25</v>
       </c>
       <c r="R59" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="67"/>
         <v>25.169760072430964</v>
       </c>
-    </row>
-    <row r="60" spans="7:18">
+      <c r="Y59" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z59" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="AA59" s="12">
+        <f t="shared" si="68"/>
+        <v>0.43</v>
+      </c>
+      <c r="AB59" s="12">
+        <f t="shared" si="69"/>
+        <v>0.86</v>
+      </c>
+      <c r="AC59" s="12">
+        <f t="shared" si="70"/>
+        <v>1.71</v>
+      </c>
+      <c r="AD59" s="12">
+        <f t="shared" si="71"/>
+        <v>2.56</v>
+      </c>
+      <c r="AE59" s="12">
+        <f t="shared" si="72"/>
+        <v>2.98</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="7:32">
       <c r="G60" s="12" t="s">
         <v>173</v>
       </c>
@@ -4928,19 +6795,48 @@
         <v>130</v>
       </c>
       <c r="P60" s="13">
-        <f t="shared" ref="P60" si="51">SUM(H60:M60)</f>
+        <f t="shared" ref="P60" si="74">SUM(H60:M60)</f>
         <v>3.61</v>
       </c>
       <c r="Q60" s="12">
-        <f t="shared" ref="Q60" si="52">N60</f>
+        <f t="shared" ref="Q60" si="75">N60</f>
         <v>2.46</v>
       </c>
       <c r="R60" s="13">
-        <f t="shared" si="49"/>
+        <f>((P60+Q60)/$P$46)*100</f>
         <v>27.478497057492078</v>
       </c>
-    </row>
-    <row r="61" spans="7:18">
+      <c r="Y60" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z60" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="AA60" s="12">
+        <f t="shared" si="68"/>
+        <v>0.45</v>
+      </c>
+      <c r="AB60" s="12">
+        <f t="shared" si="69"/>
+        <v>0.9</v>
+      </c>
+      <c r="AC60" s="12">
+        <f t="shared" si="70"/>
+        <v>1.8</v>
+      </c>
+      <c r="AD60" s="12">
+        <f t="shared" si="71"/>
+        <v>2.69</v>
+      </c>
+      <c r="AE60" s="12">
+        <f t="shared" si="72"/>
+        <v>3.14</v>
+      </c>
+      <c r="AF60" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="7:32">
       <c r="G61" s="12" t="s">
         <v>176</v>
       </c>
@@ -4975,24 +6871,138 @@
         <v>140</v>
       </c>
       <c r="P61" s="13">
-        <f t="shared" ref="P61" si="53">SUM(H61:M61)</f>
+        <f t="shared" ref="P61" si="76">SUM(H61:M61)</f>
         <v>4.07</v>
       </c>
       <c r="Q61" s="12">
-        <f t="shared" ref="Q61" si="54">N61</f>
+        <f t="shared" ref="Q61" si="77">N61</f>
         <v>2.79</v>
       </c>
       <c r="R61" s="13">
-        <f t="shared" si="49"/>
+        <f>((P61+Q61)/$P$46)*100</f>
         <v>31.05477591670439</v>
       </c>
-    </row>
-    <row r="64" spans="7:18">
+      <c r="Y61" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z61" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA61" s="12">
+        <f t="shared" si="68"/>
+        <v>0.48</v>
+      </c>
+      <c r="AB61" s="12">
+        <f t="shared" si="69"/>
+        <v>0.95</v>
+      </c>
+      <c r="AC61" s="12">
+        <f t="shared" si="70"/>
+        <v>1.89</v>
+      </c>
+      <c r="AD61" s="12">
+        <f t="shared" si="71"/>
+        <v>2.83</v>
+      </c>
+      <c r="AE61" s="12">
+        <f t="shared" si="72"/>
+        <v>3.3</v>
+      </c>
+      <c r="AF61" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="7:32">
+      <c r="G62" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H62" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="I62" s="12">
+        <f>ROUNDUP(((H44/$B$39)*$B$40)*((100+O62)/100),0)/100</f>
+        <v>0.23</v>
+      </c>
+      <c r="J62" s="12">
+        <f>ROUNDUP(((I44/$B$39)*$B$40)*((100+O62)/100),0)/100</f>
+        <v>0.45</v>
+      </c>
+      <c r="K62" s="12">
+        <f>ROUNDUP(((J44/$B$39)*$B$40)*((100+O62)/100),0)/100</f>
+        <v>0.9</v>
+      </c>
+      <c r="L62" s="12">
+        <f>ROUNDUP(((K44/$B$39)*$B$40)*((100+O62)/100),0)/100</f>
+        <v>1.35</v>
+      </c>
+      <c r="M62" s="12">
+        <f>ROUNDUP(((L44/$B$39)*$B$40)*((100+O62)/100),0)/100</f>
+        <v>1.58</v>
+      </c>
+      <c r="N62" s="12">
+        <f>ROUNDUP(((M44/$B$39)*$B$40)*((100+O62)/100),0)/100</f>
+        <v>3.15</v>
+      </c>
+      <c r="O62" s="13">
+        <v>150</v>
+      </c>
+      <c r="P62" s="13">
+        <f t="shared" ref="P62" si="78">SUM(H62:M62)</f>
+        <v>5.58</v>
+      </c>
+      <c r="Q62" s="12">
+        <f t="shared" ref="Q62" si="79">N62</f>
+        <v>3.15</v>
+      </c>
+      <c r="R62" s="13">
+        <f>((P62+Q62)/$P$46)*100</f>
+        <v>39.520144861928472</v>
+      </c>
+      <c r="Y62" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z62" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="AA62" s="12">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB62" s="12">
+        <f t="shared" si="69"/>
+        <v>0.99</v>
+      </c>
+      <c r="AC62" s="12">
+        <f t="shared" si="70"/>
+        <v>1.98</v>
+      </c>
+      <c r="AD62" s="12">
+        <f t="shared" si="71"/>
+        <v>2.97</v>
+      </c>
+      <c r="AE62" s="12">
+        <f t="shared" si="72"/>
+        <v>3.46</v>
+      </c>
+      <c r="AF62" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="7:32">
       <c r="G64" s="12" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="65" spans="7:14" ht="17.25" thickBot="1">
+      <c r="Y64" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+    </row>
+    <row r="65" spans="7:31" ht="17.25" thickBot="1">
       <c r="G65" s="27" t="s">
         <v>70</v>
       </c>
@@ -5017,468 +7027,929 @@
       <c r="N65" s="27" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="66" spans="7:14" ht="17.25" thickTop="1">
+      <c r="Y65" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z65" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="27">
+        <v>2</v>
+      </c>
+      <c r="AC65" s="27">
+        <v>3</v>
+      </c>
+      <c r="AD65" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE65" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="7:31" ht="17.25" thickTop="1">
       <c r="G66" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H66" s="12">
-        <f t="shared" ref="H66:H79" si="55">H48</f>
+        <f t="shared" ref="H66:H79" si="80">H48</f>
         <v>0.01</v>
       </c>
       <c r="I66" s="12">
-        <f t="shared" ref="I66:N79" si="56">I48+H66</f>
+        <f t="shared" ref="I66:N80" si="81">I48+H66</f>
         <v>0.03</v>
       </c>
       <c r="J66" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.06</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.12</v>
       </c>
       <c r="L66" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.21</v>
       </c>
       <c r="M66" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.31</v>
       </c>
       <c r="N66" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.51</v>
       </c>
-    </row>
-    <row r="67" spans="7:14">
+      <c r="Y66" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z66" s="12">
+        <f t="shared" ref="Z66:Z80" si="82">Z48</f>
+        <v>0.01</v>
+      </c>
+      <c r="AA66" s="12">
+        <f t="shared" ref="AA66:AE80" si="83">Z66+AA48</f>
+        <v>0.23</v>
+      </c>
+      <c r="AB66" s="12">
+        <f t="shared" si="83"/>
+        <v>0.67</v>
+      </c>
+      <c r="AC66" s="12">
+        <f t="shared" si="83"/>
+        <v>1.54</v>
+      </c>
+      <c r="AD66" s="12">
+        <f t="shared" si="83"/>
+        <v>2.84</v>
+      </c>
+      <c r="AE66" s="12">
+        <f t="shared" si="83"/>
+        <v>4.3599999999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="7:31">
       <c r="G67" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H67" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="80"/>
         <v>0.01</v>
       </c>
       <c r="I67" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.03</v>
       </c>
       <c r="J67" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="L67" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.27</v>
       </c>
       <c r="M67" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="N67" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="68" spans="7:14">
+      <c r="Y67" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z67" s="12">
+        <f t="shared" si="82"/>
+        <v>0.02</v>
+      </c>
+      <c r="AA67" s="12">
+        <f t="shared" si="83"/>
+        <v>0.26</v>
+      </c>
+      <c r="AB67" s="12">
+        <f t="shared" si="83"/>
+        <v>0.73</v>
+      </c>
+      <c r="AC67" s="12">
+        <f t="shared" si="83"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="AD67" s="12">
+        <f t="shared" si="83"/>
+        <v>3.06</v>
+      </c>
+      <c r="AE67" s="12">
+        <f t="shared" si="83"/>
+        <v>4.6899999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="7:31">
       <c r="G68" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H68" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="80"/>
         <v>0.02</v>
       </c>
       <c r="I68" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.05</v>
       </c>
       <c r="J68" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.1</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.2</v>
       </c>
       <c r="L68" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.35</v>
       </c>
       <c r="M68" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.53</v>
       </c>
       <c r="N68" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="69" spans="7:14">
+      <c r="Y68" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z68" s="12">
+        <f t="shared" si="82"/>
+        <v>0.03</v>
+      </c>
+      <c r="AA68" s="12">
+        <f t="shared" si="83"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AB68" s="12">
+        <f t="shared" si="83"/>
+        <v>0.78</v>
+      </c>
+      <c r="AC68" s="12">
+        <f t="shared" si="83"/>
+        <v>1.78</v>
+      </c>
+      <c r="AD68" s="12">
+        <f t="shared" si="83"/>
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="AE68" s="12">
+        <f t="shared" si="83"/>
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="69" spans="7:31">
       <c r="G69" s="12" t="s">
         <v>86</v>
       </c>
       <c r="H69" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="80"/>
         <v>0.02</v>
       </c>
       <c r="I69" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.06</v>
       </c>
       <c r="J69" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.13</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.26</v>
       </c>
       <c r="L69" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.45</v>
       </c>
       <c r="M69" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.67</v>
       </c>
       <c r="N69" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="7:14">
+      <c r="Y69" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z69" s="12">
+        <f t="shared" si="82"/>
+        <v>0.04</v>
+      </c>
+      <c r="AA69" s="12">
+        <f t="shared" si="83"/>
+        <v>0.31</v>
+      </c>
+      <c r="AB69" s="12">
+        <f t="shared" si="83"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AC69" s="12">
+        <f t="shared" si="83"/>
+        <v>1.9200000000000002</v>
+      </c>
+      <c r="AD69" s="12">
+        <f t="shared" si="83"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="AE69" s="12">
+        <f t="shared" si="83"/>
+        <v>5.3900000000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="7:31">
       <c r="G70" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H70" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="80"/>
         <v>0.03</v>
       </c>
       <c r="I70" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J70" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="L70" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="M70" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="N70" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>1.3800000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="7:14">
+      <c r="Y70" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z70" s="12">
+        <f t="shared" si="82"/>
+        <v>0.05</v>
+      </c>
+      <c r="AA70" s="12">
+        <f t="shared" si="83"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="AB70" s="12">
+        <f t="shared" si="83"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="AC70" s="12">
+        <f t="shared" si="83"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AD70" s="12">
+        <f t="shared" si="83"/>
+        <v>3.76</v>
+      </c>
+      <c r="AE70" s="12">
+        <f t="shared" si="83"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="71" spans="7:31">
       <c r="G71" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H71" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="80"/>
         <v>0.03</v>
       </c>
       <c r="I71" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.08</v>
       </c>
       <c r="J71" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.18</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.38</v>
       </c>
       <c r="L71" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="M71" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>1.01</v>
       </c>
       <c r="N71" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>1.69</v>
       </c>
-    </row>
-    <row r="72" spans="7:14">
+      <c r="Y71" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z71" s="12">
+        <f t="shared" si="82"/>
+        <v>0.06</v>
+      </c>
+      <c r="AA71" s="12">
+        <f t="shared" si="83"/>
+        <v>0.37</v>
+      </c>
+      <c r="AB71" s="12">
+        <f t="shared" si="83"/>
+        <v>0.98</v>
+      </c>
+      <c r="AC71" s="12">
+        <f t="shared" si="83"/>
+        <v>2.19</v>
+      </c>
+      <c r="AD71" s="12">
+        <f t="shared" si="83"/>
+        <v>4.01</v>
+      </c>
+      <c r="AE71" s="12">
+        <f t="shared" si="83"/>
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="72" spans="7:31">
       <c r="G72" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H72" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="80"/>
         <v>0.04</v>
       </c>
       <c r="I72" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.1</v>
       </c>
       <c r="J72" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.22</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.45999999999999996</v>
       </c>
       <c r="L72" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.80999999999999994</v>
       </c>
       <c r="M72" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>1.22</v>
       </c>
       <c r="N72" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>2.04</v>
       </c>
-    </row>
-    <row r="73" spans="7:14">
+      <c r="Y72" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z72" s="12">
+        <f t="shared" si="82"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA72" s="12">
+        <f t="shared" si="83"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB72" s="12">
+        <f t="shared" si="83"/>
+        <v>1.05</v>
+      </c>
+      <c r="AC72" s="12">
+        <f t="shared" si="83"/>
+        <v>2.34</v>
+      </c>
+      <c r="AD72" s="12">
+        <f t="shared" si="83"/>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="AE72" s="12">
+        <f t="shared" si="83"/>
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="73" spans="7:31">
       <c r="G73" s="12" t="s">
         <v>23</v>
       </c>
       <c r="H73" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="80"/>
         <v>0.04</v>
       </c>
       <c r="I73" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.11000000000000001</v>
       </c>
       <c r="J73" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.25</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.53</v>
       </c>
       <c r="L73" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.95</v>
       </c>
       <c r="M73" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>1.44</v>
       </c>
       <c r="N73" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>2.42</v>
       </c>
-    </row>
-    <row r="74" spans="7:14">
+      <c r="Y73" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z73" s="12">
+        <f t="shared" si="82"/>
+        <v>0.08</v>
+      </c>
+      <c r="AA73" s="12">
+        <f t="shared" si="83"/>
+        <v>0.43</v>
+      </c>
+      <c r="AB73" s="12">
+        <f t="shared" si="83"/>
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="AC73" s="12">
+        <f t="shared" si="83"/>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AD73" s="12">
+        <f t="shared" si="83"/>
+        <v>4.54</v>
+      </c>
+      <c r="AE73" s="12">
+        <f t="shared" si="83"/>
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="74" spans="7:31">
       <c r="G74" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H74" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="80"/>
         <v>0.05</v>
       </c>
       <c r="I74" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="J74" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="L74" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="M74" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="N74" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>2.91</v>
       </c>
-    </row>
-    <row r="75" spans="7:14">
+      <c r="Y74" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z74" s="12">
+        <f t="shared" si="82"/>
+        <v>0.09</v>
+      </c>
+      <c r="AA74" s="12">
+        <f t="shared" si="83"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="AB74" s="12">
+        <f t="shared" si="83"/>
+        <v>1.19</v>
+      </c>
+      <c r="AC74" s="12">
+        <f t="shared" si="83"/>
+        <v>2.6399999999999997</v>
+      </c>
+      <c r="AD74" s="12">
+        <f t="shared" si="83"/>
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="AE74" s="12">
+        <f t="shared" si="83"/>
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="75" spans="7:31">
       <c r="G75" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H75" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="80"/>
         <v>0.05</v>
       </c>
       <c r="I75" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="J75" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.75</v>
       </c>
       <c r="L75" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="M75" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="N75" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>3.4099999999999997</v>
       </c>
-    </row>
-    <row r="76" spans="7:14">
+      <c r="Y75" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z75" s="12">
+        <f t="shared" si="82"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA75" s="12">
+        <f t="shared" si="83"/>
+        <v>0.49</v>
+      </c>
+      <c r="AB75" s="12">
+        <f t="shared" si="83"/>
+        <v>1.26</v>
+      </c>
+      <c r="AC75" s="12">
+        <f t="shared" si="83"/>
+        <v>2.79</v>
+      </c>
+      <c r="AD75" s="12">
+        <f t="shared" si="83"/>
+        <v>5.09</v>
+      </c>
+      <c r="AE75" s="12">
+        <f t="shared" si="83"/>
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="76" spans="7:31">
       <c r="G76" s="12" t="s">
         <v>106</v>
       </c>
       <c r="H76" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="80"/>
         <v>0.06</v>
       </c>
       <c r="I76" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.21</v>
       </c>
       <c r="J76" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.51</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="L76" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>1.98</v>
       </c>
       <c r="M76" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>3.01</v>
       </c>
       <c r="N76" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>5.0599999999999996</v>
       </c>
-    </row>
-    <row r="77" spans="7:14">
+      <c r="Y76" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z76" s="12">
+        <f t="shared" si="82"/>
+        <v>0.11</v>
+      </c>
+      <c r="AA76" s="12">
+        <f t="shared" si="83"/>
+        <v>0.52</v>
+      </c>
+      <c r="AB76" s="12">
+        <f t="shared" si="83"/>
+        <v>1.33</v>
+      </c>
+      <c r="AC76" s="12">
+        <f t="shared" si="83"/>
+        <v>2.95</v>
+      </c>
+      <c r="AD76" s="12">
+        <f t="shared" si="83"/>
+        <v>5.37</v>
+      </c>
+      <c r="AE76" s="12">
+        <f t="shared" si="83"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="7:31">
       <c r="G77" s="12" t="s">
         <v>107</v>
       </c>
       <c r="H77" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="80"/>
         <v>0.06</v>
       </c>
       <c r="I77" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.23</v>
       </c>
       <c r="J77" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="K77" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>1.21</v>
       </c>
       <c r="L77" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>2.1799999999999997</v>
       </c>
       <c r="M77" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>3.3099999999999996</v>
       </c>
       <c r="N77" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>5.56</v>
       </c>
-    </row>
-    <row r="78" spans="7:14">
+      <c r="Y77" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z77" s="12">
+        <f t="shared" si="82"/>
+        <v>0.12</v>
+      </c>
+      <c r="AA77" s="12">
+        <f t="shared" si="83"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB77" s="12">
+        <f t="shared" si="83"/>
+        <v>1.4100000000000001</v>
+      </c>
+      <c r="AC77" s="12">
+        <f t="shared" si="83"/>
+        <v>3.12</v>
+      </c>
+      <c r="AD77" s="12">
+        <f t="shared" si="83"/>
+        <v>5.68</v>
+      </c>
+      <c r="AE77" s="12">
+        <f t="shared" si="83"/>
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="78" spans="7:31">
       <c r="G78" s="12" t="s">
         <v>173</v>
       </c>
       <c r="H78" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="80"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I78" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.25</v>
       </c>
       <c r="J78" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.61</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>1.3199999999999998</v>
       </c>
       <c r="L78" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>2.38</v>
       </c>
       <c r="M78" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>3.61</v>
       </c>
       <c r="N78" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>6.07</v>
       </c>
-    </row>
-    <row r="79" spans="7:14">
+      <c r="Y78" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z78" s="12">
+        <f t="shared" si="82"/>
+        <v>0.13</v>
+      </c>
+      <c r="AA78" s="12">
+        <f t="shared" si="83"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="AB78" s="12">
+        <f t="shared" si="83"/>
+        <v>1.48</v>
+      </c>
+      <c r="AC78" s="12">
+        <f t="shared" si="83"/>
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="AD78" s="12">
+        <f t="shared" si="83"/>
+        <v>5.9700000000000006</v>
+      </c>
+      <c r="AE78" s="12">
+        <f t="shared" si="83"/>
+        <v>9.1100000000000012</v>
+      </c>
+    </row>
+    <row r="79" spans="7:31">
       <c r="G79" s="12" t="s">
         <v>175</v>
       </c>
       <c r="H79" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="80"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I79" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.27</v>
       </c>
       <c r="J79" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>0.67</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>1.4700000000000002</v>
       </c>
       <c r="L79" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>2.67</v>
       </c>
       <c r="M79" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>4.07</v>
       </c>
       <c r="N79" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="81"/>
         <v>6.86</v>
       </c>
+      <c r="Y79" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z79" s="12">
+        <f t="shared" si="82"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA79" s="12">
+        <f t="shared" si="83"/>
+        <v>0.62</v>
+      </c>
+      <c r="AB79" s="12">
+        <f t="shared" si="83"/>
+        <v>1.5699999999999998</v>
+      </c>
+      <c r="AC79" s="12">
+        <f t="shared" si="83"/>
+        <v>3.46</v>
+      </c>
+      <c r="AD79" s="12">
+        <f t="shared" si="83"/>
+        <v>6.29</v>
+      </c>
+      <c r="AE79" s="12">
+        <f t="shared" si="83"/>
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="80" spans="7:31">
+      <c r="G80" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H80" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I80" s="12">
+        <f t="shared" si="81"/>
+        <v>0.31</v>
+      </c>
+      <c r="J80" s="12">
+        <f t="shared" si="81"/>
+        <v>0.76</v>
+      </c>
+      <c r="K80" s="12">
+        <f t="shared" si="81"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="L80" s="12">
+        <f t="shared" si="81"/>
+        <v>3.0100000000000002</v>
+      </c>
+      <c r="M80" s="12">
+        <f t="shared" si="81"/>
+        <v>4.59</v>
+      </c>
+      <c r="N80" s="12">
+        <f t="shared" si="81"/>
+        <v>7.74</v>
+      </c>
+      <c r="Y80" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z80" s="12">
+        <f t="shared" si="82"/>
+        <v>0.15</v>
+      </c>
+      <c r="AA80" s="12">
+        <f t="shared" si="83"/>
+        <v>0.65</v>
+      </c>
+      <c r="AB80" s="12">
+        <f t="shared" si="83"/>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="AC80" s="12">
+        <f t="shared" si="83"/>
+        <v>3.62</v>
+      </c>
+      <c r="AD80" s="12">
+        <f t="shared" si="83"/>
+        <v>6.59</v>
+      </c>
+      <c r="AE80" s="12">
+        <f t="shared" si="83"/>
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="32:32">
+      <c r="AF81" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5495,7 +7966,7 @@
   <dimension ref="A2:W50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6682,6 +9153,67 @@
       </c>
     </row>
     <row r="18" spans="1:23">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" ref="B18:B21" si="54">C18&amp;","&amp;D18&amp;","&amp;E18&amp;","&amp;F18&amp;","&amp;G18</f>
+        <v>10마,20마,50마,200마,1000마</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" ref="C18:C21" si="55">$C$3&amp;H18</f>
+        <v>10마</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" ref="D18:D21" si="56">$D$3&amp;H18</f>
+        <v>20마</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ref="E18:E21" si="57">$E$3&amp;H18</f>
+        <v>50마</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" ref="F18:F21" si="58">$F$3&amp;H18</f>
+        <v>200마</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" ref="G18:G21" si="59">$G$3&amp;H18</f>
+        <v>1000마</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18">
+        <v>15</v>
+      </c>
+      <c r="K18" s="3" t="str">
+        <f t="shared" ref="K18:K21" si="60">L18&amp;","&amp;M18&amp;","&amp;N18&amp;","&amp;O18&amp;","&amp;P18</f>
+        <v>1E+109,2E+109,5E+109,2E+110,1E+111</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L21" si="61">$C$3*Q18</f>
+        <v>9.9999999999999998E+108</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M21" si="62">$D$3*Q18</f>
+        <v>2E+109</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:N21" si="63">$E$3*Q18</f>
+        <v>5.0000000000000001E+109</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18:O21" si="64">$F$3*Q18</f>
+        <v>2E+110</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P21" si="65">$G$3*Q18</f>
+        <v>1.0000000000000001E+111</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" ref="Q18:Q21" si="66">VLOOKUP(H18,T:W,4,FALSE)</f>
+        <v>1E+108</v>
+      </c>
       <c r="T18" t="s">
         <v>125</v>
       </c>
@@ -6698,6 +9230,67 @@
       </c>
     </row>
     <row r="19" spans="1:23">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="54"/>
+        <v>10살,20살,50살,200살,1000살</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="55"/>
+        <v>10살</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="56"/>
+        <v>20살</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="57"/>
+        <v>50살</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="58"/>
+        <v>200살</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="59"/>
+        <v>1000살</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="K19" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>1E+113,2E+113,5E+113,2E+114,1E+115</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="61"/>
+        <v>1E+113</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="62"/>
+        <v>2E+113</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="63"/>
+        <v>4.9999999999999994E+113</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="64"/>
+        <v>1.9999999999999998E+114</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="65"/>
+        <v>1E+115</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="66"/>
+        <v>1E+112</v>
+      </c>
       <c r="T19" t="s">
         <v>126</v>
       </c>
@@ -6714,6 +9307,67 @@
       </c>
     </row>
     <row r="20" spans="1:23">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="54"/>
+        <v>10마,20마,50마,200마,1000마</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="55"/>
+        <v>10마</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="56"/>
+        <v>20마</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="57"/>
+        <v>50마</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="58"/>
+        <v>200마</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="59"/>
+        <v>1000마</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20">
+        <v>17</v>
+      </c>
+      <c r="K20" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>1E+109,2E+109,5E+109,2E+110,1E+111</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="61"/>
+        <v>9.9999999999999998E+108</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="62"/>
+        <v>2E+109</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="63"/>
+        <v>5.0000000000000001E+109</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="64"/>
+        <v>2E+110</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="65"/>
+        <v>1.0000000000000001E+111</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="66"/>
+        <v>1E+108</v>
+      </c>
       <c r="T20" t="s">
         <v>127</v>
       </c>
@@ -6730,6 +9384,67 @@
       </c>
     </row>
     <row r="21" spans="1:23">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="54"/>
+        <v>10살,20살,50살,200살,1000살</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="55"/>
+        <v>10살</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="56"/>
+        <v>20살</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="57"/>
+        <v>50살</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="58"/>
+        <v>200살</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="59"/>
+        <v>1000살</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21">
+        <v>18</v>
+      </c>
+      <c r="K21" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>1E+113,2E+113,5E+113,2E+114,1E+115</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="61"/>
+        <v>1E+113</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="62"/>
+        <v>2E+113</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="63"/>
+        <v>4.9999999999999994E+113</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="64"/>
+        <v>1.9999999999999998E+114</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="65"/>
+        <v>1E+115</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="66"/>
+        <v>1E+112</v>
+      </c>
       <c r="T21" t="s">
         <v>128</v>
       </c>
@@ -6746,6 +9461,67 @@
       </c>
     </row>
     <row r="22" spans="1:23">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" ref="B22" si="67">C22&amp;","&amp;D22&amp;","&amp;E22&amp;","&amp;F22&amp;","&amp;G22</f>
+        <v>10섬,20섬,50섬,200섬,1000섬</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" ref="C22" si="68">$C$3&amp;H22</f>
+        <v>10섬</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ref="D22" si="69">$D$3&amp;H22</f>
+        <v>20섬</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" ref="E22" si="70">$E$3&amp;H22</f>
+        <v>50섬</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" ref="F22" si="71">$F$3&amp;H22</f>
+        <v>200섬</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" ref="G22" si="72">$G$3&amp;H22</f>
+        <v>1000섬</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22">
+        <v>19</v>
+      </c>
+      <c r="K22" s="3" t="str">
+        <f t="shared" ref="K22" si="73">L22&amp;","&amp;M22&amp;","&amp;N22&amp;","&amp;O22&amp;","&amp;P22</f>
+        <v>1E+117,2E+117,5E+117,2E+118,1E+119</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22" si="74">$C$3*Q22</f>
+        <v>1.0000000000000001E+117</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22" si="75">$D$3*Q22</f>
+        <v>2.0000000000000001E+117</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22" si="76">$E$3*Q22</f>
+        <v>4.9999999999999998E+117</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22" si="77">$F$3*Q22</f>
+        <v>1.9999999999999999E+118</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22" si="78">$G$3*Q22</f>
+        <v>9.9999999999999994E+118</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" ref="Q22" si="79">VLOOKUP(H22,T:W,4,FALSE)</f>
+        <v>1E+116</v>
+      </c>
       <c r="T22" t="s">
         <v>129</v>
       </c>
@@ -6849,11 +9625,11 @@
         <v>104</v>
       </c>
       <c r="V28">
-        <f t="shared" ref="V28:V29" si="54">POWER(10,U28)</f>
+        <f t="shared" ref="V28:V29" si="80">POWER(10,U28)</f>
         <v>1E+104</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" ref="W28:W29" si="55">RIGHT(V28,U28)</f>
+        <f t="shared" ref="W28:W29" si="81">RIGHT(V28,U28)</f>
         <v>1E+104</v>
       </c>
     </row>
@@ -6865,11 +9641,11 @@
         <v>108</v>
       </c>
       <c r="V29">
-        <f t="shared" si="54"/>
+        <f t="shared" si="80"/>
         <v>1E+108</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="81"/>
         <v>1E+108</v>
       </c>
     </row>
@@ -6881,11 +9657,11 @@
         <v>112</v>
       </c>
       <c r="V30">
-        <f t="shared" ref="V30:V31" si="56">POWER(10,U30)</f>
+        <f t="shared" ref="V30:V31" si="82">POWER(10,U30)</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" ref="W30:W31" si="57">RIGHT(V30,U30)</f>
+        <f t="shared" ref="W30:W31" si="83">RIGHT(V30,U30)</f>
         <v>1E+112</v>
       </c>
     </row>
@@ -6897,11 +9673,11 @@
         <v>116</v>
       </c>
       <c r="V31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="82"/>
         <v>1E+116</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="83"/>
         <v>1E+116</v>
       </c>
     </row>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5470C067-299B-4C20-AF23-9DC729B59605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FD649A-9D8C-48A7-8EB1-66E3192C5116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="1365" windowWidth="33540" windowHeight="14235" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhopetTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="249">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -951,6 +951,10 @@
   </si>
   <si>
     <t>백산범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑산범</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1767,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2868,7 +2872,7 @@
         <v>185</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>244</v>

--- a/Assets/06.Table/SuhopetTable.xlsx
+++ b/Assets/06.Table/SuhopetTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FD649A-9D8C-48A7-8EB1-66E3192C5116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826E3F13-F8EC-49E7-BEE9-FBCCBDC68836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1365" windowWidth="33540" windowHeight="14235" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SuhopetTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="260">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -956,6 +956,44 @@
   <si>
     <t>흑산범</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫16</t>
+  </si>
+  <si>
+    <t>16단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10찰,20찰,50찰,200찰,1000찰</t>
+  </si>
+  <si>
+    <t>1E+121,2E+121,5E+121,2E+122,1E+123</t>
+  </si>
+  <si>
+    <t>390,390,390,390,390</t>
+  </si>
+  <si>
+    <t>0.08,0.35,0.88,1.94,3.52,5.36,9.04</t>
+  </si>
+  <si>
+    <t>843,1685,3370,5055,5897,11794</t>
   </si>
 </sst>
 </file>
@@ -1769,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2023,7 +2061,7 @@
         <v>10무,20무,50무,200무,1000무</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f t="shared" ref="H4:H20" si="1">H3</f>
+        <f t="shared" ref="H4:H21" si="1">H3</f>
         <v>9016,9016,9016,9016,9016</v>
       </c>
       <c r="I4" s="35" t="str">
@@ -3207,19 +3245,86 @@
         <v>243</v>
       </c>
     </row>
+    <row r="21" spans="1:21" ht="33">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>9016,9016,9016,9016,9016</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" s="43">
+        <v>9016</v>
+      </c>
+      <c r="L21" s="3">
+        <v>270</v>
+      </c>
+      <c r="M21" s="4">
+        <v>49</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" ref="O21" si="2">IF(S21="Basic",6,IF(S21="Special",5,0))</f>
+        <v>6</v>
+      </c>
+      <c r="P21" s="36">
+        <v>9016</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="R21" s="4">
+        <v>101</v>
+      </c>
+      <c r="S21" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="T21" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="U21" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="uniqueValues" dxfId="3" priority="5"/>
+  <conditionalFormatting sqref="J2:J1048576">
+    <cfRule type="uniqueValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M1048576">
     <cfRule type="uniqueValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O1048576">
+    <cfRule type="uniqueValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P2:P1048576">
-    <cfRule type="uniqueValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3228,10 +3333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB815A5-0A26-4B2F-8716-20DE31E1881F}">
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AF48" sqref="AF48"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3395,7 +3500,7 @@
         <v>160,160,160,160,160</v>
       </c>
       <c r="P8" s="2" t="str">
-        <f t="shared" ref="P8:P22" si="0">H66&amp;","&amp;I66&amp;","&amp;J66&amp;","&amp;K66&amp;","&amp;L66&amp;","&amp;M66&amp;","&amp;N66</f>
+        <f t="shared" ref="P8:P23" si="0">H75&amp;","&amp;I75&amp;","&amp;J75&amp;","&amp;K75&amp;","&amp;L75&amp;","&amp;M75&amp;","&amp;N75</f>
         <v>0.01,0.03,0.06,0.12,0.21,0.31,0.51</v>
       </c>
       <c r="Q8" s="12" t="str">
@@ -3868,7 +3973,7 @@
         <v>106</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f>J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
+        <f t="shared" ref="O18:O23" si="7">J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19&amp;","&amp;J19</f>
         <v>300,300,300,300,300</v>
       </c>
       <c r="P18" s="2" t="str">
@@ -3876,7 +3981,7 @@
         <v>0.06,0.21,0.51,1.1,1.98,3.01,5.06</v>
       </c>
       <c r="Q18" s="12" t="str">
-        <f>H40&amp;","&amp;I40&amp;","&amp;J40&amp;","&amp;K40&amp;","&amp;L40&amp;","&amp;M40</f>
+        <f t="shared" ref="Q18:Q23" si="8">H40&amp;","&amp;I40&amp;","&amp;J40&amp;","&amp;K40&amp;","&amp;L40&amp;","&amp;M40</f>
         <v>580,1160,2319,3478,4058,8116</v>
       </c>
       <c r="Y18" s="12" t="s">
@@ -3909,7 +4014,7 @@
         <v>210</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" ref="I19:I21" si="7">H19*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I19:I21" si="9">H19*$B$9*$B$18*($B$13/100)</f>
         <v>1512</v>
       </c>
       <c r="J19" s="12">
@@ -3919,7 +4024,7 @@
         <v>107</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f>J20&amp;","&amp;J20&amp;","&amp;J20&amp;","&amp;J20&amp;","&amp;J20</f>
+        <f t="shared" si="7"/>
         <v>320,320,320,320,320</v>
       </c>
       <c r="P19" s="2" t="str">
@@ -3927,7 +4032,7 @@
         <v>0.06,0.23,0.56,1.21,2.18,3.31,5.56</v>
       </c>
       <c r="Q19" s="12" t="str">
-        <f>H41&amp;","&amp;I41&amp;","&amp;J41&amp;","&amp;K41&amp;","&amp;L41&amp;","&amp;M41</f>
+        <f t="shared" si="8"/>
         <v>608,1215,2429,3644,4251,8502</v>
       </c>
       <c r="Y19" s="12" t="s">
@@ -3960,7 +4065,7 @@
         <v>220</v>
       </c>
       <c r="I20" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1584</v>
       </c>
       <c r="J20" s="12">
@@ -3971,7 +4076,7 @@
         <v>173</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f>J21&amp;","&amp;J21&amp;","&amp;J21&amp;","&amp;J21&amp;","&amp;J21</f>
+        <f t="shared" si="7"/>
         <v>340,340,340,340,340</v>
       </c>
       <c r="P20" s="2" t="str">
@@ -3979,7 +4084,7 @@
         <v>0.07,0.25,0.61,1.32,2.38,3.61,6.07</v>
       </c>
       <c r="Q20" s="12" t="str">
-        <f>H42&amp;","&amp;I42&amp;","&amp;J42&amp;","&amp;K42&amp;","&amp;L42&amp;","&amp;M42</f>
+        <f t="shared" si="8"/>
         <v>635,1270,2540,3809,4444,8888</v>
       </c>
       <c r="Y20" s="12" t="s">
@@ -4012,7 +4117,7 @@
         <v>230</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1656</v>
       </c>
       <c r="J21" s="12">
@@ -4023,7 +4128,7 @@
         <v>175</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f>J22&amp;","&amp;J22&amp;","&amp;J22&amp;","&amp;J22&amp;","&amp;J22</f>
+        <f t="shared" si="7"/>
         <v>350,350,350,350,350</v>
       </c>
       <c r="P21" s="2" t="str">
@@ -4031,7 +4136,7 @@
         <v>0.07,0.27,0.67,1.47,2.67,4.07,6.86</v>
       </c>
       <c r="Q21" s="12" t="str">
-        <f>H43&amp;","&amp;I43&amp;","&amp;J43&amp;","&amp;K43&amp;","&amp;L43&amp;","&amp;M43</f>
+        <f t="shared" si="8"/>
         <v>692,1383,2765,4148,4839,9678</v>
       </c>
       <c r="Y21" s="12" t="s">
@@ -4062,18 +4167,18 @@
         <v>240</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" ref="I22" si="8">H22*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I22" si="10">H22*$B$9*$B$18*($B$13/100)</f>
         <v>1728</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" ref="J22" si="9">ROUNDUP((I22/5),-1)</f>
+        <f t="shared" ref="J22:J24" si="11">ROUNDUP((I22/5),-1)</f>
         <v>350</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>196</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f>J23&amp;","&amp;J23&amp;","&amp;J23&amp;","&amp;J23&amp;","&amp;J23</f>
+        <f t="shared" si="7"/>
         <v>360,360,360,360,360</v>
       </c>
       <c r="P22" s="2" t="str">
@@ -4081,7 +4186,7 @@
         <v>0.08,0.31,0.76,1.66,3.01,4.59,7.74</v>
       </c>
       <c r="Q22" s="12" t="str">
-        <f>H44&amp;","&amp;I44&amp;","&amp;J44&amp;","&amp;K44&amp;","&amp;L44&amp;","&amp;M44</f>
+        <f t="shared" si="8"/>
         <v>750,1500,3000,4500,5250,10500</v>
       </c>
       <c r="Y22" s="12" t="s">
@@ -4104,11 +4209,43 @@
         <v>250</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" ref="I23" si="10">H23*$B$9*$B$18*($B$13/100)</f>
+        <f t="shared" ref="I23:I24" si="12">H23*$B$9*$B$18*($B$13/100)</f>
         <v>1800</v>
       </c>
       <c r="J23" s="12">
+        <f t="shared" si="11"/>
         <v>360</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>390,390,390,390,390</v>
+      </c>
+      <c r="P23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.08,0.35,0.88,1.94,3.52,5.36,9.04</v>
+      </c>
+      <c r="Q23" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>843,1685,3370,5055,5897,11794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="G24" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H24" s="12">
+        <v>270</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="12"/>
+        <v>1944</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="11"/>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -4143,27 +4280,27 @@
         <v>69</v>
       </c>
       <c r="R26" s="26">
-        <f t="shared" ref="R26:W26" si="11">SUM(R28:R37)</f>
+        <f t="shared" ref="R26:W26" si="13">SUM(R28:R37)</f>
         <v>16.285714285714285</v>
       </c>
       <c r="S26" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13.328571428571429</v>
       </c>
       <c r="T26" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10.213240418118467</v>
       </c>
       <c r="U26" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.8857142857142843</v>
       </c>
       <c r="V26" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.4878048780487809</v>
       </c>
       <c r="W26" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.3097560975609763</v>
       </c>
       <c r="X26"/>
@@ -4299,19 +4436,19 @@
         <v>50</v>
       </c>
       <c r="P28" s="12">
-        <f t="shared" ref="P28:P37" si="12">(H8*$B$9*$B$18)*(O28/100)+I8</f>
+        <f t="shared" ref="P28:P37" si="14">(H8*$B$9*$B$18)*(O28/100)+I8</f>
         <v>2112</v>
       </c>
       <c r="Q28" s="12">
-        <f t="shared" ref="Q28:Q37" si="13">P28-I8</f>
+        <f t="shared" ref="Q28:Q37" si="15">P28-I8</f>
         <v>1320</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" ref="R28:R37" si="14">(Q28/H8)/($B$18*7)</f>
+        <f t="shared" ref="R28:R37" si="16">(Q28/H8)/($B$18*7)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" ref="S28:S37" si="15">(Q28/$H$17)/(7*$B$18)</f>
+        <f t="shared" ref="S28:S37" si="17">(Q28/$H$17)/(7*$B$18)</f>
         <v>0.47142857142857142</v>
       </c>
       <c r="T28" s="2">
@@ -4372,93 +4509,93 @@
         <v>18</v>
       </c>
       <c r="H29" s="12">
-        <f t="shared" ref="H29:H37" si="16">ROUNDUP((P29*$B$30/100),0)</f>
+        <f t="shared" ref="H29:H37" si="18">ROUNDUP((P29*$B$30/100),0)</f>
         <v>130</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" ref="I29:I37" si="17">ROUNDUP((P29*$B$31/100),0)</f>
+        <f t="shared" ref="I29:I37" si="19">ROUNDUP((P29*$B$31/100),0)</f>
         <v>260</v>
       </c>
       <c r="J29" s="12">
-        <f t="shared" ref="J29:J37" si="18">ROUNDUP((P29*$B$32/100),0)</f>
+        <f t="shared" ref="J29:J37" si="20">ROUNDUP((P29*$B$32/100),0)</f>
         <v>519</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" ref="K29:K37" si="19">ROUNDUP((P29*$B$33/100),0)</f>
+        <f t="shared" ref="K29:K37" si="21">ROUNDUP((P29*$B$33/100),0)</f>
         <v>778</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" ref="L29:L37" si="20">ROUNDUP((P29*$B$34/100),0)</f>
+        <f t="shared" ref="L29:L37" si="22">ROUNDUP((P29*$B$34/100),0)</f>
         <v>908</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" ref="M29:M37" si="21">L29*$B$43</f>
+        <f t="shared" ref="M29:M37" si="23">L29*$B$43</f>
         <v>1816</v>
       </c>
       <c r="N29" s="12">
-        <f t="shared" ref="N29:N37" si="22">SUM(H29:L29)</f>
+        <f t="shared" ref="N29:N37" si="24">SUM(H29:L29)</f>
         <v>2595</v>
       </c>
       <c r="O29" s="12">
         <v>60</v>
       </c>
       <c r="P29" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2592</v>
       </c>
       <c r="Q29" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1728</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.61714285714285722</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" ref="T29:T36" si="23">(Q29/H9)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="T29:T36" si="25">(Q29/H9)/($B$18*7+$B$21)</f>
         <v>0.68571428571428572</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" ref="U29:U37" si="24">(Q29/$H$17)/($B$18*7+$B$21)</f>
+        <f t="shared" ref="U29:U37" si="26">(Q29/$H$17)/($B$18*7+$B$21)</f>
         <v>0.41142857142857148</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" ref="V29:V37" si="25">(Q29/H9)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="V29:V37" si="27">(Q29/H9)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.40975609756097564</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" ref="W29:W37" si="26">(Q29/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="W29:W37" si="28">(Q29/$H$17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.24585365853658542</v>
       </c>
       <c r="Y29" s="12" t="s">
         <v>200</v>
       </c>
       <c r="Z29" s="12">
-        <f t="shared" ref="Z29:Z31" si="27">ROUNDUP((AE29*$B$30/100),0)</f>
+        <f t="shared" ref="Z29:Z31" si="29">ROUNDUP((AE29*$B$30/100),0)</f>
         <v>744</v>
       </c>
       <c r="AA29" s="12">
-        <f t="shared" ref="AA29:AA31" si="28">ROUNDUP((AE29*$B$31/100),0)</f>
+        <f t="shared" ref="AA29:AA31" si="30">ROUNDUP((AE29*$B$31/100),0)</f>
         <v>1488</v>
       </c>
       <c r="AB29" s="12">
-        <f t="shared" ref="AB29:AB31" si="29">ROUNDUP((AE29*$B$32/100),0)</f>
+        <f t="shared" ref="AB29:AB31" si="31">ROUNDUP((AE29*$B$32/100),0)</f>
         <v>2976</v>
       </c>
       <c r="AC29" s="12">
-        <f t="shared" ref="AC29:AC31" si="30">ROUNDUP((AE29*$B$33/100),0)</f>
+        <f t="shared" ref="AC29:AC31" si="32">ROUNDUP((AE29*$B$33/100),0)</f>
         <v>4464</v>
       </c>
       <c r="AD29" s="12">
-        <f t="shared" ref="AD29:AD42" si="31">ROUNDUP((AE29*$B$34/100),0)</f>
+        <f t="shared" ref="AD29:AD42" si="33">ROUNDUP((AE29*$B$34/100),0)</f>
         <v>5208</v>
       </c>
       <c r="AE29" s="2">
-        <f t="shared" ref="AE29:AE42" si="32">($H$17*$B$9*$B$18)*(AF29/100)</f>
+        <f t="shared" ref="AE29:AE42" si="34">($H$17*$B$9*$B$18)*(AF29/100)</f>
         <v>14880</v>
       </c>
       <c r="AF29" s="2">
@@ -4476,93 +4613,93 @@
         <v>19</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>156</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>312</v>
       </c>
       <c r="J30" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>624</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>936</v>
       </c>
       <c r="L30" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1092</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2184</v>
       </c>
       <c r="N30" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3120</v>
       </c>
       <c r="O30" s="12">
         <v>70</v>
       </c>
       <c r="P30" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3120</v>
       </c>
       <c r="Q30" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2184</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.2</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.78</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.8</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.52</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.47804878048780497</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.31073170731707322</v>
       </c>
       <c r="Y30" s="12" t="s">
         <v>201</v>
       </c>
       <c r="Z30" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>768</v>
       </c>
       <c r="AA30" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1536</v>
       </c>
       <c r="AB30" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3072</v>
       </c>
       <c r="AC30" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4608</v>
       </c>
       <c r="AD30" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5376</v>
       </c>
       <c r="AE30" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>15360</v>
       </c>
       <c r="AF30" s="2">
@@ -4580,93 +4717,93 @@
         <v>86</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>185</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>370</v>
       </c>
       <c r="J31" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>740</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1109</v>
       </c>
       <c r="L31" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1294</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2588</v>
       </c>
       <c r="N31" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3698</v>
       </c>
       <c r="O31" s="12">
         <v>80</v>
       </c>
       <c r="P31" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3696</v>
       </c>
       <c r="Q31" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2688</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.96</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="U31" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.64</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.38243902439024391</v>
       </c>
       <c r="Y31" s="12" t="s">
         <v>202</v>
       </c>
       <c r="Z31" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>792</v>
       </c>
       <c r="AA31" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1584</v>
       </c>
       <c r="AB31" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3168</v>
       </c>
       <c r="AC31" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4752</v>
       </c>
       <c r="AD31" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5544</v>
       </c>
       <c r="AE31" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>15840</v>
       </c>
       <c r="AF31" s="2">
@@ -4684,93 +4821,93 @@
         <v>20</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>216</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>432</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>864</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1296</v>
       </c>
       <c r="L32" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1512</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3024</v>
       </c>
       <c r="N32" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4320</v>
       </c>
       <c r="O32" s="12">
         <v>90</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4320</v>
       </c>
       <c r="Q32" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3240</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.5428571428571429</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.157142857142857</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.77142857142857135</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.61463414634146352</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.46097560975609758</v>
       </c>
       <c r="Y32" s="12" t="s">
         <v>203</v>
       </c>
       <c r="Z32" s="12">
-        <f t="shared" ref="Z32:Z42" si="33">ROUNDUP((AE32*$B$30/100),0)</f>
+        <f t="shared" ref="Z32:Z42" si="35">ROUNDUP((AE32*$B$30/100),0)</f>
         <v>816</v>
       </c>
       <c r="AA32" s="12">
-        <f t="shared" ref="AA32:AA42" si="34">ROUNDUP((AE32*$B$31/100),0)</f>
+        <f t="shared" ref="AA32:AA42" si="36">ROUNDUP((AE32*$B$31/100),0)</f>
         <v>1632</v>
       </c>
       <c r="AB32" s="12">
-        <f t="shared" ref="AB32:AB42" si="35">ROUNDUP((AE32*$B$32/100),0)</f>
+        <f t="shared" ref="AB32:AB42" si="37">ROUNDUP((AE32*$B$32/100),0)</f>
         <v>3264</v>
       </c>
       <c r="AC32" s="12">
-        <f t="shared" ref="AC32:AC42" si="36">ROUNDUP((AE32*$B$33/100),0)</f>
+        <f t="shared" ref="AC32:AC42" si="38">ROUNDUP((AE32*$B$33/100),0)</f>
         <v>4896</v>
       </c>
       <c r="AD32" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5712</v>
       </c>
       <c r="AE32" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>16320</v>
       </c>
       <c r="AF32" s="2">
@@ -4788,93 +4925,93 @@
         <v>21</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>250</v>
       </c>
       <c r="I33" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500</v>
       </c>
       <c r="J33" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>999</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1498</v>
       </c>
       <c r="L33" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1748</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3496</v>
       </c>
       <c r="N33" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4995</v>
       </c>
       <c r="O33" s="12">
         <v>100</v>
       </c>
       <c r="P33" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4992</v>
       </c>
       <c r="Q33" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3840</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="U33" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.91428571428571426</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.54634146341463419</v>
       </c>
       <c r="Y33" s="12" t="s">
         <v>204</v>
       </c>
       <c r="Z33" s="12">
+        <f t="shared" si="35"/>
+        <v>840</v>
+      </c>
+      <c r="AA33" s="12">
+        <f t="shared" si="36"/>
+        <v>1680</v>
+      </c>
+      <c r="AB33" s="12">
+        <f t="shared" si="37"/>
+        <v>3360</v>
+      </c>
+      <c r="AC33" s="12">
+        <f t="shared" si="38"/>
+        <v>5040</v>
+      </c>
+      <c r="AD33" s="12">
         <f t="shared" si="33"/>
-        <v>840</v>
-      </c>
-      <c r="AA33" s="12">
+        <v>5880</v>
+      </c>
+      <c r="AE33" s="2">
         <f t="shared" si="34"/>
-        <v>1680</v>
-      </c>
-      <c r="AB33" s="12">
-        <f t="shared" si="35"/>
-        <v>3360</v>
-      </c>
-      <c r="AC33" s="12">
-        <f t="shared" si="36"/>
-        <v>5040</v>
-      </c>
-      <c r="AD33" s="12">
-        <f t="shared" si="31"/>
-        <v>5880</v>
-      </c>
-      <c r="AE33" s="2">
-        <f t="shared" si="32"/>
         <v>16800</v>
       </c>
       <c r="AF33" s="2">
@@ -4892,93 +5029,93 @@
         <v>22</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>286</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>572</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1143</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1714</v>
       </c>
       <c r="L34" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2000</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4000</v>
       </c>
       <c r="N34" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5715</v>
       </c>
       <c r="O34" s="12">
         <v>110</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5712</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4488</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.8857142857142857</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.602857142857143</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.2571428571428571</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0685714285714287</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.75121951219512195</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.63853658536585378</v>
       </c>
       <c r="Y34" s="12" t="s">
         <v>205</v>
       </c>
       <c r="Z34" s="12">
+        <f t="shared" si="35"/>
+        <v>864</v>
+      </c>
+      <c r="AA34" s="12">
+        <f t="shared" si="36"/>
+        <v>1728</v>
+      </c>
+      <c r="AB34" s="12">
+        <f t="shared" si="37"/>
+        <v>3456</v>
+      </c>
+      <c r="AC34" s="12">
+        <f t="shared" si="38"/>
+        <v>5184</v>
+      </c>
+      <c r="AD34" s="12">
         <f t="shared" si="33"/>
-        <v>864</v>
-      </c>
-      <c r="AA34" s="12">
+        <v>6048</v>
+      </c>
+      <c r="AE34" s="2">
         <f t="shared" si="34"/>
-        <v>1728</v>
-      </c>
-      <c r="AB34" s="12">
-        <f t="shared" si="35"/>
-        <v>3456</v>
-      </c>
-      <c r="AC34" s="12">
-        <f t="shared" si="36"/>
-        <v>5184</v>
-      </c>
-      <c r="AD34" s="12">
-        <f t="shared" si="31"/>
-        <v>6048</v>
-      </c>
-      <c r="AE34" s="2">
-        <f t="shared" si="32"/>
         <v>17280</v>
       </c>
       <c r="AF34" s="2">
@@ -4997,93 +5134,93 @@
         <v>23</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>324</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>648</v>
       </c>
       <c r="J35" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1296</v>
       </c>
       <c r="K35" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1944</v>
       </c>
       <c r="L35" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2268</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4536</v>
       </c>
       <c r="N35" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6480</v>
       </c>
       <c r="O35" s="12">
         <v>120</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6480</v>
       </c>
       <c r="Q35" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5184</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.0571428571428574</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.8514285714285716</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.2342857142857144</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.81951219512195128</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.7375609756097562</v>
       </c>
       <c r="Y35" s="12" t="s">
         <v>206</v>
       </c>
       <c r="Z35" s="12">
+        <f t="shared" si="35"/>
+        <v>888</v>
+      </c>
+      <c r="AA35" s="12">
+        <f t="shared" si="36"/>
+        <v>1776</v>
+      </c>
+      <c r="AB35" s="12">
+        <f t="shared" si="37"/>
+        <v>3552</v>
+      </c>
+      <c r="AC35" s="12">
+        <f t="shared" si="38"/>
+        <v>5328</v>
+      </c>
+      <c r="AD35" s="12">
         <f t="shared" si="33"/>
-        <v>888</v>
-      </c>
-      <c r="AA35" s="12">
+        <v>6216</v>
+      </c>
+      <c r="AE35" s="2">
         <f t="shared" si="34"/>
-        <v>1776</v>
-      </c>
-      <c r="AB35" s="12">
-        <f t="shared" si="35"/>
-        <v>3552</v>
-      </c>
-      <c r="AC35" s="12">
-        <f t="shared" si="36"/>
-        <v>5328</v>
-      </c>
-      <c r="AD35" s="12">
-        <f t="shared" si="31"/>
-        <v>6216</v>
-      </c>
-      <c r="AE35" s="2">
-        <f t="shared" si="32"/>
         <v>17760</v>
       </c>
       <c r="AF35" s="2">
@@ -5096,23 +5233,23 @@
         <v>24</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>365</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>730</v>
       </c>
       <c r="J36" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1460</v>
       </c>
       <c r="K36" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2189</v>
       </c>
       <c r="L36" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2554</v>
       </c>
       <c r="M36" s="12">
@@ -5120,69 +5257,69 @@
         <v>5108</v>
       </c>
       <c r="N36" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7298</v>
       </c>
       <c r="O36" s="12">
         <v>130</v>
       </c>
       <c r="P36" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7296</v>
       </c>
       <c r="Q36" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5928</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.2285714285714286</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.117142857142857</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.4114285714285715</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.88780487804878061</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.84341463414634155</v>
       </c>
       <c r="Y36" s="12" t="s">
         <v>207</v>
       </c>
       <c r="Z36" s="12">
+        <f t="shared" si="35"/>
+        <v>912</v>
+      </c>
+      <c r="AA36" s="12">
+        <f t="shared" si="36"/>
+        <v>1824</v>
+      </c>
+      <c r="AB36" s="12">
+        <f t="shared" si="37"/>
+        <v>3648</v>
+      </c>
+      <c r="AC36" s="12">
+        <f t="shared" si="38"/>
+        <v>5472</v>
+      </c>
+      <c r="AD36" s="12">
         <f t="shared" si="33"/>
-        <v>912</v>
-      </c>
-      <c r="AA36" s="12">
+        <v>6384</v>
+      </c>
+      <c r="AE36" s="2">
         <f t="shared" si="34"/>
-        <v>1824</v>
-      </c>
-      <c r="AB36" s="12">
-        <f t="shared" si="35"/>
-        <v>3648</v>
-      </c>
-      <c r="AC36" s="12">
-        <f t="shared" si="36"/>
-        <v>5472</v>
-      </c>
-      <c r="AD36" s="12">
-        <f t="shared" si="31"/>
-        <v>6384</v>
-      </c>
-      <c r="AE36" s="2">
-        <f t="shared" si="32"/>
         <v>18240</v>
       </c>
       <c r="AF36" s="2">
@@ -5198,93 +5335,93 @@
         <v>25</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>408</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>816</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1632</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2448</v>
       </c>
       <c r="L37" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2856</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5712</v>
       </c>
       <c r="N37" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8160</v>
       </c>
       <c r="O37" s="12">
         <v>140</v>
       </c>
       <c r="P37" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8160</v>
       </c>
       <c r="Q37" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6720</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.4</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.4</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" ref="T37" si="37">(Q37/H17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
+        <f t="shared" ref="T37" si="39">(Q37/H17)/(($B$20/7)+$B$18*7+$B$19+$B$21)</f>
         <v>0.95609756097560994</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.6</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.95609756097560994</v>
       </c>
       <c r="Y37" s="12" t="s">
         <v>208</v>
       </c>
       <c r="Z37" s="12">
+        <f t="shared" si="35"/>
+        <v>936</v>
+      </c>
+      <c r="AA37" s="12">
+        <f t="shared" si="36"/>
+        <v>1872</v>
+      </c>
+      <c r="AB37" s="12">
+        <f t="shared" si="37"/>
+        <v>3744</v>
+      </c>
+      <c r="AC37" s="12">
+        <f t="shared" si="38"/>
+        <v>5616</v>
+      </c>
+      <c r="AD37" s="12">
         <f t="shared" si="33"/>
-        <v>936</v>
-      </c>
-      <c r="AA37" s="12">
+        <v>6552</v>
+      </c>
+      <c r="AE37" s="2">
         <f t="shared" si="34"/>
-        <v>1872</v>
-      </c>
-      <c r="AB37" s="12">
-        <f t="shared" si="35"/>
-        <v>3744</v>
-      </c>
-      <c r="AC37" s="12">
-        <f t="shared" si="36"/>
-        <v>5616</v>
-      </c>
-      <c r="AD37" s="12">
-        <f t="shared" si="31"/>
-        <v>6552</v>
-      </c>
-      <c r="AE37" s="2">
-        <f t="shared" si="32"/>
         <v>18720</v>
       </c>
       <c r="AF37" s="2">
@@ -5317,27 +5454,27 @@
         <v>209</v>
       </c>
       <c r="Z38" s="12">
+        <f t="shared" si="35"/>
+        <v>960</v>
+      </c>
+      <c r="AA38" s="12">
+        <f t="shared" si="36"/>
+        <v>1920</v>
+      </c>
+      <c r="AB38" s="12">
+        <f t="shared" si="37"/>
+        <v>3840</v>
+      </c>
+      <c r="AC38" s="12">
+        <f t="shared" si="38"/>
+        <v>5760</v>
+      </c>
+      <c r="AD38" s="12">
         <f t="shared" si="33"/>
-        <v>960</v>
-      </c>
-      <c r="AA38" s="12">
+        <v>6720</v>
+      </c>
+      <c r="AE38" s="2">
         <f t="shared" si="34"/>
-        <v>1920</v>
-      </c>
-      <c r="AB38" s="12">
-        <f t="shared" si="35"/>
-        <v>3840</v>
-      </c>
-      <c r="AC38" s="12">
-        <f t="shared" si="36"/>
-        <v>5760</v>
-      </c>
-      <c r="AD38" s="12">
-        <f t="shared" si="31"/>
-        <v>6720</v>
-      </c>
-      <c r="AE38" s="2">
-        <f t="shared" si="32"/>
         <v>19200</v>
       </c>
       <c r="AF38" s="2">
@@ -5360,23 +5497,23 @@
         <v>6.8571428571428568</v>
       </c>
       <c r="S39" s="26">
-        <f t="shared" ref="S39:W39" si="38">SUM(S40:S41)</f>
+        <f t="shared" ref="S39:W39" si="40">SUM(S40:S41)</f>
         <v>6.7012987012987013</v>
       </c>
       <c r="T39" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="U39" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.4675324675324681</v>
       </c>
       <c r="V39" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2.7317073170731709</v>
       </c>
       <c r="W39" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2.6696230598669626</v>
       </c>
       <c r="X39"/>
@@ -5384,27 +5521,27 @@
         <v>210</v>
       </c>
       <c r="Z39" s="12">
+        <f t="shared" si="35"/>
+        <v>984</v>
+      </c>
+      <c r="AA39" s="12">
+        <f t="shared" si="36"/>
+        <v>1968</v>
+      </c>
+      <c r="AB39" s="12">
+        <f t="shared" si="37"/>
+        <v>3936</v>
+      </c>
+      <c r="AC39" s="12">
+        <f t="shared" si="38"/>
+        <v>5904</v>
+      </c>
+      <c r="AD39" s="12">
         <f t="shared" si="33"/>
-        <v>984</v>
-      </c>
-      <c r="AA39" s="12">
+        <v>6888</v>
+      </c>
+      <c r="AE39" s="2">
         <f t="shared" si="34"/>
-        <v>1968</v>
-      </c>
-      <c r="AB39" s="12">
-        <f t="shared" si="35"/>
-        <v>3936</v>
-      </c>
-      <c r="AC39" s="12">
-        <f t="shared" si="36"/>
-        <v>5904</v>
-      </c>
-      <c r="AD39" s="12">
-        <f t="shared" si="31"/>
-        <v>6888</v>
-      </c>
-      <c r="AE39" s="2">
-        <f t="shared" si="32"/>
         <v>19680</v>
       </c>
       <c r="AF39" s="2">
@@ -5422,31 +5559,31 @@
         <v>106</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" ref="H40:H41" si="39">ROUNDUP((P40*$B$30/100),0)</f>
+        <f t="shared" ref="H40:H41" si="41">ROUNDUP((P40*$B$30/100),0)</f>
         <v>580</v>
       </c>
       <c r="I40" s="12">
-        <f t="shared" ref="I40:I41" si="40">ROUNDUP((P40*$B$31/100),0)</f>
+        <f t="shared" ref="I40:I41" si="42">ROUNDUP((P40*$B$31/100),0)</f>
         <v>1160</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" ref="J40:J41" si="41">ROUNDUP((P40*$B$32/100),0)</f>
+        <f t="shared" ref="J40:J41" si="43">ROUNDUP((P40*$B$32/100),0)</f>
         <v>2319</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40:K41" si="42">ROUNDUP((P40*$B$33/100),0)</f>
+        <f t="shared" ref="K40:K41" si="44">ROUNDUP((P40*$B$33/100),0)</f>
         <v>3478</v>
       </c>
       <c r="L40" s="12">
-        <f t="shared" ref="L40:L41" si="43">ROUNDUP((P40*$B$34/100),0)</f>
+        <f t="shared" ref="L40:L41" si="45">ROUNDUP((P40*$B$34/100),0)</f>
         <v>4058</v>
       </c>
       <c r="M40" s="12">
-        <f>L40*$B$43</f>
+        <f t="shared" ref="M40:M45" si="46">L40*$B$43</f>
         <v>8116</v>
       </c>
       <c r="N40" s="12">
-        <f t="shared" ref="N40" si="44">SUM(H40:L40)</f>
+        <f t="shared" ref="N40" si="47">SUM(H40:L40)</f>
         <v>11595</v>
       </c>
       <c r="O40" s="12">
@@ -5488,27 +5625,27 @@
         <v>211</v>
       </c>
       <c r="Z40" s="12">
+        <f t="shared" si="35"/>
+        <v>1008</v>
+      </c>
+      <c r="AA40" s="12">
+        <f t="shared" si="36"/>
+        <v>2016</v>
+      </c>
+      <c r="AB40" s="12">
+        <f t="shared" si="37"/>
+        <v>4032</v>
+      </c>
+      <c r="AC40" s="12">
+        <f t="shared" si="38"/>
+        <v>6048</v>
+      </c>
+      <c r="AD40" s="12">
         <f t="shared" si="33"/>
-        <v>1008</v>
-      </c>
-      <c r="AA40" s="12">
+        <v>7056</v>
+      </c>
+      <c r="AE40" s="2">
         <f t="shared" si="34"/>
-        <v>2016</v>
-      </c>
-      <c r="AB40" s="12">
-        <f t="shared" si="35"/>
-        <v>4032</v>
-      </c>
-      <c r="AC40" s="12">
-        <f t="shared" si="36"/>
-        <v>6048</v>
-      </c>
-      <c r="AD40" s="12">
-        <f t="shared" si="31"/>
-        <v>7056</v>
-      </c>
-      <c r="AE40" s="2">
-        <f t="shared" si="32"/>
         <v>20160</v>
       </c>
       <c r="AF40" s="2">
@@ -5520,27 +5657,27 @@
         <v>107</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>608</v>
       </c>
       <c r="I41" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1215</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2429</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>3644</v>
       </c>
       <c r="L41" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4251</v>
       </c>
       <c r="M41" s="12">
-        <f>L41*$B$43</f>
+        <f t="shared" si="46"/>
         <v>8502</v>
       </c>
       <c r="N41" s="12">
@@ -5586,27 +5723,27 @@
         <v>212</v>
       </c>
       <c r="Z41" s="12">
+        <f t="shared" si="35"/>
+        <v>1032</v>
+      </c>
+      <c r="AA41" s="12">
+        <f t="shared" si="36"/>
+        <v>2064</v>
+      </c>
+      <c r="AB41" s="12">
+        <f t="shared" si="37"/>
+        <v>4128</v>
+      </c>
+      <c r="AC41" s="12">
+        <f t="shared" si="38"/>
+        <v>6192</v>
+      </c>
+      <c r="AD41" s="12">
         <f t="shared" si="33"/>
-        <v>1032</v>
-      </c>
-      <c r="AA41" s="12">
+        <v>7224</v>
+      </c>
+      <c r="AE41" s="2">
         <f t="shared" si="34"/>
-        <v>2064</v>
-      </c>
-      <c r="AB41" s="12">
-        <f t="shared" si="35"/>
-        <v>4128</v>
-      </c>
-      <c r="AC41" s="12">
-        <f t="shared" si="36"/>
-        <v>6192</v>
-      </c>
-      <c r="AD41" s="12">
-        <f t="shared" si="31"/>
-        <v>7224</v>
-      </c>
-      <c r="AE41" s="2">
-        <f t="shared" si="32"/>
         <v>20640</v>
       </c>
       <c r="AF41" s="2">
@@ -5621,27 +5758,27 @@
         <v>173</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" ref="H42" si="45">ROUNDUP((P42*$B$30/100),0)</f>
+        <f t="shared" ref="H42" si="48">ROUNDUP((P42*$B$30/100),0)</f>
         <v>635</v>
       </c>
       <c r="I42" s="12">
-        <f t="shared" ref="I42" si="46">ROUNDUP((P42*$B$31/100),0)</f>
+        <f t="shared" ref="I42" si="49">ROUNDUP((P42*$B$31/100),0)</f>
         <v>1270</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" ref="J42" si="47">ROUNDUP((P42*$B$32/100),0)</f>
+        <f t="shared" ref="J42" si="50">ROUNDUP((P42*$B$32/100),0)</f>
         <v>2540</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" ref="K42" si="48">ROUNDUP((P42*$B$33/100),0)</f>
+        <f t="shared" ref="K42" si="51">ROUNDUP((P42*$B$33/100),0)</f>
         <v>3809</v>
       </c>
       <c r="L42" s="12">
-        <f t="shared" ref="L42" si="49">ROUNDUP((P42*$B$34/100),0)</f>
+        <f t="shared" ref="L42" si="52">ROUNDUP((P42*$B$34/100),0)</f>
         <v>4444</v>
       </c>
       <c r="M42" s="12">
-        <f>L42*$B$43</f>
+        <f t="shared" si="46"/>
         <v>8888</v>
       </c>
       <c r="N42" s="12">
@@ -5659,27 +5796,27 @@
         <v>213</v>
       </c>
       <c r="Z42" s="12">
+        <f t="shared" si="35"/>
+        <v>1056</v>
+      </c>
+      <c r="AA42" s="12">
+        <f t="shared" si="36"/>
+        <v>2112</v>
+      </c>
+      <c r="AB42" s="12">
+        <f t="shared" si="37"/>
+        <v>4224</v>
+      </c>
+      <c r="AC42" s="12">
+        <f t="shared" si="38"/>
+        <v>6336</v>
+      </c>
+      <c r="AD42" s="12">
         <f t="shared" si="33"/>
-        <v>1056</v>
-      </c>
-      <c r="AA42" s="12">
+        <v>7392</v>
+      </c>
+      <c r="AE42" s="2">
         <f t="shared" si="34"/>
-        <v>2112</v>
-      </c>
-      <c r="AB42" s="12">
-        <f t="shared" si="35"/>
-        <v>4224</v>
-      </c>
-      <c r="AC42" s="12">
-        <f t="shared" si="36"/>
-        <v>6336</v>
-      </c>
-      <c r="AD42" s="12">
-        <f t="shared" si="31"/>
-        <v>7392</v>
-      </c>
-      <c r="AE42" s="2">
-        <f t="shared" si="32"/>
         <v>21120</v>
       </c>
       <c r="AF42" s="2">
@@ -5697,27 +5834,27 @@
         <v>176</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" ref="H43" si="50">ROUNDUP((P43*$B$30/100),0)</f>
+        <f t="shared" ref="H43" si="53">ROUNDUP((P43*$B$30/100),0)</f>
         <v>692</v>
       </c>
       <c r="I43" s="12">
-        <f t="shared" ref="I43" si="51">ROUNDUP((P43*$B$31/100),0)</f>
+        <f t="shared" ref="I43" si="54">ROUNDUP((P43*$B$31/100),0)</f>
         <v>1383</v>
       </c>
       <c r="J43" s="12">
-        <f t="shared" ref="J43" si="52">ROUNDUP((P43*$B$32/100),0)</f>
+        <f t="shared" ref="J43" si="55">ROUNDUP((P43*$B$32/100),0)</f>
         <v>2765</v>
       </c>
       <c r="K43" s="12">
-        <f t="shared" ref="K43" si="53">ROUNDUP((P43*$B$33/100),0)</f>
+        <f t="shared" ref="K43" si="56">ROUNDUP((P43*$B$33/100),0)</f>
         <v>4148</v>
       </c>
       <c r="L43" s="12">
-        <f t="shared" ref="L43" si="54">ROUNDUP((P43*$B$34/100),0)</f>
+        <f t="shared" ref="L43" si="57">ROUNDUP((P43*$B$34/100),0)</f>
         <v>4839</v>
       </c>
       <c r="M43" s="12">
-        <f>L43*$B$43</f>
+        <f t="shared" si="46"/>
         <v>9678</v>
       </c>
       <c r="N43" s="12">
@@ -5737,27 +5874,27 @@
         <v>196</v>
       </c>
       <c r="H44" s="12">
-        <f t="shared" ref="H44" si="55">ROUNDUP((P44*$B$30/100),0)</f>
+        <f t="shared" ref="H44:H45" si="58">ROUNDUP((P44*$B$30/100),0)</f>
         <v>750</v>
       </c>
       <c r="I44" s="12">
-        <f t="shared" ref="I44" si="56">ROUNDUP((P44*$B$31/100),0)</f>
+        <f t="shared" ref="I44:I45" si="59">ROUNDUP((P44*$B$31/100),0)</f>
         <v>1500</v>
       </c>
       <c r="J44" s="12">
-        <f t="shared" ref="J44" si="57">ROUNDUP((P44*$B$32/100),0)</f>
+        <f t="shared" ref="J44:J45" si="60">ROUNDUP((P44*$B$32/100),0)</f>
         <v>3000</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" ref="K44" si="58">ROUNDUP((P44*$B$33/100),0)</f>
+        <f t="shared" ref="K44:K45" si="61">ROUNDUP((P44*$B$33/100),0)</f>
         <v>4500</v>
       </c>
       <c r="L44" s="12">
-        <f t="shared" ref="L44" si="59">ROUNDUP((P44*$B$34/100),0)</f>
+        <f t="shared" ref="L44:L45" si="62">ROUNDUP((P44*$B$34/100),0)</f>
         <v>5250</v>
       </c>
       <c r="M44" s="12">
-        <f>L44*$B$43</f>
+        <f t="shared" si="46"/>
         <v>10500</v>
       </c>
       <c r="N44" s="12">
@@ -5772,61 +5909,52 @@
         <v>15000.000000000002</v>
       </c>
     </row>
+    <row r="45" spans="1:32">
+      <c r="G45" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="H45" s="12">
+        <f t="shared" si="58"/>
+        <v>843</v>
+      </c>
+      <c r="I45" s="12">
+        <f t="shared" si="59"/>
+        <v>1685</v>
+      </c>
+      <c r="J45" s="12">
+        <f t="shared" si="60"/>
+        <v>3370</v>
+      </c>
+      <c r="K45" s="12">
+        <f t="shared" si="61"/>
+        <v>5055</v>
+      </c>
+      <c r="L45" s="12">
+        <f t="shared" si="62"/>
+        <v>5897</v>
+      </c>
+      <c r="M45" s="12">
+        <f t="shared" si="46"/>
+        <v>11794</v>
+      </c>
+      <c r="N45" s="12">
+        <f>SUM(H45:L45)</f>
+        <v>16850</v>
+      </c>
+      <c r="O45" s="12">
+        <v>230</v>
+      </c>
+      <c r="P45" s="12">
+        <f>(H24*($B$9)*$B$18)*(O45/100)+I24</f>
+        <v>16848</v>
+      </c>
+    </row>
     <row r="46" spans="1:32">
-      <c r="G46" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="O46" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="P46" s="38">
-        <f>SUM(P48:P58)+SUM(Q48:Q58)</f>
-        <v>22.09</v>
-      </c>
-      <c r="Q46" s="24" t="s">
-        <v>146</v>
-      </c>
       <c r="Y46" s="12" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="17.25" thickBot="1">
-      <c r="G47" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H47" s="27">
-        <v>0</v>
-      </c>
-      <c r="I47" s="27">
-        <v>1</v>
-      </c>
-      <c r="J47" s="27">
-        <v>2</v>
-      </c>
-      <c r="K47" s="27">
-        <v>3</v>
-      </c>
-      <c r="L47" s="27">
-        <v>4</v>
-      </c>
-      <c r="M47" s="27">
-        <v>5</v>
-      </c>
-      <c r="N47" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="O47" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="P47" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q47" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="R47" s="27" t="s">
-        <v>96</v>
-      </c>
       <c r="Y47" s="27" t="s">
         <v>198</v>
       </c>
@@ -5853,51 +5981,6 @@
       </c>
     </row>
     <row r="48" spans="1:32" ht="17.25" thickTop="1">
-      <c r="G48" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I48" s="12">
-        <f t="shared" ref="I48:I57" si="60">ROUNDUP(((H28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
-        <v>0.02</v>
-      </c>
-      <c r="J48" s="12">
-        <f t="shared" ref="J48:J57" si="61">ROUNDUP(((I28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
-        <v>0.03</v>
-      </c>
-      <c r="K48" s="12">
-        <f t="shared" ref="K48:K57" si="62">ROUNDUP(((J28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
-        <v>0.06</v>
-      </c>
-      <c r="L48" s="12">
-        <f t="shared" ref="L48:L57" si="63">ROUNDUP(((K28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
-        <v>0.09</v>
-      </c>
-      <c r="M48" s="12">
-        <f t="shared" ref="M48:M57" si="64">ROUNDUP(((L28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
-        <v>0.1</v>
-      </c>
-      <c r="N48" s="12">
-        <f t="shared" ref="N48:N57" si="65">ROUNDUP(((M28/$B$39)*$B$40)*((100+O48)/100),0)/100</f>
-        <v>0.2</v>
-      </c>
-      <c r="O48" s="13">
-        <v>10</v>
-      </c>
-      <c r="P48" s="13">
-        <f t="shared" ref="P48:P59" si="66">SUM(H48:M48)</f>
-        <v>0.31</v>
-      </c>
-      <c r="Q48" s="12">
-        <f>N48</f>
-        <v>0.2</v>
-      </c>
-      <c r="R48" s="13">
-        <f t="shared" ref="R48:R59" si="67">((P48+Q48)/$P$46)*100</f>
-        <v>2.3087369850611137</v>
-      </c>
       <c r="Y48" s="12" t="s">
         <v>199</v>
       </c>
@@ -5905,23 +5988,23 @@
         <v>0.01</v>
       </c>
       <c r="AA48" s="12">
-        <f t="shared" ref="AA48:AA62" si="68">ROUNDUP(((Z28/$B$39)*$B$40)*((100+AF48)/100),0)/100</f>
+        <f t="shared" ref="AA48:AA62" si="63">ROUNDUP(((Z28/$B$39)*$B$40)*((100+AF48)/100),0)/100</f>
         <v>0.22</v>
       </c>
       <c r="AB48" s="12">
-        <f t="shared" ref="AB48:AB62" si="69">ROUNDUP(((AA28/$B$39)*$B$40)*((100+AF48)/100),0)/100</f>
+        <f t="shared" ref="AB48:AB62" si="64">ROUNDUP(((AA28/$B$39)*$B$40)*((100+AF48)/100),0)/100</f>
         <v>0.44</v>
       </c>
       <c r="AC48" s="12">
-        <f t="shared" ref="AC48:AC62" si="70">ROUNDUP(((AB28/$B$39)*$B$40)*((100+AF48)/100),0)/100</f>
+        <f t="shared" ref="AC48:AC62" si="65">ROUNDUP(((AB28/$B$39)*$B$40)*((100+AF48)/100),0)/100</f>
         <v>0.87</v>
       </c>
       <c r="AD48" s="12">
-        <f t="shared" ref="AD48:AD62" si="71">ROUNDUP(((AC28/$B$39)*$B$40)*((100+AF48)/100),0)/100</f>
+        <f t="shared" ref="AD48:AD62" si="66">ROUNDUP(((AC28/$B$39)*$B$40)*((100+AF48)/100),0)/100</f>
         <v>1.3</v>
       </c>
       <c r="AE48" s="12">
-        <f t="shared" ref="AE48:AE62" si="72">ROUNDUP(((AD28/$B$39)*$B$40)*((100+AF48)/100),0)/100</f>
+        <f t="shared" ref="AE48:AE62" si="67">ROUNDUP(((AD28/$B$39)*$B$40)*((100+AF48)/100),0)/100</f>
         <v>1.52</v>
       </c>
       <c r="AF48" s="2">
@@ -5929,51 +6012,6 @@
       </c>
     </row>
     <row r="49" spans="7:32">
-      <c r="G49" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I49" s="12">
-        <f t="shared" si="60"/>
-        <v>0.02</v>
-      </c>
-      <c r="J49" s="12">
-        <f t="shared" si="61"/>
-        <v>0.04</v>
-      </c>
-      <c r="K49" s="12">
-        <f t="shared" si="62"/>
-        <v>0.08</v>
-      </c>
-      <c r="L49" s="12">
-        <f t="shared" si="63"/>
-        <v>0.12</v>
-      </c>
-      <c r="M49" s="12">
-        <f t="shared" si="64"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N49" s="12">
-        <f t="shared" si="65"/>
-        <v>0.27</v>
-      </c>
-      <c r="O49" s="13">
-        <v>20</v>
-      </c>
-      <c r="P49" s="13">
-        <f t="shared" si="66"/>
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="Q49" s="12">
-        <f t="shared" ref="Q49:Q59" si="73">N49</f>
-        <v>0.27</v>
-      </c>
-      <c r="R49" s="13">
-        <f t="shared" si="67"/>
-        <v>3.0783159800814848</v>
-      </c>
       <c r="Y49" s="12" t="s">
         <v>200</v>
       </c>
@@ -5981,23 +6019,23 @@
         <v>0.02</v>
       </c>
       <c r="AA49" s="12">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>0.24</v>
       </c>
       <c r="AB49" s="12">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>0.47</v>
       </c>
       <c r="AC49" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.93</v>
       </c>
       <c r="AD49" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="66"/>
         <v>1.4</v>
       </c>
       <c r="AE49" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="67"/>
         <v>1.63</v>
       </c>
       <c r="AF49" s="2">
@@ -6005,996 +6043,999 @@
       </c>
     </row>
     <row r="50" spans="7:32">
-      <c r="G50" s="12" t="s">
+      <c r="Y50" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z50" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="AA50" s="12">
+        <f t="shared" si="63"/>
+        <v>0.25</v>
+      </c>
+      <c r="AB50" s="12">
+        <f t="shared" si="64"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC50" s="12">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="AD50" s="12">
+        <f t="shared" si="66"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE50" s="12">
+        <f t="shared" si="67"/>
+        <v>1.75</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="7:32">
+      <c r="G51" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O51" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" s="38">
+        <f>SUM(P53:P63)+SUM(Q53:Q63)</f>
+        <v>22.09</v>
+      </c>
+      <c r="Q51" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y51" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z51" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="AA51" s="12">
+        <f t="shared" si="63"/>
+        <v>0.27</v>
+      </c>
+      <c r="AB51" s="12">
+        <f t="shared" si="64"/>
+        <v>0.54</v>
+      </c>
+      <c r="AC51" s="12">
+        <f t="shared" si="65"/>
+        <v>1.07</v>
+      </c>
+      <c r="AD51" s="12">
+        <f t="shared" si="66"/>
+        <v>1.6</v>
+      </c>
+      <c r="AE51" s="12">
+        <f t="shared" si="67"/>
+        <v>1.87</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="7:32" ht="17.25" thickBot="1">
+      <c r="G52" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="27">
+        <v>0</v>
+      </c>
+      <c r="I52" s="27">
+        <v>1</v>
+      </c>
+      <c r="J52" s="27">
+        <v>2</v>
+      </c>
+      <c r="K52" s="27">
+        <v>3</v>
+      </c>
+      <c r="L52" s="27">
+        <v>4</v>
+      </c>
+      <c r="M52" s="27">
+        <v>5</v>
+      </c>
+      <c r="N52" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="O52" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P52" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q52" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="R52" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y52" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z52" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AA52" s="12">
+        <f t="shared" si="63"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AB52" s="12">
+        <f t="shared" si="64"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AC52" s="12">
+        <f t="shared" si="65"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AD52" s="12">
+        <f t="shared" si="66"/>
+        <v>1.71</v>
+      </c>
+      <c r="AE52" s="12">
+        <f t="shared" si="67"/>
+        <v>1.99</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="7:32" ht="17.25" thickTop="1">
+      <c r="G53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="I53" s="12">
+        <f t="shared" ref="I53:I62" si="68">ROUNDUP(((H28/$B$39)*$B$40)*((100+O53)/100),0)/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="J53" s="12">
+        <f t="shared" ref="J53:J62" si="69">ROUNDUP(((I28/$B$39)*$B$40)*((100+O53)/100),0)/100</f>
+        <v>0.03</v>
+      </c>
+      <c r="K53" s="12">
+        <f t="shared" ref="K53:K62" si="70">ROUNDUP(((J28/$B$39)*$B$40)*((100+O53)/100),0)/100</f>
+        <v>0.06</v>
+      </c>
+      <c r="L53" s="12">
+        <f t="shared" ref="L53:L62" si="71">ROUNDUP(((K28/$B$39)*$B$40)*((100+O53)/100),0)/100</f>
+        <v>0.09</v>
+      </c>
+      <c r="M53" s="12">
+        <f t="shared" ref="M53:M62" si="72">ROUNDUP(((L28/$B$39)*$B$40)*((100+O53)/100),0)/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="N53" s="12">
+        <f t="shared" ref="N53:N62" si="73">ROUNDUP(((M28/$B$39)*$B$40)*((100+O53)/100),0)/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="O53" s="13">
+        <v>10</v>
+      </c>
+      <c r="P53" s="13">
+        <f t="shared" ref="P53:P64" si="74">SUM(H53:M53)</f>
+        <v>0.31</v>
+      </c>
+      <c r="Q53" s="12">
+        <f>N53</f>
+        <v>0.2</v>
+      </c>
+      <c r="R53" s="13">
+        <f t="shared" ref="R53:R68" si="75">((P53+Q53)/$P$51)*100</f>
+        <v>2.3087369850611137</v>
+      </c>
+      <c r="Y53" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z53" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="AA53" s="12">
+        <f t="shared" si="63"/>
+        <v>0.31</v>
+      </c>
+      <c r="AB53" s="12">
+        <f t="shared" si="64"/>
+        <v>0.61</v>
+      </c>
+      <c r="AC53" s="12">
+        <f t="shared" si="65"/>
+        <v>1.21</v>
+      </c>
+      <c r="AD53" s="12">
+        <f t="shared" si="66"/>
+        <v>1.82</v>
+      </c>
+      <c r="AE53" s="12">
+        <f t="shared" si="67"/>
+        <v>2.12</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="7:32">
+      <c r="G54" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="I54" s="12">
+        <f t="shared" si="68"/>
+        <v>0.02</v>
+      </c>
+      <c r="J54" s="12">
+        <f t="shared" si="69"/>
+        <v>0.04</v>
+      </c>
+      <c r="K54" s="12">
+        <f t="shared" si="70"/>
+        <v>0.08</v>
+      </c>
+      <c r="L54" s="12">
+        <f t="shared" si="71"/>
+        <v>0.12</v>
+      </c>
+      <c r="M54" s="12">
+        <f t="shared" si="72"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N54" s="12">
+        <f t="shared" si="73"/>
+        <v>0.27</v>
+      </c>
+      <c r="O54" s="13">
+        <v>20</v>
+      </c>
+      <c r="P54" s="13">
+        <f t="shared" si="74"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="Q54" s="12">
+        <f t="shared" ref="Q54:Q64" si="76">N54</f>
+        <v>0.27</v>
+      </c>
+      <c r="R54" s="13">
+        <f t="shared" si="75"/>
+        <v>3.0783159800814848</v>
+      </c>
+      <c r="Y54" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z54" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA54" s="12">
+        <f t="shared" si="63"/>
+        <v>0.33</v>
+      </c>
+      <c r="AB54" s="12">
+        <f t="shared" si="64"/>
+        <v>0.65</v>
+      </c>
+      <c r="AC54" s="12">
+        <f t="shared" si="65"/>
+        <v>1.29</v>
+      </c>
+      <c r="AD54" s="12">
+        <f t="shared" si="66"/>
+        <v>1.93</v>
+      </c>
+      <c r="AE54" s="12">
+        <f t="shared" si="67"/>
+        <v>2.25</v>
+      </c>
+      <c r="AF54" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="7:32">
+      <c r="G55" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H55" s="12">
         <v>0.02</v>
       </c>
-      <c r="I50" s="12">
-        <f t="shared" si="60"/>
+      <c r="I55" s="12">
+        <f t="shared" si="68"/>
         <v>0.03</v>
       </c>
-      <c r="J50" s="12">
-        <f t="shared" si="61"/>
+      <c r="J55" s="12">
+        <f t="shared" si="69"/>
         <v>0.05</v>
       </c>
-      <c r="K50" s="12">
-        <f t="shared" si="62"/>
+      <c r="K55" s="12">
+        <f t="shared" si="70"/>
         <v>0.1</v>
       </c>
-      <c r="L50" s="12">
-        <f t="shared" si="63"/>
+      <c r="L55" s="12">
+        <f t="shared" si="71"/>
         <v>0.15</v>
       </c>
-      <c r="M50" s="12">
-        <f t="shared" si="64"/>
+      <c r="M55" s="12">
+        <f t="shared" si="72"/>
         <v>0.18</v>
       </c>
-      <c r="N50" s="12">
-        <f t="shared" si="65"/>
-        <v>0.35</v>
-      </c>
-      <c r="O50" s="13">
-        <v>30</v>
-      </c>
-      <c r="P50" s="13">
-        <f t="shared" si="66"/>
-        <v>0.53</v>
-      </c>
-      <c r="Q50" s="12">
+      <c r="N55" s="12">
         <f t="shared" si="73"/>
         <v>0.35</v>
       </c>
-      <c r="R50" s="13">
+      <c r="O55" s="13">
+        <v>30</v>
+      </c>
+      <c r="P55" s="13">
+        <f t="shared" si="74"/>
+        <v>0.53</v>
+      </c>
+      <c r="Q55" s="12">
+        <f t="shared" si="76"/>
+        <v>0.35</v>
+      </c>
+      <c r="R55" s="13">
+        <f t="shared" si="75"/>
+        <v>3.9837030330466274</v>
+      </c>
+      <c r="Y55" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z55" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="AA55" s="12">
+        <f t="shared" si="63"/>
+        <v>0.35</v>
+      </c>
+      <c r="AB55" s="12">
+        <f t="shared" si="64"/>
+        <v>0.69</v>
+      </c>
+      <c r="AC55" s="12">
+        <f t="shared" si="65"/>
+        <v>1.37</v>
+      </c>
+      <c r="AD55" s="12">
+        <f t="shared" si="66"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AE55" s="12">
         <f t="shared" si="67"/>
-        <v>3.9837030330466274</v>
-      </c>
-      <c r="Y50" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z50" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="AA50" s="12">
+        <v>2.39</v>
+      </c>
+      <c r="AF55" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="7:32">
+      <c r="G56" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="I56" s="12">
         <f t="shared" si="68"/>
-        <v>0.25</v>
-      </c>
-      <c r="AB50" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="J56" s="12">
         <f t="shared" si="69"/>
-        <v>0.5</v>
-      </c>
-      <c r="AC50" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K56" s="12">
         <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="AD50" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="L56" s="12">
         <f t="shared" si="71"/>
-        <v>1.5</v>
-      </c>
-      <c r="AE50" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="M56" s="12">
         <f t="shared" si="72"/>
-        <v>1.75</v>
-      </c>
-      <c r="AF50" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="7:32">
-      <c r="G51" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H51" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="I51" s="12">
-        <f t="shared" si="60"/>
-        <v>0.04</v>
-      </c>
-      <c r="J51" s="12">
-        <f t="shared" si="61"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K51" s="12">
-        <f t="shared" si="62"/>
-        <v>0.13</v>
-      </c>
-      <c r="L51" s="12">
-        <f t="shared" si="63"/>
-        <v>0.19</v>
-      </c>
-      <c r="M51" s="12">
-        <f t="shared" si="64"/>
         <v>0.22</v>
       </c>
-      <c r="N51" s="12">
-        <f t="shared" si="65"/>
-        <v>0.44</v>
-      </c>
-      <c r="O51" s="13">
-        <v>40</v>
-      </c>
-      <c r="P51" s="13">
-        <f t="shared" si="66"/>
-        <v>0.67</v>
-      </c>
-      <c r="Q51" s="12">
+      <c r="N56" s="12">
         <f t="shared" si="73"/>
         <v>0.44</v>
       </c>
-      <c r="R51" s="13">
+      <c r="O56" s="13">
+        <v>40</v>
+      </c>
+      <c r="P56" s="13">
+        <f t="shared" si="74"/>
+        <v>0.67</v>
+      </c>
+      <c r="Q56" s="12">
+        <f t="shared" si="76"/>
+        <v>0.44</v>
+      </c>
+      <c r="R56" s="13">
+        <f t="shared" si="75"/>
+        <v>5.0248981439565421</v>
+      </c>
+      <c r="Y56" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z56" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="AA56" s="12">
+        <f t="shared" si="63"/>
+        <v>0.37</v>
+      </c>
+      <c r="AB56" s="12">
+        <f t="shared" si="64"/>
+        <v>0.73</v>
+      </c>
+      <c r="AC56" s="12">
+        <f t="shared" si="65"/>
+        <v>1.45</v>
+      </c>
+      <c r="AD56" s="12">
+        <f t="shared" si="66"/>
+        <v>2.17</v>
+      </c>
+      <c r="AE56" s="12">
         <f t="shared" si="67"/>
-        <v>5.0248981439565421</v>
-      </c>
-      <c r="Y51" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z51" s="12">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="7:32">
+      <c r="G57" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="I57" s="12">
+        <f t="shared" si="68"/>
         <v>0.04</v>
       </c>
-      <c r="AA51" s="12">
-        <f t="shared" si="68"/>
-        <v>0.27</v>
-      </c>
-      <c r="AB51" s="12">
+      <c r="J57" s="12">
         <f t="shared" si="69"/>
-        <v>0.54</v>
-      </c>
-      <c r="AC51" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="K57" s="12">
         <f t="shared" si="70"/>
-        <v>1.07</v>
-      </c>
-      <c r="AD51" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="L57" s="12">
         <f t="shared" si="71"/>
-        <v>1.6</v>
-      </c>
-      <c r="AE51" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="M57" s="12">
         <f t="shared" si="72"/>
-        <v>1.87</v>
-      </c>
-      <c r="AF51" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="7:32">
-      <c r="G52" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="I52" s="12">
-        <f t="shared" si="60"/>
-        <v>0.04</v>
-      </c>
-      <c r="J52" s="12">
-        <f t="shared" si="61"/>
-        <v>0.08</v>
-      </c>
-      <c r="K52" s="12">
-        <f t="shared" si="62"/>
-        <v>0.16</v>
-      </c>
-      <c r="L52" s="12">
-        <f t="shared" si="63"/>
-        <v>0.24</v>
-      </c>
-      <c r="M52" s="12">
-        <f t="shared" si="64"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="N52" s="12">
-        <f t="shared" si="65"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O52" s="13">
-        <v>50</v>
-      </c>
-      <c r="P52" s="13">
-        <f t="shared" si="66"/>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="Q52" s="12">
+      <c r="N57" s="12">
         <f t="shared" si="73"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="R52" s="13">
+      <c r="O57" s="13">
+        <v>50</v>
+      </c>
+      <c r="P57" s="13">
+        <f t="shared" si="74"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="Q57" s="12">
+        <f t="shared" si="76"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R57" s="13">
+        <f t="shared" si="75"/>
+        <v>6.2471706654594845</v>
+      </c>
+      <c r="Y57" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z57" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="AA57" s="12">
+        <f t="shared" si="63"/>
+        <v>0.39</v>
+      </c>
+      <c r="AB57" s="12">
+        <f t="shared" si="64"/>
+        <v>0.77</v>
+      </c>
+      <c r="AC57" s="12">
+        <f t="shared" si="65"/>
+        <v>1.53</v>
+      </c>
+      <c r="AD57" s="12">
+        <f t="shared" si="66"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AE57" s="12">
         <f t="shared" si="67"/>
-        <v>6.2471706654594845</v>
-      </c>
-      <c r="Y52" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z52" s="12">
+        <v>2.68</v>
+      </c>
+      <c r="AF57" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="7:32">
+      <c r="G58" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="I58" s="12">
+        <f t="shared" si="68"/>
         <v>0.05</v>
       </c>
-      <c r="AA52" s="12">
-        <f t="shared" si="68"/>
+      <c r="J58" s="12">
+        <f t="shared" si="69"/>
+        <v>0.1</v>
+      </c>
+      <c r="K58" s="12">
+        <f t="shared" si="70"/>
+        <v>0.2</v>
+      </c>
+      <c r="L58" s="12">
+        <f t="shared" si="71"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="AB52" s="12">
-        <f t="shared" si="69"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AC52" s="12">
-        <f t="shared" si="70"/>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AD52" s="12">
-        <f t="shared" si="71"/>
-        <v>1.71</v>
-      </c>
-      <c r="AE52" s="12">
+      <c r="M58" s="12">
         <f t="shared" si="72"/>
-        <v>1.99</v>
-      </c>
-      <c r="AF52" s="2">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="7:32">
-      <c r="G53" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="I53" s="12">
-        <f t="shared" si="60"/>
-        <v>0.05</v>
-      </c>
-      <c r="J53" s="12">
-        <f t="shared" si="61"/>
-        <v>0.1</v>
-      </c>
-      <c r="K53" s="12">
-        <f t="shared" si="62"/>
-        <v>0.2</v>
-      </c>
-      <c r="L53" s="12">
-        <f t="shared" si="63"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M53" s="12">
-        <f t="shared" si="64"/>
         <v>0.34</v>
       </c>
-      <c r="N53" s="12">
-        <f t="shared" si="65"/>
-        <v>0.68</v>
-      </c>
-      <c r="O53" s="13">
-        <v>60</v>
-      </c>
-      <c r="P53" s="13">
-        <f t="shared" si="66"/>
-        <v>1.01</v>
-      </c>
-      <c r="Q53" s="12">
+      <c r="N58" s="12">
         <f t="shared" si="73"/>
         <v>0.68</v>
       </c>
-      <c r="R53" s="13">
+      <c r="O58" s="13">
+        <v>60</v>
+      </c>
+      <c r="P58" s="13">
+        <f t="shared" si="74"/>
+        <v>1.01</v>
+      </c>
+      <c r="Q58" s="12">
+        <f t="shared" si="76"/>
+        <v>0.68</v>
+      </c>
+      <c r="R58" s="13">
+        <f t="shared" si="75"/>
+        <v>7.6505205975554542</v>
+      </c>
+      <c r="Y58" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z58" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="AA58" s="12">
+        <f t="shared" si="63"/>
+        <v>0.41</v>
+      </c>
+      <c r="AB58" s="12">
+        <f t="shared" si="64"/>
+        <v>0.81</v>
+      </c>
+      <c r="AC58" s="12">
+        <f t="shared" si="65"/>
+        <v>1.62</v>
+      </c>
+      <c r="AD58" s="12">
+        <f t="shared" si="66"/>
+        <v>2.42</v>
+      </c>
+      <c r="AE58" s="12">
         <f t="shared" si="67"/>
-        <v>7.6505205975554542</v>
-      </c>
-      <c r="Y53" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z53" s="12">
+        <v>2.83</v>
+      </c>
+      <c r="AF58" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="7:32">
+      <c r="G59" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="I59" s="12">
+        <f t="shared" si="68"/>
         <v>0.06</v>
       </c>
-      <c r="AA53" s="12">
-        <f t="shared" si="68"/>
-        <v>0.31</v>
-      </c>
-      <c r="AB53" s="12">
+      <c r="J59" s="12">
         <f t="shared" si="69"/>
-        <v>0.61</v>
-      </c>
-      <c r="AC53" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="K59" s="12">
         <f t="shared" si="70"/>
-        <v>1.21</v>
-      </c>
-      <c r="AD53" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="L59" s="12">
         <f t="shared" si="71"/>
-        <v>1.82</v>
-      </c>
-      <c r="AE53" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="M59" s="12">
         <f t="shared" si="72"/>
-        <v>2.12</v>
-      </c>
-      <c r="AF53" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="7:32">
-      <c r="G54" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="I54" s="12">
-        <f t="shared" si="60"/>
-        <v>0.06</v>
-      </c>
-      <c r="J54" s="12">
-        <f t="shared" si="61"/>
-        <v>0.12</v>
-      </c>
-      <c r="K54" s="12">
-        <f t="shared" si="62"/>
-        <v>0.24</v>
-      </c>
-      <c r="L54" s="12">
-        <f t="shared" si="63"/>
-        <v>0.35</v>
-      </c>
-      <c r="M54" s="12">
-        <f t="shared" si="64"/>
         <v>0.41</v>
       </c>
-      <c r="N54" s="12">
-        <f t="shared" si="65"/>
-        <v>0.82</v>
-      </c>
-      <c r="O54" s="13">
-        <v>70</v>
-      </c>
-      <c r="P54" s="13">
-        <f t="shared" si="66"/>
-        <v>1.22</v>
-      </c>
-      <c r="Q54" s="12">
+      <c r="N59" s="12">
         <f t="shared" si="73"/>
         <v>0.82</v>
       </c>
-      <c r="R54" s="13">
+      <c r="O59" s="13">
+        <v>70</v>
+      </c>
+      <c r="P59" s="13">
+        <f t="shared" si="74"/>
+        <v>1.22</v>
+      </c>
+      <c r="Q59" s="12">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="R59" s="13">
+        <f t="shared" si="75"/>
+        <v>9.2349479402444548</v>
+      </c>
+      <c r="Y59" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z59" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="AA59" s="12">
+        <f t="shared" si="63"/>
+        <v>0.43</v>
+      </c>
+      <c r="AB59" s="12">
+        <f t="shared" si="64"/>
+        <v>0.86</v>
+      </c>
+      <c r="AC59" s="12">
+        <f t="shared" si="65"/>
+        <v>1.71</v>
+      </c>
+      <c r="AD59" s="12">
+        <f t="shared" si="66"/>
+        <v>2.56</v>
+      </c>
+      <c r="AE59" s="12">
         <f t="shared" si="67"/>
-        <v>9.2349479402444548</v>
-      </c>
-      <c r="Y54" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z54" s="12">
+        <v>2.98</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="7:32">
+      <c r="G60" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="I60" s="12">
+        <f t="shared" si="68"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AA54" s="12">
-        <f t="shared" si="68"/>
-        <v>0.33</v>
-      </c>
-      <c r="AB54" s="12">
+      <c r="J60" s="12">
         <f t="shared" si="69"/>
-        <v>0.65</v>
-      </c>
-      <c r="AC54" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K60" s="12">
         <f t="shared" si="70"/>
-        <v>1.29</v>
-      </c>
-      <c r="AD54" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L60" s="12">
         <f t="shared" si="71"/>
-        <v>1.93</v>
-      </c>
-      <c r="AE54" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="M60" s="12">
         <f t="shared" si="72"/>
-        <v>2.25</v>
-      </c>
-      <c r="AF54" s="2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="7:32">
-      <c r="G55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="I55" s="12">
-        <f t="shared" si="60"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J55" s="12">
-        <f t="shared" si="61"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K55" s="12">
-        <f t="shared" si="62"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L55" s="12">
-        <f t="shared" si="63"/>
-        <v>0.42</v>
-      </c>
-      <c r="M55" s="12">
-        <f t="shared" si="64"/>
         <v>0.49</v>
       </c>
-      <c r="N55" s="12">
-        <f t="shared" si="65"/>
-        <v>0.98</v>
-      </c>
-      <c r="O55" s="13">
-        <v>80</v>
-      </c>
-      <c r="P55" s="13">
-        <f t="shared" si="66"/>
-        <v>1.44</v>
-      </c>
-      <c r="Q55" s="12">
+      <c r="N60" s="12">
         <f t="shared" si="73"/>
         <v>0.98</v>
       </c>
-      <c r="R55" s="13">
+      <c r="O60" s="13">
+        <v>80</v>
+      </c>
+      <c r="P60" s="13">
+        <f t="shared" si="74"/>
+        <v>1.44</v>
+      </c>
+      <c r="Q60" s="12">
+        <f t="shared" si="76"/>
+        <v>0.98</v>
+      </c>
+      <c r="R60" s="13">
+        <f t="shared" si="75"/>
+        <v>10.955183340878225</v>
+      </c>
+      <c r="Y60" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z60" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="AA60" s="12">
+        <f t="shared" si="63"/>
+        <v>0.45</v>
+      </c>
+      <c r="AB60" s="12">
+        <f t="shared" si="64"/>
+        <v>0.9</v>
+      </c>
+      <c r="AC60" s="12">
+        <f t="shared" si="65"/>
+        <v>1.8</v>
+      </c>
+      <c r="AD60" s="12">
+        <f t="shared" si="66"/>
+        <v>2.69</v>
+      </c>
+      <c r="AE60" s="12">
         <f t="shared" si="67"/>
-        <v>10.955183340878225</v>
-      </c>
-      <c r="Y55" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z55" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="AA55" s="12">
+        <v>3.14</v>
+      </c>
+      <c r="AF60" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="7:32">
+      <c r="G61" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="I61" s="12">
         <f t="shared" si="68"/>
-        <v>0.35</v>
-      </c>
-      <c r="AB55" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="J61" s="12">
         <f t="shared" si="69"/>
+        <v>0.17</v>
+      </c>
+      <c r="K61" s="12">
+        <f t="shared" si="70"/>
+        <v>0.34</v>
+      </c>
+      <c r="L61" s="12">
+        <f t="shared" si="71"/>
+        <v>0.5</v>
+      </c>
+      <c r="M61" s="12">
+        <f t="shared" si="72"/>
+        <v>0.59</v>
+      </c>
+      <c r="N61" s="12">
+        <f t="shared" si="73"/>
+        <v>1.17</v>
+      </c>
+      <c r="O61" s="13">
+        <v>90</v>
+      </c>
+      <c r="P61" s="13">
+        <f t="shared" si="74"/>
+        <v>1.7400000000000002</v>
+      </c>
+      <c r="Q61" s="12">
+        <f t="shared" si="76"/>
+        <v>1.17</v>
+      </c>
+      <c r="R61" s="13">
+        <f t="shared" si="75"/>
+        <v>13.173381620642827</v>
+      </c>
+      <c r="Y61" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z61" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA61" s="12">
+        <f t="shared" si="63"/>
+        <v>0.48</v>
+      </c>
+      <c r="AB61" s="12">
+        <f t="shared" si="64"/>
+        <v>0.95</v>
+      </c>
+      <c r="AC61" s="12">
+        <f t="shared" si="65"/>
+        <v>1.89</v>
+      </c>
+      <c r="AD61" s="12">
+        <f t="shared" si="66"/>
+        <v>2.83</v>
+      </c>
+      <c r="AE61" s="12">
+        <f t="shared" si="67"/>
+        <v>3.3</v>
+      </c>
+      <c r="AF61" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="7:32">
+      <c r="G62" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="I62" s="12">
+        <f t="shared" si="68"/>
+        <v>0.1</v>
+      </c>
+      <c r="J62" s="12">
+        <f t="shared" si="69"/>
+        <v>0.2</v>
+      </c>
+      <c r="K62" s="12">
+        <f t="shared" si="70"/>
+        <v>0.4</v>
+      </c>
+      <c r="L62" s="12">
+        <f t="shared" si="71"/>
+        <v>0.59</v>
+      </c>
+      <c r="M62" s="12">
+        <f t="shared" si="72"/>
         <v>0.69</v>
       </c>
-      <c r="AC55" s="12">
-        <f t="shared" si="70"/>
-        <v>1.37</v>
-      </c>
-      <c r="AD55" s="12">
-        <f t="shared" si="71"/>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="AE55" s="12">
-        <f t="shared" si="72"/>
-        <v>2.39</v>
-      </c>
-      <c r="AF55" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="56" spans="7:32">
-      <c r="G56" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H56" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="I56" s="12">
-        <f t="shared" si="60"/>
-        <v>0.09</v>
-      </c>
-      <c r="J56" s="12">
-        <f t="shared" si="61"/>
-        <v>0.17</v>
-      </c>
-      <c r="K56" s="12">
-        <f t="shared" si="62"/>
-        <v>0.34</v>
-      </c>
-      <c r="L56" s="12">
+      <c r="N62" s="12">
+        <f t="shared" si="73"/>
+        <v>1.38</v>
+      </c>
+      <c r="O62" s="13">
+        <v>100</v>
+      </c>
+      <c r="P62" s="13">
+        <f t="shared" si="74"/>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Q62" s="12">
+        <f t="shared" si="76"/>
+        <v>1.38</v>
+      </c>
+      <c r="R62" s="13">
+        <f t="shared" si="75"/>
+        <v>15.436849253055678</v>
+      </c>
+      <c r="Y62" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z62" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="AA62" s="12">
         <f t="shared" si="63"/>
         <v>0.5</v>
       </c>
-      <c r="M56" s="12">
+      <c r="AB62" s="12">
         <f t="shared" si="64"/>
-        <v>0.59</v>
-      </c>
-      <c r="N56" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="AC62" s="12">
         <f t="shared" si="65"/>
-        <v>1.17</v>
-      </c>
-      <c r="O56" s="13">
-        <v>90</v>
-      </c>
-      <c r="P56" s="13">
+        <v>1.98</v>
+      </c>
+      <c r="AD62" s="12">
         <f t="shared" si="66"/>
-        <v>1.7400000000000002</v>
-      </c>
-      <c r="Q56" s="12">
-        <f t="shared" si="73"/>
-        <v>1.17</v>
-      </c>
-      <c r="R56" s="13">
+        <v>2.97</v>
+      </c>
+      <c r="AE62" s="12">
         <f t="shared" si="67"/>
-        <v>13.173381620642827</v>
-      </c>
-      <c r="Y56" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z56" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="AA56" s="12">
-        <f t="shared" si="68"/>
-        <v>0.37</v>
-      </c>
-      <c r="AB56" s="12">
-        <f t="shared" si="69"/>
-        <v>0.73</v>
-      </c>
-      <c r="AC56" s="12">
-        <f t="shared" si="70"/>
-        <v>1.45</v>
-      </c>
-      <c r="AD56" s="12">
-        <f t="shared" si="71"/>
-        <v>2.17</v>
-      </c>
-      <c r="AE56" s="12">
-        <f t="shared" si="72"/>
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="AF56" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="57" spans="7:32">
-      <c r="G57" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="I57" s="12">
-        <f t="shared" si="60"/>
-        <v>0.1</v>
-      </c>
-      <c r="J57" s="12">
-        <f t="shared" si="61"/>
-        <v>0.2</v>
-      </c>
-      <c r="K57" s="12">
-        <f t="shared" si="62"/>
-        <v>0.4</v>
-      </c>
-      <c r="L57" s="12">
-        <f t="shared" si="63"/>
-        <v>0.59</v>
-      </c>
-      <c r="M57" s="12">
-        <f t="shared" si="64"/>
-        <v>0.69</v>
-      </c>
-      <c r="N57" s="12">
-        <f t="shared" si="65"/>
-        <v>1.38</v>
-      </c>
-      <c r="O57" s="13">
-        <v>100</v>
-      </c>
-      <c r="P57" s="13">
-        <f t="shared" si="66"/>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="Q57" s="12">
-        <f t="shared" si="73"/>
-        <v>1.38</v>
-      </c>
-      <c r="R57" s="13">
-        <f t="shared" si="67"/>
-        <v>15.436849253055678</v>
-      </c>
-      <c r="Y57" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z57" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="AA57" s="12">
-        <f t="shared" si="68"/>
-        <v>0.39</v>
-      </c>
-      <c r="AB57" s="12">
-        <f t="shared" si="69"/>
-        <v>0.77</v>
-      </c>
-      <c r="AC57" s="12">
-        <f t="shared" si="70"/>
-        <v>1.53</v>
-      </c>
-      <c r="AD57" s="12">
-        <f t="shared" si="71"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AE57" s="12">
-        <f t="shared" si="72"/>
-        <v>2.68</v>
-      </c>
-      <c r="AF57" s="2">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="58" spans="7:32">
-      <c r="G58" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H58" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="I58" s="12">
-        <f>ROUNDUP(((H40/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
-        <v>0.15</v>
-      </c>
-      <c r="J58" s="12">
-        <f>ROUNDUP(((I40/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
-        <v>0.3</v>
-      </c>
-      <c r="K58" s="12">
-        <f>ROUNDUP(((J40/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
-        <v>0.59</v>
-      </c>
-      <c r="L58" s="12">
-        <f>ROUNDUP(((K40/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
-        <v>0.88</v>
-      </c>
-      <c r="M58" s="12">
-        <f>ROUNDUP(((L40/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
-        <v>1.03</v>
-      </c>
-      <c r="N58" s="12">
-        <f>ROUNDUP(((M40/$B$39)*$B$40)*((100+O58)/100),0)/100</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="O58" s="13">
-        <v>110</v>
-      </c>
-      <c r="P58" s="13">
-        <f t="shared" si="66"/>
-        <v>3.01</v>
-      </c>
-      <c r="Q58" s="12">
-        <f t="shared" si="73"/>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="R58" s="13">
-        <f t="shared" si="67"/>
-        <v>22.906292440018106</v>
-      </c>
-      <c r="Y58" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z58" s="12">
-        <v>0.11</v>
-      </c>
-      <c r="AA58" s="12">
-        <f t="shared" si="68"/>
-        <v>0.41</v>
-      </c>
-      <c r="AB58" s="12">
-        <f t="shared" si="69"/>
-        <v>0.81</v>
-      </c>
-      <c r="AC58" s="12">
-        <f t="shared" si="70"/>
-        <v>1.62</v>
-      </c>
-      <c r="AD58" s="12">
-        <f t="shared" si="71"/>
-        <v>2.42</v>
-      </c>
-      <c r="AE58" s="12">
-        <f t="shared" si="72"/>
-        <v>2.83</v>
-      </c>
-      <c r="AF58" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="7:32">
-      <c r="G59" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H59" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="I59" s="12">
-        <f>ROUNDUP(((H41/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
-        <v>0.17</v>
-      </c>
-      <c r="J59" s="12">
-        <f>ROUNDUP(((I41/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
-        <v>0.33</v>
-      </c>
-      <c r="K59" s="12">
-        <f>ROUNDUP(((J41/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
-        <v>0.65</v>
-      </c>
-      <c r="L59" s="12">
-        <f>ROUNDUP(((K41/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
-        <v>0.97</v>
-      </c>
-      <c r="M59" s="12">
-        <f>ROUNDUP(((L41/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="N59" s="12">
-        <f>ROUNDUP(((M41/$B$39)*$B$40)*((100+O59)/100),0)/100</f>
-        <v>2.25</v>
-      </c>
-      <c r="O59" s="13">
-        <v>120</v>
-      </c>
-      <c r="P59" s="13">
-        <f t="shared" si="66"/>
-        <v>3.3099999999999996</v>
-      </c>
-      <c r="Q59" s="12">
-        <f t="shared" si="73"/>
-        <v>2.25</v>
-      </c>
-      <c r="R59" s="13">
-        <f t="shared" si="67"/>
-        <v>25.169760072430964</v>
-      </c>
-      <c r="Y59" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z59" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="AA59" s="12">
-        <f t="shared" si="68"/>
-        <v>0.43</v>
-      </c>
-      <c r="AB59" s="12">
-        <f t="shared" si="69"/>
-        <v>0.86</v>
-      </c>
-      <c r="AC59" s="12">
-        <f t="shared" si="70"/>
-        <v>1.71</v>
-      </c>
-      <c r="AD59" s="12">
-        <f t="shared" si="71"/>
-        <v>2.56</v>
-      </c>
-      <c r="AE59" s="12">
-        <f t="shared" si="72"/>
-        <v>2.98</v>
-      </c>
-      <c r="AF59" s="2">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="60" spans="7:32">
-      <c r="G60" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H60" s="12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I60" s="12">
-        <f>ROUNDUP(((H42/$B$39)*$B$40)*((100+O60)/100),0)/100</f>
-        <v>0.18</v>
-      </c>
-      <c r="J60" s="12">
-        <f>ROUNDUP(((I42/$B$39)*$B$40)*((100+O60)/100),0)/100</f>
-        <v>0.36</v>
-      </c>
-      <c r="K60" s="12">
-        <f>ROUNDUP(((J42/$B$39)*$B$40)*((100+O60)/100),0)/100</f>
-        <v>0.71</v>
-      </c>
-      <c r="L60" s="12">
-        <f>ROUNDUP(((K42/$B$39)*$B$40)*((100+O60)/100),0)/100</f>
-        <v>1.06</v>
-      </c>
-      <c r="M60" s="12">
-        <f>ROUNDUP(((L42/$B$39)*$B$40)*((100+O60)/100),0)/100</f>
-        <v>1.23</v>
-      </c>
-      <c r="N60" s="12">
-        <f>ROUNDUP(((M42/$B$39)*$B$40)*((100+O60)/100),0)/100</f>
-        <v>2.46</v>
-      </c>
-      <c r="O60" s="13">
-        <v>130</v>
-      </c>
-      <c r="P60" s="13">
-        <f t="shared" ref="P60" si="74">SUM(H60:M60)</f>
-        <v>3.61</v>
-      </c>
-      <c r="Q60" s="12">
-        <f t="shared" ref="Q60" si="75">N60</f>
-        <v>2.46</v>
-      </c>
-      <c r="R60" s="13">
-        <f>((P60+Q60)/$P$46)*100</f>
-        <v>27.478497057492078</v>
-      </c>
-      <c r="Y60" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z60" s="12">
-        <v>0.13</v>
-      </c>
-      <c r="AA60" s="12">
-        <f t="shared" si="68"/>
-        <v>0.45</v>
-      </c>
-      <c r="AB60" s="12">
-        <f t="shared" si="69"/>
-        <v>0.9</v>
-      </c>
-      <c r="AC60" s="12">
-        <f t="shared" si="70"/>
-        <v>1.8</v>
-      </c>
-      <c r="AD60" s="12">
-        <f t="shared" si="71"/>
-        <v>2.69</v>
-      </c>
-      <c r="AE60" s="12">
-        <f t="shared" si="72"/>
-        <v>3.14</v>
-      </c>
-      <c r="AF60" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="61" spans="7:32">
-      <c r="G61" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="H61" s="12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I61" s="12">
-        <f>ROUNDUP(((H43/$B$39)*$B$40)*((100+O61)/100),0)/100</f>
-        <v>0.2</v>
-      </c>
-      <c r="J61" s="12">
-        <f>ROUNDUP(((I43/$B$39)*$B$40)*((100+O61)/100),0)/100</f>
-        <v>0.4</v>
-      </c>
-      <c r="K61" s="12">
-        <f>ROUNDUP(((J43/$B$39)*$B$40)*((100+O61)/100),0)/100</f>
-        <v>0.8</v>
-      </c>
-      <c r="L61" s="12">
-        <f>ROUNDUP(((K43/$B$39)*$B$40)*((100+O61)/100),0)/100</f>
-        <v>1.2</v>
-      </c>
-      <c r="M61" s="12">
-        <f>ROUNDUP(((L43/$B$39)*$B$40)*((100+O61)/100),0)/100</f>
-        <v>1.4</v>
-      </c>
-      <c r="N61" s="12">
-        <f>ROUNDUP(((M43/$B$39)*$B$40)*((100+O61)/100),0)/100</f>
-        <v>2.79</v>
-      </c>
-      <c r="O61" s="13">
-        <v>140</v>
-      </c>
-      <c r="P61" s="13">
-        <f t="shared" ref="P61" si="76">SUM(H61:M61)</f>
-        <v>4.07</v>
-      </c>
-      <c r="Q61" s="12">
-        <f t="shared" ref="Q61" si="77">N61</f>
-        <v>2.79</v>
-      </c>
-      <c r="R61" s="13">
-        <f>((P61+Q61)/$P$46)*100</f>
-        <v>31.05477591670439</v>
-      </c>
-      <c r="Y61" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z61" s="12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AA61" s="12">
-        <f t="shared" si="68"/>
-        <v>0.48</v>
-      </c>
-      <c r="AB61" s="12">
-        <f t="shared" si="69"/>
-        <v>0.95</v>
-      </c>
-      <c r="AC61" s="12">
-        <f t="shared" si="70"/>
-        <v>1.89</v>
-      </c>
-      <c r="AD61" s="12">
-        <f t="shared" si="71"/>
-        <v>2.83</v>
-      </c>
-      <c r="AE61" s="12">
-        <f t="shared" si="72"/>
-        <v>3.3</v>
-      </c>
-      <c r="AF61" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="62" spans="7:32">
-      <c r="G62" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H62" s="12">
-        <v>1.07</v>
-      </c>
-      <c r="I62" s="12">
-        <f>ROUNDUP(((H44/$B$39)*$B$40)*((100+O62)/100),0)/100</f>
-        <v>0.23</v>
-      </c>
-      <c r="J62" s="12">
-        <f>ROUNDUP(((I44/$B$39)*$B$40)*((100+O62)/100),0)/100</f>
-        <v>0.45</v>
-      </c>
-      <c r="K62" s="12">
-        <f>ROUNDUP(((J44/$B$39)*$B$40)*((100+O62)/100),0)/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="L62" s="12">
-        <f>ROUNDUP(((K44/$B$39)*$B$40)*((100+O62)/100),0)/100</f>
-        <v>1.35</v>
-      </c>
-      <c r="M62" s="12">
-        <f>ROUNDUP(((L44/$B$39)*$B$40)*((100+O62)/100),0)/100</f>
-        <v>1.58</v>
-      </c>
-      <c r="N62" s="12">
-        <f>ROUNDUP(((M44/$B$39)*$B$40)*((100+O62)/100),0)/100</f>
-        <v>3.15</v>
-      </c>
-      <c r="O62" s="13">
-        <v>150</v>
-      </c>
-      <c r="P62" s="13">
-        <f t="shared" ref="P62" si="78">SUM(H62:M62)</f>
-        <v>5.58</v>
-      </c>
-      <c r="Q62" s="12">
-        <f t="shared" ref="Q62" si="79">N62</f>
-        <v>3.15</v>
-      </c>
-      <c r="R62" s="13">
-        <f>((P62+Q62)/$P$46)*100</f>
-        <v>39.520144861928472</v>
-      </c>
-      <c r="Y62" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z62" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="AA62" s="12">
-        <f t="shared" si="68"/>
-        <v>0.5</v>
-      </c>
-      <c r="AB62" s="12">
-        <f t="shared" si="69"/>
-        <v>0.99</v>
-      </c>
-      <c r="AC62" s="12">
-        <f t="shared" si="70"/>
-        <v>1.98</v>
-      </c>
-      <c r="AD62" s="12">
-        <f t="shared" si="71"/>
-        <v>2.97</v>
-      </c>
-      <c r="AE62" s="12">
-        <f t="shared" si="72"/>
         <v>3.46</v>
       </c>
       <c r="AF62" s="2">
         <v>290</v>
       </c>
     </row>
+    <row r="63" spans="7:32">
+      <c r="G63" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="I63" s="12">
+        <f t="shared" ref="I63:I68" si="77">ROUNDUP(((H40/$B$39)*$B$40)*((100+O63)/100),0)/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="J63" s="12">
+        <f t="shared" ref="J63:J68" si="78">ROUNDUP(((I40/$B$39)*$B$40)*((100+O63)/100),0)/100</f>
+        <v>0.3</v>
+      </c>
+      <c r="K63" s="12">
+        <f t="shared" ref="K63:K68" si="79">ROUNDUP(((J40/$B$39)*$B$40)*((100+O63)/100),0)/100</f>
+        <v>0.59</v>
+      </c>
+      <c r="L63" s="12">
+        <f t="shared" ref="L63:L68" si="80">ROUNDUP(((K40/$B$39)*$B$40)*((100+O63)/100),0)/100</f>
+        <v>0.88</v>
+      </c>
+      <c r="M63" s="12">
+        <f t="shared" ref="M63:M68" si="81">ROUNDUP(((L40/$B$39)*$B$40)*((100+O63)/100),0)/100</f>
+        <v>1.03</v>
+      </c>
+      <c r="N63" s="12">
+        <f t="shared" ref="N63:N68" si="82">ROUNDUP(((M40/$B$39)*$B$40)*((100+O63)/100),0)/100</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O63" s="13">
+        <v>110</v>
+      </c>
+      <c r="P63" s="13">
+        <f t="shared" si="74"/>
+        <v>3.01</v>
+      </c>
+      <c r="Q63" s="12">
+        <f t="shared" si="76"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R63" s="13">
+        <f t="shared" si="75"/>
+        <v>22.906292440018106</v>
+      </c>
+    </row>
     <row r="64" spans="7:32">
       <c r="G64" s="12" t="s">
-        <v>145</v>
+        <v>107</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="I64" s="12">
+        <f t="shared" si="77"/>
+        <v>0.17</v>
+      </c>
+      <c r="J64" s="12">
+        <f t="shared" si="78"/>
+        <v>0.33</v>
+      </c>
+      <c r="K64" s="12">
+        <f t="shared" si="79"/>
+        <v>0.65</v>
+      </c>
+      <c r="L64" s="12">
+        <f t="shared" si="80"/>
+        <v>0.97</v>
+      </c>
+      <c r="M64" s="12">
+        <f t="shared" si="81"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N64" s="12">
+        <f t="shared" si="82"/>
+        <v>2.25</v>
+      </c>
+      <c r="O64" s="13">
+        <v>120</v>
+      </c>
+      <c r="P64" s="13">
+        <f t="shared" si="74"/>
+        <v>3.3099999999999996</v>
+      </c>
+      <c r="Q64" s="12">
+        <f t="shared" si="76"/>
+        <v>2.25</v>
+      </c>
+      <c r="R64" s="13">
+        <f t="shared" si="75"/>
+        <v>25.169760072430964</v>
       </c>
       <c r="Y64" s="12" t="s">
         <v>223</v>
@@ -7007,29 +7048,50 @@
       <c r="AE64" s="12"/>
     </row>
     <row r="65" spans="7:31" ht="17.25" thickBot="1">
-      <c r="G65" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H65" s="27">
-        <v>0</v>
-      </c>
-      <c r="I65" s="27">
-        <v>1</v>
-      </c>
-      <c r="J65" s="27">
-        <v>2</v>
-      </c>
-      <c r="K65" s="27">
-        <v>3</v>
-      </c>
-      <c r="L65" s="27">
-        <v>4</v>
-      </c>
-      <c r="M65" s="27">
-        <v>5</v>
-      </c>
-      <c r="N65" s="27" t="s">
-        <v>161</v>
+      <c r="G65" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H65" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I65" s="12">
+        <f t="shared" si="77"/>
+        <v>0.18</v>
+      </c>
+      <c r="J65" s="12">
+        <f t="shared" si="78"/>
+        <v>0.36</v>
+      </c>
+      <c r="K65" s="12">
+        <f t="shared" si="79"/>
+        <v>0.71</v>
+      </c>
+      <c r="L65" s="12">
+        <f t="shared" si="80"/>
+        <v>1.06</v>
+      </c>
+      <c r="M65" s="12">
+        <f t="shared" si="81"/>
+        <v>1.23</v>
+      </c>
+      <c r="N65" s="12">
+        <f t="shared" si="82"/>
+        <v>2.46</v>
+      </c>
+      <c r="O65" s="13">
+        <v>130</v>
+      </c>
+      <c r="P65" s="13">
+        <f t="shared" ref="P65" si="83">SUM(H65:M65)</f>
+        <v>3.61</v>
+      </c>
+      <c r="Q65" s="12">
+        <f t="shared" ref="Q65" si="84">N65</f>
+        <v>2.46</v>
+      </c>
+      <c r="R65" s="13">
+        <f t="shared" si="75"/>
+        <v>27.478497057492078</v>
       </c>
       <c r="Y65" s="27" t="s">
         <v>70</v>
@@ -7055,905 +7117,1115 @@
     </row>
     <row r="66" spans="7:31" ht="17.25" thickTop="1">
       <c r="G66" s="12" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="H66" s="12">
-        <f t="shared" ref="H66:H79" si="80">H48</f>
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I66" s="12">
-        <f t="shared" ref="I66:N80" si="81">I48+H66</f>
-        <v>0.03</v>
+        <f t="shared" si="77"/>
+        <v>0.2</v>
       </c>
       <c r="J66" s="12">
-        <f t="shared" si="81"/>
-        <v>0.06</v>
+        <f t="shared" si="78"/>
+        <v>0.4</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="81"/>
-        <v>0.12</v>
+        <f t="shared" si="79"/>
+        <v>0.8</v>
       </c>
       <c r="L66" s="12">
-        <f t="shared" si="81"/>
-        <v>0.21</v>
+        <f t="shared" si="80"/>
+        <v>1.2</v>
       </c>
       <c r="M66" s="12">
         <f t="shared" si="81"/>
-        <v>0.31</v>
+        <v>1.4</v>
       </c>
       <c r="N66" s="12">
-        <f t="shared" si="81"/>
-        <v>0.51</v>
+        <f t="shared" si="82"/>
+        <v>2.79</v>
+      </c>
+      <c r="O66" s="13">
+        <v>140</v>
+      </c>
+      <c r="P66" s="13">
+        <f t="shared" ref="P66" si="85">SUM(H66:M66)</f>
+        <v>4.07</v>
+      </c>
+      <c r="Q66" s="12">
+        <f t="shared" ref="Q66" si="86">N66</f>
+        <v>2.79</v>
+      </c>
+      <c r="R66" s="13">
+        <f t="shared" si="75"/>
+        <v>31.05477591670439</v>
       </c>
       <c r="Y66" s="12" t="s">
         <v>199</v>
       </c>
       <c r="Z66" s="12">
-        <f t="shared" ref="Z66:Z80" si="82">Z48</f>
+        <f t="shared" ref="Z66:Z80" si="87">Z48</f>
         <v>0.01</v>
       </c>
       <c r="AA66" s="12">
-        <f t="shared" ref="AA66:AE80" si="83">Z66+AA48</f>
+        <f t="shared" ref="AA66:AE80" si="88">Z66+AA48</f>
         <v>0.23</v>
       </c>
       <c r="AB66" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.67</v>
       </c>
       <c r="AC66" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1.54</v>
       </c>
       <c r="AD66" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>2.84</v>
       </c>
       <c r="AE66" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>4.3599999999999994</v>
       </c>
     </row>
     <row r="67" spans="7:31">
       <c r="G67" s="12" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="H67" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I67" s="12">
+        <f t="shared" si="77"/>
+        <v>0.23</v>
+      </c>
+      <c r="J67" s="12">
+        <f t="shared" si="78"/>
+        <v>0.45</v>
+      </c>
+      <c r="K67" s="12">
+        <f t="shared" si="79"/>
+        <v>0.9</v>
+      </c>
+      <c r="L67" s="12">
         <f t="shared" si="80"/>
-        <v>0.01</v>
-      </c>
-      <c r="I67" s="12">
-        <f t="shared" si="81"/>
-        <v>0.03</v>
-      </c>
-      <c r="J67" s="12">
-        <f t="shared" si="81"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K67" s="12">
-        <f t="shared" si="81"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="L67" s="12">
-        <f t="shared" si="81"/>
-        <v>0.27</v>
+        <v>1.35</v>
       </c>
       <c r="M67" s="12">
         <f t="shared" si="81"/>
-        <v>0.41000000000000003</v>
+        <v>1.58</v>
       </c>
       <c r="N67" s="12">
-        <f t="shared" si="81"/>
-        <v>0.68</v>
+        <f t="shared" si="82"/>
+        <v>3.15</v>
+      </c>
+      <c r="O67" s="13">
+        <v>150</v>
+      </c>
+      <c r="P67" s="13">
+        <f t="shared" ref="P67:P68" si="89">SUM(H67:M67)</f>
+        <v>4.59</v>
+      </c>
+      <c r="Q67" s="12">
+        <f t="shared" ref="Q67:Q68" si="90">N67</f>
+        <v>3.15</v>
+      </c>
+      <c r="R67" s="13">
+        <f t="shared" si="75"/>
+        <v>35.038478949751017</v>
       </c>
       <c r="Y67" s="12" t="s">
         <v>200</v>
       </c>
       <c r="Z67" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>0.02</v>
       </c>
       <c r="AA67" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.26</v>
       </c>
       <c r="AB67" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.73</v>
       </c>
       <c r="AC67" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1.6600000000000001</v>
       </c>
       <c r="AD67" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>3.06</v>
       </c>
       <c r="AE67" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>4.6899999999999995</v>
       </c>
     </row>
     <row r="68" spans="7:31">
       <c r="G68" s="12" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="H68" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I68" s="12">
+        <f t="shared" si="77"/>
+        <v>0.27</v>
+      </c>
+      <c r="J68" s="12">
+        <f t="shared" si="78"/>
+        <v>0.53</v>
+      </c>
+      <c r="K68" s="12">
+        <f t="shared" si="79"/>
+        <v>1.06</v>
+      </c>
+      <c r="L68" s="12">
         <f t="shared" si="80"/>
-        <v>0.02</v>
-      </c>
-      <c r="I68" s="12">
-        <f t="shared" si="81"/>
-        <v>0.05</v>
-      </c>
-      <c r="J68" s="12">
-        <f t="shared" si="81"/>
-        <v>0.1</v>
-      </c>
-      <c r="K68" s="12">
-        <f t="shared" si="81"/>
-        <v>0.2</v>
-      </c>
-      <c r="L68" s="12">
-        <f t="shared" si="81"/>
-        <v>0.35</v>
+        <v>1.58</v>
       </c>
       <c r="M68" s="12">
         <f t="shared" si="81"/>
-        <v>0.53</v>
+        <v>1.84</v>
       </c>
       <c r="N68" s="12">
-        <f t="shared" si="81"/>
-        <v>0.88</v>
+        <f t="shared" si="82"/>
+        <v>3.68</v>
+      </c>
+      <c r="O68" s="13">
+        <v>160</v>
+      </c>
+      <c r="P68" s="13">
+        <f t="shared" si="89"/>
+        <v>5.36</v>
+      </c>
+      <c r="Q68" s="12">
+        <f t="shared" si="90"/>
+        <v>3.68</v>
+      </c>
+      <c r="R68" s="13">
+        <f t="shared" si="75"/>
+        <v>40.92349479402445</v>
       </c>
       <c r="Y68" s="12" t="s">
         <v>201</v>
       </c>
       <c r="Z68" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>0.03</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AB68" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.78</v>
       </c>
       <c r="AC68" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1.78</v>
       </c>
       <c r="AD68" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>3.2800000000000002</v>
       </c>
       <c r="AE68" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>5.03</v>
       </c>
     </row>
     <row r="69" spans="7:31">
-      <c r="G69" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H69" s="12">
-        <f t="shared" si="80"/>
-        <v>0.02</v>
-      </c>
-      <c r="I69" s="12">
-        <f t="shared" si="81"/>
-        <v>0.06</v>
-      </c>
-      <c r="J69" s="12">
-        <f t="shared" si="81"/>
-        <v>0.13</v>
-      </c>
-      <c r="K69" s="12">
-        <f t="shared" si="81"/>
-        <v>0.26</v>
-      </c>
-      <c r="L69" s="12">
-        <f t="shared" si="81"/>
-        <v>0.45</v>
-      </c>
-      <c r="M69" s="12">
-        <f t="shared" si="81"/>
-        <v>0.67</v>
-      </c>
-      <c r="N69" s="12">
-        <f t="shared" si="81"/>
-        <v>1.1100000000000001</v>
-      </c>
       <c r="Y69" s="12" t="s">
         <v>202</v>
       </c>
       <c r="Z69" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>0.04</v>
       </c>
       <c r="AA69" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.31</v>
       </c>
       <c r="AB69" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="AC69" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1.9200000000000002</v>
       </c>
       <c r="AD69" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="AE69" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>5.3900000000000006</v>
       </c>
     </row>
     <row r="70" spans="7:31">
-      <c r="G70" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="12">
-        <f t="shared" si="80"/>
-        <v>0.03</v>
-      </c>
-      <c r="I70" s="12">
-        <f t="shared" si="81"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J70" s="12">
-        <f t="shared" si="81"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="K70" s="12">
-        <f t="shared" si="81"/>
-        <v>0.31000000000000005</v>
-      </c>
-      <c r="L70" s="12">
-        <f t="shared" si="81"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M70" s="12">
-        <f t="shared" si="81"/>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="N70" s="12">
-        <f t="shared" si="81"/>
-        <v>1.3800000000000001</v>
-      </c>
       <c r="Y70" s="12" t="s">
         <v>203</v>
       </c>
       <c r="Z70" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>0.05</v>
       </c>
       <c r="AA70" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.33999999999999997</v>
       </c>
       <c r="AB70" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.90999999999999992</v>
       </c>
       <c r="AC70" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="AD70" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>3.76</v>
       </c>
       <c r="AE70" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>5.75</v>
       </c>
     </row>
     <row r="71" spans="7:31">
-      <c r="G71" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71" s="12">
-        <f t="shared" si="80"/>
-        <v>0.03</v>
-      </c>
-      <c r="I71" s="12">
-        <f t="shared" si="81"/>
-        <v>0.08</v>
-      </c>
-      <c r="J71" s="12">
-        <f t="shared" si="81"/>
-        <v>0.18</v>
-      </c>
-      <c r="K71" s="12">
-        <f t="shared" si="81"/>
-        <v>0.38</v>
-      </c>
-      <c r="L71" s="12">
-        <f t="shared" si="81"/>
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="M71" s="12">
-        <f t="shared" si="81"/>
-        <v>1.01</v>
-      </c>
-      <c r="N71" s="12">
-        <f t="shared" si="81"/>
-        <v>1.69</v>
-      </c>
       <c r="Y71" s="12" t="s">
         <v>204</v>
       </c>
       <c r="Z71" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>0.06</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.37</v>
       </c>
       <c r="AB71" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.98</v>
       </c>
       <c r="AC71" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>2.19</v>
       </c>
       <c r="AD71" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>4.01</v>
       </c>
       <c r="AE71" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>6.13</v>
       </c>
     </row>
     <row r="72" spans="7:31">
-      <c r="G72" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" s="12">
-        <f t="shared" si="80"/>
-        <v>0.04</v>
-      </c>
-      <c r="I72" s="12">
-        <f t="shared" si="81"/>
-        <v>0.1</v>
-      </c>
-      <c r="J72" s="12">
-        <f t="shared" si="81"/>
-        <v>0.22</v>
-      </c>
-      <c r="K72" s="12">
-        <f t="shared" si="81"/>
-        <v>0.45999999999999996</v>
-      </c>
-      <c r="L72" s="12">
-        <f t="shared" si="81"/>
-        <v>0.80999999999999994</v>
-      </c>
-      <c r="M72" s="12">
-        <f t="shared" si="81"/>
-        <v>1.22</v>
-      </c>
-      <c r="N72" s="12">
-        <f t="shared" si="81"/>
-        <v>2.04</v>
-      </c>
       <c r="Y72" s="12" t="s">
         <v>205</v>
       </c>
       <c r="Z72" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA72" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.4</v>
       </c>
       <c r="AB72" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1.05</v>
       </c>
       <c r="AC72" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>2.34</v>
       </c>
       <c r="AD72" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>4.2699999999999996</v>
       </c>
       <c r="AE72" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>6.52</v>
       </c>
     </row>
     <row r="73" spans="7:31">
       <c r="G73" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" s="12">
-        <f t="shared" si="80"/>
-        <v>0.04</v>
-      </c>
-      <c r="I73" s="12">
-        <f t="shared" si="81"/>
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="J73" s="12">
-        <f t="shared" si="81"/>
-        <v>0.25</v>
-      </c>
-      <c r="K73" s="12">
-        <f t="shared" si="81"/>
-        <v>0.53</v>
-      </c>
-      <c r="L73" s="12">
-        <f t="shared" si="81"/>
-        <v>0.95</v>
-      </c>
-      <c r="M73" s="12">
-        <f t="shared" si="81"/>
-        <v>1.44</v>
-      </c>
-      <c r="N73" s="12">
-        <f t="shared" si="81"/>
-        <v>2.42</v>
+        <v>145</v>
       </c>
       <c r="Y73" s="12" t="s">
         <v>206</v>
       </c>
       <c r="Z73" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>0.08</v>
       </c>
       <c r="AA73" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.43</v>
       </c>
       <c r="AB73" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="AC73" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>2.4900000000000002</v>
       </c>
       <c r="AD73" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>4.54</v>
       </c>
       <c r="AE73" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>6.93</v>
       </c>
     </row>
-    <row r="74" spans="7:31">
-      <c r="G74" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" s="12">
-        <f t="shared" si="80"/>
-        <v>0.05</v>
-      </c>
-      <c r="I74" s="12">
-        <f t="shared" si="81"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J74" s="12">
-        <f t="shared" si="81"/>
-        <v>0.31000000000000005</v>
-      </c>
-      <c r="K74" s="12">
-        <f t="shared" si="81"/>
-        <v>0.65000000000000013</v>
-      </c>
-      <c r="L74" s="12">
-        <f t="shared" si="81"/>
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="M74" s="12">
-        <f t="shared" si="81"/>
-        <v>1.7400000000000002</v>
-      </c>
-      <c r="N74" s="12">
-        <f t="shared" si="81"/>
-        <v>2.91</v>
+    <row r="74" spans="7:31" ht="17.25" thickBot="1">
+      <c r="G74" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" s="27">
+        <v>0</v>
+      </c>
+      <c r="I74" s="27">
+        <v>1</v>
+      </c>
+      <c r="J74" s="27">
+        <v>2</v>
+      </c>
+      <c r="K74" s="27">
+        <v>3</v>
+      </c>
+      <c r="L74" s="27">
+        <v>4</v>
+      </c>
+      <c r="M74" s="27">
+        <v>5</v>
+      </c>
+      <c r="N74" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="Y74" s="12" t="s">
         <v>207</v>
       </c>
       <c r="Z74" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>0.09</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.45999999999999996</v>
       </c>
       <c r="AB74" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1.19</v>
       </c>
       <c r="AC74" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>2.6399999999999997</v>
       </c>
       <c r="AD74" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>4.8099999999999996</v>
       </c>
       <c r="AE74" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>7.34</v>
       </c>
     </row>
-    <row r="75" spans="7:31">
+    <row r="75" spans="7:31" ht="17.25" thickTop="1">
       <c r="G75" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H75" s="12">
-        <f t="shared" si="80"/>
-        <v>0.05</v>
+        <f t="shared" ref="H75:H88" si="91">H53</f>
+        <v>0.01</v>
       </c>
       <c r="I75" s="12">
-        <f t="shared" si="81"/>
-        <v>0.15000000000000002</v>
+        <f t="shared" ref="I75:N84" si="92">I53+H75</f>
+        <v>0.03</v>
       </c>
       <c r="J75" s="12">
-        <f t="shared" si="81"/>
-        <v>0.35000000000000003</v>
+        <f t="shared" si="92"/>
+        <v>0.06</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="81"/>
-        <v>0.75</v>
+        <f t="shared" si="92"/>
+        <v>0.12</v>
       </c>
       <c r="L75" s="12">
-        <f t="shared" si="81"/>
-        <v>1.3399999999999999</v>
+        <f t="shared" si="92"/>
+        <v>0.21</v>
       </c>
       <c r="M75" s="12">
-        <f t="shared" si="81"/>
-        <v>2.0299999999999998</v>
+        <f t="shared" si="92"/>
+        <v>0.31</v>
       </c>
       <c r="N75" s="12">
-        <f t="shared" si="81"/>
-        <v>3.4099999999999997</v>
+        <f t="shared" si="92"/>
+        <v>0.51</v>
       </c>
       <c r="Y75" s="12" t="s">
         <v>208</v>
       </c>
       <c r="Z75" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>0.1</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.49</v>
       </c>
       <c r="AB75" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1.26</v>
       </c>
       <c r="AC75" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>2.79</v>
       </c>
       <c r="AD75" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>5.09</v>
       </c>
       <c r="AE75" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>7.77</v>
       </c>
     </row>
     <row r="76" spans="7:31">
       <c r="G76" s="12" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="H76" s="12">
-        <f t="shared" si="80"/>
-        <v>0.06</v>
+        <f t="shared" si="91"/>
+        <v>0.01</v>
       </c>
       <c r="I76" s="12">
-        <f t="shared" si="81"/>
-        <v>0.21</v>
+        <f t="shared" si="92"/>
+        <v>0.03</v>
       </c>
       <c r="J76" s="12">
-        <f t="shared" si="81"/>
-        <v>0.51</v>
+        <f t="shared" si="92"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="81"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="92"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L76" s="12">
-        <f t="shared" si="81"/>
-        <v>1.98</v>
+        <f t="shared" si="92"/>
+        <v>0.27</v>
       </c>
       <c r="M76" s="12">
-        <f t="shared" si="81"/>
-        <v>3.01</v>
+        <f t="shared" si="92"/>
+        <v>0.41000000000000003</v>
       </c>
       <c r="N76" s="12">
-        <f t="shared" si="81"/>
-        <v>5.0599999999999996</v>
+        <f t="shared" si="92"/>
+        <v>0.68</v>
       </c>
       <c r="Y76" s="12" t="s">
         <v>209</v>
       </c>
       <c r="Z76" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>0.11</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.52</v>
       </c>
       <c r="AB76" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1.33</v>
       </c>
       <c r="AC76" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>2.95</v>
       </c>
       <c r="AD76" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>5.37</v>
       </c>
       <c r="AE76" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="77" spans="7:31">
       <c r="G77" s="12" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="H77" s="12">
-        <f t="shared" si="80"/>
-        <v>0.06</v>
+        <f t="shared" si="91"/>
+        <v>0.02</v>
       </c>
       <c r="I77" s="12">
-        <f t="shared" si="81"/>
-        <v>0.23</v>
+        <f t="shared" si="92"/>
+        <v>0.05</v>
       </c>
       <c r="J77" s="12">
-        <f t="shared" si="81"/>
-        <v>0.56000000000000005</v>
+        <f t="shared" si="92"/>
+        <v>0.1</v>
       </c>
       <c r="K77" s="12">
-        <f t="shared" si="81"/>
-        <v>1.21</v>
+        <f t="shared" si="92"/>
+        <v>0.2</v>
       </c>
       <c r="L77" s="12">
-        <f t="shared" si="81"/>
-        <v>2.1799999999999997</v>
+        <f t="shared" si="92"/>
+        <v>0.35</v>
       </c>
       <c r="M77" s="12">
-        <f t="shared" si="81"/>
-        <v>3.3099999999999996</v>
+        <f t="shared" si="92"/>
+        <v>0.53</v>
       </c>
       <c r="N77" s="12">
-        <f t="shared" si="81"/>
-        <v>5.56</v>
+        <f t="shared" si="92"/>
+        <v>0.88</v>
       </c>
       <c r="Y77" s="12" t="s">
         <v>210</v>
       </c>
       <c r="Z77" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>0.12</v>
       </c>
       <c r="AA77" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="AB77" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1.4100000000000001</v>
       </c>
       <c r="AC77" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>3.12</v>
       </c>
       <c r="AD77" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>5.68</v>
       </c>
       <c r="AE77" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>8.66</v>
       </c>
     </row>
     <row r="78" spans="7:31">
       <c r="G78" s="12" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="H78" s="12">
-        <f t="shared" si="80"/>
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" si="91"/>
+        <v>0.02</v>
       </c>
       <c r="I78" s="12">
-        <f t="shared" si="81"/>
-        <v>0.25</v>
+        <f t="shared" si="92"/>
+        <v>0.06</v>
       </c>
       <c r="J78" s="12">
-        <f t="shared" si="81"/>
-        <v>0.61</v>
+        <f t="shared" si="92"/>
+        <v>0.13</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" si="81"/>
-        <v>1.3199999999999998</v>
+        <f t="shared" si="92"/>
+        <v>0.26</v>
       </c>
       <c r="L78" s="12">
-        <f t="shared" si="81"/>
-        <v>2.38</v>
+        <f t="shared" si="92"/>
+        <v>0.45</v>
       </c>
       <c r="M78" s="12">
-        <f t="shared" si="81"/>
-        <v>3.61</v>
+        <f t="shared" si="92"/>
+        <v>0.67</v>
       </c>
       <c r="N78" s="12">
-        <f t="shared" si="81"/>
-        <v>6.07</v>
+        <f t="shared" si="92"/>
+        <v>1.1100000000000001</v>
       </c>
       <c r="Y78" s="12" t="s">
         <v>211</v>
       </c>
       <c r="Z78" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>0.13</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.58000000000000007</v>
       </c>
       <c r="AB78" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1.48</v>
       </c>
       <c r="AC78" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>3.2800000000000002</v>
       </c>
       <c r="AD78" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>5.9700000000000006</v>
       </c>
       <c r="AE78" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>9.1100000000000012</v>
       </c>
     </row>
     <row r="79" spans="7:31">
       <c r="G79" s="12" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="H79" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="91"/>
+        <v>0.03</v>
+      </c>
+      <c r="I79" s="12">
+        <f t="shared" si="92"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I79" s="12">
-        <f t="shared" si="81"/>
-        <v>0.27</v>
-      </c>
       <c r="J79" s="12">
-        <f t="shared" si="81"/>
-        <v>0.67</v>
+        <f t="shared" si="92"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="81"/>
-        <v>1.4700000000000002</v>
+        <f t="shared" si="92"/>
+        <v>0.31000000000000005</v>
       </c>
       <c r="L79" s="12">
-        <f t="shared" si="81"/>
-        <v>2.67</v>
+        <f t="shared" si="92"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M79" s="12">
-        <f t="shared" si="81"/>
-        <v>4.07</v>
+        <f t="shared" si="92"/>
+        <v>0.83000000000000007</v>
       </c>
       <c r="N79" s="12">
-        <f t="shared" si="81"/>
-        <v>6.86</v>
+        <f t="shared" si="92"/>
+        <v>1.3800000000000001</v>
       </c>
       <c r="Y79" s="12" t="s">
         <v>212</v>
       </c>
       <c r="Z79" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.62</v>
       </c>
       <c r="AB79" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1.5699999999999998</v>
       </c>
       <c r="AC79" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>3.46</v>
       </c>
       <c r="AD79" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>6.29</v>
       </c>
       <c r="AE79" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>9.59</v>
       </c>
     </row>
     <row r="80" spans="7:31">
       <c r="G80" s="12" t="s">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="H80" s="12">
+        <f t="shared" si="91"/>
+        <v>0.03</v>
+      </c>
+      <c r="I80" s="12">
+        <f t="shared" si="92"/>
         <v>0.08</v>
       </c>
-      <c r="I80" s="12">
-        <f t="shared" si="81"/>
-        <v>0.31</v>
-      </c>
       <c r="J80" s="12">
-        <f t="shared" si="81"/>
-        <v>0.76</v>
+        <f t="shared" si="92"/>
+        <v>0.18</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="81"/>
-        <v>1.6600000000000001</v>
+        <f t="shared" si="92"/>
+        <v>0.38</v>
       </c>
       <c r="L80" s="12">
-        <f t="shared" si="81"/>
-        <v>3.0100000000000002</v>
+        <f t="shared" si="92"/>
+        <v>0.66999999999999993</v>
       </c>
       <c r="M80" s="12">
-        <f t="shared" si="81"/>
-        <v>4.59</v>
+        <f t="shared" si="92"/>
+        <v>1.01</v>
       </c>
       <c r="N80" s="12">
-        <f t="shared" si="81"/>
-        <v>7.74</v>
+        <f t="shared" si="92"/>
+        <v>1.69</v>
       </c>
       <c r="Y80" s="12" t="s">
         <v>213</v>
       </c>
       <c r="Z80" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>0.15</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>0.65</v>
       </c>
       <c r="AB80" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>1.6400000000000001</v>
       </c>
       <c r="AC80" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>3.62</v>
       </c>
       <c r="AD80" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>6.59</v>
       </c>
       <c r="AE80" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="81" spans="32:32">
+    <row r="81" spans="7:32">
+      <c r="G81" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="12">
+        <f t="shared" si="91"/>
+        <v>0.04</v>
+      </c>
+      <c r="I81" s="12">
+        <f t="shared" si="92"/>
+        <v>0.1</v>
+      </c>
+      <c r="J81" s="12">
+        <f t="shared" si="92"/>
+        <v>0.22</v>
+      </c>
+      <c r="K81" s="12">
+        <f t="shared" si="92"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="L81" s="12">
+        <f t="shared" si="92"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="M81" s="12">
+        <f t="shared" si="92"/>
+        <v>1.22</v>
+      </c>
+      <c r="N81" s="12">
+        <f t="shared" si="92"/>
+        <v>2.04</v>
+      </c>
       <c r="AF81" s="12"/>
+    </row>
+    <row r="82" spans="7:32">
+      <c r="G82" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" s="12">
+        <f t="shared" si="91"/>
+        <v>0.04</v>
+      </c>
+      <c r="I82" s="12">
+        <f t="shared" si="92"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="J82" s="12">
+        <f t="shared" si="92"/>
+        <v>0.25</v>
+      </c>
+      <c r="K82" s="12">
+        <f t="shared" si="92"/>
+        <v>0.53</v>
+      </c>
+      <c r="L82" s="12">
+        <f t="shared" si="92"/>
+        <v>0.95</v>
+      </c>
+      <c r="M82" s="12">
+        <f t="shared" si="92"/>
+        <v>1.44</v>
+      </c>
+      <c r="N82" s="12">
+        <f t="shared" si="92"/>
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="83" spans="7:32">
+      <c r="G83" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" s="12">
+        <f t="shared" si="91"/>
+        <v>0.05</v>
+      </c>
+      <c r="I83" s="12">
+        <f t="shared" si="92"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J83" s="12">
+        <f t="shared" si="92"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="K83" s="12">
+        <f t="shared" si="92"/>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="L83" s="12">
+        <f t="shared" si="92"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="M83" s="12">
+        <f t="shared" si="92"/>
+        <v>1.7400000000000002</v>
+      </c>
+      <c r="N83" s="12">
+        <f t="shared" si="92"/>
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="84" spans="7:32">
+      <c r="G84" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" s="12">
+        <f t="shared" si="91"/>
+        <v>0.05</v>
+      </c>
+      <c r="I84" s="12">
+        <f t="shared" si="92"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J84" s="12">
+        <f t="shared" si="92"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="K84" s="12">
+        <f t="shared" si="92"/>
+        <v>0.75</v>
+      </c>
+      <c r="L84" s="12">
+        <f t="shared" si="92"/>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="M84" s="12">
+        <f t="shared" si="92"/>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N84" s="12">
+        <f t="shared" si="92"/>
+        <v>3.4099999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="7:32">
+      <c r="G85" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H85" s="12">
+        <f t="shared" si="91"/>
+        <v>0.06</v>
+      </c>
+      <c r="I85" s="12">
+        <f t="shared" ref="I85:N90" si="93">I63+H85</f>
+        <v>0.21</v>
+      </c>
+      <c r="J85" s="12">
+        <f t="shared" si="93"/>
+        <v>0.51</v>
+      </c>
+      <c r="K85" s="12">
+        <f t="shared" si="93"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L85" s="12">
+        <f t="shared" si="93"/>
+        <v>1.98</v>
+      </c>
+      <c r="M85" s="12">
+        <f t="shared" si="93"/>
+        <v>3.01</v>
+      </c>
+      <c r="N85" s="12">
+        <f t="shared" si="93"/>
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="7:32">
+      <c r="G86" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H86" s="12">
+        <f t="shared" si="91"/>
+        <v>0.06</v>
+      </c>
+      <c r="I86" s="12">
+        <f t="shared" si="93"/>
+        <v>0.23</v>
+      </c>
+      <c r="J86" s="12">
+        <f t="shared" si="93"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K86" s="12">
+        <f t="shared" si="93"/>
+        <v>1.21</v>
+      </c>
+      <c r="L86" s="12">
+        <f t="shared" si="93"/>
+        <v>2.1799999999999997</v>
+      </c>
+      <c r="M86" s="12">
+        <f t="shared" si="93"/>
+        <v>3.3099999999999996</v>
+      </c>
+      <c r="N86" s="12">
+        <f t="shared" si="93"/>
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="87" spans="7:32">
+      <c r="G87" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H87" s="12">
+        <f t="shared" si="91"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I87" s="12">
+        <f t="shared" si="93"/>
+        <v>0.25</v>
+      </c>
+      <c r="J87" s="12">
+        <f t="shared" si="93"/>
+        <v>0.61</v>
+      </c>
+      <c r="K87" s="12">
+        <f t="shared" si="93"/>
+        <v>1.3199999999999998</v>
+      </c>
+      <c r="L87" s="12">
+        <f t="shared" si="93"/>
+        <v>2.38</v>
+      </c>
+      <c r="M87" s="12">
+        <f t="shared" si="93"/>
+        <v>3.61</v>
+      </c>
+      <c r="N87" s="12">
+        <f t="shared" si="93"/>
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="88" spans="7:32">
+      <c r="G88" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H88" s="12">
+        <f t="shared" si="91"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I88" s="12">
+        <f t="shared" si="93"/>
+        <v>0.27</v>
+      </c>
+      <c r="J88" s="12">
+        <f t="shared" si="93"/>
+        <v>0.67</v>
+      </c>
+      <c r="K88" s="12">
+        <f t="shared" si="93"/>
+        <v>1.4700000000000002</v>
+      </c>
+      <c r="L88" s="12">
+        <f t="shared" si="93"/>
+        <v>2.67</v>
+      </c>
+      <c r="M88" s="12">
+        <f t="shared" si="93"/>
+        <v>4.07</v>
+      </c>
+      <c r="N88" s="12">
+        <f t="shared" si="93"/>
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="89" spans="7:32">
+      <c r="G89" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H89" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I89" s="12">
+        <f t="shared" si="93"/>
+        <v>0.31</v>
+      </c>
+      <c r="J89" s="12">
+        <f t="shared" si="93"/>
+        <v>0.76</v>
+      </c>
+      <c r="K89" s="12">
+        <f t="shared" si="93"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="L89" s="12">
+        <f t="shared" si="93"/>
+        <v>3.0100000000000002</v>
+      </c>
+      <c r="M89" s="12">
+        <f t="shared" si="93"/>
+        <v>4.59</v>
+      </c>
+      <c r="N89" s="12">
+        <f t="shared" si="93"/>
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="90" spans="7:32">
+      <c r="G90" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="H90" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I90" s="12">
+        <f t="shared" si="93"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="J90" s="12">
+        <f t="shared" si="93"/>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="K90" s="12">
+        <f t="shared" si="93"/>
+        <v>1.9400000000000002</v>
+      </c>
+      <c r="L90" s="12">
+        <f t="shared" si="93"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="M90" s="12">
+        <f t="shared" si="93"/>
+        <v>5.36</v>
+      </c>
+      <c r="N90" s="12">
+        <f t="shared" si="93"/>
+        <v>9.0400000000000009</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7969,8 +8241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EF5D34-81E7-475D-8B1B-AFFF2EFE6FF9}">
   <dimension ref="A2:W50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9469,27 +9741,27 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f t="shared" ref="B22" si="67">C22&amp;","&amp;D22&amp;","&amp;E22&amp;","&amp;F22&amp;","&amp;G22</f>
+        <f t="shared" ref="B22:B23" si="67">C22&amp;","&amp;D22&amp;","&amp;E22&amp;","&amp;F22&amp;","&amp;G22</f>
         <v>10섬,20섬,50섬,200섬,1000섬</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ref="C22" si="68">$C$3&amp;H22</f>
+        <f t="shared" ref="C22:C23" si="68">$C$3&amp;H22</f>
         <v>10섬</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" ref="D22" si="69">$D$3&amp;H22</f>
+        <f t="shared" ref="D22:D23" si="69">$D$3&amp;H22</f>
         <v>20섬</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" ref="E22" si="70">$E$3&amp;H22</f>
+        <f t="shared" ref="E22:E23" si="70">$E$3&amp;H22</f>
         <v>50섬</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" ref="F22" si="71">$F$3&amp;H22</f>
+        <f t="shared" ref="F22:F23" si="71">$F$3&amp;H22</f>
         <v>200섬</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22" si="72">$G$3&amp;H22</f>
+        <f t="shared" ref="G22:G23" si="72">$G$3&amp;H22</f>
         <v>1000섬</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -9499,31 +9771,31 @@
         <v>19</v>
       </c>
       <c r="K22" s="3" t="str">
-        <f t="shared" ref="K22" si="73">L22&amp;","&amp;M22&amp;","&amp;N22&amp;","&amp;O22&amp;","&amp;P22</f>
+        <f t="shared" ref="K22:K23" si="73">L22&amp;","&amp;M22&amp;","&amp;N22&amp;","&amp;O22&amp;","&amp;P22</f>
         <v>1E+117,2E+117,5E+117,2E+118,1E+119</v>
       </c>
       <c r="L22">
-        <f t="shared" ref="L22" si="74">$C$3*Q22</f>
+        <f t="shared" ref="L22:L23" si="74">$C$3*Q22</f>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="M22">
-        <f t="shared" ref="M22" si="75">$D$3*Q22</f>
+        <f t="shared" ref="M22:M23" si="75">$D$3*Q22</f>
         <v>2.0000000000000001E+117</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22" si="76">$E$3*Q22</f>
+        <f t="shared" ref="N22:N23" si="76">$E$3*Q22</f>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="O22">
-        <f t="shared" ref="O22" si="77">$F$3*Q22</f>
+        <f t="shared" ref="O22:O23" si="77">$F$3*Q22</f>
         <v>1.9999999999999999E+118</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22" si="78">$G$3*Q22</f>
+        <f t="shared" ref="P22:P23" si="78">$G$3*Q22</f>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" ref="Q22" si="79">VLOOKUP(H22,T:W,4,FALSE)</f>
+        <f t="shared" ref="Q22:Q23" si="79">VLOOKUP(H22,T:W,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="T22" t="s">
@@ -9542,6 +9814,67 @@
       </c>
     </row>
     <row r="23" spans="1:23">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="67"/>
+        <v>10찰,20찰,50찰,200찰,1000찰</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="68"/>
+        <v>10찰</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="69"/>
+        <v>20찰</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="70"/>
+        <v>50찰</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="71"/>
+        <v>200찰</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="72"/>
+        <v>1000찰</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>1E+121,2E+121,5E+121,2E+122,1E+123</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="74"/>
+        <v>9.9999999999999992E+120</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="75"/>
+        <v>1.9999999999999998E+121</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="76"/>
+        <v>5.0000000000000001E+121</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="77"/>
+        <v>2E+122</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="78"/>
+        <v>9.9999999999999998E+122</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="79"/>
+        <v>1E+120</v>
+      </c>
       <c r="T23" t="s">
         <v>130</v>
       </c>
@@ -9558,6 +9891,67 @@
       </c>
     </row>
     <row r="24" spans="1:23">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" ref="B24" si="80">C24&amp;","&amp;D24&amp;","&amp;E24&amp;","&amp;F24&amp;","&amp;G24</f>
+        <v>10교,20교,50교,200교,1000교</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ref="C24" si="81">$C$3&amp;H24</f>
+        <v>10교</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" ref="D24" si="82">$D$3&amp;H24</f>
+        <v>20교</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" ref="E24" si="83">$E$3&amp;H24</f>
+        <v>50교</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" ref="F24" si="84">$F$3&amp;H24</f>
+        <v>200교</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" ref="G24" si="85">$G$3&amp;H24</f>
+        <v>1000교</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J24">
+        <v>21</v>
+      </c>
+      <c r="K24" s="3" t="str">
+        <f t="shared" ref="K24" si="86">L24&amp;","&amp;M24&amp;","&amp;N24&amp;","&amp;O24&amp;","&amp;P24</f>
+        <v>1E+125,2E+125,5E+125,2E+126,1E+127</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24" si="87">$C$3*Q24</f>
+        <v>9.9999999999999992E+124</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="M24" si="88">$D$3*Q24</f>
+        <v>1.9999999999999998E+125</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ref="N24" si="89">$E$3*Q24</f>
+        <v>4.9999999999999996E+125</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="O24" si="90">$F$3*Q24</f>
+        <v>1.9999999999999998E+126</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24" si="91">$G$3*Q24</f>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" ref="Q24" si="92">VLOOKUP(H24,T:W,4,FALSE)</f>
+        <v>1E+124</v>
+      </c>
       <c r="T24" t="s">
         <v>131</v>
       </c>
@@ -9629,11 +10023,11 @@
         <v>104</v>
       </c>
       <c r="V28">
-        <f t="shared" ref="V28:V29" si="80">POWER(10,U28)</f>
+        <f t="shared" ref="V28:V29" si="93">POWER(10,U28)</f>
         <v>1E+104</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" ref="W28:W29" si="81">RIGHT(V28,U28)</f>
+        <f t="shared" ref="W28:W29" si="94">RIGHT(V28,U28)</f>
         <v>1E+104</v>
       </c>
     </row>
@@ -9645,11 +10039,11 @@
         <v>108</v>
       </c>
       <c r="V29">
-        <f t="shared" si="80"/>
+        <f t="shared" si="93"/>
         <v>1E+108</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="94"/>
         <v>1E+108</v>
       </c>
     </row>
@@ -9661,11 +10055,11 @@
         <v>112</v>
       </c>
       <c r="V30">
-        <f t="shared" ref="V30:V31" si="82">POWER(10,U30)</f>
+        <f t="shared" ref="V30:V31" si="95">POWER(10,U30)</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" ref="W30:W31" si="83">RIGHT(V30,U30)</f>
+        <f t="shared" ref="W30:W31" si="96">RIGHT(V30,U30)</f>
         <v>1E+112</v>
       </c>
     </row>
@@ -9677,63 +10071,89 @@
         <v>116</v>
       </c>
       <c r="V31">
-        <f t="shared" si="82"/>
+        <f t="shared" si="95"/>
         <v>1E+116</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="96"/>
         <v>1E+116</v>
       </c>
     </row>
     <row r="32" spans="1:23">
-      <c r="V32" s="39"/>
-    </row>
-    <row r="33" spans="22:22">
-      <c r="V33" s="39"/>
-    </row>
-    <row r="34" spans="22:22">
+      <c r="T32" t="s">
+        <v>253</v>
+      </c>
+      <c r="U32">
+        <v>120</v>
+      </c>
+      <c r="V32">
+        <f t="shared" ref="V32:V33" si="97">POWER(10,U32)</f>
+        <v>9.9999999999999998E+119</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" ref="W32:W33" si="98">RIGHT(V32,U32)</f>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="33" spans="20:23">
+      <c r="T33" t="s">
+        <v>254</v>
+      </c>
+      <c r="U33">
+        <v>124</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="97"/>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="98"/>
+        <v>1E+124</v>
+      </c>
+    </row>
+    <row r="34" spans="20:23">
       <c r="V34" s="39"/>
     </row>
-    <row r="35" spans="22:22">
+    <row r="35" spans="20:23">
       <c r="V35" s="39"/>
     </row>
-    <row r="36" spans="22:22">
+    <row r="36" spans="20:23">
       <c r="V36" s="39"/>
     </row>
-    <row r="37" spans="22:22">
+    <row r="37" spans="20:23">
       <c r="V37" s="39"/>
     </row>
-    <row r="38" spans="22:22">
+    <row r="38" spans="20:23">
       <c r="V38" s="39"/>
     </row>
-    <row r="39" spans="22:22">
+    <row r="39" spans="20:23">
       <c r="V39" s="39"/>
     </row>
-    <row r="40" spans="22:22">
+    <row r="40" spans="20:23">
       <c r="V40" s="39"/>
     </row>
-    <row r="41" spans="22:22">
+    <row r="41" spans="20:23">
       <c r="V41" s="39"/>
     </row>
-    <row r="42" spans="22:22">
+    <row r="42" spans="20:23">
       <c r="V42" s="39"/>
     </row>
-    <row r="43" spans="22:22">
+    <row r="43" spans="20:23">
       <c r="V43" s="39"/>
     </row>
-    <row r="44" spans="22:22">
+    <row r="44" spans="20:23">
       <c r="V44" s="39"/>
     </row>
-    <row r="45" spans="22:22">
+    <row r="45" spans="20:23">
       <c r="V45" s="39"/>
     </row>
-    <row r="46" spans="22:22">
+    <row r="46" spans="20:23">
       <c r="V46" s="39"/>
     </row>
-    <row r="47" spans="22:22">
+    <row r="47" spans="20:23">
       <c r="V47" s="39"/>
     </row>
-    <row r="48" spans="22:22">
+    <row r="48" spans="20:23">
       <c r="V48" s="39"/>
     </row>
     <row r="49" spans="22:22">
